--- a/5- Testing/Test Cases.xlsx
+++ b/5- Testing/Test Cases.xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beshoy Sameh\Documents\GitHub\Car-Purchasing-App\5- Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\Car-Purchasing-App\5- Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2B547F-7C8D-4409-ABD7-D555A4FFA00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1480FA-88A0-4453-AB86-B2AD6C047DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="2" r:id="rId1"/>
     <sheet name="New Customer" sheetId="15" r:id="rId2"/>
     <sheet name="Add Car" sheetId="16" r:id="rId3"/>
     <sheet name="Delete car" sheetId="17" r:id="rId4"/>
-    <sheet name="search" sheetId="18" r:id="rId5"/>
-    <sheet name="View Car" sheetId="19" r:id="rId6"/>
+    <sheet name="View Car" sheetId="19" r:id="rId5"/>
+    <sheet name="search" sheetId="18" r:id="rId6"/>
     <sheet name="login" sheetId="20" r:id="rId7"/>
     <sheet name="Logout" sheetId="21" r:id="rId8"/>
     <sheet name="Regs" sheetId="22" r:id="rId9"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="268">
   <si>
     <t>Module</t>
   </si>
@@ -1928,21 +1928,12 @@
     </r>
   </si>
   <si>
-    <t>sear</t>
-  </si>
-  <si>
-    <t>view car</t>
-  </si>
-  <si>
     <t>lo</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>Add Car Functionality for Admin</t>
-  </si>
-  <si>
     <t>TC-AddCar-00</t>
   </si>
   <si>
@@ -1950,14 +1941,6 @@
   </si>
   <si>
     <t>High</t>
-  </si>
-  <si>
-    <t>Verfiy that Admin can add car
-to the system.</t>
-  </si>
-  <si>
-    <t>The car should be displayed 
-in the customer's and admin's home page in addition to that "car added successfullly" meassage is displayed after the car is added.</t>
   </si>
   <si>
     <t>Related  
@@ -1973,27 +1956,9 @@
     <t>General</t>
   </si>
   <si>
-    <t>1. Press "add button" in home page.
-2.  Upload a photo.
-3. Choose " toyota" from brand dropdown list .
-4. Choose  " Toyota " from car model dropdown list.
-5.Fill in "500,000" in the price field.
-6. leave description field blank.
-7. Click on the "Save" button
-8.Verify that the message "Car added successfully" is displayed
-9. Verify that the added car is displayed on the home page</t>
-  </si>
-  <si>
-    <t>An error message should appear 
-          “Please fill out this field.”</t>
-  </si>
-  <si>
     <t>T031, T032</t>
   </si>
   <si>
-    <t>TC-AddCar-02</t>
-  </si>
-  <si>
     <t>Price Field</t>
   </si>
   <si>
@@ -2001,23 +1966,6 @@
   </si>
   <si>
     <t>technical</t>
-  </si>
-  <si>
-    <t>Verfiy that an error message will be displayed for the Admin when the description field left blank.</t>
-  </si>
-  <si>
-    <t>Verfiy that an error message will be displayed for the Admin when the price field left blank.</t>
-  </si>
-  <si>
-    <t>1. Press "add button" in home page.
-2.  Upload a photo.
-3. Choose " toyota" from brand dropdown list .
-4. Choose  " Toyota " from car model dropdown list.
-5.leave the price field blank.
-6. Fill in " Hello " the description field.
-7. Click on the "Save" button
-8.Verify that the message "Car added successfully" is displayed
-9. Verify that the added car is displayed on the home page</t>
   </si>
   <si>
     <t>1- browser is available 
@@ -2043,44 +1991,206 @@
 doesn't accept special charchters.</t>
   </si>
   <si>
-    <t>1. Press "add button" in home page.
+    <t>Verify that a car can be added successfully by an admin.</t>
+  </si>
+  <si>
+    <t>1. The car should be added successfully.
+2. A success message should be displayed indicating that the car has been added "car added successfullly".
+3. The added car should be displayed in the car list on the home page for the admin and customer .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Press "add button" in home page.
 2.  Upload a photo.
 3. Choose " toyota" from brand dropdown list .
 4. Choose  " Toyota " from car model dropdown list.
 5.Fill in "%$## in the price field.
 6. Fill in " Hello " the description field.
 7. Click on the "Save" button
-8.Verify that the message "Car added successfully" is displayed
-9. Verify that the added car is displayed on the home page</t>
-  </si>
-  <si>
-    <t>The price field shoudln't accept 
-special characters.</t>
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The price field shoudln't accept 
+special characters.
+2. The car should not be added to the car list on the home page.
+</t>
+  </si>
+  <si>
+    <t>Verify that an error message will be displayed for the Admin when the price field is left blank.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Press "add button" in home page.
+2.  Upload a photo.
+3. Choose " toyota" from brand dropdown list .
+4. Choose  " Toyota " from car model dropdown list.
+5.Fill in "  " in the price field.
+6. Fill in " Hello " the description field.
+7. Click on the "Save" button
+</t>
+  </si>
+  <si>
+    <t>1. An error message "Please fill out this field" should be displayed.
+2. The car should not be added to the car list on the home page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Press "add button" in home page.
+2.  Upload a photo.
+3. Choose " toyota" from brand dropdown list .
+4. Choose  " Toyota " from car model dropdown list.
+5.Fill in "500,000" in the price field.
+6.Fill in "  " in description field
+7. Click on the "Save" button
+</t>
+  </si>
+  <si>
+    <t>Verify that an error message will be displayed for the Admin when the description field is left blank.</t>
+  </si>
+  <si>
+    <t>1. An error message "Please fill out this field" should be displayed.
+2. The car should not be added to the car list on the home page.</t>
+  </si>
+  <si>
+    <t>Alternative flow</t>
   </si>
   <si>
     <t>TC-AddCar-
-Price-04</t>
-  </si>
-  <si>
-    <t>1. Press "add button" in home page.
+Cancel-04</t>
+  </si>
+  <si>
+    <t>Verify that an admin can cancel adding a car.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Press "add button" in home page.
 2.  Upload a photo.
 3. Choose " toyota" from brand dropdown list .
 4. Choose  " Toyota " from car model dropdown list.
 5.Fill in "500,000" in the price field.
 6. Fill in " Hello " in the description field.
 7. Click on the "Save" button
-8.Verify that the message "Car added successfully" is displayed
-9. Verify that the added car is displayed on the home page</t>
-  </si>
-  <si>
-    <t>REQ-6.1</t>
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Press "add button" in home page.
+2.  Upload a photo.
+3. Choose " toyota" from brand dropdown list .
+4. Choose  " Toyota " from car model dropdown list.
+5.Fill in "500,000" in the price field.
+6. Fill in " Hello " in the description field.
+7. Click on the "Cancel" button
+</t>
+  </si>
+  <si>
+    <t>1. The home page should be
+ displayed.
+2. The car should not be added to the car list on the home page.</t>
+  </si>
+  <si>
+    <t>TC-DelCar-00</t>
+  </si>
+  <si>
+    <t>REQ-7</t>
+  </si>
+  <si>
+    <t>Verify that an admin can delete a car successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Choose one of the available cars on the home page.
+2. Click on the "Delete" button for that car.
+</t>
+  </si>
+  <si>
+    <t>1. The car should be deleted successfully.
+2. A success message should be displayed in new page indicating that the car has been deleted successfully "Car is deleted successfully in new page".
+3. The deleted car should not be displayed in the car list on the home page for admin and user.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer </t>
+  </si>
+  <si>
+    <t>TC-AddCar-
+User-04</t>
+  </si>
+  <si>
+    <t>1- browser is available 
+2- Login as user successfully</t>
+  </si>
+  <si>
+    <t>verify that the car has been added to the user successfully to his home page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- browser is available 
+</t>
+  </si>
+  <si>
+    <t>1. Open the login page.
+2. Fill in :salma@gmail.com" in email field.
+3. Fill in " *********" in the password field 
+4.Click on the "Login" button.
+5. Check that the car is added to the home page.</t>
+  </si>
+  <si>
+    <t>The car with its details, that the admin already added, should be displayed on the user's home page.</t>
+  </si>
+  <si>
+    <t>TC-DelCar-
+User-04</t>
+  </si>
+  <si>
+    <t>verify that the car has been deleted from the user's home page.</t>
+  </si>
+  <si>
+    <t>The car with its details, that the admin already added, should be deleted from the user's home page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the login page.
+2. Fill in :salma@gmail.com" in email field.
+3. Fill in " *********" in the password field 
+4.Click on the "Login" button.
+5. Check that the car is deleted from the home page.
+</t>
+  </si>
+  <si>
+    <t>REQ-4</t>
+  </si>
+  <si>
+    <t>TC-HomePage-00</t>
+  </si>
+  <si>
+    <t>Verify that the Home Page displays all unreserved cars in the database with their details and reserve button.</t>
+  </si>
+  <si>
+    <t>1.Check that all unreserved cars in the database are displayed on the home page.
+2. Verify that the following information is displayed for each car: photo, price, brand, model, description, and reserve button.</t>
+  </si>
+  <si>
+    <t>All unreserved cars in the database are displayed on the Home Page with their details and reserve button below each one.</t>
+  </si>
+  <si>
+    <t>REQ-5</t>
+  </si>
+  <si>
+    <t>Verify if the user can search for cars by  brand name.</t>
+  </si>
+  <si>
+    <t>1. Click on the search bar.
+2. Enter "toyota " in the search bar.
+3. Click on the search button.
+.</t>
+  </si>
+  <si>
+    <t>The system should display a list of cars that match the toyota brand.</t>
+  </si>
+  <si>
+    <t>TC-SearchBrand-00</t>
+  </si>
+  <si>
+    <t>Verify that user sees a pop-up message when there are no cars available for the entered brand name.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2166,12 +2276,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="2"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2198,8 +2302,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2340,48 +2464,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF6FA8DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF3D85C6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF0B5394"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF073763"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF351C75"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF20124D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.34998626667073579"/>
         <bgColor rgb="FF4C1130"/>
       </patternFill>
@@ -2405,7 +2487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2465,11 +2547,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2561,6 +2695,33 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2587,72 +2748,77 @@
     <xf numFmtId="0" fontId="11" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6478,7 +6644,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="40" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -6525,8 +6691,8 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -6570,8 +6736,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="22" t="s">
         <v>76</v>
       </c>
@@ -6613,8 +6779,8 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="22" t="s">
         <v>80</v>
       </c>
@@ -6656,8 +6822,8 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="22" t="s">
         <v>84</v>
       </c>
@@ -6699,8 +6865,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="44" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="22" t="s">
@@ -6744,8 +6910,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="22" t="s">
         <v>94</v>
       </c>
@@ -6787,8 +6953,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="22" t="s">
         <v>97</v>
       </c>
@@ -6830,8 +6996,8 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="36" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="45" t="s">
         <v>101</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -6875,8 +7041,8 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="22" t="s">
         <v>106</v>
       </c>
@@ -6918,8 +7084,8 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="22" t="s">
         <v>110</v>
       </c>
@@ -6961,8 +7127,8 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="22" t="s">
         <v>115</v>
       </c>
@@ -7004,8 +7170,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="37" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="46" t="s">
         <v>119</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -7049,8 +7215,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="22" t="s">
         <v>124</v>
       </c>
@@ -7092,8 +7258,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="22" t="s">
         <v>128</v>
       </c>
@@ -7135,8 +7301,8 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="22" t="s">
         <v>133</v>
       </c>
@@ -7178,8 +7344,8 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="38" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="47" t="s">
         <v>137</v>
       </c>
       <c r="C18" s="22" t="s">
@@ -7223,8 +7389,8 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="22" t="s">
         <v>142</v>
       </c>
@@ -7266,8 +7432,8 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="22" t="s">
         <v>146</v>
       </c>
@@ -7309,8 +7475,8 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="22" t="s">
         <v>151</v>
       </c>
@@ -7352,8 +7518,8 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="22" t="s">
         <v>156</v>
       </c>
@@ -7395,8 +7561,8 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="22" t="s">
         <v>161</v>
       </c>
@@ -7438,8 +7604,8 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
-      <c r="B24" s="39" t="s">
+      <c r="A24" s="41"/>
+      <c r="B24" s="48" t="s">
         <v>165</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -7483,8 +7649,8 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="22" t="s">
         <v>170</v>
       </c>
@@ -7526,8 +7692,8 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="22" t="s">
         <v>174</v>
       </c>
@@ -7569,8 +7735,8 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="22" t="s">
         <v>179</v>
       </c>
@@ -7612,8 +7778,8 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
-      <c r="B28" s="40" t="s">
+      <c r="A28" s="41"/>
+      <c r="B28" s="49" t="s">
         <v>183</v>
       </c>
       <c r="C28" s="22" t="s">
@@ -7657,8 +7823,8 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="22" t="s">
         <v>189</v>
       </c>
@@ -7700,8 +7866,8 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="22" t="s">
         <v>193</v>
       </c>
@@ -7743,8 +7909,8 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="22" t="s">
         <v>197</v>
       </c>
@@ -7802,10 +7968,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7E3B47-1521-4401-9600-50F8B310637B}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7813,1321 +7979,913 @@
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="5" width="30.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1"/>
+    <col min="8" max="8" width="40.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="34.28515625" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="E1" s="55" t="s">
+      <c r="D1" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="55" t="s">
+      <c r="N1" s="34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="249.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="D2" s="60" t="s">
-        <v>217</v>
-      </c>
-      <c r="E2" s="57" t="s">
+    <row r="2" spans="1:14" ht="207" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50"/>
+      <c r="B2" s="33" t="s">
         <v>214</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>225</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="L2" s="36"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="32"/>
+    </row>
+    <row r="3" spans="1:14" ht="175.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="51"/>
+      <c r="B3" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
+    </row>
+    <row r="4" spans="1:14" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="51"/>
+      <c r="B4" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="H4" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="H2" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="I2" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="J2" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="K2" s="57" t="s">
-        <v>215</v>
-      </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42"/>
-    </row>
-    <row r="3" spans="1:14" ht="262.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52"/>
-      <c r="B3" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>222</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>227</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>226</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H3" s="58" t="s">
-        <v>220</v>
-      </c>
-      <c r="I3" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-    </row>
-    <row r="4" spans="1:14" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="63" t="s">
-        <v>224</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>233</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>225</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="F4" s="59" t="s">
-        <v>226</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H4" s="58" t="s">
-        <v>229</v>
-      </c>
-      <c r="I4" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="62" t="s">
-        <v>221</v>
+      <c r="I4" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="K4" s="57" t="s">
+        <v>231</v>
       </c>
       <c r="L4" s="23"/>
       <c r="M4" s="25"/>
-      <c r="N4" s="42"/>
-    </row>
-    <row r="5" spans="1:14" ht="256.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="52"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="60" t="s">
-        <v>234</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>235</v>
-      </c>
-      <c r="F5" s="59" t="s">
-        <v>226</v>
-      </c>
-      <c r="G5" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H5" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="I5" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="57" t="s">
-        <v>237</v>
+      <c r="N4" s="32"/>
+    </row>
+    <row r="5" spans="1:14" ht="162" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="51"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>228</v>
       </c>
       <c r="L5" s="23"/>
       <c r="M5" s="25"/>
-      <c r="N5" s="42"/>
-    </row>
-    <row r="6" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="60" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="56" t="s">
+      <c r="N5" s="32"/>
+    </row>
+    <row r="6" spans="1:14" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="51"/>
+      <c r="B6" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="60">
+        <v>6.1</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="H6" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="I6" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="64" t="s">
         <v>240</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="42"/>
-    </row>
-    <row r="7" spans="1:14" ht="282.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="42"/>
-    </row>
-    <row r="8" spans="1:14" ht="249" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
-      <c r="B8" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="F8" s="23" t="s">
+      <c r="L6" s="62"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="66"/>
+    </row>
+    <row r="7" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="51"/>
+      <c r="B7" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="G7" s="70" t="s">
+        <v>250</v>
+      </c>
+      <c r="H7" s="72" t="s">
+        <v>251</v>
+      </c>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="72" t="s">
+        <v>252</v>
+      </c>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="51"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="51"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="51"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="51"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="51"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="51"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="51"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="51"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="51"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="51"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="51"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="51"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="51"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="51"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="51"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="51"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="51"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="51"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="51"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="51"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="51"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="51"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="51"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A31"/>
+    <mergeCell ref="B4:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB43EE6-FA55-4877-96E9-AE377829827B}">
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0.140625" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" customWidth="1"/>
+    <col min="12" max="12" width="25" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50"/>
+      <c r="B2" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" s="42"/>
-    </row>
-    <row r="9" spans="1:14" ht="228" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
-      <c r="B9" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="M9" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="42"/>
-    </row>
-    <row r="10" spans="1:14" ht="228" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="M10" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="N10" s="42"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="M11" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" s="42"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
-      <c r="B12" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="N12" s="42"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="N13" s="42"/>
-    </row>
-    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="M14" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14" s="42"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L15" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="M15" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="N15" s="42"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="N16" s="42"/>
-    </row>
-    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K17" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="M17" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="N17" s="42"/>
-    </row>
-    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L18" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="M18" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="N18" s="42"/>
-    </row>
-    <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L19" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="M19" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="N19" s="42"/>
-    </row>
-    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
-      <c r="B20" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L20" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="N20" s="42"/>
-    </row>
-    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L21" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="M21" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="N21" s="27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K22" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L22" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="M22" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="N22" s="27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="52"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J23" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L23" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="M23" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="N23" s="28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L24" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="M24" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="N24" s="27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="52"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L25" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="M25" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="N25" s="27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="52"/>
-      <c r="B26" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L26" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="M26" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="N26" s="27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="52"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J27" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K27" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L27" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="N27" s="27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="52"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K28" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L28" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="M28" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="N28" s="27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="52"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J29" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K29" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L29" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="M29" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="N29" s="28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="52"/>
-      <c r="B30" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>223</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>225</v>
-      </c>
-      <c r="E30" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="F30" s="59" t="s">
-        <v>226</v>
-      </c>
-      <c r="G30" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="H30" s="58" t="s">
-        <v>229</v>
-      </c>
-      <c r="I30" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="J30" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="L30" s="23"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="42"/>
-    </row>
-    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="G2" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="K2" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="L2" s="36"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="32"/>
+    </row>
+    <row r="3" spans="1:14" ht="220.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="51"/>
+      <c r="B3" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="55"/>
+      <c r="G3" s="70" t="s">
+        <v>250</v>
+      </c>
+      <c r="H3" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+    </row>
+    <row r="4" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="51"/>
+    </row>
+    <row r="5" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="51"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="51"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="51"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="51"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="51"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="51"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="51"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="51"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="51"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="51"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="51"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="51"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="51"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="51"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="51"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="51"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="51"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="51"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="51"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="51"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="51"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="51"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="51"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="51"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="51"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="51"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="52"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I31" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J31" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K31" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L31" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="M31" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="N31" s="28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="52"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I32" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J32" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K32" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L32" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="M32" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="N32" s="28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="53"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J33" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L33" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="M33" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="N33" s="27" t="s">
-        <v>48</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A2:A33"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B4:B7"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB43EE6-FA55-4877-96E9-AE377829827B}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8468A8A-F257-451D-AC30-9124B25FFCDD}">
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D229A3A4-4F9D-42AB-80C8-669754DC12C3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" customWidth="1"/>
+    <col min="13" max="13" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>206</v>
-      </c>
+    <row r="1" spans="1:14" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="174.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50"/>
+      <c r="B2" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="K2" s="75" t="s">
+        <v>261</v>
+      </c>
+      <c r="L2" s="36"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="32"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="51"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="51"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="51"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="51"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="51"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="51"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="51"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="51"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="51"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="51"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="51"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="51"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="51"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="51"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="51"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="51"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="51"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="51"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="51"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="51"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="51"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="51"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="51"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="51"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="51"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="51"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="51"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="51"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="52"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8468A8A-F257-451D-AC30-9124B25FFCDD}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D229A3A4-4F9D-42AB-80C8-669754DC12C3}">
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>207</v>
-      </c>
+    <row r="1" spans="1:13" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="32"/>
+    </row>
+    <row r="3" spans="1:13" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="K3" s="23"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="32"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9142,7 +8900,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -9160,7 +8918,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/5- Testing/Test Cases.xlsx
+++ b/5- Testing/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\Car-Purchasing-App\5- Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1480FA-88A0-4453-AB86-B2AD6C047DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AD4479-CBB9-4198-A17E-120EFAA153A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="303">
   <si>
     <t>Module</t>
   </si>
@@ -1928,12 +1928,6 @@
     </r>
   </si>
   <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>TC-AddCar-00</t>
   </si>
   <si>
@@ -2185,12 +2179,205 @@
   <si>
     <t>Verify that user sees a pop-up message when there are no cars available for the entered brand name.</t>
   </si>
+  <si>
+    <t>1_logout_user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that the logout is working from the customer portal 
+</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Register page is reachable.
+2. Edge Browser is available.
+3. Availability of test data for "UserID &amp; password".
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1. Enter '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00FF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1305892</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'
+in the user-id Field.
+2. Enter '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00FF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>12345ssss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>' in the password field.
+3. Press the 'LOGIN' Button.</t>
+    </r>
+  </si>
+  <si>
+    <t>1- user-id : 1305892
+2- password : 12345ssss</t>
+  </si>
+  <si>
+    <t>Fouda</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>the user-id field should accept 
+the user-id and password move to the next 
+page after pressing
+'LOGOUT' successfully</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>PreCondition</t>
+  </si>
+  <si>
+    <t>Priotity</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Lgn_user_1</t>
+  </si>
+  <si>
+    <t>Validate that the user_id 
+must be filled with valid 
+user_id</t>
+  </si>
+  <si>
+    <t>1. Website login page is reachable.
+2. Browser is available.
+3. The user has to have a valid user_id.
+4. The user has to have a valid password.</t>
+  </si>
+  <si>
+    <t>1. Enter "245668" in the userID field.
+2. Enter "1test&amp;salma" in the Password
+field.
+3. Press Login button.</t>
+  </si>
+  <si>
+    <t>The user should be able to reach
+his data after the login.</t>
+  </si>
+  <si>
+    <t>Lgn_user_2</t>
+  </si>
+  <si>
+    <t>Validate that the user_id 
+field can't be empty.</t>
+  </si>
+  <si>
+    <t>1. Leave the userID field empty.
+2. Enter "1test&amp;salma" in the Password
+field.
+3. Press Login button.</t>
+  </si>
+  <si>
+    <t>An error message should appear
+to that "This field is required".</t>
+  </si>
+  <si>
+    <t>Lgn_user_passwd_3</t>
+  </si>
+  <si>
+    <t>Validate that the password 
+field can't be empty.</t>
+  </si>
+  <si>
+    <t>1. Enter "245668" in the userID field.
+2. Leave the Password
+field empty.
+3. Press Login button.</t>
+  </si>
+  <si>
+    <t>Lgn_user_passwd_4</t>
+  </si>
+  <si>
+    <t>Validate that the password 
+is valid according to the
+user_id.</t>
+  </si>
+  <si>
+    <t>Lgn_Reset_5</t>
+  </si>
+  <si>
+    <t>Validate that after filling the fields and click on reset button
+All data are deleted</t>
+  </si>
+  <si>
+    <t>1. Enter "245668" in the userID field.
+2. Enter "1test&amp;salma" in the Password
+field.
+3. Press reset button.</t>
+  </si>
+  <si>
+    <t>All Fields in the login page 
+are empty again.</t>
+  </si>
+  <si>
+    <t>Lgn_MGR_6</t>
+  </si>
+  <si>
+    <t>Lgn_MGR_7</t>
+  </si>
+  <si>
+    <t>Validate that the mgr given user
+ID and password are 
+working and successfully 
+loged in.</t>
+  </si>
+  <si>
+    <t>1. Enter "mngr479920" in the userID field.
+2. Enter "yvAtyja" in the Password
+field.
+3. Press Login button.</t>
+  </si>
+  <si>
+    <t>The mgr should be able to 
+login successfully in the home page.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2322,8 +2509,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00FF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="28">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2486,8 +2699,26 @@
         <bgColor rgb="FFFF00FF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF073763"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2599,11 +2830,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF434343"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF434343"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF434343"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF434343"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF434343"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF434343"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2722,6 +3088,64 @@
     <xf numFmtId="0" fontId="16" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2759,65 +3183,40 @@
     <xf numFmtId="0" fontId="13" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6644,7 +7043,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="60" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -6691,8 +7090,8 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="63" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -6736,8 +7135,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="22" t="s">
         <v>76</v>
       </c>
@@ -6779,8 +7178,8 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="22" t="s">
         <v>80</v>
       </c>
@@ -6822,8 +7221,8 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="22" t="s">
         <v>84</v>
       </c>
@@ -6865,8 +7264,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
-      <c r="B7" s="44" t="s">
+      <c r="A7" s="61"/>
+      <c r="B7" s="64" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="22" t="s">
@@ -6910,8 +7309,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="22" t="s">
         <v>94</v>
       </c>
@@ -6953,8 +7352,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="22" t="s">
         <v>97</v>
       </c>
@@ -6996,8 +7395,8 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="61"/>
+      <c r="B10" s="65" t="s">
         <v>101</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -7041,8 +7440,8 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="22" t="s">
         <v>106</v>
       </c>
@@ -7084,8 +7483,8 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="22" t="s">
         <v>110</v>
       </c>
@@ -7127,8 +7526,8 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="22" t="s">
         <v>115</v>
       </c>
@@ -7170,8 +7569,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
-      <c r="B14" s="46" t="s">
+      <c r="A14" s="61"/>
+      <c r="B14" s="66" t="s">
         <v>119</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -7215,8 +7614,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="22" t="s">
         <v>124</v>
       </c>
@@ -7258,8 +7657,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="22" t="s">
         <v>128</v>
       </c>
@@ -7301,8 +7700,8 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="22" t="s">
         <v>133</v>
       </c>
@@ -7344,8 +7743,8 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
-      <c r="B18" s="47" t="s">
+      <c r="A18" s="61"/>
+      <c r="B18" s="67" t="s">
         <v>137</v>
       </c>
       <c r="C18" s="22" t="s">
@@ -7389,8 +7788,8 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="22" t="s">
         <v>142</v>
       </c>
@@ -7432,8 +7831,8 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="22" t="s">
         <v>146</v>
       </c>
@@ -7475,8 +7874,8 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="22" t="s">
         <v>151</v>
       </c>
@@ -7518,8 +7917,8 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="22" t="s">
         <v>156</v>
       </c>
@@ -7561,8 +7960,8 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
-      <c r="B23" s="42"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="22" t="s">
         <v>161</v>
       </c>
@@ -7604,8 +8003,8 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
-      <c r="B24" s="48" t="s">
+      <c r="A24" s="61"/>
+      <c r="B24" s="68" t="s">
         <v>165</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -7649,8 +8048,8 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="22" t="s">
         <v>170</v>
       </c>
@@ -7692,8 +8091,8 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="22" t="s">
         <v>174</v>
       </c>
@@ -7735,8 +8134,8 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
-      <c r="B27" s="42"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="22" t="s">
         <v>179</v>
       </c>
@@ -7778,8 +8177,8 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
-      <c r="B28" s="49" t="s">
+      <c r="A28" s="61"/>
+      <c r="B28" s="69" t="s">
         <v>183</v>
       </c>
       <c r="C28" s="22" t="s">
@@ -7823,8 +8222,8 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="22" t="s">
         <v>189</v>
       </c>
@@ -7866,8 +8265,8 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="22" t="s">
         <v>193</v>
       </c>
@@ -7909,8 +8308,8 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="62"/>
       <c r="C31" s="22" t="s">
         <v>197</v>
       </c>
@@ -8001,7 +8400,7 @@
         <v>49</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>38</v>
@@ -8035,284 +8434,284 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="207" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>47</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="K2" s="56" t="s">
-        <v>226</v>
+        <v>208</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>224</v>
       </c>
       <c r="L2" s="36"/>
       <c r="M2" s="31"/>
       <c r="N2" s="32"/>
     </row>
     <row r="3" spans="1:14" ht="175.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>215</v>
-      </c>
       <c r="E3" s="36" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H3" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="K3" s="42" t="s">
         <v>232</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="K3" s="57" t="s">
-        <v>234</v>
       </c>
       <c r="L3" s="30"/>
       <c r="M3" s="31"/>
       <c r="N3" s="32"/>
     </row>
     <row r="4" spans="1:14" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
-      <c r="B4" s="53" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="73" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="D4" s="35" t="s">
+      <c r="G4" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="H4" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="K4" s="42" t="s">
         <v>229</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="K4" s="57" t="s">
-        <v>231</v>
       </c>
       <c r="L4" s="23"/>
       <c r="M4" s="25"/>
       <c r="N4" s="32"/>
     </row>
     <row r="5" spans="1:14" ht="162" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="38" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L5" s="23"/>
       <c r="M5" s="25"/>
       <c r="N5" s="32"/>
     </row>
     <row r="6" spans="1:14" ht="204" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
-      <c r="B6" s="58" t="s">
+      <c r="A6" s="71"/>
+      <c r="B6" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="45">
+        <v>6.1</v>
+      </c>
+      <c r="E6" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="D6" s="60">
-        <v>6.1</v>
-      </c>
-      <c r="E6" s="61" t="s">
+      <c r="F6" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="H6" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="F6" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="H6" s="63" t="s">
-        <v>239</v>
-      </c>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="64" t="s">
-        <v>240</v>
-      </c>
-      <c r="L6" s="62"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="66"/>
+      <c r="K6" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="L6" s="47"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="51"/>
     </row>
     <row r="7" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="51"/>
-      <c r="B7" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="C7" s="68" t="s">
+      <c r="A7" s="71"/>
+      <c r="B7" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="D7" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="E7" s="69" t="s">
+      <c r="F7" s="40"/>
+      <c r="G7" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="H7" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="70" t="s">
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="H7" s="72" t="s">
-        <v>251</v>
-      </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="72" t="s">
-        <v>252</v>
-      </c>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
+      <c r="A8" s="71"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
+      <c r="A9" s="71"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
+      <c r="A10" s="71"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
+      <c r="A11" s="71"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
+      <c r="A12" s="71"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
+      <c r="A13" s="71"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
+      <c r="A14" s="71"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
+      <c r="A15" s="71"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
+      <c r="A16" s="71"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
+      <c r="A17" s="71"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
+      <c r="A18" s="71"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
+      <c r="A19" s="71"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
+      <c r="A20" s="71"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
+      <c r="A21" s="71"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
+      <c r="A22" s="71"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
+      <c r="A23" s="71"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
+      <c r="A24" s="71"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
+      <c r="A25" s="71"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
+      <c r="A26" s="71"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
+      <c r="A27" s="71"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
+      <c r="A28" s="71"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
+      <c r="A29" s="71"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
+      <c r="A30" s="71"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="52"/>
+      <c r="A31" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8359,7 +8758,7 @@
         <v>49</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>38</v>
@@ -8393,154 +8792,154 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C2" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" s="36" t="s">
         <v>241</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>243</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>47</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="K2" s="67" t="s">
-        <v>245</v>
+        <v>208</v>
+      </c>
+      <c r="K2" s="52" t="s">
+        <v>243</v>
       </c>
       <c r="L2" s="36"/>
       <c r="M2" s="31"/>
       <c r="N2" s="32"/>
     </row>
     <row r="3" spans="1:14" ht="220.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51"/>
-      <c r="B3" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="68" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3" s="40"/>
+      <c r="G3" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59" t="s">
         <v>253</v>
       </c>
-      <c r="D3" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="E3" s="69" t="s">
-        <v>254</v>
-      </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="70" t="s">
-        <v>250</v>
-      </c>
-      <c r="H3" s="72" t="s">
-        <v>256</v>
-      </c>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="74" t="s">
-        <v>255</v>
-      </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
     </row>
     <row r="4" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
+      <c r="A4" s="71"/>
     </row>
     <row r="5" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
+      <c r="A5" s="71"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
+      <c r="A6" s="71"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="51"/>
+      <c r="A7" s="71"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
+      <c r="A8" s="71"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
+      <c r="A9" s="71"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
+      <c r="A10" s="71"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
+      <c r="A11" s="71"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
+      <c r="A12" s="71"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
+      <c r="A13" s="71"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
+      <c r="A14" s="71"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
+      <c r="A15" s="71"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
+      <c r="A16" s="71"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
+      <c r="A17" s="71"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
+      <c r="A18" s="71"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
+      <c r="A19" s="71"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
+      <c r="A20" s="71"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
+      <c r="A21" s="71"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
+      <c r="A22" s="71"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
+      <c r="A23" s="71"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
+      <c r="A24" s="71"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
+      <c r="A25" s="71"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
+      <c r="A26" s="71"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
+      <c r="A27" s="71"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
+      <c r="A28" s="71"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
+      <c r="A29" s="71"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
+      <c r="A30" s="71"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="52"/>
+      <c r="A31" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8585,7 +8984,7 @@
         <v>49</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>38</v>
@@ -8619,127 +9018,127 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="174.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D2" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="E2" s="36" t="s">
         <v>257</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>259</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>47</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="K2" s="75" t="s">
-        <v>261</v>
+        <v>208</v>
+      </c>
+      <c r="K2" s="54" t="s">
+        <v>259</v>
       </c>
       <c r="L2" s="36"/>
       <c r="M2" s="31"/>
       <c r="N2" s="32"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="51"/>
+      <c r="A3" s="71"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
+      <c r="A4" s="71"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
+      <c r="A5" s="71"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
+      <c r="A6" s="71"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="51"/>
+      <c r="A7" s="71"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
+      <c r="A8" s="71"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
+      <c r="A9" s="71"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
+      <c r="A10" s="71"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
+      <c r="A11" s="71"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
+      <c r="A12" s="71"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
+      <c r="A13" s="71"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
+      <c r="A14" s="71"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
+      <c r="A15" s="71"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
+      <c r="A16" s="71"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
+      <c r="A17" s="71"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
+      <c r="A18" s="71"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
+      <c r="A19" s="71"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
+      <c r="A20" s="71"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
+      <c r="A21" s="71"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
+      <c r="A22" s="71"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
+      <c r="A23" s="71"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
+      <c r="A24" s="71"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
+      <c r="A25" s="71"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
+      <c r="A26" s="71"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
+      <c r="A27" s="71"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
+      <c r="A28" s="71"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
+      <c r="A29" s="71"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
+      <c r="A30" s="71"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="52"/>
+      <c r="A31" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8753,7 +9152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D229A3A4-4F9D-42AB-80C8-669754DC12C3}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
@@ -8773,7 +9172,7 @@
     <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>54</v>
       </c>
@@ -8781,7 +9180,7 @@
         <v>49</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>38</v>
@@ -8815,68 +9214,68 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
-        <v>216</v>
+      <c r="A2" s="73" t="s">
+        <v>214</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>47</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="J2" s="75" t="s">
-        <v>265</v>
+        <v>208</v>
+      </c>
+      <c r="J2" s="54" t="s">
+        <v>263</v>
       </c>
       <c r="K2" s="36"/>
       <c r="L2" s="25"/>
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="38" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C3" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="G3" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="D3" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>264</v>
-      </c>
       <c r="H3" s="37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K3" s="23"/>
       <c r="L3" s="25"/>
@@ -8892,16 +9291,267 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3E3723-9A66-41B9-B3EE-9ACDC170719F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>206</v>
-      </c>
+    <row r="1" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="81" t="s">
+        <v>277</v>
+      </c>
+      <c r="H1" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="I1" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+    </row>
+    <row r="2" spans="1:12" ht="204.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="82" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2" s="83" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2" s="83" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2" s="83" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2" s="84"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+    </row>
+    <row r="3" spans="1:12" ht="234" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="82" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>282</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>287</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="H3" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="I3" s="84"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+    </row>
+    <row r="4" spans="1:12" ht="239.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="82" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>282</v>
+      </c>
+      <c r="E4" s="83" t="s">
+        <v>291</v>
+      </c>
+      <c r="F4" s="83" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="H4" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="I4" s="84"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+    </row>
+    <row r="5" spans="1:12" ht="221.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="82" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" s="83" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" s="83" t="s">
+        <v>283</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>272</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" s="83" t="s">
+        <v>284</v>
+      </c>
+      <c r="I5" s="84"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+    </row>
+    <row r="6" spans="1:12" ht="233.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="82" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" s="85" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" s="83" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6" s="83" t="s">
+        <v>272</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="H6" s="85" t="s">
+        <v>297</v>
+      </c>
+      <c r="I6" s="84"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+    </row>
+    <row r="7" spans="1:12" ht="207.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="82" t="s">
+        <v>298</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="83" t="s">
+        <v>287</v>
+      </c>
+      <c r="F7" s="83" t="s">
+        <v>272</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="I7" s="84"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+    </row>
+    <row r="8" spans="1:12" ht="249.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="82" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" s="86" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8" s="83" t="s">
+        <v>301</v>
+      </c>
+      <c r="F8" s="83" t="s">
+        <v>272</v>
+      </c>
+      <c r="G8" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" s="86" t="s">
+        <v>302</v>
+      </c>
+      <c r="I8" s="84"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8910,19 +9560,91 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADD30B2-DD71-45BD-B5D3-ECBDD8B20B47}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>207</v>
-      </c>
+    <row r="1" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="79" t="s">
+        <v>277</v>
+      </c>
+      <c r="I1" s="79" t="s">
+        <v>278</v>
+      </c>
+      <c r="J1" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="75"/>
+    </row>
+    <row r="2" spans="1:11" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="77" t="s">
+        <v>270</v>
+      </c>
+      <c r="F2" s="77" t="s">
+        <v>271</v>
+      </c>
+      <c r="G2" s="77" t="s">
+        <v>272</v>
+      </c>
+      <c r="H2" s="77" t="s">
+        <v>273</v>
+      </c>
+      <c r="I2" s="77" t="s">
+        <v>274</v>
+      </c>
+      <c r="J2" s="77"/>
+      <c r="K2" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/5- Testing/Test Cases.xlsx
+++ b/5- Testing/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\Car-Purchasing-App\5- Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AD4479-CBB9-4198-A17E-120EFAA153A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092E91B5-D121-447B-888B-B3E946E7C8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="2" r:id="rId1"/>
@@ -3146,6 +3146,42 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -3182,42 +3218,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7043,7 +7043,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="72" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -7090,8 +7090,8 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61"/>
-      <c r="B3" s="63" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="75" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -7135,8 +7135,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="22" t="s">
         <v>76</v>
       </c>
@@ -7178,8 +7178,8 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
       <c r="C5" s="22" t="s">
         <v>80</v>
       </c>
@@ -7221,8 +7221,8 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="22" t="s">
         <v>84</v>
       </c>
@@ -7264,8 +7264,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
-      <c r="B7" s="64" t="s">
+      <c r="A7" s="73"/>
+      <c r="B7" s="76" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="22" t="s">
@@ -7309,8 +7309,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="22" t="s">
         <v>94</v>
       </c>
@@ -7352,8 +7352,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="22" t="s">
         <v>97</v>
       </c>
@@ -7395,8 +7395,8 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
-      <c r="B10" s="65" t="s">
+      <c r="A10" s="73"/>
+      <c r="B10" s="77" t="s">
         <v>101</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -7440,8 +7440,8 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="73"/>
       <c r="C11" s="22" t="s">
         <v>106</v>
       </c>
@@ -7483,8 +7483,8 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="73"/>
       <c r="C12" s="22" t="s">
         <v>110</v>
       </c>
@@ -7526,8 +7526,8 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
-      <c r="B13" s="62"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="22" t="s">
         <v>115</v>
       </c>
@@ -7569,8 +7569,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
-      <c r="B14" s="66" t="s">
+      <c r="A14" s="73"/>
+      <c r="B14" s="78" t="s">
         <v>119</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -7614,8 +7614,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
       <c r="C15" s="22" t="s">
         <v>124</v>
       </c>
@@ -7657,8 +7657,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="22" t="s">
         <v>128</v>
       </c>
@@ -7700,8 +7700,8 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="61"/>
-      <c r="B17" s="62"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="74"/>
       <c r="C17" s="22" t="s">
         <v>133</v>
       </c>
@@ -7743,8 +7743,8 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="61"/>
-      <c r="B18" s="67" t="s">
+      <c r="A18" s="73"/>
+      <c r="B18" s="79" t="s">
         <v>137</v>
       </c>
       <c r="C18" s="22" t="s">
@@ -7788,8 +7788,8 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="61"/>
-      <c r="B19" s="61"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="73"/>
       <c r="C19" s="22" t="s">
         <v>142</v>
       </c>
@@ -7831,8 +7831,8 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
-      <c r="B20" s="61"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="73"/>
       <c r="C20" s="22" t="s">
         <v>146</v>
       </c>
@@ -7874,8 +7874,8 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="61"/>
-      <c r="B21" s="61"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="73"/>
       <c r="C21" s="22" t="s">
         <v>151</v>
       </c>
@@ -7917,8 +7917,8 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="61"/>
-      <c r="B22" s="61"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="22" t="s">
         <v>156</v>
       </c>
@@ -7960,8 +7960,8 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="61"/>
-      <c r="B23" s="62"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="22" t="s">
         <v>161</v>
       </c>
@@ -8003,8 +8003,8 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="61"/>
-      <c r="B24" s="68" t="s">
+      <c r="A24" s="73"/>
+      <c r="B24" s="80" t="s">
         <v>165</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -8048,8 +8048,8 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="61"/>
-      <c r="B25" s="61"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="73"/>
       <c r="C25" s="22" t="s">
         <v>170</v>
       </c>
@@ -8091,8 +8091,8 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="61"/>
-      <c r="B26" s="61"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="73"/>
       <c r="C26" s="22" t="s">
         <v>174</v>
       </c>
@@ -8134,8 +8134,8 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="61"/>
-      <c r="B27" s="62"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="22" t="s">
         <v>179</v>
       </c>
@@ -8177,8 +8177,8 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="61"/>
-      <c r="B28" s="69" t="s">
+      <c r="A28" s="73"/>
+      <c r="B28" s="81" t="s">
         <v>183</v>
       </c>
       <c r="C28" s="22" t="s">
@@ -8222,8 +8222,8 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="61"/>
-      <c r="B29" s="61"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="73"/>
       <c r="C29" s="22" t="s">
         <v>189</v>
       </c>
@@ -8265,8 +8265,8 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="61"/>
-      <c r="B30" s="61"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="73"/>
       <c r="C30" s="22" t="s">
         <v>193</v>
       </c>
@@ -8308,8 +8308,8 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="62"/>
-      <c r="B31" s="62"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
       <c r="C31" s="22" t="s">
         <v>197</v>
       </c>
@@ -8434,7 +8434,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="207" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70"/>
+      <c r="A2" s="82"/>
       <c r="B2" s="33" t="s">
         <v>212</v>
       </c>
@@ -8470,7 +8470,7 @@
       <c r="N2" s="32"/>
     </row>
     <row r="3" spans="1:14" ht="175.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
+      <c r="A3" s="83"/>
       <c r="B3" s="33" t="s">
         <v>211</v>
       </c>
@@ -8506,8 +8506,8 @@
       <c r="N3" s="32"/>
     </row>
     <row r="4" spans="1:14" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="83"/>
+      <c r="B4" s="85" t="s">
         <v>214</v>
       </c>
       <c r="C4" s="38" t="s">
@@ -8542,8 +8542,8 @@
       <c r="N4" s="32"/>
     </row>
     <row r="5" spans="1:14" ht="162" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="71"/>
-      <c r="B5" s="74"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="38" t="s">
         <v>221</v>
       </c>
@@ -8576,7 +8576,7 @@
       <c r="N5" s="32"/>
     </row>
     <row r="6" spans="1:14" ht="204" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="71"/>
+      <c r="A6" s="83"/>
       <c r="B6" s="43" t="s">
         <v>233</v>
       </c>
@@ -8612,7 +8612,7 @@
       <c r="N6" s="51"/>
     </row>
     <row r="7" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="71"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="43" t="s">
         <v>244</v>
       </c>
@@ -8642,76 +8642,76 @@
       <c r="N7" s="56"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
+      <c r="A8" s="83"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
+      <c r="A9" s="83"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
+      <c r="A10" s="83"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="71"/>
+      <c r="A11" s="83"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
+      <c r="A12" s="83"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="71"/>
+      <c r="A13" s="83"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
+      <c r="A14" s="83"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="71"/>
+      <c r="A15" s="83"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="71"/>
+      <c r="A16" s="83"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="71"/>
+      <c r="A17" s="83"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
+      <c r="A18" s="83"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="71"/>
+      <c r="A19" s="83"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="71"/>
+      <c r="A20" s="83"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="71"/>
+      <c r="A21" s="83"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="71"/>
+      <c r="A22" s="83"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="71"/>
+      <c r="A23" s="83"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="71"/>
+      <c r="A24" s="83"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="71"/>
+      <c r="A25" s="83"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="71"/>
+      <c r="A26" s="83"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="71"/>
+      <c r="A27" s="83"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71"/>
+      <c r="A28" s="83"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="71"/>
+      <c r="A29" s="83"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="71"/>
+      <c r="A30" s="83"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="72"/>
+      <c r="A31" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8792,7 +8792,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70"/>
+      <c r="A2" s="82"/>
       <c r="B2" s="33" t="s">
         <v>212</v>
       </c>
@@ -8828,7 +8828,7 @@
       <c r="N2" s="32"/>
     </row>
     <row r="3" spans="1:14" ht="220.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
+      <c r="A3" s="83"/>
       <c r="B3" s="43" t="s">
         <v>244</v>
       </c>
@@ -8858,88 +8858,88 @@
       <c r="N3" s="56"/>
     </row>
     <row r="4" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
+      <c r="A4" s="83"/>
     </row>
     <row r="5" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="71"/>
+      <c r="A5" s="83"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="71"/>
+      <c r="A6" s="83"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="71"/>
+      <c r="A7" s="83"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
+      <c r="A8" s="83"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
+      <c r="A9" s="83"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
+      <c r="A10" s="83"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="71"/>
+      <c r="A11" s="83"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
+      <c r="A12" s="83"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="71"/>
+      <c r="A13" s="83"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
+      <c r="A14" s="83"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="71"/>
+      <c r="A15" s="83"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="71"/>
+      <c r="A16" s="83"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="71"/>
+      <c r="A17" s="83"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
+      <c r="A18" s="83"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="71"/>
+      <c r="A19" s="83"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="71"/>
+      <c r="A20" s="83"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="71"/>
+      <c r="A21" s="83"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="71"/>
+      <c r="A22" s="83"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="71"/>
+      <c r="A23" s="83"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="71"/>
+      <c r="A24" s="83"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="71"/>
+      <c r="A25" s="83"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="71"/>
+      <c r="A26" s="83"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="71"/>
+      <c r="A27" s="83"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71"/>
+      <c r="A28" s="83"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="71"/>
+      <c r="A29" s="83"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="71"/>
+      <c r="A30" s="83"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="72"/>
+      <c r="A31" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9018,7 +9018,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="174.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70"/>
+      <c r="A2" s="82"/>
       <c r="B2" s="33" t="s">
         <v>212</v>
       </c>
@@ -9054,91 +9054,91 @@
       <c r="N2" s="32"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
+      <c r="A3" s="83"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
+      <c r="A4" s="83"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="71"/>
+      <c r="A5" s="83"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="71"/>
+      <c r="A6" s="83"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="71"/>
+      <c r="A7" s="83"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
+      <c r="A8" s="83"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
+      <c r="A9" s="83"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
+      <c r="A10" s="83"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="71"/>
+      <c r="A11" s="83"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
+      <c r="A12" s="83"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="71"/>
+      <c r="A13" s="83"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
+      <c r="A14" s="83"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="71"/>
+      <c r="A15" s="83"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="71"/>
+      <c r="A16" s="83"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="71"/>
+      <c r="A17" s="83"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
+      <c r="A18" s="83"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="71"/>
+      <c r="A19" s="83"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="71"/>
+      <c r="A20" s="83"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="71"/>
+      <c r="A21" s="83"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="71"/>
+      <c r="A22" s="83"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="71"/>
+      <c r="A23" s="83"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="71"/>
+      <c r="A24" s="83"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="71"/>
+      <c r="A25" s="83"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="71"/>
+      <c r="A26" s="83"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="71"/>
+      <c r="A27" s="83"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71"/>
+      <c r="A28" s="83"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="71"/>
+      <c r="A29" s="83"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="71"/>
+      <c r="A30" s="83"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="72"/>
+      <c r="A31" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9214,7 +9214,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="85" t="s">
         <v>214</v>
       </c>
       <c r="B2" s="35" t="s">
@@ -9249,7 +9249,7 @@
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="74"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="38" t="s">
         <v>221</v>
       </c>
@@ -9293,8 +9293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3E3723-9A66-41B9-B3EE-9ACDC170719F}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9309,249 +9309,249 @@
     <col min="8" max="8" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="I1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" ht="204.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="68" t="s">
         <v>281</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="68" t="s">
         <v>268</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="68" t="s">
         <v>282</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="68" t="s">
         <v>272</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="H2" s="68" t="s">
         <v>284</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="3" spans="1:12" ht="234" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="67" t="s">
         <v>285</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="68" t="s">
         <v>286</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="68" t="s">
         <v>268</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="68" t="s">
         <v>282</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="68" t="s">
         <v>287</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="68" t="s">
         <v>272</v>
       </c>
-      <c r="G3" s="83" t="s">
+      <c r="G3" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="68" t="s">
         <v>288</v>
       </c>
-      <c r="I3" s="84"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
     </row>
     <row r="4" spans="1:12" ht="239.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="67" t="s">
         <v>289</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="68" t="s">
         <v>268</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="68" t="s">
         <v>282</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="68" t="s">
         <v>291</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="68" t="s">
         <v>272</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="G4" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="H4" s="83" t="s">
+      <c r="H4" s="68" t="s">
         <v>288</v>
       </c>
-      <c r="I4" s="84"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
     </row>
     <row r="5" spans="1:12" ht="221.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="67" t="s">
         <v>292</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="68" t="s">
         <v>293</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="68" t="s">
         <v>268</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="68" t="s">
         <v>282</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="68" t="s">
         <v>272</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="68" t="s">
         <v>284</v>
       </c>
-      <c r="I5" s="84"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
     </row>
     <row r="6" spans="1:12" ht="233.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="67" t="s">
         <v>294</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="70" t="s">
         <v>295</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="70" t="s">
         <v>268</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="68" t="s">
         <v>282</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="68" t="s">
         <v>296</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="68" t="s">
         <v>272</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="H6" s="85" t="s">
+      <c r="H6" s="70" t="s">
         <v>297</v>
       </c>
-      <c r="I6" s="84"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" ht="207.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="68" t="s">
         <v>286</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="68" t="s">
         <v>268</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="68" t="s">
         <v>282</v>
       </c>
-      <c r="E7" s="83" t="s">
+      <c r="E7" s="68" t="s">
         <v>287</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="F7" s="68" t="s">
         <v>272</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="H7" s="83" t="s">
+      <c r="H7" s="68" t="s">
         <v>288</v>
       </c>
-      <c r="I7" s="84"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
     </row>
     <row r="8" spans="1:12" ht="249.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="67" t="s">
         <v>299</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="71" t="s">
         <v>300</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="68" t="s">
         <v>268</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="68" t="s">
         <v>282</v>
       </c>
-      <c r="E8" s="83" t="s">
+      <c r="E8" s="68" t="s">
         <v>301</v>
       </c>
-      <c r="F8" s="83" t="s">
+      <c r="F8" s="68" t="s">
         <v>272</v>
       </c>
-      <c r="G8" s="83" t="s">
+      <c r="G8" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="H8" s="86" t="s">
+      <c r="H8" s="71" t="s">
         <v>302</v>
       </c>
-      <c r="I8" s="84"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9562,7 +9562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADD30B2-DD71-45BD-B5D3-ECBDD8B20B47}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -9578,69 +9578,69 @@
     <col min="9" max="9" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="64" t="s">
         <v>277</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="75"/>
+      <c r="K1" s="60"/>
     </row>
     <row r="2" spans="1:11" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="62" t="s">
         <v>271</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="75"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/5- Testing/Test Cases.xlsx
+++ b/5- Testing/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\Car-Purchasing-App\5- Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CED83D6-7B93-4F54-BFAA-50BD81DA65F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67734037-DA76-4EB6-A748-4A219F68110F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="146">
   <si>
     <t>Module</t>
   </si>
@@ -368,9 +368,6 @@
   </si>
   <si>
     <t>The system should display a list of cars that match the toyota brand.</t>
-  </si>
-  <si>
-    <t>TC-SearchBrand-00</t>
   </si>
   <si>
     <t>Verify that user sees a pop-up message when there are no cars available for the entered brand name.</t>
@@ -567,6 +564,89 @@
   <si>
     <t>The mgr should be able to 
 login successfully in the home page.</t>
+  </si>
+  <si>
+    <t>Brand Field(User)</t>
+  </si>
+  <si>
+    <t>TC-SearchBrand
+-User-00</t>
+  </si>
+  <si>
+    <t>TC-SearchBrand
+-User-01</t>
+  </si>
+  <si>
+    <t>REQ-5.1</t>
+  </si>
+  <si>
+    <t>1. Click on the search bar.
+2. Enter "ferrari " in the search bar.
+3. Click on the search button.
+.</t>
+  </si>
+  <si>
+    <t>A pop up message should appear "please try another brand or range of price"</t>
+  </si>
+  <si>
+    <t>Price Field (User)</t>
+  </si>
+  <si>
+    <t>TC-SearchPrice
+-User-02</t>
+  </si>
+  <si>
+    <t>Verify if the user can search for cars by  price.</t>
+  </si>
+  <si>
+    <t>1. Click on the search bar.
+2. Enter "500,000 " in the search bar.
+3. Click on the search button.
+.</t>
+  </si>
+  <si>
+    <t>The system should display a list of cars that match the price the user entered.</t>
+  </si>
+  <si>
+    <t>TC-SearchPrice
+-User-03</t>
+  </si>
+  <si>
+    <t>Verify that user sees a pop-up message when there are no cars available for the entered price.</t>
+  </si>
+  <si>
+    <t>Brand Field(Admin)</t>
+  </si>
+  <si>
+    <t>TC-SearchBrand
+-Admin-04</t>
+  </si>
+  <si>
+    <t>Verify if the admin can search for cars by  brand name.</t>
+  </si>
+  <si>
+    <t>TC-SearchBrand
+-Admin-05</t>
+  </si>
+  <si>
+    <t>Verify that admin sees a pop-up message when there are no cars available for the entered brand name.</t>
+  </si>
+  <si>
+    <t>Price Field (Admin)</t>
+  </si>
+  <si>
+    <t>TC-SearchPrice
+-Admin-06</t>
+  </si>
+  <si>
+    <t>Verify if the admin can search for cars by  price.</t>
+  </si>
+  <si>
+    <t>TC-SearchPrice
+-Admin-07</t>
+  </si>
+  <si>
+    <t>Verify that admin sees a pop-up message when there are no cars available for the entered price.</t>
   </si>
 </sst>
 </file>
@@ -1501,7 +1581,7 @@
   </sheetPr>
   <dimension ref="A1:AE996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:K14"/>
     </sheetView>
   </sheetViews>
@@ -1766,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="18" t="e">
-        <f t="shared" ref="K3:K15" si="1">(G15/F15)*100</f>
+        <f t="shared" ref="K15" si="1">(G15/F15)*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5505,10 +5585,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D229A3A4-4F9D-42AB-80C8-669754DC12C3}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5570,10 +5650,10 @@
     </row>
     <row r="2" spans="1:13" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>85</v>
+        <v>123</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>124</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>81</v>
@@ -5606,22 +5686,22 @@
     <row r="3" spans="1:13" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="68"/>
       <c r="B3" s="30" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>37</v>
+        <v>85</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="H3" s="29" t="s">
         <v>28</v>
@@ -5629,16 +5709,219 @@
       <c r="I3" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="20"/>
+      <c r="J3" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="K3" s="28"/>
       <c r="L3" s="21"/>
       <c r="M3" s="24"/>
     </row>
+    <row r="4" spans="1:13" ht="114" x14ac:dyDescent="0.2">
+      <c r="A4" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="28"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="24"/>
+    </row>
+    <row r="5" spans="1:13" ht="114" x14ac:dyDescent="0.2">
+      <c r="A5" s="68"/>
+      <c r="B5" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" spans="1:13" ht="114" x14ac:dyDescent="0.2">
+      <c r="A6" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="28"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="24"/>
+    </row>
+    <row r="7" spans="1:13" ht="114" x14ac:dyDescent="0.2">
+      <c r="A7" s="68"/>
+      <c r="B7" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" s="28"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="24"/>
+    </row>
+    <row r="8" spans="1:13" ht="114" x14ac:dyDescent="0.2">
+      <c r="A8" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="24"/>
+    </row>
+    <row r="9" spans="1:13" ht="114" x14ac:dyDescent="0.2">
+      <c r="A9" s="68"/>
+      <c r="B9" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="K9" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5675,7 +5958,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E1" s="58" t="s">
         <v>15</v>
@@ -5684,44 +5967,44 @@
         <v>17</v>
       </c>
       <c r="G1" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="58" t="s">
         <v>98</v>
-      </c>
-      <c r="H1" s="58" t="s">
-        <v>99</v>
       </c>
       <c r="I1" s="58" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K1" s="52"/>
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" ht="204.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="C2" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="60" t="s">
+      <c r="E2" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="60" t="s">
-        <v>104</v>
-      </c>
       <c r="F2" s="60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" s="60" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I2" s="61"/>
       <c r="J2" s="60"/>
@@ -5730,28 +6013,28 @@
     </row>
     <row r="3" spans="1:12" ht="234" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="C3" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>108</v>
-      </c>
       <c r="F3" s="60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G3" s="60" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I3" s="61"/>
       <c r="J3" s="60"/>
@@ -5760,28 +6043,28 @@
     </row>
     <row r="4" spans="1:12" ht="239.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="C4" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>112</v>
-      </c>
       <c r="F4" s="60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" s="60" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I4" s="61"/>
       <c r="J4" s="60"/>
@@ -5790,28 +6073,28 @@
     </row>
     <row r="5" spans="1:12" ht="221.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>114</v>
-      </c>
       <c r="C5" s="60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="60" t="s">
-        <v>104</v>
-      </c>
       <c r="F5" s="60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G5" s="60" t="s">
         <v>29</v>
       </c>
       <c r="H5" s="60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I5" s="61"/>
       <c r="J5" s="60"/>
@@ -5820,28 +6103,28 @@
     </row>
     <row r="6" spans="1:12" ht="233.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="C6" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>117</v>
-      </c>
       <c r="F6" s="60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G6" s="60" t="s">
         <v>29</v>
       </c>
       <c r="H6" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I6" s="61"/>
       <c r="J6" s="60"/>
@@ -5850,28 +6133,28 @@
     </row>
     <row r="7" spans="1:12" ht="207.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>108</v>
-      </c>
       <c r="F7" s="60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G7" s="60" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I7" s="61"/>
       <c r="J7" s="60"/>
@@ -5880,28 +6163,28 @@
     </row>
     <row r="8" spans="1:12" ht="249.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="C8" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="60" t="s">
-        <v>122</v>
-      </c>
       <c r="F8" s="60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" s="60" t="s">
         <v>29</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I8" s="61"/>
       <c r="J8" s="60"/>
@@ -5935,7 +6218,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="56" t="s">
         <v>12</v>
@@ -5944,7 +6227,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E1" s="56" t="s">
         <v>15</v>
@@ -5956,10 +6239,10 @@
         <v>17</v>
       </c>
       <c r="H1" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="56" t="s">
         <v>98</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>99</v>
       </c>
       <c r="J1" s="56" t="s">
         <v>4</v>
@@ -5968,31 +6251,31 @@
     </row>
     <row r="2" spans="1:11" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="C2" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="D2" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="E2" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="F2" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="G2" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="H2" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="I2" s="54" t="s">
         <v>94</v>
-      </c>
-      <c r="I2" s="54" t="s">
-        <v>95</v>
       </c>
       <c r="J2" s="54"/>
       <c r="K2" s="52"/>

--- a/5- Testing/Test Cases.xlsx
+++ b/5- Testing/Test Cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\Car-Purchasing-App\5- Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beshoy Sameh\Documents\GitHub\Car-Purchasing-App\5- Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67734037-DA76-4EB6-A748-4A219F68110F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36587E50-AA33-4320-A205-6AEDB6F41000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="2" r:id="rId1"/>
@@ -4804,8 +4804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7E3B47-1521-4401-9600-50F8B310637B}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5587,7 +5587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D229A3A4-4F9D-42AB-80C8-669754DC12C3}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>

--- a/5- Testing/Test Cases.xlsx
+++ b/5- Testing/Test Cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beshoy Sameh\Documents\GitHub\Car-Purchasing-App\5- Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\Car-Purchasing-App\5- Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36587E50-AA33-4320-A205-6AEDB6F41000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4EC25A-6437-4F1F-BBD9-503CFD621BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="181">
   <si>
     <t>Module</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Designed By</t>
   </si>
   <si>
-    <t>Priority</t>
-  </si>
-  <si>
     <t>Expected Result</t>
   </si>
   <si>
@@ -112,25 +109,16 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Medium</t>
-  </si>
-  <si>
     <t>____</t>
   </si>
   <si>
     <t>attachment</t>
   </si>
   <si>
-    <t>Beshoy</t>
-  </si>
-  <si>
     <t>TC-AddCar-00</t>
   </si>
   <si>
     <t>Salma</t>
-  </si>
-  <si>
-    <t>High</t>
   </si>
   <si>
     <t>Related  
@@ -242,10 +230,6 @@
     <t>Alternative flow</t>
   </si>
   <si>
-    <t>TC-AddCar-
-Cancel-04</t>
-  </si>
-  <si>
     <t>Verify that an admin can cancel adding a car.</t>
   </si>
   <si>
@@ -288,16 +272,7 @@
 </t>
   </si>
   <si>
-    <t>1. The car should be deleted successfully.
-2. A success message should be displayed in new page indicating that the car has been deleted successfully "Car is deleted successfully in new page".
-3. The deleted car should not be displayed in the car list on the home page for admin and user.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Customer </t>
-  </si>
-  <si>
-    <t>TC-AddCar-
-User-04</t>
   </si>
   <si>
     <t>1- browser is available 
@@ -326,9 +301,6 @@
   </si>
   <si>
     <t>verify that the car has been deleted from the user's home page.</t>
-  </si>
-  <si>
-    <t>The car with its details, that the admin already added, should be deleted from the user's home page.</t>
   </si>
   <si>
     <t xml:space="preserve">1. Open the login page.
@@ -462,110 +434,6 @@
     <t>ER</t>
   </si>
   <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>Lgn_user_1</t>
-  </si>
-  <si>
-    <t>Validate that the user_id 
-must be filled with valid 
-user_id</t>
-  </si>
-  <si>
-    <t>1. Website login page is reachable.
-2. Browser is available.
-3. The user has to have a valid user_id.
-4. The user has to have a valid password.</t>
-  </si>
-  <si>
-    <t>1. Enter "245668" in the userID field.
-2. Enter "1test&amp;salma" in the Password
-field.
-3. Press Login button.</t>
-  </si>
-  <si>
-    <t>The user should be able to reach
-his data after the login.</t>
-  </si>
-  <si>
-    <t>Lgn_user_2</t>
-  </si>
-  <si>
-    <t>Validate that the user_id 
-field can't be empty.</t>
-  </si>
-  <si>
-    <t>1. Leave the userID field empty.
-2. Enter "1test&amp;salma" in the Password
-field.
-3. Press Login button.</t>
-  </si>
-  <si>
-    <t>An error message should appear
-to that "This field is required".</t>
-  </si>
-  <si>
-    <t>Lgn_user_passwd_3</t>
-  </si>
-  <si>
-    <t>Validate that the password 
-field can't be empty.</t>
-  </si>
-  <si>
-    <t>1. Enter "245668" in the userID field.
-2. Leave the Password
-field empty.
-3. Press Login button.</t>
-  </si>
-  <si>
-    <t>Lgn_user_passwd_4</t>
-  </si>
-  <si>
-    <t>Validate that the password 
-is valid according to the
-user_id.</t>
-  </si>
-  <si>
-    <t>Lgn_Reset_5</t>
-  </si>
-  <si>
-    <t>Validate that after filling the fields and click on reset button
-All data are deleted</t>
-  </si>
-  <si>
-    <t>1. Enter "245668" in the userID field.
-2. Enter "1test&amp;salma" in the Password
-field.
-3. Press reset button.</t>
-  </si>
-  <si>
-    <t>All Fields in the login page 
-are empty again.</t>
-  </si>
-  <si>
-    <t>Lgn_MGR_6</t>
-  </si>
-  <si>
-    <t>Lgn_MGR_7</t>
-  </si>
-  <si>
-    <t>Validate that the mgr given user
-ID and password are 
-working and successfully 
-loged in.</t>
-  </si>
-  <si>
-    <t>1. Enter "mngr479920" in the userID field.
-2. Enter "yvAtyja" in the Password
-field.
-3. Press Login button.</t>
-  </si>
-  <si>
-    <t>The mgr should be able to 
-login successfully in the home page.</t>
-  </si>
-  <si>
     <t>Brand Field(User)</t>
   </si>
   <si>
@@ -647,13 +515,343 @@
   </si>
   <si>
     <t>Verify that admin sees a pop-up message when there are no cars available for the entered price.</t>
+  </si>
+  <si>
+    <t>Verify that the price field
+doesn't accept "0".number.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Press "add button" in home page.
+2.  Upload a photo.
+3. Choose " toyota" from brand dropdown list .
+4. Choose  " Toyota " from car model dropdown list.
+5.Fill in "0" in the price field.
+6. Fill in " Hello " the description field.
+7. Click on the "Save" button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The price field shoudln't accept 
+zero.
+2. An error message should appear.
+2. The car should not be added to the car list on the home page.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upload Photo </t>
+  </si>
+  <si>
+    <t>Verify that an error message 
+should appear if the admin,
+doesn't upload a photo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Press "add button" in home page.
+2.  Attempt to save the car without uploading a photo.
+3. Choose " toyota" from brand dropdown list .
+4. Choose  " Toyota " from car model dropdown list.
+5.Fill in "500,000" in the price field.
+6. Fill in " Hello " in the description field.
+7. Click on the "Cancel" button
+</t>
+  </si>
+  <si>
+    <t>1. An error message "Please upload an image" should be displayed.
+2. The car should not be added to the car list on the home page.</t>
+  </si>
+  <si>
+    <t>Verify that an error message 
+should appear if the admin,
+ upload a txt file instead of a image.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Press "add button" in home page.
+2. Upload txt file.
+3. Choose " toyota" from brand dropdown list .
+4. Choose  " Toyota " from car model dropdown list.
+5.Fill in "500,000" in the price field.
+6. Fill in " Hello " in the description field.
+7. Click on the "Cancel" button
+</t>
+  </si>
+  <si>
+    <t>1. An error message "Please upload an image" should be displayed.
+2. The file should not be added to the car list on the home page.</t>
+  </si>
+  <si>
+    <t>Verify that an error message 
+should appear if the admin,
+ upload a pdf file instead of a image.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Press "add button" in home page.
+2. Upload pdf file.
+3. Choose " toyota" from brand dropdown list .
+4. Choose  " Toyota " from car model dropdown list.
+5.Fill in "500,000" in the price field.
+6. Fill in " Hello " in the description field.
+7. Click on the "Cancel" button
+</t>
+  </si>
+  <si>
+    <t>Verify that the price field
+doesn't accept numbers with 
+negative sign.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Press "add button" in home page.
+2.  Upload a photo.
+3. Choose " toyota" from brand dropdown list .
+4. Choose  " Toyota " from car model dropdown list.
+5.Fill in "-1" in the price field.
+6. Fill in " Hello " the description field.
+7. Click on the "Save" button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. An error message should appear
+"Please enter a positive numberr".
+2. The car should not be added to the car list on the home page.
+</t>
+  </si>
+  <si>
+    <t>Verify that the price field
+doesn't accept non-numeric characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Press "add button" in home page.
+2.  Upload a photo.
+3. Choose " toyota" from brand dropdown list .
+4. Choose  " Toyota " from car model dropdown list.
+5.Fill in "AB" in the price field.
+6. Fill in " Hello " the description field.
+7. Click on the "Save" button
+</t>
+  </si>
+  <si>
+    <t>Verify that the price field
+doesn't accept  alphanumeric characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Press "add button" in home page.
+2.  Upload a photo.
+3. Choose " toyota" from brand dropdown list .
+4. Choose  " Toyota " from car model dropdown list.
+5.Fill in "10A" in the price field.
+6. Fill in " Hello " the description field.
+7. Click on the "Save" button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. An error message should appear
+"Please enter a positive number".
+2. The car should not be added to the car list on the home page.
+</t>
+  </si>
+  <si>
+    <t>Verify that an error message 
+should appear if the admin,
+ upload a exceel sheet instead of a image.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Press "add button" in home page.
+2. Upload exceel sheet.
+3. Choose " toyota" from brand dropdown list .
+4. Choose  " Toyota " from car model dropdown list.
+5.Fill in "500,000" in the price field.
+6. Fill in " Hello " in the description field.
+7. Click on the "Cancel" button
+</t>
+  </si>
+  <si>
+    <t>TC-AddCar-
+Price-04</t>
+  </si>
+  <si>
+    <t>TC-AddCar-
+Price-05</t>
+  </si>
+  <si>
+    <t>TC-AddCar-
+Price-06</t>
+  </si>
+  <si>
+    <t>TC-AddCar-
+Price-07</t>
+  </si>
+  <si>
+    <t>TC-AddCar-
+Cancel-12</t>
+  </si>
+  <si>
+    <t>TC-AddCar-
+User-13</t>
+  </si>
+  <si>
+    <t>TC-UploadCar-08</t>
+  </si>
+  <si>
+    <t>TC-UploadCar-
+09</t>
+  </si>
+  <si>
+    <t>TC-UploadCar-
+10</t>
+  </si>
+  <si>
+    <t>TC-UploadCar-
+11</t>
+  </si>
+  <si>
+    <t>1. The car should be deleted successfully.
+2. A success message should be displayed in new page  "Car is deleted successfully "
+3. The deleted car should not be displayed in the car list on the home page for admin and user.</t>
+  </si>
+  <si>
+    <t>The car with its details, should be deleted from the user's home page.</t>
+  </si>
+  <si>
+    <t>TC-Login
+-User-00</t>
+  </si>
+  <si>
+    <t>Verify successful login with already registered email and password.</t>
+  </si>
+  <si>
+    <t>1- browser is available 
+2- User is registered in the system.</t>
+  </si>
+  <si>
+    <t>1. Open the login Page.
+2. enter "beshoy1@gmail.com" in the email field.
+3. enter "123456789" in the password field.
+4. Enter Login button.</t>
+  </si>
+  <si>
+    <t>The home page should be displayed successfully to the user.</t>
+  </si>
+  <si>
+    <t>TC-Login-
+Cancel-12</t>
+  </si>
+  <si>
+    <t>Verify navigation to sign-up page when the user clicks on the sign-up button.</t>
+  </si>
+  <si>
+    <t>1. Open Login page.
+2.Click on the sign-up button.</t>
+  </si>
+  <si>
+    <t>The sign-up page should be displayed.</t>
+  </si>
+  <si>
+    <t>Email Field (User)</t>
+  </si>
+  <si>
+    <t>Verify error message will dissaper when the email field is left blank.</t>
+  </si>
+  <si>
+    <t>1. Open the login Page.
+2. enter "   " in the email field.
+3. enter "123456789" in the password field.
+4. Enter Login button.</t>
+  </si>
+  <si>
+    <t>An error message should be displayed "Please fill out this field".</t>
+  </si>
+  <si>
+    <t>Verify that an error message should be displayed for the invalid email format.</t>
+  </si>
+  <si>
+    <t>1. Open the login Page.
+2. enter " beshoy1gmail.com  " in the email field.
+3. enter "123456789" in the password field.
+4. Enter Login button.</t>
+  </si>
+  <si>
+    <t>An error message should be displayed "Invalid email or password".</t>
+  </si>
+  <si>
+    <t>1. Open the login Page.
+2. enter " beshoy1@gmail " in the email field.
+3. enter "123456789" in the password field.
+4. Enter Login button.</t>
+  </si>
+  <si>
+    <t>1. Open the login Page.
+2. enter " beshoy1@!gmail.com " in the email field.
+3. enter "123456789" in the password field.
+4. Enter Login button.</t>
+  </si>
+  <si>
+    <t>Verify that an error message should be displayed for the invalid email format(special character).</t>
+  </si>
+  <si>
+    <t>Verify that an error message should be displayed for the invalid email format(space before .com).</t>
+  </si>
+  <si>
+    <t>Verify that an error message should be displayed for the invalid email format(space btween the mail).</t>
+  </si>
+  <si>
+    <t>1. Open the login Page.
+2. enter " bes hoy1@gmail.com " in the email field.
+3. enter "123456789" in the password field.
+4. Enter Login button.</t>
+  </si>
+  <si>
+    <t>1. Open the login Page.
+2. enter " beshoy1@gmail .com " in the email field.
+3. enter "123456789" in the password field.
+4. Enter Login button.</t>
+  </si>
+  <si>
+    <t>1. Open the login Page.
+2. enter " beshoy2@gmail.com " in the email field.
+3. enter "123456789" in the password field.
+4. Enter Login button.</t>
+  </si>
+  <si>
+    <t>Verify that an error message should be displayed for unregistered email with correct password.</t>
+  </si>
+  <si>
+    <t>Verify that an error message should be displayed forcorrect email with incorrect password.</t>
+  </si>
+  <si>
+    <t>1. Open the login Page.
+2. enter " beshoy1@gmail.com " in the email field.
+3. enter "123456780" in the password field.
+4. Enter Login button.</t>
+  </si>
+  <si>
+    <t>Verify that an error message should be displayed for un registered email and password.</t>
+  </si>
+  <si>
+    <t>1. Open the login Page.
+2. enter " beshoy2@gmail.com " in the email field.
+3. enter "123456780" in the password field.
+4. Enter Login button.</t>
+  </si>
+  <si>
+    <t>Verify that an error message should be displayed for the invalid email format(without@).</t>
+  </si>
+  <si>
+    <t>1. Open the login Page.
+2. enter " beshoy1" in the email field.
+3. enter "123456789" in the password field.
+4. Enter Login button.</t>
+  </si>
+  <si>
+    <t>Verify that an error message should be displayed for the invalid email format(without .com).</t>
+  </si>
+  <si>
+    <t>Paaword Field(User)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -800,13 +998,27 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="20"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="2"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -897,18 +1109,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9DAF8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -986,15 +1186,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1018,21 +1209,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -1113,47 +1289,57 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
+      </left>
+      <right/>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1161,7 +1347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1224,12 +1410,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1259,106 +1439,141 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -1582,7 +1797,7 @@
   <dimension ref="A1:AE996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4802,356 +5017,574 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7E3B47-1521-4401-9600-50F8B310637B}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="G14" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="5" width="30.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="28.85546875" customWidth="1"/>
-    <col min="8" max="8" width="40.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="34.28515625" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="44.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="34.28515625" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="207" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45"/>
+      <c r="B2" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="D2" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="50"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
+    </row>
+    <row r="3" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="46"/>
+      <c r="B3" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="26" t="s">
+      <c r="E3" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="69"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+    </row>
+    <row r="4" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="46"/>
+      <c r="B4" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="63"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="67"/>
+    </row>
+    <row r="5" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="46"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="63"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="67"/>
+    </row>
+    <row r="6" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="46"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" s="63"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="67"/>
+    </row>
+    <row r="7" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="46"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="63"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="67"/>
+    </row>
+    <row r="8" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="46"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="K8" s="63"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="67"/>
+    </row>
+    <row r="9" spans="1:13" ht="162" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="46"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="63"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="67"/>
+    </row>
+    <row r="10" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="46"/>
+      <c r="B10" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="49">
+        <v>0</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+    </row>
+    <row r="11" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="46"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="49">
+        <v>0</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+    </row>
+    <row r="12" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="46"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="49">
+        <v>0</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="I12" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+    </row>
+    <row r="13" spans="1:13" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="46"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="49">
+        <v>0</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+    </row>
+    <row r="14" spans="1:13" ht="130.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="46"/>
+      <c r="B14" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="71">
+        <v>6.1</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="G14" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="207" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64"/>
-      <c r="B2" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="27" t="s">
+      <c r="J14" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="63"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="67"/>
+    </row>
+    <row r="15" spans="1:13" ht="84.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="48"/>
+      <c r="B15" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-    </row>
-    <row r="3" spans="1:14" ht="175.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
-      <c r="B3" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-    </row>
-    <row r="4" spans="1:14" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-      <c r="B4" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="24"/>
-    </row>
-    <row r="5" spans="1:14" ht="162" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="24"/>
-    </row>
-    <row r="6" spans="1:14" ht="204" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
-      <c r="B6" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="37">
-        <v>6.1</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="43"/>
-    </row>
-    <row r="7" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
-      <c r="B7" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="65"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="65"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="65"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="65"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="65"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="65"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="65"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="65"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="66"/>
+      <c r="E15" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="46"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="46"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
+      <c r="E18" s="73"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="46"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="46"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="46"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="46"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="46"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="46"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="46"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="46"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="46"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="46"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="46"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="46"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="46"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="46"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="46"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="46"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="46"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A31"/>
-    <mergeCell ref="B4:B5"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A36"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
@@ -5160,221 +5593,213 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB43EE6-FA55-4877-96E9-AE377829827B}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:N3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0.140625" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
     <col min="8" max="8" width="30.140625" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" customWidth="1"/>
-    <col min="12" max="12" width="25" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="26" t="s">
+    <row r="1" spans="1:13" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="26" t="s">
+      <c r="B1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45"/>
+      <c r="B2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="G2" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64"/>
-      <c r="B2" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="28" t="s">
+      <c r="J2" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" s="26"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="3" spans="1:13" ht="220.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="46"/>
+      <c r="B3" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-    </row>
-    <row r="3" spans="1:14" ht="220.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
-      <c r="B3" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-    </row>
-    <row r="4" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-    </row>
-    <row r="5" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
+      <c r="H3" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+    </row>
+    <row r="4" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="46"/>
+    </row>
+    <row r="5" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="46"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="46"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="46"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="46"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="46"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="46"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="46"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="46"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="46"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="46"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="46"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="46"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
+      <c r="A17" s="46"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
+      <c r="A18" s="46"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
+      <c r="A19" s="46"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
+      <c r="A20" s="46"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
+      <c r="A21" s="46"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
+      <c r="A22" s="46"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="65"/>
+      <c r="A23" s="46"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="65"/>
+      <c r="A24" s="46"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="65"/>
+      <c r="A25" s="46"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="65"/>
+      <c r="A26" s="46"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="65"/>
+      <c r="A27" s="46"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="65"/>
+      <c r="A28" s="46"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="65"/>
+      <c r="A29" s="46"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="65"/>
+      <c r="A30" s="46"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="66"/>
+      <c r="A31" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5386,194 +5811,187 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8468A8A-F257-451D-AC30-9124B25FFCDD}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" customWidth="1"/>
     <col min="8" max="8" width="24.85546875" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" customWidth="1"/>
-    <col min="13" max="13" width="0.140625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="26" t="s">
+    <row r="1" spans="1:13" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="26" t="s">
+      <c r="B1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="174.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45"/>
+      <c r="B2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="G2" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="174.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64"/>
-      <c r="B2" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
+      <c r="J2" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="26"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="46"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="46"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="46"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="46"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="46"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="46"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="46"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="46"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="46"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="46"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="46"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="46"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="46"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="46"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
+      <c r="A17" s="46"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
+      <c r="A18" s="46"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
+      <c r="A19" s="46"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
+      <c r="A20" s="46"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
+      <c r="A21" s="46"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
+      <c r="A22" s="46"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="65"/>
+      <c r="A23" s="46"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="65"/>
+      <c r="A24" s="46"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="65"/>
+      <c r="A25" s="46"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="65"/>
+      <c r="A26" s="46"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="65"/>
+      <c r="A27" s="46"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="65"/>
+      <c r="A28" s="46"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="65"/>
+      <c r="A29" s="46"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="65"/>
+      <c r="A30" s="46"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="66"/>
+      <c r="A31" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5585,10 +6003,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D229A3A4-4F9D-42AB-80C8-669754DC12C3}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A9"/>
+    <sheetView topLeftCell="B8" workbookViewId="0">
+      <selection sqref="A1:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5601,320 +6019,296 @@
     <col min="6" max="6" width="22" customWidth="1"/>
     <col min="7" max="7" width="25.85546875" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
-    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="26" t="s">
+    <row r="1" spans="1:12" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="26" t="s">
+      <c r="B1" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="F2" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="67" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="24"/>
-    </row>
-    <row r="3" spans="1:13" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="24"/>
-    </row>
-    <row r="4" spans="1:13" ht="114" x14ac:dyDescent="0.2">
-      <c r="A4" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="24"/>
-    </row>
-    <row r="5" spans="1:13" ht="114" x14ac:dyDescent="0.2">
-      <c r="A5" s="68"/>
-      <c r="B5" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="K5" s="20"/>
-    </row>
-    <row r="6" spans="1:13" ht="114" x14ac:dyDescent="0.2">
-      <c r="A6" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="24"/>
-    </row>
-    <row r="7" spans="1:13" ht="114" x14ac:dyDescent="0.2">
-      <c r="A7" s="68"/>
-      <c r="B7" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="24"/>
-    </row>
-    <row r="8" spans="1:13" ht="114" x14ac:dyDescent="0.2">
-      <c r="A8" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="24"/>
-    </row>
-    <row r="9" spans="1:13" ht="114" x14ac:dyDescent="0.2">
-      <c r="A9" s="68"/>
-      <c r="B9" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="K9" s="20"/>
+      <c r="I2" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="50"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="67"/>
+    </row>
+    <row r="3" spans="1:12" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="50"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="67"/>
+    </row>
+    <row r="4" spans="1:12" ht="114" x14ac:dyDescent="0.2">
+      <c r="A4" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="50"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="67"/>
+    </row>
+    <row r="5" spans="1:12" ht="114" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="63"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+    </row>
+    <row r="6" spans="1:12" ht="114" x14ac:dyDescent="0.2">
+      <c r="A6" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="50"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="67"/>
+    </row>
+    <row r="7" spans="1:12" ht="114" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="50"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="67"/>
+    </row>
+    <row r="8" spans="1:12" ht="114" x14ac:dyDescent="0.2">
+      <c r="A8" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="50"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="67"/>
+    </row>
+    <row r="9" spans="1:12" ht="114" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="63"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5929,270 +6323,499 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3E3723-9A66-41B9-B3EE-9ACDC170719F}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="1" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:12" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="E1" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="58" t="s">
+      <c r="F1" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="H1" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-    </row>
-    <row r="2" spans="1:12" ht="204.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="60" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="204.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-    </row>
-    <row r="3" spans="1:12" ht="234" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="B2" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="49">
+        <v>0</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="50"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="67"/>
+    </row>
+    <row r="3" spans="1:12" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" s="50"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="67"/>
+    </row>
+    <row r="4" spans="1:12" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" s="50"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="36"/>
+    </row>
+    <row r="5" spans="1:12" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="L5" s="77"/>
+    </row>
+    <row r="6" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="76"/>
+      <c r="B7" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="76"/>
+      <c r="B8" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="76"/>
+      <c r="B9" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="H9" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="76"/>
+      <c r="B10" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="76"/>
+      <c r="B11" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="H11" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="76"/>
+      <c r="B12" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="H12" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="233.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="C13" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="60" t="s">
+      <c r="E13" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="50"/>
+      <c r="H13" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="39"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="67"/>
+    </row>
+    <row r="14" spans="1:12" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="60" t="s">
+      <c r="C14" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="61"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-    </row>
-    <row r="4" spans="1:12" ht="239.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="E14" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="50"/>
+      <c r="H14" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="67"/>
+    </row>
+    <row r="15" spans="1:12" ht="249.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B15" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="60" t="s">
+      <c r="C15" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-    </row>
-    <row r="5" spans="1:12" ht="221.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="E15" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="50"/>
+      <c r="H15" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="39"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="67"/>
+    </row>
+    <row r="16" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="C16" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="I5" s="61"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-    </row>
-    <row r="6" spans="1:12" ht="233.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-    </row>
-    <row r="7" spans="1:12" ht="207.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="I7" s="61"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-    </row>
-    <row r="8" spans="1:12" ht="249.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="I8" s="61"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
+      <c r="E16" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="50"/>
+      <c r="H16" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="39"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+    </row>
+    <row r="17" spans="1:12" ht="130.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="71"/>
+      <c r="D17" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" s="63"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="67"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6217,68 +6840,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="56" t="s">
+      <c r="D1" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="56" t="s">
+      <c r="H1" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="52"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6290,7 +6913,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0796CBB2-7C1E-4A72-8F15-4D297E074D7C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -6302,7 +6927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8EDAB9-89BF-4632-A593-0B0AFF6C29B5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/5- Testing/Test Cases.xlsx
+++ b/5- Testing/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\Car-Purchasing-App\5- Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4EC25A-6437-4F1F-BBD9-503CFD621BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506F8361-E93A-417D-8E79-5CB370661629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="167">
   <si>
     <t>Module</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Steps</t>
-  </si>
-  <si>
-    <t>Test Data</t>
   </si>
   <si>
     <t>Designed By</t>
@@ -345,95 +342,6 @@
     <t>Verify that user sees a pop-up message when there are no cars available for the entered brand name.</t>
   </si>
   <si>
-    <t>1_logout_user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate that the logout is working from the customer portal 
-</t>
-  </si>
-  <si>
-    <t>Functional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Register page is reachable.
-2. Edge Browser is available.
-3. Availability of test data for "UserID &amp; password".
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-1. Enter '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00FF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1305892</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>'
-in the user-id Field.
-2. Enter '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00FF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>12345ssss</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>' in the password field.
-3. Press the 'LOGIN' Button.</t>
-    </r>
-  </si>
-  <si>
-    <t>1- user-id : 1305892
-2- password : 12345ssss</t>
-  </si>
-  <si>
-    <t>Fouda</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>the user-id field should accept 
-the user-id and password move to the next 
-page after pressing
-'LOGOUT' successfully</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>PreCondition</t>
-  </si>
-  <si>
-    <t>Priotity</t>
-  </si>
-  <si>
-    <t>ER</t>
-  </si>
-  <si>
     <t>Brand Field(User)</t>
   </si>
   <si>
@@ -851,7 +759,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -980,12 +888,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00FF00"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1347,7 +1249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1473,104 +1375,103 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5019,8 +4920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7E3B47-1521-4401-9600-50F8B310637B}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="G14" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I15"/>
+    <sheetView topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5041,544 +4942,544 @@
   <sheetData>
     <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="61" t="s">
+      <c r="M1" s="52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="207" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="69"/>
+      <c r="B2" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="60" t="s">
+      <c r="E2" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="60" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="207" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45"/>
-      <c r="B2" s="52" t="s">
+      <c r="G2" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
+    </row>
+    <row r="3" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="70"/>
+      <c r="B3" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="E3" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="50" t="s">
+      <c r="J3" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="61"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
+    </row>
+    <row r="4" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="70"/>
+      <c r="B4" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="55"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="59"/>
+    </row>
+    <row r="5" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="70"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="65" t="s">
+      <c r="E5" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-    </row>
-    <row r="3" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
-      <c r="B3" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="64" t="s">
+      <c r="I5" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="55"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="59"/>
+    </row>
+    <row r="6" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="70"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="H6" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="55"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="59"/>
+    </row>
+    <row r="7" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="70"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="69"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="67"/>
-    </row>
-    <row r="4" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="62" t="s">
+      <c r="E7" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="64" t="s">
+      <c r="G7" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="H7" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="55"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="59"/>
+    </row>
+    <row r="8" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="70"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="63"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="67"/>
-    </row>
-    <row r="5" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="64" t="s">
+      <c r="E8" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="H8" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="55"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="59"/>
+    </row>
+    <row r="9" spans="1:13" ht="162" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="70"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="63"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="67"/>
-    </row>
-    <row r="6" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" s="64" t="s">
+      <c r="E9" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="I6" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="50" t="s">
+      <c r="H9" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" s="55"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="59"/>
+    </row>
+    <row r="10" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="70"/>
+      <c r="B10" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="K6" s="63"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="67"/>
-    </row>
-    <row r="7" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="64" t="s">
+      <c r="D10" s="45">
+        <v>0</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" s="63"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="67"/>
-    </row>
-    <row r="8" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="I8" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="K8" s="63"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="67"/>
-    </row>
-    <row r="9" spans="1:13" ht="162" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="I9" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="K9" s="63"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="67"/>
-    </row>
-    <row r="10" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="49">
-        <v>0</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="I10" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="68" t="s">
-        <v>120</v>
+      <c r="H10" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="60" t="s">
+        <v>106</v>
       </c>
       <c r="K10" s="36"/>
       <c r="L10" s="36"/>
       <c r="M10" s="36"/>
     </row>
     <row r="11" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="49">
+      <c r="A11" s="70"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="45">
         <v>0</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F11" s="38"/>
-      <c r="G11" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="I11" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="68" t="s">
-        <v>123</v>
+      <c r="G11" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="60" t="s">
+        <v>109</v>
       </c>
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
       <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="49">
+      <c r="A12" s="70"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="45">
         <v>0</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F12" s="38"/>
-      <c r="G12" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="I12" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="68" t="s">
-        <v>123</v>
+      <c r="G12" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="60" t="s">
+        <v>109</v>
       </c>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
       <c r="M12" s="36"/>
     </row>
     <row r="13" spans="1:13" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="49">
+      <c r="A13" s="70"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="45">
         <v>0</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F13" s="38"/>
-      <c r="G13" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="I13" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="68" t="s">
-        <v>123</v>
+      <c r="G13" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="60" t="s">
+        <v>109</v>
       </c>
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
       <c r="M13" s="36"/>
     </row>
     <row r="14" spans="1:13" ht="130.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
-      <c r="B14" s="58" t="s">
+      <c r="A14" s="70"/>
+      <c r="B14" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="63">
+        <v>6.1</v>
+      </c>
+      <c r="E14" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="71">
-        <v>6.1</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="50" t="s">
+      <c r="F14" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" s="63"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="67"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="59"/>
     </row>
     <row r="15" spans="1:13" ht="84.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
-      <c r="B15" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>27</v>
+      <c r="A15" s="71"/>
+      <c r="B15" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>26</v>
       </c>
       <c r="E15" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="50" t="s">
+      <c r="H15" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="I15" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="37" t="s">
         <v>63</v>
-      </c>
-      <c r="I15" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>64</v>
       </c>
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
       <c r="M15" s="36"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
+      <c r="A16" s="70"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
+      <c r="A17" s="70"/>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="E18" s="73"/>
+      <c r="A18" s="70"/>
+      <c r="E18" s="65"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
+      <c r="A19" s="70"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
+      <c r="A20" s="70"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
+      <c r="A21" s="70"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
+      <c r="A22" s="70"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
+      <c r="A23" s="70"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
+      <c r="A24" s="70"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
+      <c r="A25" s="70"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
+      <c r="A26" s="70"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
+      <c r="A27" s="70"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
+      <c r="A28" s="70"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
+      <c r="A29" s="70"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
+      <c r="A30" s="70"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
+      <c r="A31" s="70"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
+      <c r="A32" s="70"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="46"/>
+      <c r="A33" s="70"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="46"/>
+      <c r="A34" s="70"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="46"/>
+      <c r="A35" s="70"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
+      <c r="A36" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5616,16 +5517,16 @@
   <sheetData>
     <row r="1" spans="1:13" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>12</v>
@@ -5640,166 +5541,166 @@
         <v>15</v>
       </c>
       <c r="I1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="24" t="s">
-        <v>19</v>
-      </c>
       <c r="L1" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45"/>
+      <c r="A2" s="69"/>
       <c r="B2" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>58</v>
-      </c>
       <c r="I2" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K2" s="26"/>
       <c r="L2" s="21"/>
       <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="220.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="34" t="s">
         <v>65</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>66</v>
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I3" s="38"/>
       <c r="J3" s="39" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="K3" s="36"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
     </row>
     <row r="4" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
+      <c r="A4" s="70"/>
     </row>
     <row r="5" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
+      <c r="A5" s="70"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
+      <c r="A6" s="70"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
+      <c r="A7" s="70"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
+      <c r="A8" s="70"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
+      <c r="A9" s="70"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
+      <c r="A10" s="70"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
+      <c r="A11" s="70"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
+      <c r="A12" s="70"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
+      <c r="A13" s="70"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
+      <c r="A14" s="70"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
+      <c r="A15" s="70"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
+      <c r="A16" s="70"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
+      <c r="A17" s="70"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
+      <c r="A18" s="70"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
+      <c r="A19" s="70"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
+      <c r="A20" s="70"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
+      <c r="A21" s="70"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
+      <c r="A22" s="70"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
+      <c r="A23" s="70"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
+      <c r="A24" s="70"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
+      <c r="A25" s="70"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
+      <c r="A26" s="70"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
+      <c r="A27" s="70"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
+      <c r="A28" s="70"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
+      <c r="A29" s="70"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
+      <c r="A30" s="70"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
+      <c r="A31" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5834,16 +5735,16 @@
   <sheetData>
     <row r="1" spans="1:13" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>12</v>
@@ -5858,140 +5759,140 @@
         <v>15</v>
       </c>
       <c r="I1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="24" t="s">
-        <v>19</v>
-      </c>
       <c r="L1" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="174.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45"/>
+      <c r="A2" s="69"/>
       <c r="B2" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="34" t="s">
         <v>71</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>72</v>
       </c>
       <c r="K2" s="26"/>
       <c r="L2" s="21"/>
       <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
+      <c r="A3" s="70"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
+      <c r="A4" s="70"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
+      <c r="A5" s="70"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
+      <c r="A6" s="70"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
+      <c r="A7" s="70"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
+      <c r="A8" s="70"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
+      <c r="A9" s="70"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
+      <c r="A10" s="70"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
+      <c r="A11" s="70"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
+      <c r="A12" s="70"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
+      <c r="A13" s="70"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
+      <c r="A14" s="70"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
+      <c r="A15" s="70"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
+      <c r="A16" s="70"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
+      <c r="A17" s="70"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
+      <c r="A18" s="70"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
+      <c r="A19" s="70"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
+      <c r="A20" s="70"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
+      <c r="A21" s="70"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
+      <c r="A22" s="70"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
+      <c r="A23" s="70"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
+      <c r="A24" s="70"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
+      <c r="A25" s="70"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
+      <c r="A26" s="70"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
+      <c r="A27" s="70"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
+      <c r="A28" s="70"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
+      <c r="A29" s="70"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
+      <c r="A30" s="70"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
+      <c r="A31" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6006,7 +5907,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView topLeftCell="B8" workbookViewId="0">
-      <selection sqref="A1:L9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6026,287 +5927,287 @@
   <sheetData>
     <row r="1" spans="1:12" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="74" t="s">
+      <c r="L1" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="74" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="50" t="s">
+      <c r="F2" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="50" t="s">
+      <c r="H2" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="39" t="s">
+      <c r="J2" s="46"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="59"/>
+    </row>
+    <row r="3" spans="1:12" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="74"/>
+      <c r="B3" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="67"/>
-    </row>
-    <row r="3" spans="1:12" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54"/>
-      <c r="B3" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="64" t="s">
-        <v>25</v>
+      <c r="E3" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>24</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="67"/>
+        <v>82</v>
+      </c>
+      <c r="J3" s="46"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="59"/>
     </row>
     <row r="4" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" s="64" t="s">
-        <v>25</v>
+      <c r="A4" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>24</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="67"/>
+        <v>87</v>
+      </c>
+      <c r="J4" s="46"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="59"/>
     </row>
     <row r="5" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" s="64" t="s">
-        <v>25</v>
+      <c r="A5" s="74"/>
+      <c r="B5" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>24</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="63"/>
+        <v>82</v>
+      </c>
+      <c r="J5" s="55"/>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="50" t="s">
+      <c r="A6" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="67"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="49" t="s">
+      <c r="A7" s="74"/>
+      <c r="B7" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="50" t="s">
+      <c r="E7" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="46"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="59"/>
+    </row>
+    <row r="8" spans="1:12" ht="114" x14ac:dyDescent="0.2">
+      <c r="A8" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="39" t="s">
+      <c r="B8" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="J7" s="50"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="67"/>
-    </row>
-    <row r="8" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="64" t="s">
-        <v>25</v>
+      <c r="C8" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>24</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="67"/>
+        <v>87</v>
+      </c>
+      <c r="J8" s="46"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
-      <c r="B9" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="64" t="s">
+      <c r="A9" s="74"/>
+      <c r="B9" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="64" t="s">
-        <v>25</v>
+      <c r="G9" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>24</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" s="63"/>
+        <v>82</v>
+      </c>
+      <c r="J9" s="55"/>
       <c r="K9" s="36"/>
       <c r="L9" s="36"/>
     </row>
@@ -6325,8 +6226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3E3723-9A66-41B9-B3EE-9ACDC170719F}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6343,470 +6244,469 @@
   <sheetData>
     <row r="1" spans="1:12" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="74" t="s">
+      <c r="L1" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="204.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="45">
+        <v>0</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="74" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="204.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="49">
-        <v>0</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="64" t="s">
-        <v>25</v>
+      <c r="F2" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>24</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="67"/>
+        <v>138</v>
+      </c>
+      <c r="J2" s="46"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="59"/>
     </row>
     <row r="3" spans="1:12" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" s="46"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="59"/>
+    </row>
+    <row r="4" spans="1:12" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="74"/>
+      <c r="B4" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" s="46"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="36"/>
+    </row>
+    <row r="5" spans="1:12" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="74"/>
+      <c r="B5" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="74"/>
+      <c r="B6" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="50"/>
+      <c r="B7" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="50"/>
+      <c r="B8" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="50"/>
+      <c r="B9" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="50"/>
+      <c r="B10" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" s="50" t="s">
+      <c r="H10" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="50"/>
+      <c r="B11" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="39" t="s">
+      <c r="E11" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="67"/>
-    </row>
-    <row r="4" spans="1:12" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
-      <c r="B4" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="50" t="s">
+      <c r="H11" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="50"/>
+      <c r="B12" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="H4" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="36"/>
-    </row>
-    <row r="5" spans="1:12" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="L5" s="77"/>
-    </row>
-    <row r="6" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="G6" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="H6" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="76"/>
-      <c r="B7" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50" t="s">
+      <c r="H12" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="233.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="H7" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="76"/>
-      <c r="B8" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="E8" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="H8" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="76"/>
-      <c r="B9" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="H9" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="76"/>
-      <c r="B10" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="E10" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="H10" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="76"/>
-      <c r="B11" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="E11" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="G11" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="H11" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="76"/>
-      <c r="B12" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="E12" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="H12" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="233.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="64" t="s">
-        <v>25</v>
+      <c r="B13" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="46"/>
+      <c r="H13" s="56" t="s">
+        <v>24</v>
       </c>
       <c r="I13" s="39"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="67"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="59"/>
     </row>
     <row r="14" spans="1:12" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
-      <c r="B14" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="49" t="s">
+      <c r="A14" s="74"/>
+      <c r="B14" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="64" t="s">
-        <v>25</v>
+      <c r="E14" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="46"/>
+      <c r="H14" s="56" t="s">
+        <v>24</v>
       </c>
       <c r="I14" s="39"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="67"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="59"/>
     </row>
     <row r="15" spans="1:12" ht="249.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="64" t="s">
-        <v>25</v>
+      <c r="A15" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="46"/>
+      <c r="H15" s="56" t="s">
+        <v>24</v>
       </c>
       <c r="I15" s="39"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="67"/>
-    </row>
-    <row r="16" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
-      <c r="B16" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="64" t="s">
+      <c r="J15" s="46"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="59"/>
+    </row>
+    <row r="16" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="74"/>
+      <c r="B16" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="64" t="s">
-        <v>25</v>
+      <c r="G16" s="46"/>
+      <c r="H16" s="56" t="s">
+        <v>24</v>
       </c>
       <c r="I16" s="39"/>
-      <c r="J16" s="63"/>
+      <c r="J16" s="55"/>
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
     </row>
     <row r="17" spans="1:12" ht="130.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="E17" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="H17" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="J17" s="63"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="67"/>
+      <c r="A17" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="63"/>
+      <c r="D17" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="H17" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" s="55"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6823,8 +6723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADD30B2-DD71-45BD-B5D3-ECBDD8B20B47}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6840,66 +6740,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>4</v>
-      </c>
+      <c r="A1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
       <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>86</v>
-      </c>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="42"/>
       <c r="K2" s="40"/>
     </row>

--- a/5- Testing/Test Cases.xlsx
+++ b/5- Testing/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\Car-Purchasing-App\5- Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4EC25A-6437-4F1F-BBD9-503CFD621BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035815D7-4B37-4FC2-8FD2-5D875F4BE584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="222">
   <si>
     <t>Module</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Steps</t>
-  </si>
-  <si>
-    <t>Test Data</t>
   </si>
   <si>
     <t>Designed By</t>
@@ -345,95 +342,6 @@
     <t>Verify that user sees a pop-up message when there are no cars available for the entered brand name.</t>
   </si>
   <si>
-    <t>1_logout_user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate that the logout is working from the customer portal 
-</t>
-  </si>
-  <si>
-    <t>Functional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Register page is reachable.
-2. Edge Browser is available.
-3. Availability of test data for "UserID &amp; password".
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-1. Enter '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00FF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1305892</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>'
-in the user-id Field.
-2. Enter '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00FF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>12345ssss</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>' in the password field.
-3. Press the 'LOGIN' Button.</t>
-    </r>
-  </si>
-  <si>
-    <t>1- user-id : 1305892
-2- password : 12345ssss</t>
-  </si>
-  <si>
-    <t>Fouda</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>the user-id field should accept 
-the user-id and password move to the next 
-page after pressing
-'LOGOUT' successfully</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>PreCondition</t>
-  </si>
-  <si>
-    <t>Priotity</t>
-  </si>
-  <si>
-    <t>ER</t>
-  </si>
-  <si>
     <t>Brand Field(User)</t>
   </si>
   <si>
@@ -722,51 +630,16 @@
 2- User is registered in the system.</t>
   </si>
   <si>
-    <t>1. Open the login Page.
-2. enter "beshoy1@gmail.com" in the email field.
-3. enter "123456789" in the password field.
-4. Enter Login button.</t>
-  </si>
-  <si>
     <t>The home page should be displayed successfully to the user.</t>
   </si>
   <si>
-    <t>TC-Login-
-Cancel-12</t>
-  </si>
-  <si>
-    <t>Verify navigation to sign-up page when the user clicks on the sign-up button.</t>
-  </si>
-  <si>
-    <t>1. Open Login page.
-2.Click on the sign-up button.</t>
-  </si>
-  <si>
-    <t>The sign-up page should be displayed.</t>
-  </si>
-  <si>
     <t>Email Field (User)</t>
   </si>
   <si>
     <t>Verify error message will dissaper when the email field is left blank.</t>
   </si>
   <si>
-    <t>1. Open the login Page.
-2. enter "   " in the email field.
-3. enter "123456789" in the password field.
-4. Enter Login button.</t>
-  </si>
-  <si>
     <t>An error message should be displayed "Please fill out this field".</t>
-  </si>
-  <si>
-    <t>Verify that an error message should be displayed for the invalid email format.</t>
-  </si>
-  <si>
-    <t>1. Open the login Page.
-2. enter " beshoy1gmail.com  " in the email field.
-3. enter "123456789" in the password field.
-4. Enter Login button.</t>
   </si>
   <si>
     <t>An error message should be displayed "Invalid email or password".</t>
@@ -778,73 +651,323 @@
 4. Enter Login button.</t>
   </si>
   <si>
+    <t>Verify that an error message should be displayed for the invalid email format(special character).</t>
+  </si>
+  <si>
+    <t>Verify that an error message should be displayed for the invalid email format(space before .com).</t>
+  </si>
+  <si>
+    <t>Verify that an error message should be displayed for the invalid email format(space btween the mail).</t>
+  </si>
+  <si>
+    <t>Verify that an error message should be displayed for unregistered email with correct password.</t>
+  </si>
+  <si>
+    <t>Verify that an error message should be displayed for un registered email and password.</t>
+  </si>
+  <si>
+    <t>Verify that an error message should be displayed for the invalid email format(without@).</t>
+  </si>
+  <si>
+    <t>Verify that an error message should be displayed for the invalid email format(without .com).</t>
+  </si>
+  <si>
+    <t>Paaword Field(User)</t>
+  </si>
+  <si>
+    <t>Verify that an error message should be displayed for the invalid email format (without @ &amp; .com).</t>
+  </si>
+  <si>
+    <t>Verify that an error message should be displayed for correct email with incorrect password.</t>
+  </si>
+  <si>
+    <t>1. Open the login Page.
+2. enter " beshoy1@gmail.com " in the email field.
+3. enter "123456780" in the password field.
+4. Press Login button.</t>
+  </si>
+  <si>
+    <t>1. Open the login Page.
+2. enter "beshoy1@gmail.com" in the email field.
+3. enter "123456789" in the password field.
+4. Press Login button.</t>
+  </si>
+  <si>
+    <t>1. Open the login Page.
+2. enter "   " in the email field.
+3. enter "123456789" in the password field.
+4. press Login button.</t>
+  </si>
+  <si>
+    <t>1. Open the login Page.
+2. enter " beshoy1gmail.com  " in the email field.
+3. enter "123456789" in the password field.
+4. press Login button.</t>
+  </si>
+  <si>
+    <t>1. Open the login Page.
+2. enter " beshoy1" in the email field.
+3. enter "123456789" in the password field.
+4. press Login button.</t>
+  </si>
+  <si>
     <t>1. Open the login Page.
 2. enter " beshoy1@!gmail.com " in the email field.
 3. enter "123456789" in the password field.
-4. Enter Login button.</t>
-  </si>
-  <si>
-    <t>Verify that an error message should be displayed for the invalid email format(special character).</t>
-  </si>
-  <si>
-    <t>Verify that an error message should be displayed for the invalid email format(space before .com).</t>
-  </si>
-  <si>
-    <t>Verify that an error message should be displayed for the invalid email format(space btween the mail).</t>
+4. press Login button.</t>
+  </si>
+  <si>
+    <t>1. Open the login Page.
+2. enter " beshoy1@gmail .com " in the email field.
+3. enter "123456789" in the password field.
+4. press Login button.</t>
   </si>
   <si>
     <t>1. Open the login Page.
 2. enter " bes hoy1@gmail.com " in the email field.
 3. enter "123456789" in the password field.
-4. Enter Login button.</t>
-  </si>
-  <si>
-    <t>1. Open the login Page.
-2. enter " beshoy1@gmail .com " in the email field.
-3. enter "123456789" in the password field.
-4. Enter Login button.</t>
+4. press Login button.</t>
   </si>
   <si>
     <t>1. Open the login Page.
 2. enter " beshoy2@gmail.com " in the email field.
 3. enter "123456789" in the password field.
-4. Enter Login button.</t>
-  </si>
-  <si>
-    <t>Verify that an error message should be displayed for unregistered email with correct password.</t>
-  </si>
-  <si>
-    <t>Verify that an error message should be displayed forcorrect email with incorrect password.</t>
-  </si>
-  <si>
-    <t>1. Open the login Page.
-2. enter " beshoy1@gmail.com " in the email field.
-3. enter "123456780" in the password field.
-4. Enter Login button.</t>
-  </si>
-  <si>
-    <t>Verify that an error message should be displayed for un registered email and password.</t>
+4. press Login button.</t>
   </si>
   <si>
     <t>1. Open the login Page.
 2. enter " beshoy2@gmail.com " in the email field.
 3. enter "123456780" in the password field.
-4. Enter Login button.</t>
-  </si>
-  <si>
-    <t>Verify that an error message should be displayed for the invalid email format(without@).</t>
+4. press Login button.</t>
+  </si>
+  <si>
+    <t>Verify error message 'll be displayed when the password field is left blank.</t>
   </si>
   <si>
     <t>1. Open the login Page.
-2. enter " beshoy1" in the email field.
-3. enter "123456789" in the password field.
-4. Enter Login button.</t>
-  </si>
-  <si>
-    <t>Verify that an error message should be displayed for the invalid email format(without .com).</t>
-  </si>
-  <si>
-    <t>Paaword Field(User)</t>
+2. enter " beshoy1@gmail.com " in the email field.
+3. enter "   " in the password field.
+4. press Login button.</t>
+  </si>
+  <si>
+    <t>Verify error message should be displayed when the 
+password 
+length is less than 8 characters.</t>
+  </si>
+  <si>
+    <t>1. Open the login Page.
+2. enter " beshoy1@gmail.com " in the email field.
+3. enter " 1234567 " in the password field.
+4. press Login button.</t>
+  </si>
+  <si>
+    <t>The password field, should display any input as asterisk.</t>
+  </si>
+  <si>
+    <t>Verify that the password is masked 
+( displayed as asterisks"***")</t>
+  </si>
+  <si>
+    <t>1. Open the login Page.
+2. press sign-up button.</t>
+  </si>
+  <si>
+    <t>Verify navigation to  
+ sign-up page  when the user clicks
+on the sign-up button.</t>
+  </si>
+  <si>
+    <t>The sThe system should let the user navigate to the sign-up page.</t>
+  </si>
+  <si>
+    <t>TC-EmailLogin
+-User-02</t>
+  </si>
+  <si>
+    <t>TC-EmailLogin
+-User-01</t>
+  </si>
+  <si>
+    <t>TC-EmailLogin
+-User-03</t>
+  </si>
+  <si>
+    <t>TC-EmailLogin
+-User-04</t>
+  </si>
+  <si>
+    <t>TC-EmailLogin
+-User-05</t>
+  </si>
+  <si>
+    <t>TC-EmailLogin
+-User-06</t>
+  </si>
+  <si>
+    <t>TC-EmailLogin
+-User-07</t>
+  </si>
+  <si>
+    <t>TC-EmailLogin
+-User-08</t>
+  </si>
+  <si>
+    <t>TC-EmailLogin
+-User-09</t>
+  </si>
+  <si>
+    <t>TC-EmailLogin
+-User-10</t>
+  </si>
+  <si>
+    <t>TC-PasswordLogin
+-User-11</t>
+  </si>
+  <si>
+    <t>TC-PasswordLogin
+-User-12</t>
+  </si>
+  <si>
+    <t>TC-PasswordLogin
+-User-13</t>
+  </si>
+  <si>
+    <t>TC-Login
+-Admin-00</t>
+  </si>
+  <si>
+    <t>1- browser is available 
+2- Admin is registered in the system.</t>
+  </si>
+  <si>
+    <t>The home page should be displayed successfully to the admin.</t>
+  </si>
+  <si>
+    <t>The system should let the admin navigate to the sign-up page.</t>
+  </si>
+  <si>
+    <t>Verify navigation to  
+ sign-up page  when the admin clicks
+on the sign-up button.</t>
+  </si>
+  <si>
+    <t>TC-EmailLogin
+-Admin-01</t>
+  </si>
+  <si>
+    <t>TC-EmailLogin
+-Admin-02</t>
+  </si>
+  <si>
+    <t>TC-EmailLogin
+-Admin-03</t>
+  </si>
+  <si>
+    <t>TC-EmailLogin
+-Admin-04</t>
+  </si>
+  <si>
+    <t>TC-EmailLogin
+-Admin-05</t>
+  </si>
+  <si>
+    <t>TC-EmailLogin
+-Admin-06</t>
+  </si>
+  <si>
+    <t>TC-EmailLogin
+-Admin-07</t>
+  </si>
+  <si>
+    <t>TC-EmailLogin
+-Admin-08</t>
+  </si>
+  <si>
+    <t>TC-EmailLogin
+-Admin-09</t>
+  </si>
+  <si>
+    <t>TC-EmailLogin
+-Admin-10</t>
+  </si>
+  <si>
+    <t>TC-PasswordLogin
+-Admin-11</t>
+  </si>
+  <si>
+    <t>TC-PasswordLogin
+-Admin-12</t>
+  </si>
+  <si>
+    <t>TC-Signup
+-Admin-14</t>
+  </si>
+  <si>
+    <t>TC-Signup
+-User-14</t>
+  </si>
+  <si>
+    <t>Paaword Field(Admin)</t>
+  </si>
+  <si>
+    <t>TC-Logout
+-User-00</t>
+  </si>
+  <si>
+    <t>Verify successful logout for a user.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Click Logout button.</t>
+  </si>
+  <si>
+    <t>The user should be  successfully logged out and the login page should be displayed.</t>
+  </si>
+  <si>
+    <t>User (Logout)</t>
+  </si>
+  <si>
+    <t>TC-Logout
+-Admin-00</t>
+  </si>
+  <si>
+    <t>Verify successful logout for a admin.</t>
+  </si>
+  <si>
+    <t>The admin should be  successfully logged out and the login page should be displayed.</t>
+  </si>
+  <si>
+    <t>Admin(Logout)</t>
+  </si>
+  <si>
+    <t>Verify that the user can't access the home page after logout.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Click Logout button on the home page.
+</t>
+  </si>
+  <si>
+    <t>TC-Logout
+-User-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ 1.Click Logout button on the home page.
+2. Click "go back" button in the browser.</t>
+  </si>
+  <si>
+    <t>The user should not be able to go to the home page before logging in again.</t>
+  </si>
+  <si>
+    <t>TC-Logout
+-Admin-01</t>
+  </si>
+  <si>
+    <t>Verify that the admin can't access the home page after logout.</t>
+  </si>
+  <si>
+    <t>The admin should not be able to go to the home page before logging in again.</t>
   </si>
 </sst>
 </file>
@@ -978,25 +1101,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00FF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="20"/>
       <color theme="2"/>
@@ -1017,8 +1121,27 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1103,14 +1226,8 @@
         <bgColor rgb="FFFF00FF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF073763"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1214,81 +1331,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF434343"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF434343"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF434343"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF434343"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF434343"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF434343"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1343,11 +1385,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1464,116 +1589,154 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -5019,8 +5182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7E3B47-1521-4401-9600-50F8B310637B}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="G14" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I15"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5041,544 +5204,544 @@
   <sheetData>
     <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="61" t="s">
+      <c r="M1" s="47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="207" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="64"/>
+      <c r="B2" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="60" t="s">
+      <c r="E2" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="60" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="207" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45"/>
-      <c r="B2" s="52" t="s">
+      <c r="G2" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+    </row>
+    <row r="3" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="65"/>
+      <c r="B3" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="E3" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="50" t="s">
+      <c r="J3" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="56"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
+    </row>
+    <row r="4" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="65"/>
+      <c r="B4" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="50"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="54"/>
+    </row>
+    <row r="5" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="65"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="65" t="s">
+      <c r="E5" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-    </row>
-    <row r="3" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
-      <c r="B3" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="64" t="s">
+      <c r="I5" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="50"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="54"/>
+    </row>
+    <row r="6" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="65"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="H6" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="50"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="54"/>
+    </row>
+    <row r="7" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="65"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="69"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="67"/>
-    </row>
-    <row r="4" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="62" t="s">
+      <c r="E7" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="64" t="s">
+      <c r="G7" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="H7" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="50"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="54"/>
+    </row>
+    <row r="8" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="65"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="63"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="67"/>
-    </row>
-    <row r="5" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="64" t="s">
+      <c r="E8" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="H8" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="50"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="54"/>
+    </row>
+    <row r="9" spans="1:13" ht="162" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="65"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="63"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="67"/>
-    </row>
-    <row r="6" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" s="64" t="s">
+      <c r="E9" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="I6" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="50" t="s">
+      <c r="H9" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" s="50"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="54"/>
+    </row>
+    <row r="10" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="65"/>
+      <c r="B10" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="K6" s="63"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="67"/>
-    </row>
-    <row r="7" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="64" t="s">
+      <c r="D10" s="40">
+        <v>0</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" s="63"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="67"/>
-    </row>
-    <row r="8" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="I8" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="K8" s="63"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="67"/>
-    </row>
-    <row r="9" spans="1:13" ht="162" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="I9" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="K9" s="63"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="67"/>
-    </row>
-    <row r="10" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="49">
-        <v>0</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="I10" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="68" t="s">
-        <v>120</v>
+      <c r="H10" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="55" t="s">
+        <v>106</v>
       </c>
       <c r="K10" s="36"/>
       <c r="L10" s="36"/>
       <c r="M10" s="36"/>
     </row>
     <row r="11" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="49">
+      <c r="A11" s="65"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="40">
         <v>0</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F11" s="38"/>
-      <c r="G11" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="I11" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="68" t="s">
-        <v>123</v>
+      <c r="G11" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="55" t="s">
+        <v>109</v>
       </c>
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
       <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="49">
+      <c r="A12" s="65"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="40">
         <v>0</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F12" s="38"/>
-      <c r="G12" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="I12" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="68" t="s">
-        <v>123</v>
+      <c r="G12" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="55" t="s">
+        <v>109</v>
       </c>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
       <c r="M12" s="36"/>
     </row>
     <row r="13" spans="1:13" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="49">
+      <c r="A13" s="65"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="40">
         <v>0</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F13" s="38"/>
-      <c r="G13" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="I13" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="68" t="s">
-        <v>123</v>
+      <c r="G13" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="55" t="s">
+        <v>109</v>
       </c>
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
       <c r="M13" s="36"/>
     </row>
     <row r="14" spans="1:13" ht="130.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
-      <c r="B14" s="58" t="s">
+      <c r="A14" s="65"/>
+      <c r="B14" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="58">
+        <v>6.1</v>
+      </c>
+      <c r="E14" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="71">
-        <v>6.1</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="50" t="s">
+      <c r="F14" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" s="63"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="67"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="54"/>
     </row>
     <row r="15" spans="1:13" ht="84.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
-      <c r="B15" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>27</v>
+      <c r="A15" s="66"/>
+      <c r="B15" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>26</v>
       </c>
       <c r="E15" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="50" t="s">
+      <c r="H15" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="I15" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="37" t="s">
         <v>63</v>
-      </c>
-      <c r="I15" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>64</v>
       </c>
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
       <c r="M15" s="36"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
+      <c r="A16" s="65"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
+      <c r="A17" s="65"/>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="E18" s="73"/>
+      <c r="A18" s="65"/>
+      <c r="E18" s="60"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
+      <c r="A19" s="65"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
+      <c r="A20" s="65"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
+      <c r="A21" s="65"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
+      <c r="A22" s="65"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
+      <c r="A23" s="65"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
+      <c r="A24" s="65"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
+      <c r="A25" s="65"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
+      <c r="A26" s="65"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
+      <c r="A27" s="65"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
+      <c r="A28" s="65"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
+      <c r="A29" s="65"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
+      <c r="A30" s="65"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
+      <c r="A31" s="65"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
+      <c r="A32" s="65"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="46"/>
+      <c r="A33" s="65"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="46"/>
+      <c r="A34" s="65"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="46"/>
+      <c r="A35" s="65"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
+      <c r="A36" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5616,16 +5779,16 @@
   <sheetData>
     <row r="1" spans="1:13" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>12</v>
@@ -5640,166 +5803,166 @@
         <v>15</v>
       </c>
       <c r="I1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="24" t="s">
-        <v>19</v>
-      </c>
       <c r="L1" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45"/>
+      <c r="A2" s="64"/>
       <c r="B2" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>58</v>
-      </c>
       <c r="I2" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K2" s="26"/>
       <c r="L2" s="21"/>
       <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="220.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="34" t="s">
         <v>65</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>66</v>
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I3" s="38"/>
       <c r="J3" s="39" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="K3" s="36"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
     </row>
     <row r="4" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
+      <c r="A4" s="65"/>
     </row>
     <row r="5" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
+      <c r="A5" s="65"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
+      <c r="A6" s="65"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
+      <c r="A7" s="65"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
+      <c r="A8" s="65"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
+      <c r="A9" s="65"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
+      <c r="A10" s="65"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
+      <c r="A11" s="65"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
+      <c r="A12" s="65"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
+      <c r="A13" s="65"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
+      <c r="A14" s="65"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
+      <c r="A15" s="65"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
+      <c r="A16" s="65"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
+      <c r="A17" s="65"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
+      <c r="A18" s="65"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
+      <c r="A19" s="65"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
+      <c r="A20" s="65"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
+      <c r="A21" s="65"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
+      <c r="A22" s="65"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
+      <c r="A23" s="65"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
+      <c r="A24" s="65"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
+      <c r="A25" s="65"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
+      <c r="A26" s="65"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
+      <c r="A27" s="65"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
+      <c r="A28" s="65"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
+      <c r="A29" s="65"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
+      <c r="A30" s="65"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
+      <c r="A31" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5834,16 +5997,16 @@
   <sheetData>
     <row r="1" spans="1:13" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>12</v>
@@ -5858,140 +6021,140 @@
         <v>15</v>
       </c>
       <c r="I1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="24" t="s">
-        <v>19</v>
-      </c>
       <c r="L1" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="174.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45"/>
+      <c r="A2" s="64"/>
       <c r="B2" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="34" t="s">
         <v>71</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>72</v>
       </c>
       <c r="K2" s="26"/>
       <c r="L2" s="21"/>
       <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
+      <c r="A3" s="65"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
+      <c r="A4" s="65"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
+      <c r="A5" s="65"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
+      <c r="A6" s="65"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
+      <c r="A7" s="65"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
+      <c r="A8" s="65"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
+      <c r="A9" s="65"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
+      <c r="A10" s="65"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
+      <c r="A11" s="65"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
+      <c r="A12" s="65"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
+      <c r="A13" s="65"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
+      <c r="A14" s="65"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
+      <c r="A15" s="65"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
+      <c r="A16" s="65"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
+      <c r="A17" s="65"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
+      <c r="A18" s="65"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
+      <c r="A19" s="65"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
+      <c r="A20" s="65"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
+      <c r="A21" s="65"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
+      <c r="A22" s="65"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
+      <c r="A23" s="65"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
+      <c r="A24" s="65"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
+      <c r="A25" s="65"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
+      <c r="A26" s="65"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
+      <c r="A27" s="65"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
+      <c r="A28" s="65"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
+      <c r="A29" s="65"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
+      <c r="A30" s="65"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
+      <c r="A31" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6005,8 +6168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D229A3A4-4F9D-42AB-80C8-669754DC12C3}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" workbookViewId="0">
-      <selection sqref="A1:L9"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6026,287 +6189,287 @@
   <sheetData>
     <row r="1" spans="1:12" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="74" t="s">
+      <c r="L1" s="61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="74" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="50" t="s">
+      <c r="F2" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="50" t="s">
+      <c r="H2" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="39" t="s">
+      <c r="J2" s="41"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="54"/>
+    </row>
+    <row r="3" spans="1:12" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="69"/>
+      <c r="B3" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="67"/>
-    </row>
-    <row r="3" spans="1:12" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54"/>
-      <c r="B3" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="64" t="s">
-        <v>25</v>
+      <c r="E3" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>24</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="67"/>
+        <v>82</v>
+      </c>
+      <c r="J3" s="41"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="54"/>
     </row>
     <row r="4" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" s="64" t="s">
-        <v>25</v>
+      <c r="A4" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>24</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="67"/>
+        <v>87</v>
+      </c>
+      <c r="J4" s="41"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="54"/>
     </row>
     <row r="5" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" s="64" t="s">
-        <v>25</v>
+      <c r="A5" s="69"/>
+      <c r="B5" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>24</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="63"/>
+        <v>82</v>
+      </c>
+      <c r="J5" s="50"/>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="50" t="s">
+      <c r="A6" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="67"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="54"/>
     </row>
     <row r="7" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="49" t="s">
+      <c r="A7" s="69"/>
+      <c r="B7" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="50" t="s">
+      <c r="E7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="41"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="54"/>
+    </row>
+    <row r="8" spans="1:12" ht="114" x14ac:dyDescent="0.2">
+      <c r="A8" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="39" t="s">
+      <c r="B8" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="J7" s="50"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="67"/>
-    </row>
-    <row r="8" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="64" t="s">
-        <v>25</v>
+      <c r="C8" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>24</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="67"/>
+        <v>87</v>
+      </c>
+      <c r="J8" s="41"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="54"/>
     </row>
     <row r="9" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
-      <c r="B9" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="64" t="s">
+      <c r="A9" s="69"/>
+      <c r="B9" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="64" t="s">
-        <v>25</v>
+      <c r="G9" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>24</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" s="63"/>
+        <v>82</v>
+      </c>
+      <c r="J9" s="50"/>
       <c r="K9" s="36"/>
       <c r="L9" s="36"/>
     </row>
@@ -6323,496 +6486,928 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3E3723-9A66-41B9-B3EE-9ACDC170719F}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" customWidth="1"/>
     <col min="7" max="7" width="34.42578125" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" customWidth="1"/>
     <col min="9" max="9" width="27.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="74" t="s">
+      <c r="L1" s="47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="204.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="40">
+        <v>0</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="74" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="204.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="49" t="s">
+      <c r="F2" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="41"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="54"/>
+    </row>
+    <row r="3" spans="1:12" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" s="41"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="54"/>
+    </row>
+    <row r="4" spans="1:12" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="69"/>
+      <c r="B4" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="49">
-        <v>0</v>
-      </c>
-      <c r="D2" s="50" t="s">
+      <c r="E4" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" s="41"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="36"/>
+    </row>
+    <row r="5" spans="1:12" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="69"/>
+      <c r="B5" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+    </row>
+    <row r="6" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="69"/>
+      <c r="B6" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="50" t="s">
+      <c r="E6" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+    </row>
+    <row r="7" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="45"/>
+      <c r="B7" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+    </row>
+    <row r="8" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="45"/>
+      <c r="B8" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+    </row>
+    <row r="9" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="45"/>
+      <c r="B9" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+    </row>
+    <row r="10" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="45"/>
+      <c r="B10" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+    </row>
+    <row r="11" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="45"/>
+      <c r="B11" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+    </row>
+    <row r="12" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="45"/>
+      <c r="B12" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+    </row>
+    <row r="13" spans="1:12" ht="233.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="75" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="B13" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" s="41"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="54"/>
+    </row>
+    <row r="14" spans="1:12" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="76"/>
+      <c r="B14" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" s="41"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="54"/>
+    </row>
+    <row r="15" spans="1:12" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="45"/>
+      <c r="B15" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" s="41"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="54"/>
+    </row>
+    <row r="16" spans="1:12" ht="130.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" s="50"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="54"/>
+    </row>
+    <row r="17" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="J17" s="41"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="54"/>
+    </row>
+    <row r="18" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" s="41"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="54"/>
+    </row>
+    <row r="19" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="83"/>
+      <c r="B19" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J19" s="41"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="36"/>
+    </row>
+    <row r="20" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="83"/>
+      <c r="B20" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="H2" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="39" t="s">
+      <c r="E20" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="H20" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+    </row>
+    <row r="21" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="83"/>
+      <c r="B21" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+    </row>
+    <row r="22" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="83"/>
+      <c r="B22" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="H22" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+    </row>
+    <row r="23" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="83"/>
+      <c r="B23" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="H23" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+    </row>
+    <row r="24" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="83"/>
+      <c r="B24" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="H24" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+    </row>
+    <row r="25" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="83"/>
+      <c r="B25" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="H25" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+    </row>
+    <row r="26" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="83"/>
+      <c r="B26" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="67"/>
-    </row>
-    <row r="3" spans="1:12" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="78" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="67"/>
-    </row>
-    <row r="4" spans="1:12" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
-      <c r="B4" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="50" t="s">
+      <c r="E26" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+    </row>
+    <row r="27" spans="1:12" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="84"/>
+      <c r="B27" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="H4" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="39" t="s">
+      <c r="H27" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+    </row>
+    <row r="28" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="36"/>
-    </row>
-    <row r="5" spans="1:12" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="L5" s="77"/>
-    </row>
-    <row r="6" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="G6" s="50" t="s">
+      <c r="E28" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="H6" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="76"/>
-      <c r="B7" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50" t="s">
+      <c r="H28" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="J28" s="41"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="54"/>
+    </row>
+    <row r="29" spans="1:12" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="80"/>
+      <c r="B29" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="H7" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="76"/>
-      <c r="B8" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50" t="s">
+      <c r="H29" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J29" s="41"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="54"/>
+    </row>
+    <row r="30" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="81"/>
+      <c r="B30" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="H30" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="H8" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="76"/>
-      <c r="B9" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="G9" s="50" t="s">
+      <c r="J30" s="41"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="54"/>
+    </row>
+    <row r="31" spans="1:12" ht="130.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" s="58"/>
+      <c r="D31" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="H9" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="76"/>
-      <c r="B10" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="E10" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="H10" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="76"/>
-      <c r="B11" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="E11" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="G11" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="H11" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="76"/>
-      <c r="B12" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="E12" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="H12" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="233.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="67"/>
-    </row>
-    <row r="14" spans="1:12" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
-      <c r="B14" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="67"/>
-    </row>
-    <row r="15" spans="1:12" ht="249.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="67"/>
-    </row>
-    <row r="16" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
-      <c r="B16" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-    </row>
-    <row r="17" spans="1:12" ht="130.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="E17" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="H17" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="J17" s="63"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="67"/>
+      <c r="H31" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="J31" s="50"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A18:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
@@ -6821,10 +7416,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADD30B2-DD71-45BD-B5D3-ECBDD8B20B47}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6832,78 +7427,174 @@
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="1:12" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="E1" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="44" t="s">
+      <c r="F1" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="H1" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="I1" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="40"/>
-    </row>
-    <row r="2" spans="1:11" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="40"/>
+    </row>
+    <row r="2" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="88" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="77" t="s">
+        <v>208</v>
+      </c>
+      <c r="J2" s="41"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="54"/>
+    </row>
+    <row r="3" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="89"/>
+      <c r="B3" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="J3" s="41"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="54"/>
+    </row>
+    <row r="4" spans="1:12" ht="184.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="90" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="J4" s="41"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="54"/>
+    </row>
+    <row r="5" spans="1:12" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="91"/>
+      <c r="B5" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="77" t="s">
+        <v>221</v>
+      </c>
+      <c r="J5" s="41"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/5- Testing/Test Cases.xlsx
+++ b/5- Testing/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\Car-Purchasing-App\5- Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035815D7-4B37-4FC2-8FD2-5D875F4BE584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14770936-C009-404D-AB1F-74CA03AD62D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -927,10 +927,6 @@
     <t>User (Logout)</t>
   </si>
   <si>
-    <t>TC-Logout
--Admin-00</t>
-  </si>
-  <si>
     <t>Verify successful logout for a admin.</t>
   </si>
   <si>
@@ -960,14 +956,18 @@
     <t>The user should not be able to go to the home page before logging in again.</t>
   </si>
   <si>
+    <t>Verify that the admin can't access the home page after logout.</t>
+  </si>
+  <si>
+    <t>The admin should not be able to go to the home page before logging in again.</t>
+  </si>
+  <si>
     <t>TC-Logout
--Admin-01</t>
-  </si>
-  <si>
-    <t>Verify that the admin can't access the home page after logout.</t>
-  </si>
-  <si>
-    <t>The admin should not be able to go to the home page before logging in again.</t>
+-Admin-03</t>
+  </si>
+  <si>
+    <t>TC-Logout
+-Admin-02</t>
   </si>
 </sst>
 </file>
@@ -1661,6 +1661,24 @@
     <xf numFmtId="0" fontId="21" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1685,21 +1703,12 @@
     <xf numFmtId="0" fontId="22" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1717,15 +1726,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -5244,7 +5244,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="207" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="43" t="s">
         <v>28</v>
       </c>
@@ -5277,7 +5277,7 @@
       <c r="M2" s="54"/>
     </row>
     <row r="3" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="43" t="s">
         <v>27</v>
       </c>
@@ -5310,8 +5310,8 @@
       <c r="M3" s="54"/>
     </row>
     <row r="4" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="74" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="40" t="s">
@@ -5343,8 +5343,8 @@
       <c r="M4" s="54"/>
     </row>
     <row r="5" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-      <c r="B5" s="69"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="40" t="s">
         <v>37</v>
       </c>
@@ -5374,8 +5374,8 @@
       <c r="M5" s="54"/>
     </row>
     <row r="6" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
-      <c r="B6" s="69"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="40" t="s">
         <v>122</v>
       </c>
@@ -5405,8 +5405,8 @@
       <c r="M6" s="54"/>
     </row>
     <row r="7" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
-      <c r="B7" s="69"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="40" t="s">
         <v>123</v>
       </c>
@@ -5436,8 +5436,8 @@
       <c r="M7" s="54"/>
     </row>
     <row r="8" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
-      <c r="B8" s="69"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="40" t="s">
         <v>124</v>
       </c>
@@ -5467,8 +5467,8 @@
       <c r="M8" s="54"/>
     </row>
     <row r="9" spans="1:13" ht="162" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
-      <c r="B9" s="69"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="40" t="s">
         <v>125</v>
       </c>
@@ -5498,8 +5498,8 @@
       <c r="M9" s="54"/>
     </row>
     <row r="10" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
-      <c r="B10" s="70" t="s">
+      <c r="A10" s="71"/>
+      <c r="B10" s="76" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="40" t="s">
@@ -5529,8 +5529,8 @@
       <c r="M10" s="36"/>
     </row>
     <row r="11" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
-      <c r="B11" s="71"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="40" t="s">
         <v>129</v>
       </c>
@@ -5558,8 +5558,8 @@
       <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
-      <c r="B12" s="71"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="40" t="s">
         <v>130</v>
       </c>
@@ -5587,8 +5587,8 @@
       <c r="M12" s="36"/>
     </row>
     <row r="13" spans="1:13" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
-      <c r="B13" s="72"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="40" t="s">
         <v>131</v>
       </c>
@@ -5616,7 +5616,7 @@
       <c r="M13" s="36"/>
     </row>
     <row r="14" spans="1:13" ht="130.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="44" t="s">
         <v>49</v>
       </c>
@@ -5649,7 +5649,7 @@
       <c r="M14" s="54"/>
     </row>
     <row r="15" spans="1:13" ht="84.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="66"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="46" t="s">
         <v>58</v>
       </c>
@@ -5680,68 +5680,68 @@
       <c r="M15" s="36"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
+      <c r="A16" s="71"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
+      <c r="A17" s="71"/>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
+      <c r="A18" s="71"/>
       <c r="E18" s="60"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
+      <c r="A19" s="71"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
+      <c r="A20" s="71"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
+      <c r="A21" s="71"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
+      <c r="A22" s="71"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="65"/>
+      <c r="A23" s="71"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="65"/>
+      <c r="A24" s="71"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="65"/>
+      <c r="A25" s="71"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="65"/>
+      <c r="A26" s="71"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="65"/>
+      <c r="A27" s="71"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="65"/>
+      <c r="A28" s="71"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="65"/>
+      <c r="A29" s="71"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="65"/>
+      <c r="A30" s="71"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="65"/>
+      <c r="A31" s="71"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="65"/>
+      <c r="A32" s="71"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="65"/>
+      <c r="A33" s="71"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="65"/>
+      <c r="A34" s="71"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="65"/>
+      <c r="A35" s="71"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="67"/>
+      <c r="A36" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5819,7 +5819,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="23" t="s">
         <v>28</v>
       </c>
@@ -5852,7 +5852,7 @@
       <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="220.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="31" t="s">
         <v>58</v>
       </c>
@@ -5881,88 +5881,88 @@
       <c r="M3" s="36"/>
     </row>
     <row r="4" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
+      <c r="A4" s="71"/>
     </row>
     <row r="5" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
+      <c r="A5" s="71"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
+      <c r="A6" s="71"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
+      <c r="A7" s="71"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
+      <c r="A8" s="71"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
+      <c r="A9" s="71"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
+      <c r="A10" s="71"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
+      <c r="A11" s="71"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
+      <c r="A12" s="71"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
+      <c r="A13" s="71"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
+      <c r="A14" s="71"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
+      <c r="A15" s="71"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
+      <c r="A16" s="71"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
+      <c r="A17" s="71"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
+      <c r="A18" s="71"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
+      <c r="A19" s="71"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
+      <c r="A20" s="71"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
+      <c r="A21" s="71"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
+      <c r="A22" s="71"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="65"/>
+      <c r="A23" s="71"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="65"/>
+      <c r="A24" s="71"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="65"/>
+      <c r="A25" s="71"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="65"/>
+      <c r="A26" s="71"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="65"/>
+      <c r="A27" s="71"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="65"/>
+      <c r="A28" s="71"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="65"/>
+      <c r="A29" s="71"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="65"/>
+      <c r="A30" s="71"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="67"/>
+      <c r="A31" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6037,7 +6037,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="174.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="23" t="s">
         <v>28</v>
       </c>
@@ -6070,91 +6070,91 @@
       <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
+      <c r="A3" s="71"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
+      <c r="A4" s="71"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
+      <c r="A5" s="71"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
+      <c r="A6" s="71"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
+      <c r="A7" s="71"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
+      <c r="A8" s="71"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
+      <c r="A9" s="71"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
+      <c r="A10" s="71"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
+      <c r="A11" s="71"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
+      <c r="A12" s="71"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
+      <c r="A13" s="71"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
+      <c r="A14" s="71"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
+      <c r="A15" s="71"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
+      <c r="A16" s="71"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
+      <c r="A17" s="71"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
+      <c r="A18" s="71"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
+      <c r="A19" s="71"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
+      <c r="A20" s="71"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
+      <c r="A21" s="71"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
+      <c r="A22" s="71"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="65"/>
+      <c r="A23" s="71"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="65"/>
+      <c r="A24" s="71"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="65"/>
+      <c r="A25" s="71"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="65"/>
+      <c r="A26" s="71"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="65"/>
+      <c r="A27" s="71"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="65"/>
+      <c r="A28" s="71"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="65"/>
+      <c r="A29" s="71"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="65"/>
+      <c r="A30" s="71"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="67"/>
+      <c r="A31" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6226,7 +6226,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="74" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -6258,7 +6258,7 @@
       <c r="L2" s="54"/>
     </row>
     <row r="3" spans="1:12" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="40" t="s">
         <v>79</v>
       </c>
@@ -6288,7 +6288,7 @@
       <c r="L3" s="54"/>
     </row>
     <row r="4" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="74" t="s">
         <v>83</v>
       </c>
       <c r="B4" s="40" t="s">
@@ -6320,7 +6320,7 @@
       <c r="L4" s="54"/>
     </row>
     <row r="5" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A5" s="69"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="40" t="s">
         <v>88</v>
       </c>
@@ -6350,7 +6350,7 @@
       <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="74" t="s">
         <v>90</v>
       </c>
       <c r="B6" s="40" t="s">
@@ -6382,7 +6382,7 @@
       <c r="L6" s="54"/>
     </row>
     <row r="7" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A7" s="69"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="40" t="s">
         <v>93</v>
       </c>
@@ -6412,7 +6412,7 @@
       <c r="L7" s="54"/>
     </row>
     <row r="8" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="74" t="s">
         <v>95</v>
       </c>
       <c r="B8" s="40" t="s">
@@ -6444,7 +6444,7 @@
       <c r="L8" s="54"/>
     </row>
     <row r="9" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A9" s="69"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="40" t="s">
         <v>98</v>
       </c>
@@ -6506,7 +6506,7 @@
     <col min="11" max="11" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>21</v>
       </c>
@@ -6577,7 +6577,7 @@
       <c r="L2" s="54"/>
     </row>
     <row r="3" spans="1:12" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="79" t="s">
         <v>138</v>
       </c>
       <c r="B3" s="40" t="s">
@@ -6607,7 +6607,7 @@
       <c r="L3" s="54"/>
     </row>
     <row r="4" spans="1:12" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="40" t="s">
         <v>172</v>
       </c>
@@ -6635,7 +6635,7 @@
       <c r="L4" s="36"/>
     </row>
     <row r="5" spans="1:12" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="69"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="40" t="s">
         <v>174</v>
       </c>
@@ -6663,7 +6663,7 @@
       <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="69"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="40" t="s">
         <v>175</v>
       </c>
@@ -6859,7 +6859,7 @@
       <c r="L12" s="36"/>
     </row>
     <row r="13" spans="1:12" ht="233.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="80" t="s">
         <v>150</v>
       </c>
       <c r="B13" s="40" t="s">
@@ -6889,12 +6889,12 @@
       <c r="L13" s="54"/>
     </row>
     <row r="14" spans="1:12" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="76"/>
+      <c r="A14" s="81"/>
       <c r="B14" s="40" t="s">
         <v>183</v>
       </c>
       <c r="C14" s="40"/>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="65" t="s">
         <v>165</v>
       </c>
       <c r="E14" s="41" t="s">
@@ -6922,7 +6922,7 @@
         <v>184</v>
       </c>
       <c r="C15" s="40"/>
-      <c r="D15" s="77" t="s">
+      <c r="D15" s="65" t="s">
         <v>168</v>
       </c>
       <c r="E15" s="41" t="s">
@@ -6952,7 +6952,7 @@
         <v>203</v>
       </c>
       <c r="C16" s="58"/>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="64" t="s">
         <v>170</v>
       </c>
       <c r="E16" s="51" t="s">
@@ -6967,7 +6967,7 @@
       <c r="H16" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="74" t="s">
+      <c r="I16" s="64" t="s">
         <v>171</v>
       </c>
       <c r="J16" s="50"/>
@@ -6975,7 +6975,7 @@
       <c r="L16" s="54"/>
     </row>
     <row r="17" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="66" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="40" t="s">
@@ -7005,7 +7005,7 @@
       <c r="L17" s="54"/>
     </row>
     <row r="18" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="85" t="s">
         <v>138</v>
       </c>
       <c r="B18" s="40" t="s">
@@ -7035,7 +7035,7 @@
       <c r="L18" s="54"/>
     </row>
     <row r="19" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="83"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="40" t="s">
         <v>191</v>
       </c>
@@ -7063,7 +7063,7 @@
       <c r="L19" s="36"/>
     </row>
     <row r="20" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="83"/>
+      <c r="A20" s="86"/>
       <c r="B20" s="40" t="s">
         <v>192</v>
       </c>
@@ -7091,7 +7091,7 @@
       <c r="L20" s="36"/>
     </row>
     <row r="21" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="83"/>
+      <c r="A21" s="86"/>
       <c r="B21" s="40" t="s">
         <v>193</v>
       </c>
@@ -7119,7 +7119,7 @@
       <c r="L21" s="36"/>
     </row>
     <row r="22" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="83"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="40" t="s">
         <v>194</v>
       </c>
@@ -7147,7 +7147,7 @@
       <c r="L22" s="36"/>
     </row>
     <row r="23" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="83"/>
+      <c r="A23" s="86"/>
       <c r="B23" s="40" t="s">
         <v>195</v>
       </c>
@@ -7175,7 +7175,7 @@
       <c r="L23" s="36"/>
     </row>
     <row r="24" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="83"/>
+      <c r="A24" s="86"/>
       <c r="B24" s="40" t="s">
         <v>196</v>
       </c>
@@ -7203,7 +7203,7 @@
       <c r="L24" s="36"/>
     </row>
     <row r="25" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="83"/>
+      <c r="A25" s="86"/>
       <c r="B25" s="40" t="s">
         <v>197</v>
       </c>
@@ -7231,7 +7231,7 @@
       <c r="L25" s="36"/>
     </row>
     <row r="26" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="83"/>
+      <c r="A26" s="86"/>
       <c r="B26" s="40" t="s">
         <v>198</v>
       </c>
@@ -7259,7 +7259,7 @@
       <c r="L26" s="36"/>
     </row>
     <row r="27" spans="1:12" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="84"/>
+      <c r="A27" s="87"/>
       <c r="B27" s="40" t="s">
         <v>199</v>
       </c>
@@ -7287,7 +7287,7 @@
       <c r="L27" s="36"/>
     </row>
     <row r="28" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="79" t="s">
+      <c r="A28" s="82" t="s">
         <v>204</v>
       </c>
       <c r="B28" s="40" t="s">
@@ -7317,12 +7317,12 @@
       <c r="L28" s="54"/>
     </row>
     <row r="29" spans="1:12" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="80"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="40" t="s">
         <v>201</v>
       </c>
       <c r="C29" s="40"/>
-      <c r="D29" s="77" t="s">
+      <c r="D29" s="65" t="s">
         <v>165</v>
       </c>
       <c r="E29" s="41" t="s">
@@ -7345,12 +7345,12 @@
       <c r="L29" s="54"/>
     </row>
     <row r="30" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="81"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="40" t="s">
         <v>184</v>
       </c>
       <c r="C30" s="40"/>
-      <c r="D30" s="77" t="s">
+      <c r="D30" s="65" t="s">
         <v>168</v>
       </c>
       <c r="E30" s="41" t="s">
@@ -7380,7 +7380,7 @@
         <v>202</v>
       </c>
       <c r="C31" s="58"/>
-      <c r="D31" s="77" t="s">
+      <c r="D31" s="65" t="s">
         <v>189</v>
       </c>
       <c r="E31" s="51" t="s">
@@ -7395,7 +7395,7 @@
       <c r="H31" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I31" s="77" t="s">
+      <c r="I31" s="65" t="s">
         <v>188</v>
       </c>
       <c r="J31" s="50"/>
@@ -7419,7 +7419,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7439,40 +7439,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="J1" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="86" t="s">
+      <c r="K1" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="86" t="s">
+      <c r="L1" s="68" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7499,7 +7499,7 @@
       <c r="H2" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="65" t="s">
         <v>208</v>
       </c>
       <c r="J2" s="41"/>
@@ -7509,11 +7509,11 @@
     <row r="3" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="89"/>
       <c r="B3" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E3" s="50" t="s">
         <v>19</v>
@@ -7522,13 +7522,13 @@
         <v>59</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H3" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="77" t="s">
-        <v>218</v>
+      <c r="I3" s="65" t="s">
+        <v>217</v>
       </c>
       <c r="J3" s="41"/>
       <c r="K3" s="57"/>
@@ -7536,14 +7536,14 @@
     </row>
     <row r="4" spans="1:12" ht="184.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E4" s="50" t="s">
         <v>19</v>
@@ -7552,13 +7552,13 @@
         <v>33</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H4" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="77" t="s">
-        <v>212</v>
+      <c r="I4" s="65" t="s">
+        <v>211</v>
       </c>
       <c r="J4" s="41"/>
       <c r="K4" s="57"/>
@@ -7567,11 +7567,11 @@
     <row r="5" spans="1:12" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="91"/>
       <c r="B5" s="40" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C5" s="40"/>
       <c r="D5" s="41" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E5" s="50" t="s">
         <v>19</v>
@@ -7580,13 +7580,13 @@
         <v>59</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H5" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="77" t="s">
-        <v>221</v>
+      <c r="I5" s="65" t="s">
+        <v>219</v>
       </c>
       <c r="J5" s="41"/>
     </row>

--- a/5- Testing/Test Cases.xlsx
+++ b/5- Testing/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\Car-Purchasing-App\5- Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14770936-C009-404D-AB1F-74CA03AD62D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB3B1EB-472D-48AE-8135-674682B22858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="2" r:id="rId1"/>
@@ -974,7 +974,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1110,13 +1110,6 @@
     <font>
       <b/>
       <sz val="28"/>
-      <color theme="2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="36"/>
       <color theme="2"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1472,7 +1465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1664,10 +1657,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1700,22 +1693,19 @@
     <xf numFmtId="0" fontId="20" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1727,16 +1717,22 @@
     <xf numFmtId="0" fontId="21" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -6488,8 +6484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3E3723-9A66-41B9-B3EE-9ACDC170719F}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:L2"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6577,7 +6573,7 @@
       <c r="L2" s="54"/>
     </row>
     <row r="3" spans="1:12" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="91" t="s">
         <v>138</v>
       </c>
       <c r="B3" s="40" t="s">
@@ -6607,7 +6603,7 @@
       <c r="L3" s="54"/>
     </row>
     <row r="4" spans="1:12" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="75"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="40" t="s">
         <v>172</v>
       </c>
@@ -6635,7 +6631,7 @@
       <c r="L4" s="36"/>
     </row>
     <row r="5" spans="1:12" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="75"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="40" t="s">
         <v>174</v>
       </c>
@@ -6663,7 +6659,7 @@
       <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="75"/>
+      <c r="A6" s="92"/>
       <c r="B6" s="40" t="s">
         <v>175</v>
       </c>
@@ -6859,7 +6855,7 @@
       <c r="L12" s="36"/>
     </row>
     <row r="13" spans="1:12" ht="233.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="79" t="s">
         <v>150</v>
       </c>
       <c r="B13" s="40" t="s">
@@ -6889,7 +6885,7 @@
       <c r="L13" s="54"/>
     </row>
     <row r="14" spans="1:12" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="81"/>
+      <c r="A14" s="80"/>
       <c r="B14" s="40" t="s">
         <v>183</v>
       </c>
@@ -7005,7 +7001,7 @@
       <c r="L17" s="54"/>
     </row>
     <row r="18" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="84" t="s">
         <v>138</v>
       </c>
       <c r="B18" s="40" t="s">
@@ -7035,7 +7031,7 @@
       <c r="L18" s="54"/>
     </row>
     <row r="19" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="86"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="40" t="s">
         <v>191</v>
       </c>
@@ -7063,7 +7059,7 @@
       <c r="L19" s="36"/>
     </row>
     <row r="20" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="86"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="40" t="s">
         <v>192</v>
       </c>
@@ -7091,7 +7087,7 @@
       <c r="L20" s="36"/>
     </row>
     <row r="21" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="86"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="40" t="s">
         <v>193</v>
       </c>
@@ -7119,7 +7115,7 @@
       <c r="L21" s="36"/>
     </row>
     <row r="22" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="86"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="40" t="s">
         <v>194</v>
       </c>
@@ -7147,7 +7143,7 @@
       <c r="L22" s="36"/>
     </row>
     <row r="23" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="86"/>
+      <c r="A23" s="85"/>
       <c r="B23" s="40" t="s">
         <v>195</v>
       </c>
@@ -7175,7 +7171,7 @@
       <c r="L23" s="36"/>
     </row>
     <row r="24" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="86"/>
+      <c r="A24" s="85"/>
       <c r="B24" s="40" t="s">
         <v>196</v>
       </c>
@@ -7203,7 +7199,7 @@
       <c r="L24" s="36"/>
     </row>
     <row r="25" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="86"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="40" t="s">
         <v>197</v>
       </c>
@@ -7231,7 +7227,7 @@
       <c r="L25" s="36"/>
     </row>
     <row r="26" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="86"/>
+      <c r="A26" s="85"/>
       <c r="B26" s="40" t="s">
         <v>198</v>
       </c>
@@ -7259,7 +7255,7 @@
       <c r="L26" s="36"/>
     </row>
     <row r="27" spans="1:12" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="87"/>
+      <c r="A27" s="86"/>
       <c r="B27" s="40" t="s">
         <v>199</v>
       </c>
@@ -7287,7 +7283,7 @@
       <c r="L27" s="36"/>
     </row>
     <row r="28" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="81" t="s">
         <v>204</v>
       </c>
       <c r="B28" s="40" t="s">
@@ -7317,7 +7313,7 @@
       <c r="L28" s="54"/>
     </row>
     <row r="29" spans="1:12" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="83"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="40" t="s">
         <v>201</v>
       </c>
@@ -7345,7 +7341,7 @@
       <c r="L29" s="54"/>
     </row>
     <row r="30" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="84"/>
+      <c r="A30" s="83"/>
       <c r="B30" s="40" t="s">
         <v>184</v>
       </c>
@@ -7418,7 +7414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADD30B2-DD71-45BD-B5D3-ECBDD8B20B47}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -7477,7 +7473,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="87" t="s">
         <v>209</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -7507,7 +7503,7 @@
       <c r="L2" s="54"/>
     </row>
     <row r="3" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="89"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="40" t="s">
         <v>215</v>
       </c>
@@ -7535,7 +7531,7 @@
       <c r="L3" s="54"/>
     </row>
     <row r="4" spans="1:12" ht="184.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="89" t="s">
         <v>212</v>
       </c>
       <c r="B4" s="40" t="s">
@@ -7565,7 +7561,7 @@
       <c r="L4" s="54"/>
     </row>
     <row r="5" spans="1:12" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="91"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="40" t="s">
         <v>220</v>
       </c>
@@ -7604,7 +7600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0796CBB2-7C1E-4A72-8F15-4D297E074D7C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>

--- a/5- Testing/Test Cases.xlsx
+++ b/5- Testing/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\Car-Purchasing-App\5- Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB3B1EB-472D-48AE-8135-674682B22858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C299534-F4B1-4BD3-8EB6-0CEE265AFAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="310">
   <si>
     <t>Module</t>
   </si>
@@ -969,12 +969,373 @@
     <t>TC-Logout
 -Admin-02</t>
   </si>
+  <si>
+    <t>TC-Sign Up
+-User-01</t>
+  </si>
+  <si>
+    <t>REQ-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that user can Register then redirected to Home page </t>
+  </si>
+  <si>
+    <t>1. Browser is available
+2. user has a valid mail</t>
+  </si>
+  <si>
+    <t>1. open site
+2. Tab Sign up button 
+3. fill first name field "Ahmed"
+4. Fill Last Name field " Mohamed"
+5. enter a valid mail "ahmed@gmail.com"
+6. Enter your phone number 
+7. Enter your address 
+8. Tab Register Button</t>
+  </si>
+  <si>
+    <t>1. user registered successfully and redirected to home page</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-02</t>
+  </si>
+  <si>
+    <t>REQ-1.1</t>
+  </si>
+  <si>
+    <t>Validate that if user clicks log in button, the user redirected to log in page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Browser is available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3. Tab log in </t>
+  </si>
+  <si>
+    <t>1. user redirected to log in page</t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-03</t>
+  </si>
+  <si>
+    <t>3.1.5 - T001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vailidate that first name field can't be blank </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3. Fill all the fields except First name field
+4. Tab sign up </t>
+  </si>
+  <si>
+    <t>1.An error message should appear: "Please fill out this field."</t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-04</t>
+  </si>
+  <si>
+    <t>3.1.5 - T002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that no special characters are not allowed in first name field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3.Fill first name field with special characters found in this link "https://www.computerhope.com/jargon/s/specchar.htm"
+4. fill all other fields with valid data
+5. tab sign up  </t>
+  </si>
+  <si>
+    <t>1. An error message should appear: "You entered invalid data."</t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-05</t>
+  </si>
+  <si>
+    <t>3.1.5 - T003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vailidate that last name field can't be blank </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3. Fill all the fields except last name field
+4. Tab sign up </t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-06</t>
+  </si>
+  <si>
+    <t>3.1.5 - T004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that no special characters are not allowed in last name field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3.Fill last name field with special characters found in this link "https://www.computerhope.com/jargon/s/specchar.htm"
+4. fill all other fields with valid data
+5. tab sign up  </t>
+  </si>
+  <si>
+    <t>https://www.computerhope.com/jargon/s/specchar.htm</t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-07</t>
+  </si>
+  <si>
+    <t>3.1.5 - T005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vailidate that Address field can't be blank </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3. Fill all the fields except Address field
+4. Tab sign up </t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-08</t>
+  </si>
+  <si>
+    <t>3.1.5 - T006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that no special characters are not allowed in Address field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3.Fill Address field with special characters found in this link "https://www.computerhope.com/jargon/s/specchar.htm"
+4. fill all other fields with valid data
+5. tab sign up  </t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-09</t>
+  </si>
+  <si>
+    <t>3.1.5 - T007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vailidate that password field can't be blank </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3. Fill all the fields except Password field
+4. Tab sign up </t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-10</t>
+  </si>
+  <si>
+    <t>3.1.5 - T008</t>
+  </si>
+  <si>
+    <t>Validate that password must be at least 8 characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Browser is available 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3.type 7 characters in password field
+4. fill other fields
+with valid data values
+5. Tab Sign up  </t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-11</t>
+  </si>
+  <si>
+    <t>3.1.5 - T009</t>
+  </si>
+  <si>
+    <t>Validate that numbers are allowed in password field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Browser is available
+2. password at least 8 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3.type 8 number characters in password field
+4. fill other fields
+with valid data values
+5. Tab Sign up  </t>
+  </si>
+  <si>
+    <t>1. user signed up successfully and redirected to home page</t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-12</t>
+  </si>
+  <si>
+    <t>3.1.5 - T010</t>
+  </si>
+  <si>
+    <t>Validate that special characters are allowed in password field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3.type 8 special  characters in password field
+4. fill other fields
+with valid data values
+5. Tab Sign up  </t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-13</t>
+  </si>
+  <si>
+    <t>3.1.5 - T009 - T010</t>
+  </si>
+  <si>
+    <t>Validate that password field accept combination of letters numbers and special characters and can be longer than 8 characters</t>
+  </si>
+  <si>
+    <t>1. Browser is available 
+2. password at least 8 characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. tab sign up page 
+3. fill all field with valid data 
+4. in password field Type"goodmorning @ahmed # 1995"
+5. Tab sign up </t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-14</t>
+  </si>
+  <si>
+    <t>3.1.5 - T011</t>
+  </si>
+  <si>
+    <t>Validate that phone number field can't be blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3. Fill all the fields except Phone field
+4. Tab sign up </t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-15</t>
+  </si>
+  <si>
+    <t>3.1.5 - T012</t>
+  </si>
+  <si>
+    <t>Validate that phone number field can't contain special characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3. Type special Characters in phone field
+4. fill all other fields with valid data 
+5. Tab Sign up </t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-16</t>
+  </si>
+  <si>
+    <t>3.1.5 - T013</t>
+  </si>
+  <si>
+    <t>Validate that phone number field can't contain characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3. Type alphapitical  Characters in phone field
+4. fill all other fields with valid data 
+5. Tab Sign up </t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-17</t>
+  </si>
+  <si>
+    <t>3.1.5 - T014</t>
+  </si>
+  <si>
+    <t>Validate that email field can't be blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3. Fill all the fields except Email field
+4. Tab sign up </t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-18</t>
+  </si>
+  <si>
+    <t>3.1.5-T015</t>
+  </si>
+  <si>
+    <t>Validate That email field format must be " abc@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site page 
+2. Tab sign up
+3. fill email field with a correct format 
+4. fill all other field with valid data 
+ 5. Tab Sign up  </t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-19</t>
+  </si>
+  <si>
+    <t>Validate that if email field have any of invalid mail format, error message appears</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site page 
+2. Tab sign up
+3. fill email field with an  invalid formats from the attached document
+4. fill all other field with valid data 
+ 5. Tab Sign up  </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17yVQnd_PtUxqvc6lDVle3bS7ToToxXLQ/view?usp=share_link</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1129,6 +1490,20 @@
     <font>
       <b/>
       <sz val="26"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
       <color theme="2"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1462,10 +1837,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1693,6 +2069,12 @@
     <xf numFmtId="0" fontId="20" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1729,17 +2111,80 @@
     <xf numFmtId="0" fontId="23" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -6573,7 +7018,7 @@
       <c r="L2" s="54"/>
     </row>
     <row r="3" spans="1:12" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="79" t="s">
         <v>138</v>
       </c>
       <c r="B3" s="40" t="s">
@@ -6603,7 +7048,7 @@
       <c r="L3" s="54"/>
     </row>
     <row r="4" spans="1:12" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="92"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="40" t="s">
         <v>172</v>
       </c>
@@ -6631,7 +7076,7 @@
       <c r="L4" s="36"/>
     </row>
     <row r="5" spans="1:12" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="92"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="40" t="s">
         <v>174</v>
       </c>
@@ -6659,7 +7104,7 @@
       <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="92"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="40" t="s">
         <v>175</v>
       </c>
@@ -6855,7 +7300,7 @@
       <c r="L12" s="36"/>
     </row>
     <row r="13" spans="1:12" ht="233.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="81" t="s">
         <v>150</v>
       </c>
       <c r="B13" s="40" t="s">
@@ -6885,7 +7330,7 @@
       <c r="L13" s="54"/>
     </row>
     <row r="14" spans="1:12" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="80"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="40" t="s">
         <v>183</v>
       </c>
@@ -7001,7 +7446,7 @@
       <c r="L17" s="54"/>
     </row>
     <row r="18" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="86" t="s">
         <v>138</v>
       </c>
       <c r="B18" s="40" t="s">
@@ -7031,7 +7476,7 @@
       <c r="L18" s="54"/>
     </row>
     <row r="19" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="85"/>
+      <c r="A19" s="87"/>
       <c r="B19" s="40" t="s">
         <v>191</v>
       </c>
@@ -7059,7 +7504,7 @@
       <c r="L19" s="36"/>
     </row>
     <row r="20" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="85"/>
+      <c r="A20" s="87"/>
       <c r="B20" s="40" t="s">
         <v>192</v>
       </c>
@@ -7087,7 +7532,7 @@
       <c r="L20" s="36"/>
     </row>
     <row r="21" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="85"/>
+      <c r="A21" s="87"/>
       <c r="B21" s="40" t="s">
         <v>193</v>
       </c>
@@ -7115,7 +7560,7 @@
       <c r="L21" s="36"/>
     </row>
     <row r="22" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="85"/>
+      <c r="A22" s="87"/>
       <c r="B22" s="40" t="s">
         <v>194</v>
       </c>
@@ -7143,7 +7588,7 @@
       <c r="L22" s="36"/>
     </row>
     <row r="23" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="85"/>
+      <c r="A23" s="87"/>
       <c r="B23" s="40" t="s">
         <v>195</v>
       </c>
@@ -7171,7 +7616,7 @@
       <c r="L23" s="36"/>
     </row>
     <row r="24" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="85"/>
+      <c r="A24" s="87"/>
       <c r="B24" s="40" t="s">
         <v>196</v>
       </c>
@@ -7199,7 +7644,7 @@
       <c r="L24" s="36"/>
     </row>
     <row r="25" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="85"/>
+      <c r="A25" s="87"/>
       <c r="B25" s="40" t="s">
         <v>197</v>
       </c>
@@ -7227,7 +7672,7 @@
       <c r="L25" s="36"/>
     </row>
     <row r="26" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="85"/>
+      <c r="A26" s="87"/>
       <c r="B26" s="40" t="s">
         <v>198</v>
       </c>
@@ -7255,7 +7700,7 @@
       <c r="L26" s="36"/>
     </row>
     <row r="27" spans="1:12" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="86"/>
+      <c r="A27" s="88"/>
       <c r="B27" s="40" t="s">
         <v>199</v>
       </c>
@@ -7283,7 +7728,7 @@
       <c r="L27" s="36"/>
     </row>
     <row r="28" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="83" t="s">
         <v>204</v>
       </c>
       <c r="B28" s="40" t="s">
@@ -7313,7 +7758,7 @@
       <c r="L28" s="54"/>
     </row>
     <row r="29" spans="1:12" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="82"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="40" t="s">
         <v>201</v>
       </c>
@@ -7341,7 +7786,7 @@
       <c r="L29" s="54"/>
     </row>
     <row r="30" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="83"/>
+      <c r="A30" s="85"/>
       <c r="B30" s="40" t="s">
         <v>184</v>
       </c>
@@ -7473,7 +7918,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="89" t="s">
         <v>209</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -7503,7 +7948,7 @@
       <c r="L2" s="54"/>
     </row>
     <row r="3" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88"/>
+      <c r="A3" s="90"/>
       <c r="B3" s="40" t="s">
         <v>215</v>
       </c>
@@ -7531,7 +7976,7 @@
       <c r="L3" s="54"/>
     </row>
     <row r="4" spans="1:12" ht="184.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="91" t="s">
         <v>212</v>
       </c>
       <c r="B4" s="40" t="s">
@@ -7561,7 +8006,7 @@
       <c r="L4" s="54"/>
     </row>
     <row r="5" spans="1:12" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="90"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="40" t="s">
         <v>220</v>
       </c>
@@ -7598,14 +8043,715 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0796CBB2-7C1E-4A72-8F15-4D297E074D7C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" s="95" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="J2" s="41"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="96" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3" s="95" t="s">
+        <v>233</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="J3" s="41"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="97"/>
+      <c r="B4" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="95" t="s">
+        <v>238</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="J4" s="41"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="97"/>
+      <c r="B5" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="G5" s="95" t="s">
+        <v>243</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="97"/>
+      <c r="B6" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="G6" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="399" x14ac:dyDescent="0.2">
+      <c r="A7" s="98"/>
+      <c r="B7" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="G7" s="95" t="s">
+        <v>252</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="99" t="s">
+        <v>253</v>
+      </c>
+      <c r="L7" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="98"/>
+      <c r="B8" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="95" t="s">
+        <v>257</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="399" x14ac:dyDescent="0.2">
+      <c r="A9" s="98"/>
+      <c r="B9" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="G9" s="95" t="s">
+        <v>261</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="98"/>
+      <c r="B10" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="98"/>
+      <c r="B11" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="G11" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="285" x14ac:dyDescent="0.2">
+      <c r="A12" s="98"/>
+      <c r="B12" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" s="95" t="s">
+        <v>275</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="285" x14ac:dyDescent="0.2">
+      <c r="A13" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" s="95" t="s">
+        <v>280</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="J13" s="41"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="285" x14ac:dyDescent="0.2">
+      <c r="A14" s="97"/>
+      <c r="B14" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="G14" s="95" t="s">
+        <v>285</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="J14" s="41"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="G15" s="95" t="s">
+        <v>289</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="J15" s="41"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="97"/>
+      <c r="B16" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="G16" s="95" t="s">
+        <v>293</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="J16" s="50"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="285" x14ac:dyDescent="0.2">
+      <c r="A17" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="G17" s="95" t="s">
+        <v>297</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="J17" s="50"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="98"/>
+      <c r="B18" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="G18" s="95" t="s">
+        <v>301</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="J18" s="50"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="256.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="98"/>
+      <c r="B19" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>303</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="G19" s="95" t="s">
+        <v>305</v>
+      </c>
+      <c r="H19" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="J19" s="50"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="313.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="98"/>
+      <c r="B20" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>303</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="G20" s="95" t="s">
+        <v>308</v>
+      </c>
+      <c r="H20" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="K20" s="99" t="s">
+        <v>309</v>
+      </c>
+      <c r="L20" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L2:L20">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L20">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"REMOVED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"HOLD / BLOCKED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L20" xr:uid="{679EFAA3-F781-4560-8BDF-8A372CBF9CD5}">
+      <formula1>"..., PASS,FAIL,HOLD / BLOCKED, REMOVED"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="K7" r:id="rId1" xr:uid="{967A8F45-CEBD-4ABD-A228-46543BC69A26}"/>
+    <hyperlink ref="K20" r:id="rId2" xr:uid="{F68AB436-D423-40E7-80F0-4FB74AB1172A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/5- Testing/Test Cases.xlsx
+++ b/5- Testing/Test Cases.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\Car-Purchasing-App\5- Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skywa\Desktop\QA workshop\githup\Car-Purchasing-App\5- Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C299534-F4B1-4BD3-8EB6-0CEE265AFAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="2" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="Regs" sheetId="22" r:id="rId8"/>
     <sheet name="Reserve" sheetId="23" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="316">
   <si>
     <t>Module</t>
   </si>
@@ -984,6 +983,343 @@
 2. user has a valid mail</t>
   </si>
   <si>
+    <t>1. user registered successfully and redirected to home page</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-02</t>
+  </si>
+  <si>
+    <t>REQ-1.1</t>
+  </si>
+  <si>
+    <t>Validate that if user clicks log in button, the user redirected to log in page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Browser is available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3. Tab log in </t>
+  </si>
+  <si>
+    <t>1. user redirected to log in page</t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-03</t>
+  </si>
+  <si>
+    <t>3.1.5 - T001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vailidate that first name field can't be blank </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3. Fill all the fields except First name field
+4. Tab sign up </t>
+  </si>
+  <si>
+    <t>1.An error message should appear: "Please fill out this field."</t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-04</t>
+  </si>
+  <si>
+    <t>3.1.5 - T002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that no special characters are not allowed in first name field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3.Fill first name field with special characters found in this link "https://www.computerhope.com/jargon/s/specchar.htm"
+4. fill all other fields with valid data
+5. tab sign up  </t>
+  </si>
+  <si>
+    <t>1. An error message should appear: "You entered invalid data."</t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-05</t>
+  </si>
+  <si>
+    <t>3.1.5 - T003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vailidate that last name field can't be blank </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3. Fill all the fields except last name field
+4. Tab sign up </t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-06</t>
+  </si>
+  <si>
+    <t>3.1.5 - T004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that no special characters are not allowed in last name field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3.Fill last name field with special characters found in this link "https://www.computerhope.com/jargon/s/specchar.htm"
+4. fill all other fields with valid data
+5. tab sign up  </t>
+  </si>
+  <si>
+    <t>https://www.computerhope.com/jargon/s/specchar.htm</t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-07</t>
+  </si>
+  <si>
+    <t>3.1.5 - T005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vailidate that Address field can't be blank </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3. Fill all the fields except Address field
+4. Tab sign up </t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-08</t>
+  </si>
+  <si>
+    <t>3.1.5 - T006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that no special characters are not allowed in Address field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3.Fill Address field with special characters found in this link "https://www.computerhope.com/jargon/s/specchar.htm"
+4. fill all other fields with valid data
+5. tab sign up  </t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-09</t>
+  </si>
+  <si>
+    <t>3.1.5 - T007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vailidate that password field can't be blank </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3. Fill all the fields except Password field
+4. Tab sign up </t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-10</t>
+  </si>
+  <si>
+    <t>3.1.5 - T008</t>
+  </si>
+  <si>
+    <t>Validate that password must be at least 8 characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Browser is available 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3.type 7 characters in password field
+4. fill other fields
+with valid data values
+5. Tab Sign up  </t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-11</t>
+  </si>
+  <si>
+    <t>3.1.5 - T009</t>
+  </si>
+  <si>
+    <t>Validate that numbers are allowed in password field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Browser is available
+2. password at least 8 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3.type 8 number characters in password field
+4. fill other fields
+with valid data values
+5. Tab Sign up  </t>
+  </si>
+  <si>
+    <t>1. user signed up successfully and redirected to home page</t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-12</t>
+  </si>
+  <si>
+    <t>3.1.5 - T010</t>
+  </si>
+  <si>
+    <t>Validate that special characters are allowed in password field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3.type 8 special  characters in password field
+4. fill other fields
+with valid data values
+5. Tab Sign up  </t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-13</t>
+  </si>
+  <si>
+    <t>3.1.5 - T009 - T010</t>
+  </si>
+  <si>
+    <t>Validate that password field accept combination of letters numbers and special characters and can be longer than 8 characters</t>
+  </si>
+  <si>
+    <t>1. Browser is available 
+2. password at least 8 characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. tab sign up page 
+3. fill all field with valid data 
+4. in password field Type"goodmorning @ahmed # 1995"
+5. Tab sign up </t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-14</t>
+  </si>
+  <si>
+    <t>3.1.5 - T011</t>
+  </si>
+  <si>
+    <t>Validate that phone number field can't be blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3. Fill all the fields except Phone field
+4. Tab sign up </t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-15</t>
+  </si>
+  <si>
+    <t>3.1.5 - T012</t>
+  </si>
+  <si>
+    <t>Validate that phone number field can't contain special characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3. Type special Characters in phone field
+4. fill all other fields with valid data 
+5. Tab Sign up </t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-16</t>
+  </si>
+  <si>
+    <t>3.1.5 - T013</t>
+  </si>
+  <si>
+    <t>Validate that phone number field can't contain characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3. Type alphapitical  Characters in phone field
+4. fill all other fields with valid data 
+5. Tab Sign up </t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-17</t>
+  </si>
+  <si>
+    <t>3.1.5 - T014</t>
+  </si>
+  <si>
+    <t>Validate that email field can't be blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site 
+2. Tab Register / signup 
+3. Fill all the fields except Email field
+4. Tab sign up </t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-18</t>
+  </si>
+  <si>
+    <t>3.1.5-T015</t>
+  </si>
+  <si>
+    <t>Validate That email field format must be " abc@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site page 
+2. Tab sign up
+3. fill email field with a correct format 
+4. fill all other field with valid data 
+ 5. Tab Sign up  </t>
+  </si>
+  <si>
+    <t>TC-Sign Up
+-User-19</t>
+  </si>
+  <si>
+    <t>Validate that if email field have any of invalid mail format, error message appears</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the site page 
+2. Tab sign up
+3. fill email field with an  invalid formats from the attached document
+4. fill all other field with valid data 
+ 5. Tab Sign up  </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17yVQnd_PtUxqvc6lDVle3bS7ToToxXLQ/view?usp=share_link</t>
+  </si>
+  <si>
     <t>1. open site
 2. Tab Sign up button 
 3. fill first name field "Ahmed"
@@ -991,351 +1327,33 @@
 5. enter a valid mail "ahmed@gmail.com"
 6. Enter your phone number 
 7. Enter your address 
+9-enetr password
 8. Tab Register Button</t>
   </si>
   <si>
-    <t>1. user registered successfully and redirected to home page</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>TC-Sign Up
--User-02</t>
-  </si>
-  <si>
-    <t>REQ-1.1</t>
-  </si>
-  <si>
-    <t>Validate that if user clicks log in button, the user redirected to log in page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Browser is available </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. open the site 
-2. Tab Register / signup 
-3. Tab log in </t>
-  </si>
-  <si>
-    <t>1. user redirected to log in page</t>
-  </si>
-  <si>
-    <t>TC-Sign Up
--User-03</t>
-  </si>
-  <si>
-    <t>3.1.5 - T001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vailidate that first name field can't be blank </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. open the site 
-2. Tab Register / signup 
-3. Fill all the fields except First name field
-4. Tab sign up </t>
-  </si>
-  <si>
-    <t>1.An error message should appear: "Please fill out this field."</t>
-  </si>
-  <si>
-    <t>TC-Sign Up
--User-04</t>
-  </si>
-  <si>
-    <t>3.1.5 - T002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate that no special characters are not allowed in first name field </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. open the site 
-2. Tab Register / signup 
-3.Fill first name field with special characters found in this link "https://www.computerhope.com/jargon/s/specchar.htm"
-4. fill all other fields with valid data
-5. tab sign up  </t>
-  </si>
-  <si>
-    <t>1. An error message should appear: "You entered invalid data."</t>
-  </si>
-  <si>
-    <t>TC-Sign Up
--User-05</t>
-  </si>
-  <si>
-    <t>3.1.5 - T003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vailidate that last name field can't be blank </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. open the site 
-2. Tab Register / signup 
-3. Fill all the fields except last name field
-4. Tab sign up </t>
-  </si>
-  <si>
-    <t>TC-Sign Up
--User-06</t>
-  </si>
-  <si>
-    <t>3.1.5 - T004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate that no special characters are not allowed in last name field </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. open the site 
-2. Tab Register / signup 
-3.Fill last name field with special characters found in this link "https://www.computerhope.com/jargon/s/specchar.htm"
-4. fill all other fields with valid data
-5. tab sign up  </t>
-  </si>
-  <si>
-    <t>https://www.computerhope.com/jargon/s/specchar.htm</t>
-  </si>
-  <si>
-    <t>TC-Sign Up
--User-07</t>
-  </si>
-  <si>
-    <t>3.1.5 - T005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vailidate that Address field can't be blank </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. open the site 
-2. Tab Register / signup 
-3. Fill all the fields except Address field
-4. Tab sign up </t>
-  </si>
-  <si>
-    <t>TC-Sign Up
--User-08</t>
-  </si>
-  <si>
-    <t>3.1.5 - T006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate that no special characters are not allowed in Address field </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. open the site 
-2. Tab Register / signup 
-3.Fill Address field with special characters found in this link "https://www.computerhope.com/jargon/s/specchar.htm"
-4. fill all other fields with valid data
-5. tab sign up  </t>
-  </si>
-  <si>
-    <t>TC-Sign Up
--User-09</t>
-  </si>
-  <si>
-    <t>3.1.5 - T007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vailidate that password field can't be blank </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. open the site 
-2. Tab Register / signup 
-3. Fill all the fields except Password field
-4. Tab sign up </t>
-  </si>
-  <si>
-    <t>TC-Sign Up
--User-10</t>
-  </si>
-  <si>
-    <t>3.1.5 - T008</t>
-  </si>
-  <si>
-    <t>Validate that password must be at least 8 characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Browser is available 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. open the site 
-2. Tab Register / signup 
-3.type 7 characters in password field
-4. fill other fields
-with valid data values
-5. Tab Sign up  </t>
-  </si>
-  <si>
-    <t>TC-Sign Up
--User-11</t>
-  </si>
-  <si>
-    <t>3.1.5 - T009</t>
-  </si>
-  <si>
-    <t>Validate that numbers are allowed in password field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Browser is available
-2. password at least 8 characters </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. open the site 
-2. Tab Register / signup 
-3.type 8 number characters in password field
-4. fill other fields
-with valid data values
-5. Tab Sign up  </t>
-  </si>
-  <si>
-    <t>1. user signed up successfully and redirected to home page</t>
-  </si>
-  <si>
-    <t>TC-Sign Up
--User-12</t>
-  </si>
-  <si>
-    <t>3.1.5 - T010</t>
-  </si>
-  <si>
-    <t>Validate that special characters are allowed in password field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. open the site 
-2. Tab Register / signup 
-3.type 8 special  characters in password field
-4. fill other fields
-with valid data values
-5. Tab Sign up  </t>
-  </si>
-  <si>
-    <t>TC-Sign Up
--User-13</t>
-  </si>
-  <si>
-    <t>3.1.5 - T009 - T010</t>
-  </si>
-  <si>
-    <t>Validate that password field accept combination of letters numbers and special characters and can be longer than 8 characters</t>
-  </si>
-  <si>
-    <t>1. Browser is available 
-2. password at least 8 characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. open the site 
-2. tab sign up page 
-3. fill all field with valid data 
-4. in password field Type"goodmorning @ahmed # 1995"
-5. Tab sign up </t>
-  </si>
-  <si>
-    <t>TC-Sign Up
--User-14</t>
-  </si>
-  <si>
-    <t>3.1.5 - T011</t>
-  </si>
-  <si>
-    <t>Validate that phone number field can't be blank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. open the site 
-2. Tab Register / signup 
-3. Fill all the fields except Phone field
-4. Tab sign up </t>
-  </si>
-  <si>
-    <t>TC-Sign Up
--User-15</t>
-  </si>
-  <si>
-    <t>3.1.5 - T012</t>
-  </si>
-  <si>
-    <t>Validate that phone number field can't contain special characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. open the site 
-2. Tab Register / signup 
-3. Type special Characters in phone field
-4. fill all other fields with valid data 
-5. Tab Sign up </t>
-  </si>
-  <si>
-    <t>TC-Sign Up
--User-16</t>
-  </si>
-  <si>
-    <t>3.1.5 - T013</t>
-  </si>
-  <si>
-    <t>Validate that phone number field can't contain characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. open the site 
-2. Tab Register / signup 
-3. Type alphapitical  Characters in phone field
-4. fill all other fields with valid data 
-5. Tab Sign up </t>
-  </si>
-  <si>
-    <t>TC-Sign Up
--User-17</t>
-  </si>
-  <si>
-    <t>3.1.5 - T014</t>
-  </si>
-  <si>
-    <t>Validate that email field can't be blank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. open the site 
-2. Tab Register / signup 
-3. Fill all the fields except Email field
-4. Tab sign up </t>
-  </si>
-  <si>
-    <t>TC-Sign Up
--User-18</t>
-  </si>
-  <si>
-    <t>3.1.5-T015</t>
-  </si>
-  <si>
-    <t>Validate That email field format must be " abc@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. open the site page 
-2. Tab sign up
-3. fill email field with a correct format 
-4. fill all other field with valid data 
- 5. Tab Sign up  </t>
-  </si>
-  <si>
-    <t>TC-Sign Up
--User-19</t>
-  </si>
-  <si>
-    <t>Validate that if email field have any of invalid mail format, error message appears</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. open the site page 
-2. Tab sign up
-3. fill email field with an  invalid formats from the attached document
-4. fill all other field with valid data 
- 5. Tab Sign up  </t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/17yVQnd_PtUxqvc6lDVle3bS7ToToxXLQ/view?usp=share_link</t>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>prompt appeared (you enterd invalid data)</t>
+  </si>
+  <si>
+    <t>invalid mail or password message appeared</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>the admin accessed the homepage</t>
+  </si>
+  <si>
+    <t>enterd missing or invalid data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1595,7 +1613,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1836,12 +1854,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2046,6 +2084,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2111,26 +2164,17 @@
     <xf numFmtId="0" fontId="23" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2394,7 +2438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2404,18 +2448,18 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="11" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="11" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="33.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2470,7 +2514,7 @@
       <c r="AD1" s="8"/>
       <c r="AE1" s="8"/>
     </row>
-    <row r="2" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" ht="26.25" customHeight="1">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2483,7 +2527,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="26.25" customHeight="1">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -2496,7 +2540,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="26.25" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -2509,7 +2553,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" ht="26.25" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -2522,7 +2566,7 @@
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" ht="26.25" customHeight="1">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -2535,7 +2579,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" ht="26.25" customHeight="1">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2548,7 +2592,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" ht="26.25" customHeight="1">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2561,7 +2605,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" ht="26.25" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -2574,7 +2618,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" ht="26.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -2587,7 +2631,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" ht="26.25" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -2600,7 +2644,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" ht="26.25" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -2613,7 +2657,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" ht="26.25" customHeight="1">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -2626,7 +2670,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" ht="26.25" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -2639,7 +2683,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" ht="26.25" customHeight="1">
       <c r="A15" s="13"/>
       <c r="E15" s="14" t="s">
         <v>11</v>
@@ -2669,2949 +2713,2949 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" ht="26.25" customHeight="1">
       <c r="A16" s="13"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="26.25" customHeight="1">
       <c r="A17" s="13"/>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13.2">
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="13.2">
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="13.2">
       <c r="F20" s="19"/>
     </row>
-    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13.2">
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="13.2">
       <c r="F22" s="19"/>
     </row>
-    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="13.2">
       <c r="F23" s="19"/>
     </row>
-    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="13.2">
       <c r="F24" s="19"/>
     </row>
-    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="13.2">
       <c r="F25" s="19"/>
     </row>
-    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="13.2">
       <c r="F26" s="19"/>
     </row>
-    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="13.2">
       <c r="F27" s="19"/>
     </row>
-    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="13.2">
       <c r="F28" s="19"/>
     </row>
-    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="13.2">
       <c r="F29" s="19"/>
     </row>
-    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="13.2">
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="13.2">
       <c r="F31" s="19"/>
     </row>
-    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="13.2">
       <c r="F32" s="19"/>
     </row>
-    <row r="33" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:6" ht="13.2">
       <c r="F33" s="19"/>
     </row>
-    <row r="34" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:6" ht="13.2">
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:6" ht="13.2">
       <c r="F35" s="19"/>
     </row>
-    <row r="36" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:6" ht="13.2">
       <c r="F36" s="19"/>
     </row>
-    <row r="37" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:6" ht="13.2">
       <c r="F37" s="19"/>
     </row>
-    <row r="38" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:6" ht="13.2">
       <c r="F38" s="19"/>
     </row>
-    <row r="39" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:6" ht="13.2">
       <c r="F39" s="19"/>
     </row>
-    <row r="40" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:6" ht="13.2">
       <c r="F40" s="19"/>
     </row>
-    <row r="41" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:6" ht="13.2">
       <c r="F41" s="19"/>
     </row>
-    <row r="42" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="6:6" ht="13.2">
       <c r="F42" s="19"/>
     </row>
-    <row r="43" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="6:6" ht="13.2">
       <c r="F43" s="19"/>
     </row>
-    <row r="44" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:6" ht="13.2">
       <c r="F44" s="19"/>
     </row>
-    <row r="45" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="6:6" ht="13.2">
       <c r="F45" s="19"/>
     </row>
-    <row r="46" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="6:6" ht="13.2">
       <c r="F46" s="19"/>
     </row>
-    <row r="47" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="6:6" ht="13.2">
       <c r="F47" s="19"/>
     </row>
-    <row r="48" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="6:6" ht="13.2">
       <c r="F48" s="19"/>
     </row>
-    <row r="49" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:6" ht="13.2">
       <c r="F49" s="19"/>
     </row>
-    <row r="50" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:6" ht="13.2">
       <c r="F50" s="19"/>
     </row>
-    <row r="51" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:6" ht="13.2">
       <c r="F51" s="19"/>
     </row>
-    <row r="52" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:6" ht="13.2">
       <c r="F52" s="19"/>
     </row>
-    <row r="53" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:6" ht="13.2">
       <c r="F53" s="19"/>
     </row>
-    <row r="54" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:6" ht="13.2">
       <c r="F54" s="19"/>
     </row>
-    <row r="55" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:6" ht="13.2">
       <c r="F55" s="19"/>
     </row>
-    <row r="56" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:6" ht="13.2">
       <c r="F56" s="19"/>
     </row>
-    <row r="57" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="6:6" ht="13.2">
       <c r="F57" s="19"/>
     </row>
-    <row r="58" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:6" ht="13.2">
       <c r="F58" s="19"/>
     </row>
-    <row r="59" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:6" ht="13.2">
       <c r="F59" s="19"/>
     </row>
-    <row r="60" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:6" ht="13.2">
       <c r="F60" s="19"/>
     </row>
-    <row r="61" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:6" ht="13.2">
       <c r="F61" s="19"/>
     </row>
-    <row r="62" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:6" ht="13.2">
       <c r="F62" s="19"/>
     </row>
-    <row r="63" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:6" ht="13.2">
       <c r="F63" s="19"/>
     </row>
-    <row r="64" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:6" ht="13.2">
       <c r="F64" s="19"/>
     </row>
-    <row r="65" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:6" ht="13.2">
       <c r="F65" s="19"/>
     </row>
-    <row r="66" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:6" ht="13.2">
       <c r="F66" s="19"/>
     </row>
-    <row r="67" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:6" ht="13.2">
       <c r="F67" s="19"/>
     </row>
-    <row r="68" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:6" ht="13.2">
       <c r="F68" s="19"/>
     </row>
-    <row r="69" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:6" ht="13.2">
       <c r="F69" s="19"/>
     </row>
-    <row r="70" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:6" ht="13.2">
       <c r="F70" s="19"/>
     </row>
-    <row r="71" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="6:6" ht="13.2">
       <c r="F71" s="19"/>
     </row>
-    <row r="72" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="6:6" ht="13.2">
       <c r="F72" s="19"/>
     </row>
-    <row r="73" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="6:6" ht="13.2">
       <c r="F73" s="19"/>
     </row>
-    <row r="74" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="6:6" ht="13.2">
       <c r="F74" s="19"/>
     </row>
-    <row r="75" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="6:6" ht="13.2">
       <c r="F75" s="19"/>
     </row>
-    <row r="76" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="6:6" ht="13.2">
       <c r="F76" s="19"/>
     </row>
-    <row r="77" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="6:6" ht="13.2">
       <c r="F77" s="19"/>
     </row>
-    <row r="78" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="6:6" ht="13.2">
       <c r="F78" s="19"/>
     </row>
-    <row r="79" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:6" ht="13.2">
       <c r="F79" s="19"/>
     </row>
-    <row r="80" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="6:6" ht="13.2">
       <c r="F80" s="19"/>
     </row>
-    <row r="81" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="6:6" ht="13.2">
       <c r="F81" s="19"/>
     </row>
-    <row r="82" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="6:6" ht="13.2">
       <c r="F82" s="19"/>
     </row>
-    <row r="83" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="6:6" ht="13.2">
       <c r="F83" s="19"/>
     </row>
-    <row r="84" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="6:6" ht="13.2">
       <c r="F84" s="19"/>
     </row>
-    <row r="85" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="6:6" ht="13.2">
       <c r="F85" s="19"/>
     </row>
-    <row r="86" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="6:6" ht="13.2">
       <c r="F86" s="19"/>
     </row>
-    <row r="87" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="6:6" ht="13.2">
       <c r="F87" s="19"/>
     </row>
-    <row r="88" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="6:6" ht="13.2">
       <c r="F88" s="19"/>
     </row>
-    <row r="89" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="6:6" ht="13.2">
       <c r="F89" s="19"/>
     </row>
-    <row r="90" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="6:6" ht="13.2">
       <c r="F90" s="19"/>
     </row>
-    <row r="91" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="6:6" ht="13.2">
       <c r="F91" s="19"/>
     </row>
-    <row r="92" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="6:6" ht="13.2">
       <c r="F92" s="19"/>
     </row>
-    <row r="93" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="6:6" ht="13.2">
       <c r="F93" s="19"/>
     </row>
-    <row r="94" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="6:6" ht="13.2">
       <c r="F94" s="19"/>
     </row>
-    <row r="95" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="6:6" ht="13.2">
       <c r="F95" s="19"/>
     </row>
-    <row r="96" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="6:6" ht="13.2">
       <c r="F96" s="19"/>
     </row>
-    <row r="97" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="6:6" ht="13.2">
       <c r="F97" s="19"/>
     </row>
-    <row r="98" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="6:6" ht="13.2">
       <c r="F98" s="19"/>
     </row>
-    <row r="99" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="6:6" ht="13.2">
       <c r="F99" s="19"/>
     </row>
-    <row r="100" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="6:6" ht="13.2">
       <c r="F100" s="19"/>
     </row>
-    <row r="101" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="6:6" ht="13.2">
       <c r="F101" s="19"/>
     </row>
-    <row r="102" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="6:6" ht="13.2">
       <c r="F102" s="19"/>
     </row>
-    <row r="103" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="6:6" ht="13.2">
       <c r="F103" s="19"/>
     </row>
-    <row r="104" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="6:6" ht="13.2">
       <c r="F104" s="19"/>
     </row>
-    <row r="105" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="6:6" ht="13.2">
       <c r="F105" s="19"/>
     </row>
-    <row r="106" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="6:6" ht="13.2">
       <c r="F106" s="19"/>
     </row>
-    <row r="107" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="6:6" ht="13.2">
       <c r="F107" s="19"/>
     </row>
-    <row r="108" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="6:6" ht="13.2">
       <c r="F108" s="19"/>
     </row>
-    <row r="109" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="6:6" ht="13.2">
       <c r="F109" s="19"/>
     </row>
-    <row r="110" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="6:6" ht="13.2">
       <c r="F110" s="19"/>
     </row>
-    <row r="111" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="6:6" ht="13.2">
       <c r="F111" s="19"/>
     </row>
-    <row r="112" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="6:6" ht="13.2">
       <c r="F112" s="19"/>
     </row>
-    <row r="113" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="6:6" ht="13.2">
       <c r="F113" s="19"/>
     </row>
-    <row r="114" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="6:6" ht="13.2">
       <c r="F114" s="19"/>
     </row>
-    <row r="115" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="6:6" ht="13.2">
       <c r="F115" s="19"/>
     </row>
-    <row r="116" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="6:6" ht="13.2">
       <c r="F116" s="19"/>
     </row>
-    <row r="117" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="6:6" ht="13.2">
       <c r="F117" s="19"/>
     </row>
-    <row r="118" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="6:6" ht="13.2">
       <c r="F118" s="19"/>
     </row>
-    <row r="119" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="6:6" ht="13.2">
       <c r="F119" s="19"/>
     </row>
-    <row r="120" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="6:6" ht="13.2">
       <c r="F120" s="19"/>
     </row>
-    <row r="121" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="6:6" ht="13.2">
       <c r="F121" s="19"/>
     </row>
-    <row r="122" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="6:6" ht="13.2">
       <c r="F122" s="19"/>
     </row>
-    <row r="123" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="6:6" ht="13.2">
       <c r="F123" s="19"/>
     </row>
-    <row r="124" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="6:6" ht="13.2">
       <c r="F124" s="19"/>
     </row>
-    <row r="125" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="6:6" ht="13.2">
       <c r="F125" s="19"/>
     </row>
-    <row r="126" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="6:6" ht="13.2">
       <c r="F126" s="19"/>
     </row>
-    <row r="127" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="6:6" ht="13.2">
       <c r="F127" s="19"/>
     </row>
-    <row r="128" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="6:6" ht="13.2">
       <c r="F128" s="19"/>
     </row>
-    <row r="129" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="6:6" ht="13.2">
       <c r="F129" s="19"/>
     </row>
-    <row r="130" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="6:6" ht="13.2">
       <c r="F130" s="19"/>
     </row>
-    <row r="131" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="6:6" ht="13.2">
       <c r="F131" s="19"/>
     </row>
-    <row r="132" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="6:6" ht="13.2">
       <c r="F132" s="19"/>
     </row>
-    <row r="133" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="6:6" ht="13.2">
       <c r="F133" s="19"/>
     </row>
-    <row r="134" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="6:6" ht="13.2">
       <c r="F134" s="19"/>
     </row>
-    <row r="135" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="6:6" ht="13.2">
       <c r="F135" s="19"/>
     </row>
-    <row r="136" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="6:6" ht="13.2">
       <c r="F136" s="19"/>
     </row>
-    <row r="137" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="6:6" ht="13.2">
       <c r="F137" s="19"/>
     </row>
-    <row r="138" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="6:6" ht="13.2">
       <c r="F138" s="19"/>
     </row>
-    <row r="139" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="6:6" ht="13.2">
       <c r="F139" s="19"/>
     </row>
-    <row r="140" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="6:6" ht="13.2">
       <c r="F140" s="19"/>
     </row>
-    <row r="141" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="6:6" ht="13.2">
       <c r="F141" s="19"/>
     </row>
-    <row r="142" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="6:6" ht="13.2">
       <c r="F142" s="19"/>
     </row>
-    <row r="143" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="6:6" ht="13.2">
       <c r="F143" s="19"/>
     </row>
-    <row r="144" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="6:6" ht="13.2">
       <c r="F144" s="19"/>
     </row>
-    <row r="145" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="6:6" ht="13.2">
       <c r="F145" s="19"/>
     </row>
-    <row r="146" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="6:6" ht="13.2">
       <c r="F146" s="19"/>
     </row>
-    <row r="147" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="6:6" ht="13.2">
       <c r="F147" s="19"/>
     </row>
-    <row r="148" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="6:6" ht="13.2">
       <c r="F148" s="19"/>
     </row>
-    <row r="149" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="6:6" ht="13.2">
       <c r="F149" s="19"/>
     </row>
-    <row r="150" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="6:6" ht="13.2">
       <c r="F150" s="19"/>
     </row>
-    <row r="151" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="6:6" ht="13.2">
       <c r="F151" s="19"/>
     </row>
-    <row r="152" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="6:6" ht="13.2">
       <c r="F152" s="19"/>
     </row>
-    <row r="153" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="6:6" ht="13.2">
       <c r="F153" s="19"/>
     </row>
-    <row r="154" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="6:6" ht="13.2">
       <c r="F154" s="19"/>
     </row>
-    <row r="155" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="6:6" ht="13.2">
       <c r="F155" s="19"/>
     </row>
-    <row r="156" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="6:6" ht="13.2">
       <c r="F156" s="19"/>
     </row>
-    <row r="157" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="6:6" ht="13.2">
       <c r="F157" s="19"/>
     </row>
-    <row r="158" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="6:6" ht="13.2">
       <c r="F158" s="19"/>
     </row>
-    <row r="159" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="6:6" ht="13.2">
       <c r="F159" s="19"/>
     </row>
-    <row r="160" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="6:6" ht="13.2">
       <c r="F160" s="19"/>
     </row>
-    <row r="161" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="6:6" ht="13.2">
       <c r="F161" s="19"/>
     </row>
-    <row r="162" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="6:6" ht="13.2">
       <c r="F162" s="19"/>
     </row>
-    <row r="163" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="6:6" ht="13.2">
       <c r="F163" s="19"/>
     </row>
-    <row r="164" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="6:6" ht="13.2">
       <c r="F164" s="19"/>
     </row>
-    <row r="165" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="6:6" ht="13.2">
       <c r="F165" s="19"/>
     </row>
-    <row r="166" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="6:6" ht="13.2">
       <c r="F166" s="19"/>
     </row>
-    <row r="167" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="6:6" ht="13.2">
       <c r="F167" s="19"/>
     </row>
-    <row r="168" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="6:6" ht="13.2">
       <c r="F168" s="19"/>
     </row>
-    <row r="169" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="6:6" ht="13.2">
       <c r="F169" s="19"/>
     </row>
-    <row r="170" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="6:6" ht="13.2">
       <c r="F170" s="19"/>
     </row>
-    <row r="171" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="6:6" ht="13.2">
       <c r="F171" s="19"/>
     </row>
-    <row r="172" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="6:6" ht="13.2">
       <c r="F172" s="19"/>
     </row>
-    <row r="173" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="6:6" ht="13.2">
       <c r="F173" s="19"/>
     </row>
-    <row r="174" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="6:6" ht="13.2">
       <c r="F174" s="19"/>
     </row>
-    <row r="175" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="6:6" ht="13.2">
       <c r="F175" s="19"/>
     </row>
-    <row r="176" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="6:6" ht="13.2">
       <c r="F176" s="19"/>
     </row>
-    <row r="177" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="6:6" ht="13.2">
       <c r="F177" s="19"/>
     </row>
-    <row r="178" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="6:6" ht="13.2">
       <c r="F178" s="19"/>
     </row>
-    <row r="179" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="6:6" ht="13.2">
       <c r="F179" s="19"/>
     </row>
-    <row r="180" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="6:6" ht="13.2">
       <c r="F180" s="19"/>
     </row>
-    <row r="181" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="6:6" ht="13.2">
       <c r="F181" s="19"/>
     </row>
-    <row r="182" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="6:6" ht="13.2">
       <c r="F182" s="19"/>
     </row>
-    <row r="183" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="6:6" ht="13.2">
       <c r="F183" s="19"/>
     </row>
-    <row r="184" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="6:6" ht="13.2">
       <c r="F184" s="19"/>
     </row>
-    <row r="185" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="6:6" ht="13.2">
       <c r="F185" s="19"/>
     </row>
-    <row r="186" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="6:6" ht="13.2">
       <c r="F186" s="19"/>
     </row>
-    <row r="187" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="6:6" ht="13.2">
       <c r="F187" s="19"/>
     </row>
-    <row r="188" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="6:6" ht="13.2">
       <c r="F188" s="19"/>
     </row>
-    <row r="189" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="6:6" ht="13.2">
       <c r="F189" s="19"/>
     </row>
-    <row r="190" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="6:6" ht="13.2">
       <c r="F190" s="19"/>
     </row>
-    <row r="191" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="6:6" ht="13.2">
       <c r="F191" s="19"/>
     </row>
-    <row r="192" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="6:6" ht="13.2">
       <c r="F192" s="19"/>
     </row>
-    <row r="193" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="6:6" ht="13.2">
       <c r="F193" s="19"/>
     </row>
-    <row r="194" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="6:6" ht="13.2">
       <c r="F194" s="19"/>
     </row>
-    <row r="195" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="6:6" ht="13.2">
       <c r="F195" s="19"/>
     </row>
-    <row r="196" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="6:6" ht="13.2">
       <c r="F196" s="19"/>
     </row>
-    <row r="197" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="6:6" ht="13.2">
       <c r="F197" s="19"/>
     </row>
-    <row r="198" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="6:6" ht="13.2">
       <c r="F198" s="19"/>
     </row>
-    <row r="199" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="6:6" ht="13.2">
       <c r="F199" s="19"/>
     </row>
-    <row r="200" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="6:6" ht="13.2">
       <c r="F200" s="19"/>
     </row>
-    <row r="201" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="6:6" ht="13.2">
       <c r="F201" s="19"/>
     </row>
-    <row r="202" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="6:6" ht="13.2">
       <c r="F202" s="19"/>
     </row>
-    <row r="203" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="6:6" ht="13.2">
       <c r="F203" s="19"/>
     </row>
-    <row r="204" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="6:6" ht="13.2">
       <c r="F204" s="19"/>
     </row>
-    <row r="205" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="6:6" ht="13.2">
       <c r="F205" s="19"/>
     </row>
-    <row r="206" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="6:6" ht="13.2">
       <c r="F206" s="19"/>
     </row>
-    <row r="207" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="6:6" ht="13.2">
       <c r="F207" s="19"/>
     </row>
-    <row r="208" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="6:6" ht="13.2">
       <c r="F208" s="19"/>
     </row>
-    <row r="209" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="6:6" ht="13.2">
       <c r="F209" s="19"/>
     </row>
-    <row r="210" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="6:6" ht="13.2">
       <c r="F210" s="19"/>
     </row>
-    <row r="211" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="6:6" ht="13.2">
       <c r="F211" s="19"/>
     </row>
-    <row r="212" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="6:6" ht="13.2">
       <c r="F212" s="19"/>
     </row>
-    <row r="213" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="6:6" ht="13.2">
       <c r="F213" s="19"/>
     </row>
-    <row r="214" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="6:6" ht="13.2">
       <c r="F214" s="19"/>
     </row>
-    <row r="215" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="6:6" ht="13.2">
       <c r="F215" s="19"/>
     </row>
-    <row r="216" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="6:6" ht="13.2">
       <c r="F216" s="19"/>
     </row>
-    <row r="217" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="6:6" ht="13.2">
       <c r="F217" s="19"/>
     </row>
-    <row r="218" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="6:6" ht="13.2">
       <c r="F218" s="19"/>
     </row>
-    <row r="219" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="6:6" ht="13.2">
       <c r="F219" s="19"/>
     </row>
-    <row r="220" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="6:6" ht="13.2">
       <c r="F220" s="19"/>
     </row>
-    <row r="221" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="6:6" ht="13.2">
       <c r="F221" s="19"/>
     </row>
-    <row r="222" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="6:6" ht="13.2">
       <c r="F222" s="19"/>
     </row>
-    <row r="223" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="6:6" ht="13.2">
       <c r="F223" s="19"/>
     </row>
-    <row r="224" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="6:6" ht="13.2">
       <c r="F224" s="19"/>
     </row>
-    <row r="225" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="6:6" ht="13.2">
       <c r="F225" s="19"/>
     </row>
-    <row r="226" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="6:6" ht="13.2">
       <c r="F226" s="19"/>
     </row>
-    <row r="227" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="6:6" ht="13.2">
       <c r="F227" s="19"/>
     </row>
-    <row r="228" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="6:6" ht="13.2">
       <c r="F228" s="19"/>
     </row>
-    <row r="229" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="6:6" ht="13.2">
       <c r="F229" s="19"/>
     </row>
-    <row r="230" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="6:6" ht="13.2">
       <c r="F230" s="19"/>
     </row>
-    <row r="231" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="6:6" ht="13.2">
       <c r="F231" s="19"/>
     </row>
-    <row r="232" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="6:6" ht="13.2">
       <c r="F232" s="19"/>
     </row>
-    <row r="233" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="6:6" ht="13.2">
       <c r="F233" s="19"/>
     </row>
-    <row r="234" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="6:6" ht="13.2">
       <c r="F234" s="19"/>
     </row>
-    <row r="235" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="6:6" ht="13.2">
       <c r="F235" s="19"/>
     </row>
-    <row r="236" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="6:6" ht="13.2">
       <c r="F236" s="19"/>
     </row>
-    <row r="237" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="6:6" ht="13.2">
       <c r="F237" s="19"/>
     </row>
-    <row r="238" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="6:6" ht="13.2">
       <c r="F238" s="19"/>
     </row>
-    <row r="239" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="6:6" ht="13.2">
       <c r="F239" s="19"/>
     </row>
-    <row r="240" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="6:6" ht="13.2">
       <c r="F240" s="19"/>
     </row>
-    <row r="241" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="6:6" ht="13.2">
       <c r="F241" s="19"/>
     </row>
-    <row r="242" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="6:6" ht="13.2">
       <c r="F242" s="19"/>
     </row>
-    <row r="243" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="6:6" ht="13.2">
       <c r="F243" s="19"/>
     </row>
-    <row r="244" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="6:6" ht="13.2">
       <c r="F244" s="19"/>
     </row>
-    <row r="245" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="6:6" ht="13.2">
       <c r="F245" s="19"/>
     </row>
-    <row r="246" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="6:6" ht="13.2">
       <c r="F246" s="19"/>
     </row>
-    <row r="247" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="6:6" ht="13.2">
       <c r="F247" s="19"/>
     </row>
-    <row r="248" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="6:6" ht="13.2">
       <c r="F248" s="19"/>
     </row>
-    <row r="249" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="6:6" ht="13.2">
       <c r="F249" s="19"/>
     </row>
-    <row r="250" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="6:6" ht="13.2">
       <c r="F250" s="19"/>
     </row>
-    <row r="251" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="6:6" ht="13.2">
       <c r="F251" s="19"/>
     </row>
-    <row r="252" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="6:6" ht="13.2">
       <c r="F252" s="19"/>
     </row>
-    <row r="253" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="6:6" ht="13.2">
       <c r="F253" s="19"/>
     </row>
-    <row r="254" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="6:6" ht="13.2">
       <c r="F254" s="19"/>
     </row>
-    <row r="255" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="6:6" ht="13.2">
       <c r="F255" s="19"/>
     </row>
-    <row r="256" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="6:6" ht="13.2">
       <c r="F256" s="19"/>
     </row>
-    <row r="257" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="6:6" ht="13.2">
       <c r="F257" s="19"/>
     </row>
-    <row r="258" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="6:6" ht="13.2">
       <c r="F258" s="19"/>
     </row>
-    <row r="259" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="6:6" ht="13.2">
       <c r="F259" s="19"/>
     </row>
-    <row r="260" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="6:6" ht="13.2">
       <c r="F260" s="19"/>
     </row>
-    <row r="261" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="6:6" ht="13.2">
       <c r="F261" s="19"/>
     </row>
-    <row r="262" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="6:6" ht="13.2">
       <c r="F262" s="19"/>
     </row>
-    <row r="263" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="6:6" ht="13.2">
       <c r="F263" s="19"/>
     </row>
-    <row r="264" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="6:6" ht="13.2">
       <c r="F264" s="19"/>
     </row>
-    <row r="265" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="6:6" ht="13.2">
       <c r="F265" s="19"/>
     </row>
-    <row r="266" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="6:6" ht="13.2">
       <c r="F266" s="19"/>
     </row>
-    <row r="267" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="6:6" ht="13.2">
       <c r="F267" s="19"/>
     </row>
-    <row r="268" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="6:6" ht="13.2">
       <c r="F268" s="19"/>
     </row>
-    <row r="269" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="6:6" ht="13.2">
       <c r="F269" s="19"/>
     </row>
-    <row r="270" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="6:6" ht="13.2">
       <c r="F270" s="19"/>
     </row>
-    <row r="271" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="6:6" ht="13.2">
       <c r="F271" s="19"/>
     </row>
-    <row r="272" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="6:6" ht="13.2">
       <c r="F272" s="19"/>
     </row>
-    <row r="273" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="6:6" ht="13.2">
       <c r="F273" s="19"/>
     </row>
-    <row r="274" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="6:6" ht="13.2">
       <c r="F274" s="19"/>
     </row>
-    <row r="275" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="6:6" ht="13.2">
       <c r="F275" s="19"/>
     </row>
-    <row r="276" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="6:6" ht="13.2">
       <c r="F276" s="19"/>
     </row>
-    <row r="277" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="6:6" ht="13.2">
       <c r="F277" s="19"/>
     </row>
-    <row r="278" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="6:6" ht="13.2">
       <c r="F278" s="19"/>
     </row>
-    <row r="279" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="6:6" ht="13.2">
       <c r="F279" s="19"/>
     </row>
-    <row r="280" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="6:6" ht="13.2">
       <c r="F280" s="19"/>
     </row>
-    <row r="281" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="6:6" ht="13.2">
       <c r="F281" s="19"/>
     </row>
-    <row r="282" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="6:6" ht="13.2">
       <c r="F282" s="19"/>
     </row>
-    <row r="283" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="6:6" ht="13.2">
       <c r="F283" s="19"/>
     </row>
-    <row r="284" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="6:6" ht="13.2">
       <c r="F284" s="19"/>
     </row>
-    <row r="285" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="6:6" ht="13.2">
       <c r="F285" s="19"/>
     </row>
-    <row r="286" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="6:6" ht="13.2">
       <c r="F286" s="19"/>
     </row>
-    <row r="287" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="6:6" ht="13.2">
       <c r="F287" s="19"/>
     </row>
-    <row r="288" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="6:6" ht="13.2">
       <c r="F288" s="19"/>
     </row>
-    <row r="289" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="6:6" ht="13.2">
       <c r="F289" s="19"/>
     </row>
-    <row r="290" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="6:6" ht="13.2">
       <c r="F290" s="19"/>
     </row>
-    <row r="291" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="6:6" ht="13.2">
       <c r="F291" s="19"/>
     </row>
-    <row r="292" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="6:6" ht="13.2">
       <c r="F292" s="19"/>
     </row>
-    <row r="293" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="6:6" ht="13.2">
       <c r="F293" s="19"/>
     </row>
-    <row r="294" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="6:6" ht="13.2">
       <c r="F294" s="19"/>
     </row>
-    <row r="295" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="6:6" ht="13.2">
       <c r="F295" s="19"/>
     </row>
-    <row r="296" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="6:6" ht="13.2">
       <c r="F296" s="19"/>
     </row>
-    <row r="297" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="6:6" ht="13.2">
       <c r="F297" s="19"/>
     </row>
-    <row r="298" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="6:6" ht="13.2">
       <c r="F298" s="19"/>
     </row>
-    <row r="299" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="6:6" ht="13.2">
       <c r="F299" s="19"/>
     </row>
-    <row r="300" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="6:6" ht="13.2">
       <c r="F300" s="19"/>
     </row>
-    <row r="301" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="6:6" ht="13.2">
       <c r="F301" s="19"/>
     </row>
-    <row r="302" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="6:6" ht="13.2">
       <c r="F302" s="19"/>
     </row>
-    <row r="303" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="6:6" ht="13.2">
       <c r="F303" s="19"/>
     </row>
-    <row r="304" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="6:6" ht="13.2">
       <c r="F304" s="19"/>
     </row>
-    <row r="305" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="6:6" ht="13.2">
       <c r="F305" s="19"/>
     </row>
-    <row r="306" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="6:6" ht="13.2">
       <c r="F306" s="19"/>
     </row>
-    <row r="307" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="6:6" ht="13.2">
       <c r="F307" s="19"/>
     </row>
-    <row r="308" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="6:6" ht="13.2">
       <c r="F308" s="19"/>
     </row>
-    <row r="309" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="6:6" ht="13.2">
       <c r="F309" s="19"/>
     </row>
-    <row r="310" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="6:6" ht="13.2">
       <c r="F310" s="19"/>
     </row>
-    <row r="311" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="6:6" ht="13.2">
       <c r="F311" s="19"/>
     </row>
-    <row r="312" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="6:6" ht="13.2">
       <c r="F312" s="19"/>
     </row>
-    <row r="313" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="6:6" ht="13.2">
       <c r="F313" s="19"/>
     </row>
-    <row r="314" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="6:6" ht="13.2">
       <c r="F314" s="19"/>
     </row>
-    <row r="315" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="6:6" ht="13.2">
       <c r="F315" s="19"/>
     </row>
-    <row r="316" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="6:6" ht="13.2">
       <c r="F316" s="19"/>
     </row>
-    <row r="317" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="6:6" ht="13.2">
       <c r="F317" s="19"/>
     </row>
-    <row r="318" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="6:6" ht="13.2">
       <c r="F318" s="19"/>
     </row>
-    <row r="319" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="6:6" ht="13.2">
       <c r="F319" s="19"/>
     </row>
-    <row r="320" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="6:6" ht="13.2">
       <c r="F320" s="19"/>
     </row>
-    <row r="321" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="6:6" ht="13.2">
       <c r="F321" s="19"/>
     </row>
-    <row r="322" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="6:6" ht="13.2">
       <c r="F322" s="19"/>
     </row>
-    <row r="323" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="6:6" ht="13.2">
       <c r="F323" s="19"/>
     </row>
-    <row r="324" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="6:6" ht="13.2">
       <c r="F324" s="19"/>
     </row>
-    <row r="325" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="6:6" ht="13.2">
       <c r="F325" s="19"/>
     </row>
-    <row r="326" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="6:6" ht="13.2">
       <c r="F326" s="19"/>
     </row>
-    <row r="327" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="6:6" ht="13.2">
       <c r="F327" s="19"/>
     </row>
-    <row r="328" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="6:6" ht="13.2">
       <c r="F328" s="19"/>
     </row>
-    <row r="329" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="6:6" ht="13.2">
       <c r="F329" s="19"/>
     </row>
-    <row r="330" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="6:6" ht="13.2">
       <c r="F330" s="19"/>
     </row>
-    <row r="331" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="6:6" ht="13.2">
       <c r="F331" s="19"/>
     </row>
-    <row r="332" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="6:6" ht="13.2">
       <c r="F332" s="19"/>
     </row>
-    <row r="333" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="6:6" ht="13.2">
       <c r="F333" s="19"/>
     </row>
-    <row r="334" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="6:6" ht="13.2">
       <c r="F334" s="19"/>
     </row>
-    <row r="335" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="6:6" ht="13.2">
       <c r="F335" s="19"/>
     </row>
-    <row r="336" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="6:6" ht="13.2">
       <c r="F336" s="19"/>
     </row>
-    <row r="337" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="6:6" ht="13.2">
       <c r="F337" s="19"/>
     </row>
-    <row r="338" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="6:6" ht="13.2">
       <c r="F338" s="19"/>
     </row>
-    <row r="339" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="6:6" ht="13.2">
       <c r="F339" s="19"/>
     </row>
-    <row r="340" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="6:6" ht="13.2">
       <c r="F340" s="19"/>
     </row>
-    <row r="341" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="6:6" ht="13.2">
       <c r="F341" s="19"/>
     </row>
-    <row r="342" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="6:6" ht="13.2">
       <c r="F342" s="19"/>
     </row>
-    <row r="343" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="6:6" ht="13.2">
       <c r="F343" s="19"/>
     </row>
-    <row r="344" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="6:6" ht="13.2">
       <c r="F344" s="19"/>
     </row>
-    <row r="345" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="6:6" ht="13.2">
       <c r="F345" s="19"/>
     </row>
-    <row r="346" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="6:6" ht="13.2">
       <c r="F346" s="19"/>
     </row>
-    <row r="347" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="6:6" ht="13.2">
       <c r="F347" s="19"/>
     </row>
-    <row r="348" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="6:6" ht="13.2">
       <c r="F348" s="19"/>
     </row>
-    <row r="349" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="6:6" ht="13.2">
       <c r="F349" s="19"/>
     </row>
-    <row r="350" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="6:6" ht="13.2">
       <c r="F350" s="19"/>
     </row>
-    <row r="351" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="6:6" ht="13.2">
       <c r="F351" s="19"/>
     </row>
-    <row r="352" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="6:6" ht="13.2">
       <c r="F352" s="19"/>
     </row>
-    <row r="353" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="6:6" ht="13.2">
       <c r="F353" s="19"/>
     </row>
-    <row r="354" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="6:6" ht="13.2">
       <c r="F354" s="19"/>
     </row>
-    <row r="355" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="6:6" ht="13.2">
       <c r="F355" s="19"/>
     </row>
-    <row r="356" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="6:6" ht="13.2">
       <c r="F356" s="19"/>
     </row>
-    <row r="357" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="6:6" ht="13.2">
       <c r="F357" s="19"/>
     </row>
-    <row r="358" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="6:6" ht="13.2">
       <c r="F358" s="19"/>
     </row>
-    <row r="359" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="6:6" ht="13.2">
       <c r="F359" s="19"/>
     </row>
-    <row r="360" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="6:6" ht="13.2">
       <c r="F360" s="19"/>
     </row>
-    <row r="361" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="6:6" ht="13.2">
       <c r="F361" s="19"/>
     </row>
-    <row r="362" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="6:6" ht="13.2">
       <c r="F362" s="19"/>
     </row>
-    <row r="363" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="6:6" ht="13.2">
       <c r="F363" s="19"/>
     </row>
-    <row r="364" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="6:6" ht="13.2">
       <c r="F364" s="19"/>
     </row>
-    <row r="365" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="6:6" ht="13.2">
       <c r="F365" s="19"/>
     </row>
-    <row r="366" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="6:6" ht="13.2">
       <c r="F366" s="19"/>
     </row>
-    <row r="367" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="6:6" ht="13.2">
       <c r="F367" s="19"/>
     </row>
-    <row r="368" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="6:6" ht="13.2">
       <c r="F368" s="19"/>
     </row>
-    <row r="369" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="6:6" ht="13.2">
       <c r="F369" s="19"/>
     </row>
-    <row r="370" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="6:6" ht="13.2">
       <c r="F370" s="19"/>
     </row>
-    <row r="371" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="6:6" ht="13.2">
       <c r="F371" s="19"/>
     </row>
-    <row r="372" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="6:6" ht="13.2">
       <c r="F372" s="19"/>
     </row>
-    <row r="373" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="6:6" ht="13.2">
       <c r="F373" s="19"/>
     </row>
-    <row r="374" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="6:6" ht="13.2">
       <c r="F374" s="19"/>
     </row>
-    <row r="375" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="6:6" ht="13.2">
       <c r="F375" s="19"/>
     </row>
-    <row r="376" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="6:6" ht="13.2">
       <c r="F376" s="19"/>
     </row>
-    <row r="377" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="6:6" ht="13.2">
       <c r="F377" s="19"/>
     </row>
-    <row r="378" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="6:6" ht="13.2">
       <c r="F378" s="19"/>
     </row>
-    <row r="379" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="6:6" ht="13.2">
       <c r="F379" s="19"/>
     </row>
-    <row r="380" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="6:6" ht="13.2">
       <c r="F380" s="19"/>
     </row>
-    <row r="381" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="6:6" ht="13.2">
       <c r="F381" s="19"/>
     </row>
-    <row r="382" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="6:6" ht="13.2">
       <c r="F382" s="19"/>
     </row>
-    <row r="383" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="6:6" ht="13.2">
       <c r="F383" s="19"/>
     </row>
-    <row r="384" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="6:6" ht="13.2">
       <c r="F384" s="19"/>
     </row>
-    <row r="385" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="6:6" ht="13.2">
       <c r="F385" s="19"/>
     </row>
-    <row r="386" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="6:6" ht="13.2">
       <c r="F386" s="19"/>
     </row>
-    <row r="387" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="6:6" ht="13.2">
       <c r="F387" s="19"/>
     </row>
-    <row r="388" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="6:6" ht="13.2">
       <c r="F388" s="19"/>
     </row>
-    <row r="389" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="6:6" ht="13.2">
       <c r="F389" s="19"/>
     </row>
-    <row r="390" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="6:6" ht="13.2">
       <c r="F390" s="19"/>
     </row>
-    <row r="391" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="6:6" ht="13.2">
       <c r="F391" s="19"/>
     </row>
-    <row r="392" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="6:6" ht="13.2">
       <c r="F392" s="19"/>
     </row>
-    <row r="393" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="6:6" ht="13.2">
       <c r="F393" s="19"/>
     </row>
-    <row r="394" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="6:6" ht="13.2">
       <c r="F394" s="19"/>
     </row>
-    <row r="395" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="6:6" ht="13.2">
       <c r="F395" s="19"/>
     </row>
-    <row r="396" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="6:6" ht="13.2">
       <c r="F396" s="19"/>
     </row>
-    <row r="397" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="6:6" ht="13.2">
       <c r="F397" s="19"/>
     </row>
-    <row r="398" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="6:6" ht="13.2">
       <c r="F398" s="19"/>
     </row>
-    <row r="399" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="6:6" ht="13.2">
       <c r="F399" s="19"/>
     </row>
-    <row r="400" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="6:6" ht="13.2">
       <c r="F400" s="19"/>
     </row>
-    <row r="401" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="6:6" ht="13.2">
       <c r="F401" s="19"/>
     </row>
-    <row r="402" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="6:6" ht="13.2">
       <c r="F402" s="19"/>
     </row>
-    <row r="403" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="6:6" ht="13.2">
       <c r="F403" s="19"/>
     </row>
-    <row r="404" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="6:6" ht="13.2">
       <c r="F404" s="19"/>
     </row>
-    <row r="405" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="6:6" ht="13.2">
       <c r="F405" s="19"/>
     </row>
-    <row r="406" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="6:6" ht="13.2">
       <c r="F406" s="19"/>
     </row>
-    <row r="407" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="6:6" ht="13.2">
       <c r="F407" s="19"/>
     </row>
-    <row r="408" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="6:6" ht="13.2">
       <c r="F408" s="19"/>
     </row>
-    <row r="409" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="6:6" ht="13.2">
       <c r="F409" s="19"/>
     </row>
-    <row r="410" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="6:6" ht="13.2">
       <c r="F410" s="19"/>
     </row>
-    <row r="411" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="6:6" ht="13.2">
       <c r="F411" s="19"/>
     </row>
-    <row r="412" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="6:6" ht="13.2">
       <c r="F412" s="19"/>
     </row>
-    <row r="413" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="6:6" ht="13.2">
       <c r="F413" s="19"/>
     </row>
-    <row r="414" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="6:6" ht="13.2">
       <c r="F414" s="19"/>
     </row>
-    <row r="415" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="6:6" ht="13.2">
       <c r="F415" s="19"/>
     </row>
-    <row r="416" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="6:6" ht="13.2">
       <c r="F416" s="19"/>
     </row>
-    <row r="417" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="6:6" ht="13.2">
       <c r="F417" s="19"/>
     </row>
-    <row r="418" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="6:6" ht="13.2">
       <c r="F418" s="19"/>
     </row>
-    <row r="419" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="6:6" ht="13.2">
       <c r="F419" s="19"/>
     </row>
-    <row r="420" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="6:6" ht="13.2">
       <c r="F420" s="19"/>
     </row>
-    <row r="421" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="6:6" ht="13.2">
       <c r="F421" s="19"/>
     </row>
-    <row r="422" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="6:6" ht="13.2">
       <c r="F422" s="19"/>
     </row>
-    <row r="423" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="6:6" ht="13.2">
       <c r="F423" s="19"/>
     </row>
-    <row r="424" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="6:6" ht="13.2">
       <c r="F424" s="19"/>
     </row>
-    <row r="425" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="6:6" ht="13.2">
       <c r="F425" s="19"/>
     </row>
-    <row r="426" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="6:6" ht="13.2">
       <c r="F426" s="19"/>
     </row>
-    <row r="427" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="6:6" ht="13.2">
       <c r="F427" s="19"/>
     </row>
-    <row r="428" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="6:6" ht="13.2">
       <c r="F428" s="19"/>
     </row>
-    <row r="429" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="6:6" ht="13.2">
       <c r="F429" s="19"/>
     </row>
-    <row r="430" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="6:6" ht="13.2">
       <c r="F430" s="19"/>
     </row>
-    <row r="431" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="6:6" ht="13.2">
       <c r="F431" s="19"/>
     </row>
-    <row r="432" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="6:6" ht="13.2">
       <c r="F432" s="19"/>
     </row>
-    <row r="433" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="6:6" ht="13.2">
       <c r="F433" s="19"/>
     </row>
-    <row r="434" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="6:6" ht="13.2">
       <c r="F434" s="19"/>
     </row>
-    <row r="435" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="6:6" ht="13.2">
       <c r="F435" s="19"/>
     </row>
-    <row r="436" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="6:6" ht="13.2">
       <c r="F436" s="19"/>
     </row>
-    <row r="437" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="6:6" ht="13.2">
       <c r="F437" s="19"/>
     </row>
-    <row r="438" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="6:6" ht="13.2">
       <c r="F438" s="19"/>
     </row>
-    <row r="439" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="6:6" ht="13.2">
       <c r="F439" s="19"/>
     </row>
-    <row r="440" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="6:6" ht="13.2">
       <c r="F440" s="19"/>
     </row>
-    <row r="441" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="6:6" ht="13.2">
       <c r="F441" s="19"/>
     </row>
-    <row r="442" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="6:6" ht="13.2">
       <c r="F442" s="19"/>
     </row>
-    <row r="443" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="6:6" ht="13.2">
       <c r="F443" s="19"/>
     </row>
-    <row r="444" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="6:6" ht="13.2">
       <c r="F444" s="19"/>
     </row>
-    <row r="445" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="6:6" ht="13.2">
       <c r="F445" s="19"/>
     </row>
-    <row r="446" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="6:6" ht="13.2">
       <c r="F446" s="19"/>
     </row>
-    <row r="447" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="6:6" ht="13.2">
       <c r="F447" s="19"/>
     </row>
-    <row r="448" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="6:6" ht="13.2">
       <c r="F448" s="19"/>
     </row>
-    <row r="449" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="6:6" ht="13.2">
       <c r="F449" s="19"/>
     </row>
-    <row r="450" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="6:6" ht="13.2">
       <c r="F450" s="19"/>
     </row>
-    <row r="451" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="6:6" ht="13.2">
       <c r="F451" s="19"/>
     </row>
-    <row r="452" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="6:6" ht="13.2">
       <c r="F452" s="19"/>
     </row>
-    <row r="453" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="6:6" ht="13.2">
       <c r="F453" s="19"/>
     </row>
-    <row r="454" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="6:6" ht="13.2">
       <c r="F454" s="19"/>
     </row>
-    <row r="455" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="6:6" ht="13.2">
       <c r="F455" s="19"/>
     </row>
-    <row r="456" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="6:6" ht="13.2">
       <c r="F456" s="19"/>
     </row>
-    <row r="457" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="6:6" ht="13.2">
       <c r="F457" s="19"/>
     </row>
-    <row r="458" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="6:6" ht="13.2">
       <c r="F458" s="19"/>
     </row>
-    <row r="459" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="6:6" ht="13.2">
       <c r="F459" s="19"/>
     </row>
-    <row r="460" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="6:6" ht="13.2">
       <c r="F460" s="19"/>
     </row>
-    <row r="461" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="6:6" ht="13.2">
       <c r="F461" s="19"/>
     </row>
-    <row r="462" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="6:6" ht="13.2">
       <c r="F462" s="19"/>
     </row>
-    <row r="463" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="6:6" ht="13.2">
       <c r="F463" s="19"/>
     </row>
-    <row r="464" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="6:6" ht="13.2">
       <c r="F464" s="19"/>
     </row>
-    <row r="465" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="6:6" ht="13.2">
       <c r="F465" s="19"/>
     </row>
-    <row r="466" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="6:6" ht="13.2">
       <c r="F466" s="19"/>
     </row>
-    <row r="467" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="6:6" ht="13.2">
       <c r="F467" s="19"/>
     </row>
-    <row r="468" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="6:6" ht="13.2">
       <c r="F468" s="19"/>
     </row>
-    <row r="469" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="6:6" ht="13.2">
       <c r="F469" s="19"/>
     </row>
-    <row r="470" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="6:6" ht="13.2">
       <c r="F470" s="19"/>
     </row>
-    <row r="471" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="6:6" ht="13.2">
       <c r="F471" s="19"/>
     </row>
-    <row r="472" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="6:6" ht="13.2">
       <c r="F472" s="19"/>
     </row>
-    <row r="473" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="6:6" ht="13.2">
       <c r="F473" s="19"/>
     </row>
-    <row r="474" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="6:6" ht="13.2">
       <c r="F474" s="19"/>
     </row>
-    <row r="475" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="6:6" ht="13.2">
       <c r="F475" s="19"/>
     </row>
-    <row r="476" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="6:6" ht="13.2">
       <c r="F476" s="19"/>
     </row>
-    <row r="477" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="6:6" ht="13.2">
       <c r="F477" s="19"/>
     </row>
-    <row r="478" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="6:6" ht="13.2">
       <c r="F478" s="19"/>
     </row>
-    <row r="479" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="6:6" ht="13.2">
       <c r="F479" s="19"/>
     </row>
-    <row r="480" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="6:6" ht="13.2">
       <c r="F480" s="19"/>
     </row>
-    <row r="481" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="6:6" ht="13.2">
       <c r="F481" s="19"/>
     </row>
-    <row r="482" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="6:6" ht="13.2">
       <c r="F482" s="19"/>
     </row>
-    <row r="483" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="6:6" ht="13.2">
       <c r="F483" s="19"/>
     </row>
-    <row r="484" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="6:6" ht="13.2">
       <c r="F484" s="19"/>
     </row>
-    <row r="485" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="6:6" ht="13.2">
       <c r="F485" s="19"/>
     </row>
-    <row r="486" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="6:6" ht="13.2">
       <c r="F486" s="19"/>
     </row>
-    <row r="487" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="6:6" ht="13.2">
       <c r="F487" s="19"/>
     </row>
-    <row r="488" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="6:6" ht="13.2">
       <c r="F488" s="19"/>
     </row>
-    <row r="489" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="6:6" ht="13.2">
       <c r="F489" s="19"/>
     </row>
-    <row r="490" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="6:6" ht="13.2">
       <c r="F490" s="19"/>
     </row>
-    <row r="491" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="6:6" ht="13.2">
       <c r="F491" s="19"/>
     </row>
-    <row r="492" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="6:6" ht="13.2">
       <c r="F492" s="19"/>
     </row>
-    <row r="493" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="6:6" ht="13.2">
       <c r="F493" s="19"/>
     </row>
-    <row r="494" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="6:6" ht="13.2">
       <c r="F494" s="19"/>
     </row>
-    <row r="495" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="6:6" ht="13.2">
       <c r="F495" s="19"/>
     </row>
-    <row r="496" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="6:6" ht="13.2">
       <c r="F496" s="19"/>
     </row>
-    <row r="497" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="6:6" ht="13.2">
       <c r="F497" s="19"/>
     </row>
-    <row r="498" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="6:6" ht="13.2">
       <c r="F498" s="19"/>
     </row>
-    <row r="499" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="6:6" ht="13.2">
       <c r="F499" s="19"/>
     </row>
-    <row r="500" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="6:6" ht="13.2">
       <c r="F500" s="19"/>
     </row>
-    <row r="501" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="6:6" ht="13.2">
       <c r="F501" s="19"/>
     </row>
-    <row r="502" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="6:6" ht="13.2">
       <c r="F502" s="19"/>
     </row>
-    <row r="503" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="6:6" ht="13.2">
       <c r="F503" s="19"/>
     </row>
-    <row r="504" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="6:6" ht="13.2">
       <c r="F504" s="19"/>
     </row>
-    <row r="505" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="6:6" ht="13.2">
       <c r="F505" s="19"/>
     </row>
-    <row r="506" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="6:6" ht="13.2">
       <c r="F506" s="19"/>
     </row>
-    <row r="507" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="6:6" ht="13.2">
       <c r="F507" s="19"/>
     </row>
-    <row r="508" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="6:6" ht="13.2">
       <c r="F508" s="19"/>
     </row>
-    <row r="509" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="6:6" ht="13.2">
       <c r="F509" s="19"/>
     </row>
-    <row r="510" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="6:6" ht="13.2">
       <c r="F510" s="19"/>
     </row>
-    <row r="511" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="6:6" ht="13.2">
       <c r="F511" s="19"/>
     </row>
-    <row r="512" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="6:6" ht="13.2">
       <c r="F512" s="19"/>
     </row>
-    <row r="513" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="6:6" ht="13.2">
       <c r="F513" s="19"/>
     </row>
-    <row r="514" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="6:6" ht="13.2">
       <c r="F514" s="19"/>
     </row>
-    <row r="515" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="6:6" ht="13.2">
       <c r="F515" s="19"/>
     </row>
-    <row r="516" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="6:6" ht="13.2">
       <c r="F516" s="19"/>
     </row>
-    <row r="517" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="6:6" ht="13.2">
       <c r="F517" s="19"/>
     </row>
-    <row r="518" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="6:6" ht="13.2">
       <c r="F518" s="19"/>
     </row>
-    <row r="519" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="6:6" ht="13.2">
       <c r="F519" s="19"/>
     </row>
-    <row r="520" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="6:6" ht="13.2">
       <c r="F520" s="19"/>
     </row>
-    <row r="521" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="6:6" ht="13.2">
       <c r="F521" s="19"/>
     </row>
-    <row r="522" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="6:6" ht="13.2">
       <c r="F522" s="19"/>
     </row>
-    <row r="523" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="6:6" ht="13.2">
       <c r="F523" s="19"/>
     </row>
-    <row r="524" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="6:6" ht="13.2">
       <c r="F524" s="19"/>
     </row>
-    <row r="525" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="6:6" ht="13.2">
       <c r="F525" s="19"/>
     </row>
-    <row r="526" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="6:6" ht="13.2">
       <c r="F526" s="19"/>
     </row>
-    <row r="527" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="6:6" ht="13.2">
       <c r="F527" s="19"/>
     </row>
-    <row r="528" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="6:6" ht="13.2">
       <c r="F528" s="19"/>
     </row>
-    <row r="529" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="6:6" ht="13.2">
       <c r="F529" s="19"/>
     </row>
-    <row r="530" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="6:6" ht="13.2">
       <c r="F530" s="19"/>
     </row>
-    <row r="531" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="6:6" ht="13.2">
       <c r="F531" s="19"/>
     </row>
-    <row r="532" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="6:6" ht="13.2">
       <c r="F532" s="19"/>
     </row>
-    <row r="533" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="6:6" ht="13.2">
       <c r="F533" s="19"/>
     </row>
-    <row r="534" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="6:6" ht="13.2">
       <c r="F534" s="19"/>
     </row>
-    <row r="535" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="6:6" ht="13.2">
       <c r="F535" s="19"/>
     </row>
-    <row r="536" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="6:6" ht="13.2">
       <c r="F536" s="19"/>
     </row>
-    <row r="537" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="6:6" ht="13.2">
       <c r="F537" s="19"/>
     </row>
-    <row r="538" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="6:6" ht="13.2">
       <c r="F538" s="19"/>
     </row>
-    <row r="539" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="6:6" ht="13.2">
       <c r="F539" s="19"/>
     </row>
-    <row r="540" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="6:6" ht="13.2">
       <c r="F540" s="19"/>
     </row>
-    <row r="541" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="6:6" ht="13.2">
       <c r="F541" s="19"/>
     </row>
-    <row r="542" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="6:6" ht="13.2">
       <c r="F542" s="19"/>
     </row>
-    <row r="543" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="6:6" ht="13.2">
       <c r="F543" s="19"/>
     </row>
-    <row r="544" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="6:6" ht="13.2">
       <c r="F544" s="19"/>
     </row>
-    <row r="545" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="6:6" ht="13.2">
       <c r="F545" s="19"/>
     </row>
-    <row r="546" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="6:6" ht="13.2">
       <c r="F546" s="19"/>
     </row>
-    <row r="547" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="6:6" ht="13.2">
       <c r="F547" s="19"/>
     </row>
-    <row r="548" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="6:6" ht="13.2">
       <c r="F548" s="19"/>
     </row>
-    <row r="549" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="6:6" ht="13.2">
       <c r="F549" s="19"/>
     </row>
-    <row r="550" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="6:6" ht="13.2">
       <c r="F550" s="19"/>
     </row>
-    <row r="551" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="6:6" ht="13.2">
       <c r="F551" s="19"/>
     </row>
-    <row r="552" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="6:6" ht="13.2">
       <c r="F552" s="19"/>
     </row>
-    <row r="553" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="6:6" ht="13.2">
       <c r="F553" s="19"/>
     </row>
-    <row r="554" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="6:6" ht="13.2">
       <c r="F554" s="19"/>
     </row>
-    <row r="555" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="6:6" ht="13.2">
       <c r="F555" s="19"/>
     </row>
-    <row r="556" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="6:6" ht="13.2">
       <c r="F556" s="19"/>
     </row>
-    <row r="557" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="6:6" ht="13.2">
       <c r="F557" s="19"/>
     </row>
-    <row r="558" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="6:6" ht="13.2">
       <c r="F558" s="19"/>
     </row>
-    <row r="559" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="6:6" ht="13.2">
       <c r="F559" s="19"/>
     </row>
-    <row r="560" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="6:6" ht="13.2">
       <c r="F560" s="19"/>
     </row>
-    <row r="561" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="6:6" ht="13.2">
       <c r="F561" s="19"/>
     </row>
-    <row r="562" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="6:6" ht="13.2">
       <c r="F562" s="19"/>
     </row>
-    <row r="563" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="6:6" ht="13.2">
       <c r="F563" s="19"/>
     </row>
-    <row r="564" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="6:6" ht="13.2">
       <c r="F564" s="19"/>
     </row>
-    <row r="565" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="6:6" ht="13.2">
       <c r="F565" s="19"/>
     </row>
-    <row r="566" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="6:6" ht="13.2">
       <c r="F566" s="19"/>
     </row>
-    <row r="567" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="6:6" ht="13.2">
       <c r="F567" s="19"/>
     </row>
-    <row r="568" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="6:6" ht="13.2">
       <c r="F568" s="19"/>
     </row>
-    <row r="569" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="6:6" ht="13.2">
       <c r="F569" s="19"/>
     </row>
-    <row r="570" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="6:6" ht="13.2">
       <c r="F570" s="19"/>
     </row>
-    <row r="571" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="6:6" ht="13.2">
       <c r="F571" s="19"/>
     </row>
-    <row r="572" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="6:6" ht="13.2">
       <c r="F572" s="19"/>
     </row>
-    <row r="573" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="6:6" ht="13.2">
       <c r="F573" s="19"/>
     </row>
-    <row r="574" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="6:6" ht="13.2">
       <c r="F574" s="19"/>
     </row>
-    <row r="575" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="6:6" ht="13.2">
       <c r="F575" s="19"/>
     </row>
-    <row r="576" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="6:6" ht="13.2">
       <c r="F576" s="19"/>
     </row>
-    <row r="577" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="6:6" ht="13.2">
       <c r="F577" s="19"/>
     </row>
-    <row r="578" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="6:6" ht="13.2">
       <c r="F578" s="19"/>
     </row>
-    <row r="579" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="6:6" ht="13.2">
       <c r="F579" s="19"/>
     </row>
-    <row r="580" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="6:6" ht="13.2">
       <c r="F580" s="19"/>
     </row>
-    <row r="581" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="6:6" ht="13.2">
       <c r="F581" s="19"/>
     </row>
-    <row r="582" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="6:6" ht="13.2">
       <c r="F582" s="19"/>
     </row>
-    <row r="583" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="6:6" ht="13.2">
       <c r="F583" s="19"/>
     </row>
-    <row r="584" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="6:6" ht="13.2">
       <c r="F584" s="19"/>
     </row>
-    <row r="585" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="6:6" ht="13.2">
       <c r="F585" s="19"/>
     </row>
-    <row r="586" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="6:6" ht="13.2">
       <c r="F586" s="19"/>
     </row>
-    <row r="587" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="6:6" ht="13.2">
       <c r="F587" s="19"/>
     </row>
-    <row r="588" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="6:6" ht="13.2">
       <c r="F588" s="19"/>
     </row>
-    <row r="589" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="6:6" ht="13.2">
       <c r="F589" s="19"/>
     </row>
-    <row r="590" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="6:6" ht="13.2">
       <c r="F590" s="19"/>
     </row>
-    <row r="591" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="6:6" ht="13.2">
       <c r="F591" s="19"/>
     </row>
-    <row r="592" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="6:6" ht="13.2">
       <c r="F592" s="19"/>
     </row>
-    <row r="593" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="6:6" ht="13.2">
       <c r="F593" s="19"/>
     </row>
-    <row r="594" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="6:6" ht="13.2">
       <c r="F594" s="19"/>
     </row>
-    <row r="595" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="6:6" ht="13.2">
       <c r="F595" s="19"/>
     </row>
-    <row r="596" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="6:6" ht="13.2">
       <c r="F596" s="19"/>
     </row>
-    <row r="597" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="6:6" ht="13.2">
       <c r="F597" s="19"/>
     </row>
-    <row r="598" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="6:6" ht="13.2">
       <c r="F598" s="19"/>
     </row>
-    <row r="599" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="6:6" ht="13.2">
       <c r="F599" s="19"/>
     </row>
-    <row r="600" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="6:6" ht="13.2">
       <c r="F600" s="19"/>
     </row>
-    <row r="601" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="6:6" ht="13.2">
       <c r="F601" s="19"/>
     </row>
-    <row r="602" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="6:6" ht="13.2">
       <c r="F602" s="19"/>
     </row>
-    <row r="603" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="6:6" ht="13.2">
       <c r="F603" s="19"/>
     </row>
-    <row r="604" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="6:6" ht="13.2">
       <c r="F604" s="19"/>
     </row>
-    <row r="605" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="6:6" ht="13.2">
       <c r="F605" s="19"/>
     </row>
-    <row r="606" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="6:6" ht="13.2">
       <c r="F606" s="19"/>
     </row>
-    <row r="607" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="6:6" ht="13.2">
       <c r="F607" s="19"/>
     </row>
-    <row r="608" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="6:6" ht="13.2">
       <c r="F608" s="19"/>
     </row>
-    <row r="609" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="6:6" ht="13.2">
       <c r="F609" s="19"/>
     </row>
-    <row r="610" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="6:6" ht="13.2">
       <c r="F610" s="19"/>
     </row>
-    <row r="611" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="6:6" ht="13.2">
       <c r="F611" s="19"/>
     </row>
-    <row r="612" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="6:6" ht="13.2">
       <c r="F612" s="19"/>
     </row>
-    <row r="613" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="6:6" ht="13.2">
       <c r="F613" s="19"/>
     </row>
-    <row r="614" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="6:6" ht="13.2">
       <c r="F614" s="19"/>
     </row>
-    <row r="615" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="6:6" ht="13.2">
       <c r="F615" s="19"/>
     </row>
-    <row r="616" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="6:6" ht="13.2">
       <c r="F616" s="19"/>
     </row>
-    <row r="617" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="6:6" ht="13.2">
       <c r="F617" s="19"/>
     </row>
-    <row r="618" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="6:6" ht="13.2">
       <c r="F618" s="19"/>
     </row>
-    <row r="619" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="6:6" ht="13.2">
       <c r="F619" s="19"/>
     </row>
-    <row r="620" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="6:6" ht="13.2">
       <c r="F620" s="19"/>
     </row>
-    <row r="621" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="6:6" ht="13.2">
       <c r="F621" s="19"/>
     </row>
-    <row r="622" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="6:6" ht="13.2">
       <c r="F622" s="19"/>
     </row>
-    <row r="623" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="6:6" ht="13.2">
       <c r="F623" s="19"/>
     </row>
-    <row r="624" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="6:6" ht="13.2">
       <c r="F624" s="19"/>
     </row>
-    <row r="625" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="6:6" ht="13.2">
       <c r="F625" s="19"/>
     </row>
-    <row r="626" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="6:6" ht="13.2">
       <c r="F626" s="19"/>
     </row>
-    <row r="627" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="6:6" ht="13.2">
       <c r="F627" s="19"/>
     </row>
-    <row r="628" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="6:6" ht="13.2">
       <c r="F628" s="19"/>
     </row>
-    <row r="629" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="6:6" ht="13.2">
       <c r="F629" s="19"/>
     </row>
-    <row r="630" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="6:6" ht="13.2">
       <c r="F630" s="19"/>
     </row>
-    <row r="631" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="6:6" ht="13.2">
       <c r="F631" s="19"/>
     </row>
-    <row r="632" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="6:6" ht="13.2">
       <c r="F632" s="19"/>
     </row>
-    <row r="633" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="6:6" ht="13.2">
       <c r="F633" s="19"/>
     </row>
-    <row r="634" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="6:6" ht="13.2">
       <c r="F634" s="19"/>
     </row>
-    <row r="635" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="6:6" ht="13.2">
       <c r="F635" s="19"/>
     </row>
-    <row r="636" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="6:6" ht="13.2">
       <c r="F636" s="19"/>
     </row>
-    <row r="637" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="6:6" ht="13.2">
       <c r="F637" s="19"/>
     </row>
-    <row r="638" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="6:6" ht="13.2">
       <c r="F638" s="19"/>
     </row>
-    <row r="639" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="6:6" ht="13.2">
       <c r="F639" s="19"/>
     </row>
-    <row r="640" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="6:6" ht="13.2">
       <c r="F640" s="19"/>
     </row>
-    <row r="641" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="6:6" ht="13.2">
       <c r="F641" s="19"/>
     </row>
-    <row r="642" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="6:6" ht="13.2">
       <c r="F642" s="19"/>
     </row>
-    <row r="643" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="6:6" ht="13.2">
       <c r="F643" s="19"/>
     </row>
-    <row r="644" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="6:6" ht="13.2">
       <c r="F644" s="19"/>
     </row>
-    <row r="645" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="6:6" ht="13.2">
       <c r="F645" s="19"/>
     </row>
-    <row r="646" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="6:6" ht="13.2">
       <c r="F646" s="19"/>
     </row>
-    <row r="647" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="6:6" ht="13.2">
       <c r="F647" s="19"/>
     </row>
-    <row r="648" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="6:6" ht="13.2">
       <c r="F648" s="19"/>
     </row>
-    <row r="649" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="6:6" ht="13.2">
       <c r="F649" s="19"/>
     </row>
-    <row r="650" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="6:6" ht="13.2">
       <c r="F650" s="19"/>
     </row>
-    <row r="651" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="6:6" ht="13.2">
       <c r="F651" s="19"/>
     </row>
-    <row r="652" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="6:6" ht="13.2">
       <c r="F652" s="19"/>
     </row>
-    <row r="653" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="6:6" ht="13.2">
       <c r="F653" s="19"/>
     </row>
-    <row r="654" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="6:6" ht="13.2">
       <c r="F654" s="19"/>
     </row>
-    <row r="655" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="6:6" ht="13.2">
       <c r="F655" s="19"/>
     </row>
-    <row r="656" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="6:6" ht="13.2">
       <c r="F656" s="19"/>
     </row>
-    <row r="657" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="6:6" ht="13.2">
       <c r="F657" s="19"/>
     </row>
-    <row r="658" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="6:6" ht="13.2">
       <c r="F658" s="19"/>
     </row>
-    <row r="659" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="6:6" ht="13.2">
       <c r="F659" s="19"/>
     </row>
-    <row r="660" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="6:6" ht="13.2">
       <c r="F660" s="19"/>
     </row>
-    <row r="661" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="6:6" ht="13.2">
       <c r="F661" s="19"/>
     </row>
-    <row r="662" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="6:6" ht="13.2">
       <c r="F662" s="19"/>
     </row>
-    <row r="663" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="6:6" ht="13.2">
       <c r="F663" s="19"/>
     </row>
-    <row r="664" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="6:6" ht="13.2">
       <c r="F664" s="19"/>
     </row>
-    <row r="665" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="6:6" ht="13.2">
       <c r="F665" s="19"/>
     </row>
-    <row r="666" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="6:6" ht="13.2">
       <c r="F666" s="19"/>
     </row>
-    <row r="667" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="6:6" ht="13.2">
       <c r="F667" s="19"/>
     </row>
-    <row r="668" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="6:6" ht="13.2">
       <c r="F668" s="19"/>
     </row>
-    <row r="669" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="6:6" ht="13.2">
       <c r="F669" s="19"/>
     </row>
-    <row r="670" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="6:6" ht="13.2">
       <c r="F670" s="19"/>
     </row>
-    <row r="671" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="6:6" ht="13.2">
       <c r="F671" s="19"/>
     </row>
-    <row r="672" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="6:6" ht="13.2">
       <c r="F672" s="19"/>
     </row>
-    <row r="673" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="6:6" ht="13.2">
       <c r="F673" s="19"/>
     </row>
-    <row r="674" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="6:6" ht="13.2">
       <c r="F674" s="19"/>
     </row>
-    <row r="675" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="6:6" ht="13.2">
       <c r="F675" s="19"/>
     </row>
-    <row r="676" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="6:6" ht="13.2">
       <c r="F676" s="19"/>
     </row>
-    <row r="677" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="6:6" ht="13.2">
       <c r="F677" s="19"/>
     </row>
-    <row r="678" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="6:6" ht="13.2">
       <c r="F678" s="19"/>
     </row>
-    <row r="679" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="6:6" ht="13.2">
       <c r="F679" s="19"/>
     </row>
-    <row r="680" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="6:6" ht="13.2">
       <c r="F680" s="19"/>
     </row>
-    <row r="681" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="6:6" ht="13.2">
       <c r="F681" s="19"/>
     </row>
-    <row r="682" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="6:6" ht="13.2">
       <c r="F682" s="19"/>
     </row>
-    <row r="683" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="6:6" ht="13.2">
       <c r="F683" s="19"/>
     </row>
-    <row r="684" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="6:6" ht="13.2">
       <c r="F684" s="19"/>
     </row>
-    <row r="685" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="6:6" ht="13.2">
       <c r="F685" s="19"/>
     </row>
-    <row r="686" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="6:6" ht="13.2">
       <c r="F686" s="19"/>
     </row>
-    <row r="687" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="6:6" ht="13.2">
       <c r="F687" s="19"/>
     </row>
-    <row r="688" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="6:6" ht="13.2">
       <c r="F688" s="19"/>
     </row>
-    <row r="689" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="6:6" ht="13.2">
       <c r="F689" s="19"/>
     </row>
-    <row r="690" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="6:6" ht="13.2">
       <c r="F690" s="19"/>
     </row>
-    <row r="691" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="6:6" ht="13.2">
       <c r="F691" s="19"/>
     </row>
-    <row r="692" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="6:6" ht="13.2">
       <c r="F692" s="19"/>
     </row>
-    <row r="693" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="6:6" ht="13.2">
       <c r="F693" s="19"/>
     </row>
-    <row r="694" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="6:6" ht="13.2">
       <c r="F694" s="19"/>
     </row>
-    <row r="695" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="6:6" ht="13.2">
       <c r="F695" s="19"/>
     </row>
-    <row r="696" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="6:6" ht="13.2">
       <c r="F696" s="19"/>
     </row>
-    <row r="697" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="6:6" ht="13.2">
       <c r="F697" s="19"/>
     </row>
-    <row r="698" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="6:6" ht="13.2">
       <c r="F698" s="19"/>
     </row>
-    <row r="699" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="6:6" ht="13.2">
       <c r="F699" s="19"/>
     </row>
-    <row r="700" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="6:6" ht="13.2">
       <c r="F700" s="19"/>
     </row>
-    <row r="701" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="6:6" ht="13.2">
       <c r="F701" s="19"/>
     </row>
-    <row r="702" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="6:6" ht="13.2">
       <c r="F702" s="19"/>
     </row>
-    <row r="703" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="6:6" ht="13.2">
       <c r="F703" s="19"/>
     </row>
-    <row r="704" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="6:6" ht="13.2">
       <c r="F704" s="19"/>
     </row>
-    <row r="705" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="6:6" ht="13.2">
       <c r="F705" s="19"/>
     </row>
-    <row r="706" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="6:6" ht="13.2">
       <c r="F706" s="19"/>
     </row>
-    <row r="707" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="6:6" ht="13.2">
       <c r="F707" s="19"/>
     </row>
-    <row r="708" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="6:6" ht="13.2">
       <c r="F708" s="19"/>
     </row>
-    <row r="709" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="6:6" ht="13.2">
       <c r="F709" s="19"/>
     </row>
-    <row r="710" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="6:6" ht="13.2">
       <c r="F710" s="19"/>
     </row>
-    <row r="711" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="6:6" ht="13.2">
       <c r="F711" s="19"/>
     </row>
-    <row r="712" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="6:6" ht="13.2">
       <c r="F712" s="19"/>
     </row>
-    <row r="713" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="6:6" ht="13.2">
       <c r="F713" s="19"/>
     </row>
-    <row r="714" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="6:6" ht="13.2">
       <c r="F714" s="19"/>
     </row>
-    <row r="715" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="6:6" ht="13.2">
       <c r="F715" s="19"/>
     </row>
-    <row r="716" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="6:6" ht="13.2">
       <c r="F716" s="19"/>
     </row>
-    <row r="717" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="6:6" ht="13.2">
       <c r="F717" s="19"/>
     </row>
-    <row r="718" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="6:6" ht="13.2">
       <c r="F718" s="19"/>
     </row>
-    <row r="719" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="6:6" ht="13.2">
       <c r="F719" s="19"/>
     </row>
-    <row r="720" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="6:6" ht="13.2">
       <c r="F720" s="19"/>
     </row>
-    <row r="721" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="6:6" ht="13.2">
       <c r="F721" s="19"/>
     </row>
-    <row r="722" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="6:6" ht="13.2">
       <c r="F722" s="19"/>
     </row>
-    <row r="723" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="6:6" ht="13.2">
       <c r="F723" s="19"/>
     </row>
-    <row r="724" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="6:6" ht="13.2">
       <c r="F724" s="19"/>
     </row>
-    <row r="725" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="6:6" ht="13.2">
       <c r="F725" s="19"/>
     </row>
-    <row r="726" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="6:6" ht="13.2">
       <c r="F726" s="19"/>
     </row>
-    <row r="727" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="6:6" ht="13.2">
       <c r="F727" s="19"/>
     </row>
-    <row r="728" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="6:6" ht="13.2">
       <c r="F728" s="19"/>
     </row>
-    <row r="729" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="6:6" ht="13.2">
       <c r="F729" s="19"/>
     </row>
-    <row r="730" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="6:6" ht="13.2">
       <c r="F730" s="19"/>
     </row>
-    <row r="731" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="6:6" ht="13.2">
       <c r="F731" s="19"/>
     </row>
-    <row r="732" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="6:6" ht="13.2">
       <c r="F732" s="19"/>
     </row>
-    <row r="733" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="6:6" ht="13.2">
       <c r="F733" s="19"/>
     </row>
-    <row r="734" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="6:6" ht="13.2">
       <c r="F734" s="19"/>
     </row>
-    <row r="735" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="6:6" ht="13.2">
       <c r="F735" s="19"/>
     </row>
-    <row r="736" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="6:6" ht="13.2">
       <c r="F736" s="19"/>
     </row>
-    <row r="737" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="6:6" ht="13.2">
       <c r="F737" s="19"/>
     </row>
-    <row r="738" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="6:6" ht="13.2">
       <c r="F738" s="19"/>
     </row>
-    <row r="739" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="6:6" ht="13.2">
       <c r="F739" s="19"/>
     </row>
-    <row r="740" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="6:6" ht="13.2">
       <c r="F740" s="19"/>
     </row>
-    <row r="741" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="6:6" ht="13.2">
       <c r="F741" s="19"/>
     </row>
-    <row r="742" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="6:6" ht="13.2">
       <c r="F742" s="19"/>
     </row>
-    <row r="743" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="6:6" ht="13.2">
       <c r="F743" s="19"/>
     </row>
-    <row r="744" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="6:6" ht="13.2">
       <c r="F744" s="19"/>
     </row>
-    <row r="745" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="6:6" ht="13.2">
       <c r="F745" s="19"/>
     </row>
-    <row r="746" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="6:6" ht="13.2">
       <c r="F746" s="19"/>
     </row>
-    <row r="747" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="6:6" ht="13.2">
       <c r="F747" s="19"/>
     </row>
-    <row r="748" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="6:6" ht="13.2">
       <c r="F748" s="19"/>
     </row>
-    <row r="749" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="6:6" ht="13.2">
       <c r="F749" s="19"/>
     </row>
-    <row r="750" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="6:6" ht="13.2">
       <c r="F750" s="19"/>
     </row>
-    <row r="751" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="6:6" ht="13.2">
       <c r="F751" s="19"/>
     </row>
-    <row r="752" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="6:6" ht="13.2">
       <c r="F752" s="19"/>
     </row>
-    <row r="753" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="6:6" ht="13.2">
       <c r="F753" s="19"/>
     </row>
-    <row r="754" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="6:6" ht="13.2">
       <c r="F754" s="19"/>
     </row>
-    <row r="755" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="6:6" ht="13.2">
       <c r="F755" s="19"/>
     </row>
-    <row r="756" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="6:6" ht="13.2">
       <c r="F756" s="19"/>
     </row>
-    <row r="757" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="6:6" ht="13.2">
       <c r="F757" s="19"/>
     </row>
-    <row r="758" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="6:6" ht="13.2">
       <c r="F758" s="19"/>
     </row>
-    <row r="759" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="6:6" ht="13.2">
       <c r="F759" s="19"/>
     </row>
-    <row r="760" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="6:6" ht="13.2">
       <c r="F760" s="19"/>
     </row>
-    <row r="761" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="6:6" ht="13.2">
       <c r="F761" s="19"/>
     </row>
-    <row r="762" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="6:6" ht="13.2">
       <c r="F762" s="19"/>
     </row>
-    <row r="763" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="6:6" ht="13.2">
       <c r="F763" s="19"/>
     </row>
-    <row r="764" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="6:6" ht="13.2">
       <c r="F764" s="19"/>
     </row>
-    <row r="765" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="6:6" ht="13.2">
       <c r="F765" s="19"/>
     </row>
-    <row r="766" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="6:6" ht="13.2">
       <c r="F766" s="19"/>
     </row>
-    <row r="767" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="6:6" ht="13.2">
       <c r="F767" s="19"/>
     </row>
-    <row r="768" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="6:6" ht="13.2">
       <c r="F768" s="19"/>
     </row>
-    <row r="769" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="6:6" ht="13.2">
       <c r="F769" s="19"/>
     </row>
-    <row r="770" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="6:6" ht="13.2">
       <c r="F770" s="19"/>
     </row>
-    <row r="771" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="6:6" ht="13.2">
       <c r="F771" s="19"/>
     </row>
-    <row r="772" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="6:6" ht="13.2">
       <c r="F772" s="19"/>
     </row>
-    <row r="773" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="6:6" ht="13.2">
       <c r="F773" s="19"/>
     </row>
-    <row r="774" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="6:6" ht="13.2">
       <c r="F774" s="19"/>
     </row>
-    <row r="775" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="6:6" ht="13.2">
       <c r="F775" s="19"/>
     </row>
-    <row r="776" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="6:6" ht="13.2">
       <c r="F776" s="19"/>
     </row>
-    <row r="777" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="6:6" ht="13.2">
       <c r="F777" s="19"/>
     </row>
-    <row r="778" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="6:6" ht="13.2">
       <c r="F778" s="19"/>
     </row>
-    <row r="779" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="6:6" ht="13.2">
       <c r="F779" s="19"/>
     </row>
-    <row r="780" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="6:6" ht="13.2">
       <c r="F780" s="19"/>
     </row>
-    <row r="781" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="6:6" ht="13.2">
       <c r="F781" s="19"/>
     </row>
-    <row r="782" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="6:6" ht="13.2">
       <c r="F782" s="19"/>
     </row>
-    <row r="783" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="6:6" ht="13.2">
       <c r="F783" s="19"/>
     </row>
-    <row r="784" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="6:6" ht="13.2">
       <c r="F784" s="19"/>
     </row>
-    <row r="785" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="6:6" ht="13.2">
       <c r="F785" s="19"/>
     </row>
-    <row r="786" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="6:6" ht="13.2">
       <c r="F786" s="19"/>
     </row>
-    <row r="787" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="6:6" ht="13.2">
       <c r="F787" s="19"/>
     </row>
-    <row r="788" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="6:6" ht="13.2">
       <c r="F788" s="19"/>
     </row>
-    <row r="789" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="6:6" ht="13.2">
       <c r="F789" s="19"/>
     </row>
-    <row r="790" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="6:6" ht="13.2">
       <c r="F790" s="19"/>
     </row>
-    <row r="791" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="6:6" ht="13.2">
       <c r="F791" s="19"/>
     </row>
-    <row r="792" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="6:6" ht="13.2">
       <c r="F792" s="19"/>
     </row>
-    <row r="793" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="6:6" ht="13.2">
       <c r="F793" s="19"/>
     </row>
-    <row r="794" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="6:6" ht="13.2">
       <c r="F794" s="19"/>
     </row>
-    <row r="795" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="6:6" ht="13.2">
       <c r="F795" s="19"/>
     </row>
-    <row r="796" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="6:6" ht="13.2">
       <c r="F796" s="19"/>
     </row>
-    <row r="797" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="6:6" ht="13.2">
       <c r="F797" s="19"/>
     </row>
-    <row r="798" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="6:6" ht="13.2">
       <c r="F798" s="19"/>
     </row>
-    <row r="799" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="6:6" ht="13.2">
       <c r="F799" s="19"/>
     </row>
-    <row r="800" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="6:6" ht="13.2">
       <c r="F800" s="19"/>
     </row>
-    <row r="801" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="6:6" ht="13.2">
       <c r="F801" s="19"/>
     </row>
-    <row r="802" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="6:6" ht="13.2">
       <c r="F802" s="19"/>
     </row>
-    <row r="803" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="6:6" ht="13.2">
       <c r="F803" s="19"/>
     </row>
-    <row r="804" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="6:6" ht="13.2">
       <c r="F804" s="19"/>
     </row>
-    <row r="805" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="6:6" ht="13.2">
       <c r="F805" s="19"/>
     </row>
-    <row r="806" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="6:6" ht="13.2">
       <c r="F806" s="19"/>
     </row>
-    <row r="807" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="6:6" ht="13.2">
       <c r="F807" s="19"/>
     </row>
-    <row r="808" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="6:6" ht="13.2">
       <c r="F808" s="19"/>
     </row>
-    <row r="809" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="6:6" ht="13.2">
       <c r="F809" s="19"/>
     </row>
-    <row r="810" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="6:6" ht="13.2">
       <c r="F810" s="19"/>
     </row>
-    <row r="811" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="6:6" ht="13.2">
       <c r="F811" s="19"/>
     </row>
-    <row r="812" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="6:6" ht="13.2">
       <c r="F812" s="19"/>
     </row>
-    <row r="813" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="6:6" ht="13.2">
       <c r="F813" s="19"/>
     </row>
-    <row r="814" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="6:6" ht="13.2">
       <c r="F814" s="19"/>
     </row>
-    <row r="815" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="6:6" ht="13.2">
       <c r="F815" s="19"/>
     </row>
-    <row r="816" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="6:6" ht="13.2">
       <c r="F816" s="19"/>
     </row>
-    <row r="817" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="6:6" ht="13.2">
       <c r="F817" s="19"/>
     </row>
-    <row r="818" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="6:6" ht="13.2">
       <c r="F818" s="19"/>
     </row>
-    <row r="819" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="6:6" ht="13.2">
       <c r="F819" s="19"/>
     </row>
-    <row r="820" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="6:6" ht="13.2">
       <c r="F820" s="19"/>
     </row>
-    <row r="821" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="6:6" ht="13.2">
       <c r="F821" s="19"/>
     </row>
-    <row r="822" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="6:6" ht="13.2">
       <c r="F822" s="19"/>
     </row>
-    <row r="823" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="6:6" ht="13.2">
       <c r="F823" s="19"/>
     </row>
-    <row r="824" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="6:6" ht="13.2">
       <c r="F824" s="19"/>
     </row>
-    <row r="825" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="6:6" ht="13.2">
       <c r="F825" s="19"/>
     </row>
-    <row r="826" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="6:6" ht="13.2">
       <c r="F826" s="19"/>
     </row>
-    <row r="827" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="6:6" ht="13.2">
       <c r="F827" s="19"/>
     </row>
-    <row r="828" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="6:6" ht="13.2">
       <c r="F828" s="19"/>
     </row>
-    <row r="829" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="6:6" ht="13.2">
       <c r="F829" s="19"/>
     </row>
-    <row r="830" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="6:6" ht="13.2">
       <c r="F830" s="19"/>
     </row>
-    <row r="831" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="6:6" ht="13.2">
       <c r="F831" s="19"/>
     </row>
-    <row r="832" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="6:6" ht="13.2">
       <c r="F832" s="19"/>
     </row>
-    <row r="833" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="6:6" ht="13.2">
       <c r="F833" s="19"/>
     </row>
-    <row r="834" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="6:6" ht="13.2">
       <c r="F834" s="19"/>
     </row>
-    <row r="835" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="6:6" ht="13.2">
       <c r="F835" s="19"/>
     </row>
-    <row r="836" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="6:6" ht="13.2">
       <c r="F836" s="19"/>
     </row>
-    <row r="837" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="6:6" ht="13.2">
       <c r="F837" s="19"/>
     </row>
-    <row r="838" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="6:6" ht="13.2">
       <c r="F838" s="19"/>
     </row>
-    <row r="839" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="6:6" ht="13.2">
       <c r="F839" s="19"/>
     </row>
-    <row r="840" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="6:6" ht="13.2">
       <c r="F840" s="19"/>
     </row>
-    <row r="841" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="6:6" ht="13.2">
       <c r="F841" s="19"/>
     </row>
-    <row r="842" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="6:6" ht="13.2">
       <c r="F842" s="19"/>
     </row>
-    <row r="843" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="6:6" ht="13.2">
       <c r="F843" s="19"/>
     </row>
-    <row r="844" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="6:6" ht="13.2">
       <c r="F844" s="19"/>
     </row>
-    <row r="845" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="6:6" ht="13.2">
       <c r="F845" s="19"/>
     </row>
-    <row r="846" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="6:6" ht="13.2">
       <c r="F846" s="19"/>
     </row>
-    <row r="847" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="6:6" ht="13.2">
       <c r="F847" s="19"/>
     </row>
-    <row r="848" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="6:6" ht="13.2">
       <c r="F848" s="19"/>
     </row>
-    <row r="849" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="6:6" ht="13.2">
       <c r="F849" s="19"/>
     </row>
-    <row r="850" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="6:6" ht="13.2">
       <c r="F850" s="19"/>
     </row>
-    <row r="851" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="6:6" ht="13.2">
       <c r="F851" s="19"/>
     </row>
-    <row r="852" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="6:6" ht="13.2">
       <c r="F852" s="19"/>
     </row>
-    <row r="853" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="6:6" ht="13.2">
       <c r="F853" s="19"/>
     </row>
-    <row r="854" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="6:6" ht="13.2">
       <c r="F854" s="19"/>
     </row>
-    <row r="855" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="6:6" ht="13.2">
       <c r="F855" s="19"/>
     </row>
-    <row r="856" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="6:6" ht="13.2">
       <c r="F856" s="19"/>
     </row>
-    <row r="857" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="6:6" ht="13.2">
       <c r="F857" s="19"/>
     </row>
-    <row r="858" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="6:6" ht="13.2">
       <c r="F858" s="19"/>
     </row>
-    <row r="859" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="6:6" ht="13.2">
       <c r="F859" s="19"/>
     </row>
-    <row r="860" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="6:6" ht="13.2">
       <c r="F860" s="19"/>
     </row>
-    <row r="861" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="6:6" ht="13.2">
       <c r="F861" s="19"/>
     </row>
-    <row r="862" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="6:6" ht="13.2">
       <c r="F862" s="19"/>
     </row>
-    <row r="863" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="6:6" ht="13.2">
       <c r="F863" s="19"/>
     </row>
-    <row r="864" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="6:6" ht="13.2">
       <c r="F864" s="19"/>
     </row>
-    <row r="865" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="6:6" ht="13.2">
       <c r="F865" s="19"/>
     </row>
-    <row r="866" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="6:6" ht="13.2">
       <c r="F866" s="19"/>
     </row>
-    <row r="867" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="6:6" ht="13.2">
       <c r="F867" s="19"/>
     </row>
-    <row r="868" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="6:6" ht="13.2">
       <c r="F868" s="19"/>
     </row>
-    <row r="869" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="6:6" ht="13.2">
       <c r="F869" s="19"/>
     </row>
-    <row r="870" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="6:6" ht="13.2">
       <c r="F870" s="19"/>
     </row>
-    <row r="871" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="6:6" ht="13.2">
       <c r="F871" s="19"/>
     </row>
-    <row r="872" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="6:6" ht="13.2">
       <c r="F872" s="19"/>
     </row>
-    <row r="873" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="6:6" ht="13.2">
       <c r="F873" s="19"/>
     </row>
-    <row r="874" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="6:6" ht="13.2">
       <c r="F874" s="19"/>
     </row>
-    <row r="875" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="6:6" ht="13.2">
       <c r="F875" s="19"/>
     </row>
-    <row r="876" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="6:6" ht="13.2">
       <c r="F876" s="19"/>
     </row>
-    <row r="877" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="6:6" ht="13.2">
       <c r="F877" s="19"/>
     </row>
-    <row r="878" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="6:6" ht="13.2">
       <c r="F878" s="19"/>
     </row>
-    <row r="879" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="6:6" ht="13.2">
       <c r="F879" s="19"/>
     </row>
-    <row r="880" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="6:6" ht="13.2">
       <c r="F880" s="19"/>
     </row>
-    <row r="881" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="6:6" ht="13.2">
       <c r="F881" s="19"/>
     </row>
-    <row r="882" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="6:6" ht="13.2">
       <c r="F882" s="19"/>
     </row>
-    <row r="883" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="6:6" ht="13.2">
       <c r="F883" s="19"/>
     </row>
-    <row r="884" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="6:6" ht="13.2">
       <c r="F884" s="19"/>
     </row>
-    <row r="885" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="6:6" ht="13.2">
       <c r="F885" s="19"/>
     </row>
-    <row r="886" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="6:6" ht="13.2">
       <c r="F886" s="19"/>
     </row>
-    <row r="887" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="6:6" ht="13.2">
       <c r="F887" s="19"/>
     </row>
-    <row r="888" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="6:6" ht="13.2">
       <c r="F888" s="19"/>
     </row>
-    <row r="889" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="6:6" ht="13.2">
       <c r="F889" s="19"/>
     </row>
-    <row r="890" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="6:6" ht="13.2">
       <c r="F890" s="19"/>
     </row>
-    <row r="891" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="6:6" ht="13.2">
       <c r="F891" s="19"/>
     </row>
-    <row r="892" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="6:6" ht="13.2">
       <c r="F892" s="19"/>
     </row>
-    <row r="893" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="6:6" ht="13.2">
       <c r="F893" s="19"/>
     </row>
-    <row r="894" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="6:6" ht="13.2">
       <c r="F894" s="19"/>
     </row>
-    <row r="895" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="6:6" ht="13.2">
       <c r="F895" s="19"/>
     </row>
-    <row r="896" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="6:6" ht="13.2">
       <c r="F896" s="19"/>
     </row>
-    <row r="897" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="6:6" ht="13.2">
       <c r="F897" s="19"/>
     </row>
-    <row r="898" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="6:6" ht="13.2">
       <c r="F898" s="19"/>
     </row>
-    <row r="899" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="6:6" ht="13.2">
       <c r="F899" s="19"/>
     </row>
-    <row r="900" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="6:6" ht="13.2">
       <c r="F900" s="19"/>
     </row>
-    <row r="901" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="6:6" ht="13.2">
       <c r="F901" s="19"/>
     </row>
-    <row r="902" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="6:6" ht="13.2">
       <c r="F902" s="19"/>
     </row>
-    <row r="903" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="6:6" ht="13.2">
       <c r="F903" s="19"/>
     </row>
-    <row r="904" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="6:6" ht="13.2">
       <c r="F904" s="19"/>
     </row>
-    <row r="905" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="6:6" ht="13.2">
       <c r="F905" s="19"/>
     </row>
-    <row r="906" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="6:6" ht="13.2">
       <c r="F906" s="19"/>
     </row>
-    <row r="907" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="6:6" ht="13.2">
       <c r="F907" s="19"/>
     </row>
-    <row r="908" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="6:6" ht="13.2">
       <c r="F908" s="19"/>
     </row>
-    <row r="909" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="6:6" ht="13.2">
       <c r="F909" s="19"/>
     </row>
-    <row r="910" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="6:6" ht="13.2">
       <c r="F910" s="19"/>
     </row>
-    <row r="911" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="6:6" ht="13.2">
       <c r="F911" s="19"/>
     </row>
-    <row r="912" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="6:6" ht="13.2">
       <c r="F912" s="19"/>
     </row>
-    <row r="913" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="6:6" ht="13.2">
       <c r="F913" s="19"/>
     </row>
-    <row r="914" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="6:6" ht="13.2">
       <c r="F914" s="19"/>
     </row>
-    <row r="915" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="6:6" ht="13.2">
       <c r="F915" s="19"/>
     </row>
-    <row r="916" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="6:6" ht="13.2">
       <c r="F916" s="19"/>
     </row>
-    <row r="917" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="6:6" ht="13.2">
       <c r="F917" s="19"/>
     </row>
-    <row r="918" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="6:6" ht="13.2">
       <c r="F918" s="19"/>
     </row>
-    <row r="919" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="6:6" ht="13.2">
       <c r="F919" s="19"/>
     </row>
-    <row r="920" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="6:6" ht="13.2">
       <c r="F920" s="19"/>
     </row>
-    <row r="921" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="6:6" ht="13.2">
       <c r="F921" s="19"/>
     </row>
-    <row r="922" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="6:6" ht="13.2">
       <c r="F922" s="19"/>
     </row>
-    <row r="923" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="6:6" ht="13.2">
       <c r="F923" s="19"/>
     </row>
-    <row r="924" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="6:6" ht="13.2">
       <c r="F924" s="19"/>
     </row>
-    <row r="925" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="6:6" ht="13.2">
       <c r="F925" s="19"/>
     </row>
-    <row r="926" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="6:6" ht="13.2">
       <c r="F926" s="19"/>
     </row>
-    <row r="927" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="6:6" ht="13.2">
       <c r="F927" s="19"/>
     </row>
-    <row r="928" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="6:6" ht="13.2">
       <c r="F928" s="19"/>
     </row>
-    <row r="929" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="6:6" ht="13.2">
       <c r="F929" s="19"/>
     </row>
-    <row r="930" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="6:6" ht="13.2">
       <c r="F930" s="19"/>
     </row>
-    <row r="931" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="6:6" ht="13.2">
       <c r="F931" s="19"/>
     </row>
-    <row r="932" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="6:6" ht="13.2">
       <c r="F932" s="19"/>
     </row>
-    <row r="933" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="6:6" ht="13.2">
       <c r="F933" s="19"/>
     </row>
-    <row r="934" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="6:6" ht="13.2">
       <c r="F934" s="19"/>
     </row>
-    <row r="935" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="6:6" ht="13.2">
       <c r="F935" s="19"/>
     </row>
-    <row r="936" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="6:6" ht="13.2">
       <c r="F936" s="19"/>
     </row>
-    <row r="937" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="6:6" ht="13.2">
       <c r="F937" s="19"/>
     </row>
-    <row r="938" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="6:6" ht="13.2">
       <c r="F938" s="19"/>
     </row>
-    <row r="939" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="6:6" ht="13.2">
       <c r="F939" s="19"/>
     </row>
-    <row r="940" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="6:6" ht="13.2">
       <c r="F940" s="19"/>
     </row>
-    <row r="941" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="6:6" ht="13.2">
       <c r="F941" s="19"/>
     </row>
-    <row r="942" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="6:6" ht="13.2">
       <c r="F942" s="19"/>
     </row>
-    <row r="943" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="6:6" ht="13.2">
       <c r="F943" s="19"/>
     </row>
-    <row r="944" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="6:6" ht="13.2">
       <c r="F944" s="19"/>
     </row>
-    <row r="945" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="6:6" ht="13.2">
       <c r="F945" s="19"/>
     </row>
-    <row r="946" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="6:6" ht="13.2">
       <c r="F946" s="19"/>
     </row>
-    <row r="947" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="6:6" ht="13.2">
       <c r="F947" s="19"/>
     </row>
-    <row r="948" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="6:6" ht="13.2">
       <c r="F948" s="19"/>
     </row>
-    <row r="949" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="6:6" ht="13.2">
       <c r="F949" s="19"/>
     </row>
-    <row r="950" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="6:6" ht="13.2">
       <c r="F950" s="19"/>
     </row>
-    <row r="951" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="6:6" ht="13.2">
       <c r="F951" s="19"/>
     </row>
-    <row r="952" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="6:6" ht="13.2">
       <c r="F952" s="19"/>
     </row>
-    <row r="953" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="6:6" ht="13.2">
       <c r="F953" s="19"/>
     </row>
-    <row r="954" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="6:6" ht="13.2">
       <c r="F954" s="19"/>
     </row>
-    <row r="955" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="6:6" ht="13.2">
       <c r="F955" s="19"/>
     </row>
-    <row r="956" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="6:6" ht="13.2">
       <c r="F956" s="19"/>
     </row>
-    <row r="957" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="6:6" ht="13.2">
       <c r="F957" s="19"/>
     </row>
-    <row r="958" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="6:6" ht="13.2">
       <c r="F958" s="19"/>
     </row>
-    <row r="959" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="6:6" ht="13.2">
       <c r="F959" s="19"/>
     </row>
-    <row r="960" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="6:6" ht="13.2">
       <c r="F960" s="19"/>
     </row>
-    <row r="961" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="6:6" ht="13.2">
       <c r="F961" s="19"/>
     </row>
-    <row r="962" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="6:6" ht="13.2">
       <c r="F962" s="19"/>
     </row>
-    <row r="963" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="6:6" ht="13.2">
       <c r="F963" s="19"/>
     </row>
-    <row r="964" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="6:6" ht="13.2">
       <c r="F964" s="19"/>
     </row>
-    <row r="965" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="6:6" ht="13.2">
       <c r="F965" s="19"/>
     </row>
-    <row r="966" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="6:6" ht="13.2">
       <c r="F966" s="19"/>
     </row>
-    <row r="967" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="6:6" ht="13.2">
       <c r="F967" s="19"/>
     </row>
-    <row r="968" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="6:6" ht="13.2">
       <c r="F968" s="19"/>
     </row>
-    <row r="969" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="6:6" ht="13.2">
       <c r="F969" s="19"/>
     </row>
-    <row r="970" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="6:6" ht="13.2">
       <c r="F970" s="19"/>
     </row>
-    <row r="971" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="6:6" ht="13.2">
       <c r="F971" s="19"/>
     </row>
-    <row r="972" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="6:6" ht="13.2">
       <c r="F972" s="19"/>
     </row>
-    <row r="973" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="6:6" ht="13.2">
       <c r="F973" s="19"/>
     </row>
-    <row r="974" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="6:6" ht="13.2">
       <c r="F974" s="19"/>
     </row>
-    <row r="975" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="6:6" ht="13.2">
       <c r="F975" s="19"/>
     </row>
-    <row r="976" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="6:6" ht="13.2">
       <c r="F976" s="19"/>
     </row>
-    <row r="977" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="6:6" ht="13.2">
       <c r="F977" s="19"/>
     </row>
-    <row r="978" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="6:6" ht="13.2">
       <c r="F978" s="19"/>
     </row>
-    <row r="979" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="6:6" ht="13.2">
       <c r="F979" s="19"/>
     </row>
-    <row r="980" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="6:6" ht="13.2">
       <c r="F980" s="19"/>
     </row>
-    <row r="981" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="6:6" ht="13.2">
       <c r="F981" s="19"/>
     </row>
-    <row r="982" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="6:6" ht="13.2">
       <c r="F982" s="19"/>
     </row>
-    <row r="983" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="6:6" ht="13.2">
       <c r="F983" s="19"/>
     </row>
-    <row r="984" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="6:6" ht="13.2">
       <c r="F984" s="19"/>
     </row>
-    <row r="985" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="6:6" ht="13.2">
       <c r="F985" s="19"/>
     </row>
-    <row r="986" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="6:6" ht="13.2">
       <c r="F986" s="19"/>
     </row>
-    <row r="987" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="6:6" ht="13.2">
       <c r="F987" s="19"/>
     </row>
-    <row r="988" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="6:6" ht="13.2">
       <c r="F988" s="19"/>
     </row>
-    <row r="989" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="6:6" ht="13.2">
       <c r="F989" s="19"/>
     </row>
-    <row r="990" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="6:6" ht="13.2">
       <c r="F990" s="19"/>
     </row>
-    <row r="991" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="6:6" ht="13.2">
       <c r="F991" s="19"/>
     </row>
-    <row r="992" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="6:6" ht="13.2">
       <c r="F992" s="19"/>
     </row>
-    <row r="993" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993" spans="6:6" ht="13.2">
       <c r="F993" s="19"/>
     </row>
-    <row r="994" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="994" spans="6:6" ht="13.2">
       <c r="F994" s="19"/>
     </row>
-    <row r="995" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="995" spans="6:6" ht="13.2">
       <c r="F995" s="19"/>
     </row>
-    <row r="996" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="996" spans="6:6" ht="13.2">
       <c r="F996" s="19"/>
     </row>
   </sheetData>
@@ -5620,30 +5664,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7E3B47-1521-4401-9600-50F8B310637B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" customWidth="1"/>
-    <col min="8" max="8" width="44.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="34.28515625" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" customWidth="1"/>
+    <col min="8" max="8" width="44.88671875" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="34.33203125" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="31.2">
       <c r="A1" s="24" t="s">
         <v>21</v>
       </c>
@@ -5684,8 +5728,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="207" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70"/>
+    <row r="2" spans="1:13" ht="207" customHeight="1">
+      <c r="A2" s="75"/>
       <c r="B2" s="43" t="s">
         <v>28</v>
       </c>
@@ -5715,10 +5759,12 @@
       </c>
       <c r="K2" s="41"/>
       <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
-    </row>
-    <row r="3" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
+      <c r="M2" s="54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="175.5" customHeight="1">
+      <c r="A3" s="76"/>
       <c r="B3" s="43" t="s">
         <v>27</v>
       </c>
@@ -5748,11 +5794,13 @@
       </c>
       <c r="K3" s="56"/>
       <c r="L3" s="53"/>
-      <c r="M3" s="54"/>
-    </row>
-    <row r="4" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
-      <c r="B4" s="74" t="s">
+      <c r="M3" s="54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="124.2">
+      <c r="A4" s="76"/>
+      <c r="B4" s="79" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="40" t="s">
@@ -5783,9 +5831,9 @@
       <c r="L4" s="57"/>
       <c r="M4" s="54"/>
     </row>
-    <row r="5" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="71"/>
-      <c r="B5" s="75"/>
+    <row r="5" spans="1:13" ht="124.2">
+      <c r="A5" s="76"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="40" t="s">
         <v>37</v>
       </c>
@@ -5814,9 +5862,9 @@
       <c r="L5" s="57"/>
       <c r="M5" s="54"/>
     </row>
-    <row r="6" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="71"/>
-      <c r="B6" s="75"/>
+    <row r="6" spans="1:13" ht="124.2">
+      <c r="A6" s="76"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="40" t="s">
         <v>122</v>
       </c>
@@ -5841,13 +5889,17 @@
       <c r="J6" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="K6" s="50"/>
+      <c r="K6" s="50" t="s">
+        <v>315</v>
+      </c>
       <c r="L6" s="57"/>
-      <c r="M6" s="54"/>
-    </row>
-    <row r="7" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="71"/>
-      <c r="B7" s="75"/>
+      <c r="M6" s="54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="124.2">
+      <c r="A7" s="76"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="40" t="s">
         <v>123</v>
       </c>
@@ -5874,11 +5926,13 @@
       </c>
       <c r="K7" s="50"/>
       <c r="L7" s="57"/>
-      <c r="M7" s="54"/>
-    </row>
-    <row r="8" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
-      <c r="B8" s="75"/>
+      <c r="M7" s="54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="124.2">
+      <c r="A8" s="76"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="40" t="s">
         <v>124</v>
       </c>
@@ -5905,11 +5959,13 @@
       </c>
       <c r="K8" s="50"/>
       <c r="L8" s="57"/>
-      <c r="M8" s="54"/>
-    </row>
-    <row r="9" spans="1:13" ht="162" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
-      <c r="B9" s="75"/>
+      <c r="M8" s="54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="162" customHeight="1">
+      <c r="A9" s="76"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="40" t="s">
         <v>125</v>
       </c>
@@ -5936,11 +5992,13 @@
       </c>
       <c r="K9" s="50"/>
       <c r="L9" s="57"/>
-      <c r="M9" s="54"/>
-    </row>
-    <row r="10" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
-      <c r="B10" s="76" t="s">
+      <c r="M9" s="54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="183" customHeight="1">
+      <c r="A10" s="76"/>
+      <c r="B10" s="81" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="40" t="s">
@@ -5967,11 +6025,13 @@
       </c>
       <c r="K10" s="36"/>
       <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-    </row>
-    <row r="11" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="71"/>
-      <c r="B11" s="77"/>
+      <c r="M10" s="36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="183" customHeight="1">
+      <c r="A11" s="76"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="40" t="s">
         <v>129</v>
       </c>
@@ -5996,11 +6056,13 @@
       </c>
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-    </row>
-    <row r="12" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
-      <c r="B12" s="77"/>
+      <c r="M11" s="36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="183" customHeight="1">
+      <c r="A12" s="76"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="40" t="s">
         <v>130</v>
       </c>
@@ -6025,11 +6087,13 @@
       </c>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-    </row>
-    <row r="13" spans="1:13" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="71"/>
-      <c r="B13" s="78"/>
+      <c r="M12" s="36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="157.5" customHeight="1">
+      <c r="A13" s="76"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="40" t="s">
         <v>131</v>
       </c>
@@ -6054,10 +6118,12 @@
       </c>
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-    </row>
-    <row r="14" spans="1:13" ht="130.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
+      <c r="M13" s="36" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="128.4">
+      <c r="A14" s="76"/>
       <c r="B14" s="44" t="s">
         <v>49</v>
       </c>
@@ -6087,10 +6153,12 @@
       </c>
       <c r="K14" s="50"/>
       <c r="L14" s="57"/>
-      <c r="M14" s="54"/>
-    </row>
-    <row r="15" spans="1:13" ht="84.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="72"/>
+      <c r="M14" s="54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="83.4">
+      <c r="A15" s="77"/>
       <c r="B15" s="46" t="s">
         <v>58</v>
       </c>
@@ -6118,71 +6186,73 @@
       </c>
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="71"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="71"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="71"/>
+      <c r="M15" s="36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="76"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="76"/>
+    </row>
+    <row r="18" spans="1:5" ht="13.8">
+      <c r="A18" s="76"/>
       <c r="E18" s="60"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="71"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="71"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="71"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="71"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="71"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="71"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="71"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="71"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="71"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="71"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="71"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="71"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="71"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="71"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="71"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="71"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="71"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="73"/>
+    <row r="19" spans="1:5">
+      <c r="A19" s="76"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="76"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="76"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="76"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="76"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="76"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="76"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="76"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="76"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="76"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="76"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="76"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="76"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="76"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="76"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="76"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="76"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6196,29 +6266,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB43EE6-FA55-4877-96E9-AE377829827B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="42.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" customWidth="1"/>
+    <col min="8" max="8" width="30.109375" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="22.44140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="46.8">
       <c r="A1" s="24" t="s">
         <v>21</v>
       </c>
@@ -6259,8 +6329,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70"/>
+    <row r="2" spans="1:13" ht="207.75" customHeight="1">
+      <c r="A2" s="75"/>
       <c r="B2" s="23" t="s">
         <v>28</v>
       </c>
@@ -6290,10 +6360,12 @@
       </c>
       <c r="K2" s="26"/>
       <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
-    </row>
-    <row r="3" spans="1:13" ht="220.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
+      <c r="M2" s="22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="220.5" customHeight="1">
+      <c r="A3" s="76"/>
       <c r="B3" s="31" t="s">
         <v>58</v>
       </c>
@@ -6319,91 +6391,93 @@
       </c>
       <c r="K3" s="36"/>
       <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-    </row>
-    <row r="4" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
-    </row>
-    <row r="5" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="71"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="71"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="71"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="71"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="71"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="71"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="71"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="71"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="71"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="71"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="71"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="71"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="71"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="71"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="71"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="71"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="71"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="71"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="71"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="73"/>
+      <c r="M3" s="36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="409.5" customHeight="1">
+      <c r="A4" s="76"/>
+    </row>
+    <row r="5" spans="1:13" ht="409.5" customHeight="1">
+      <c r="A5" s="76"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="76"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="76"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="76"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="76"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="76"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="76"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="76"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="76"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="76"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="76"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="76"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="76"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="76"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="76"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="76"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="76"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="76"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="76"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="76"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="76"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="76"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="76"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="76"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="76"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="76"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6414,29 +6488,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8468A8A-F257-451D-AC30-9124B25FFCDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" customWidth="1"/>
-    <col min="12" max="12" width="0.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" customWidth="1"/>
+    <col min="12" max="12" width="0.109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="46.8">
       <c r="A1" s="24" t="s">
         <v>21</v>
       </c>
@@ -6477,8 +6551,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="174.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70"/>
+    <row r="2" spans="1:13" ht="174.75" customHeight="1">
+      <c r="A2" s="75"/>
       <c r="B2" s="23" t="s">
         <v>28</v>
       </c>
@@ -6508,94 +6582,96 @@
       </c>
       <c r="K2" s="26"/>
       <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="71"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="71"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="71"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="71"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="71"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="71"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="71"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="71"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="71"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="71"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="71"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="71"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="71"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="71"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="71"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="71"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="71"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="71"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="71"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="73"/>
+      <c r="M2" s="22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="76"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="76"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="76"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="76"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="76"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="76"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="76"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="76"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="76"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="76"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="76"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="76"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="76"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="76"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="76"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="76"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="76"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="76"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="76"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="76"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="76"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="76"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="76"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="76"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="76"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="76"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="76"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="76"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6606,29 +6682,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D229A3A4-4F9D-42AB-80C8-669754DC12C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
     <col min="5" max="5" width="17" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="46.8">
       <c r="A1" s="24" t="s">
         <v>21</v>
       </c>
@@ -6666,8 +6742,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+    <row r="2" spans="1:12" ht="179.25" customHeight="1">
+      <c r="A2" s="79" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -6696,10 +6772,12 @@
       </c>
       <c r="J2" s="41"/>
       <c r="K2" s="57"/>
-      <c r="L2" s="54"/>
-    </row>
-    <row r="3" spans="1:12" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="75"/>
+      <c r="L2" s="54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="148.5" customHeight="1">
+      <c r="A3" s="80"/>
       <c r="B3" s="40" t="s">
         <v>79</v>
       </c>
@@ -6726,10 +6804,12 @@
       </c>
       <c r="J3" s="41"/>
       <c r="K3" s="57"/>
-      <c r="L3" s="54"/>
-    </row>
-    <row r="4" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A4" s="74" t="s">
+      <c r="L3" s="54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="110.4">
+      <c r="A4" s="79" t="s">
         <v>83</v>
       </c>
       <c r="B4" s="40" t="s">
@@ -6758,10 +6838,12 @@
       </c>
       <c r="J4" s="41"/>
       <c r="K4" s="57"/>
-      <c r="L4" s="54"/>
-    </row>
-    <row r="5" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A5" s="75"/>
+      <c r="L4" s="54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="110.4">
+      <c r="A5" s="80"/>
       <c r="B5" s="40" t="s">
         <v>88</v>
       </c>
@@ -6788,10 +6870,12 @@
       </c>
       <c r="J5" s="50"/>
       <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-    </row>
-    <row r="6" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A6" s="74" t="s">
+      <c r="L5" s="36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="110.4">
+      <c r="A6" s="79" t="s">
         <v>90</v>
       </c>
       <c r="B6" s="40" t="s">
@@ -6820,10 +6904,12 @@
       </c>
       <c r="J6" s="41"/>
       <c r="K6" s="57"/>
-      <c r="L6" s="54"/>
-    </row>
-    <row r="7" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A7" s="75"/>
+      <c r="L6" s="54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="110.4">
+      <c r="A7" s="80"/>
       <c r="B7" s="40" t="s">
         <v>93</v>
       </c>
@@ -6850,10 +6936,12 @@
       </c>
       <c r="J7" s="41"/>
       <c r="K7" s="57"/>
-      <c r="L7" s="54"/>
-    </row>
-    <row r="8" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A8" s="74" t="s">
+      <c r="L7" s="54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="110.4">
+      <c r="A8" s="79" t="s">
         <v>95</v>
       </c>
       <c r="B8" s="40" t="s">
@@ -6882,10 +6970,12 @@
       </c>
       <c r="J8" s="41"/>
       <c r="K8" s="57"/>
-      <c r="L8" s="54"/>
-    </row>
-    <row r="9" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A9" s="75"/>
+      <c r="L8" s="54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="110.4">
+      <c r="A9" s="80"/>
       <c r="B9" s="40" t="s">
         <v>98</v>
       </c>
@@ -6912,7 +7002,9 @@
       </c>
       <c r="J9" s="50"/>
       <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
+      <c r="L9" s="36" t="s">
+        <v>310</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6926,28 +7018,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3E3723-9A66-41B9-B3EE-9ACDC170719F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="31.2">
       <c r="A1" s="42" t="s">
         <v>21</v>
       </c>
@@ -6985,7 +7077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="204.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="204.75" customHeight="1">
       <c r="A2" s="63" t="s">
         <v>28</v>
       </c>
@@ -7015,10 +7107,12 @@
       </c>
       <c r="J2" s="41"/>
       <c r="K2" s="57"/>
-      <c r="L2" s="54"/>
-    </row>
-    <row r="3" spans="1:12" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="79" t="s">
+      <c r="L2" s="54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="239.25" customHeight="1">
+      <c r="A3" s="84" t="s">
         <v>138</v>
       </c>
       <c r="B3" s="40" t="s">
@@ -7043,12 +7137,16 @@
       <c r="I3" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="J3" s="41"/>
+      <c r="J3" s="41" t="s">
+        <v>312</v>
+      </c>
       <c r="K3" s="57"/>
-      <c r="L3" s="54"/>
-    </row>
-    <row r="4" spans="1:12" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="80"/>
+      <c r="L3" s="54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="239.25" customHeight="1">
+      <c r="A4" s="85"/>
       <c r="B4" s="40" t="s">
         <v>172</v>
       </c>
@@ -7073,10 +7171,12 @@
       </c>
       <c r="J4" s="41"/>
       <c r="K4" s="57"/>
-      <c r="L4" s="36"/>
-    </row>
-    <row r="5" spans="1:12" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="80"/>
+      <c r="L4" s="36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="239.25" customHeight="1">
+      <c r="A5" s="85"/>
       <c r="B5" s="40" t="s">
         <v>174</v>
       </c>
@@ -7101,10 +7201,12 @@
       </c>
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-    </row>
-    <row r="6" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="80"/>
+      <c r="L5" s="36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="221.25" customHeight="1">
+      <c r="A6" s="85"/>
       <c r="B6" s="40" t="s">
         <v>175</v>
       </c>
@@ -7129,9 +7231,11 @@
       </c>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-    </row>
-    <row r="7" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L6" s="36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="221.25" customHeight="1">
       <c r="A7" s="45"/>
       <c r="B7" s="40" t="s">
         <v>176</v>
@@ -7157,9 +7261,11 @@
       </c>
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-    </row>
-    <row r="8" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="221.25" customHeight="1">
       <c r="A8" s="45"/>
       <c r="B8" s="40" t="s">
         <v>177</v>
@@ -7185,9 +7291,11 @@
       </c>
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-    </row>
-    <row r="9" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="221.25" customHeight="1">
       <c r="A9" s="45"/>
       <c r="B9" s="40" t="s">
         <v>178</v>
@@ -7213,9 +7321,11 @@
       </c>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-    </row>
-    <row r="10" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L9" s="36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="221.25" customHeight="1">
       <c r="A10" s="45"/>
       <c r="B10" s="40" t="s">
         <v>179</v>
@@ -7241,9 +7351,11 @@
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-    </row>
-    <row r="11" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="221.25" customHeight="1">
       <c r="A11" s="45"/>
       <c r="B11" s="40" t="s">
         <v>180</v>
@@ -7271,7 +7383,7 @@
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
     </row>
-    <row r="12" spans="1:12" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="221.25" customHeight="1">
       <c r="A12" s="45"/>
       <c r="B12" s="40" t="s">
         <v>181</v>
@@ -7299,8 +7411,8 @@
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
     </row>
-    <row r="13" spans="1:12" ht="233.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="81" t="s">
+    <row r="13" spans="1:12" ht="233.25" customHeight="1">
+      <c r="A13" s="86" t="s">
         <v>150</v>
       </c>
       <c r="B13" s="40" t="s">
@@ -7329,8 +7441,8 @@
       <c r="K13" s="57"/>
       <c r="L13" s="54"/>
     </row>
-    <row r="14" spans="1:12" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="82"/>
+    <row r="14" spans="1:12" ht="207.75" customHeight="1">
+      <c r="A14" s="87"/>
       <c r="B14" s="40" t="s">
         <v>183</v>
       </c>
@@ -7357,7 +7469,7 @@
       <c r="K14" s="57"/>
       <c r="L14" s="54"/>
     </row>
-    <row r="15" spans="1:12" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="207.75" customHeight="1">
       <c r="A15" s="45"/>
       <c r="B15" s="40" t="s">
         <v>184</v>
@@ -7385,7 +7497,7 @@
       <c r="K15" s="57"/>
       <c r="L15" s="54"/>
     </row>
-    <row r="16" spans="1:12" ht="130.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="128.4">
       <c r="A16" s="44" t="s">
         <v>49</v>
       </c>
@@ -7415,7 +7527,7 @@
       <c r="K16" s="57"/>
       <c r="L16" s="54"/>
     </row>
-    <row r="17" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="108" customHeight="1">
       <c r="A17" s="66" t="s">
         <v>28</v>
       </c>
@@ -7445,8 +7557,8 @@
       <c r="K17" s="57"/>
       <c r="L17" s="54"/>
     </row>
-    <row r="18" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="86" t="s">
+    <row r="18" spans="1:12" ht="71.25" customHeight="1">
+      <c r="A18" s="91" t="s">
         <v>138</v>
       </c>
       <c r="B18" s="40" t="s">
@@ -7475,8 +7587,8 @@
       <c r="K18" s="57"/>
       <c r="L18" s="54"/>
     </row>
-    <row r="19" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="87"/>
+    <row r="19" spans="1:12" ht="82.8">
+      <c r="A19" s="92"/>
       <c r="B19" s="40" t="s">
         <v>191</v>
       </c>
@@ -7503,8 +7615,8 @@
       <c r="K19" s="57"/>
       <c r="L19" s="36"/>
     </row>
-    <row r="20" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="87"/>
+    <row r="20" spans="1:12" ht="69">
+      <c r="A20" s="92"/>
       <c r="B20" s="40" t="s">
         <v>192</v>
       </c>
@@ -7531,8 +7643,8 @@
       <c r="K20" s="36"/>
       <c r="L20" s="36"/>
     </row>
-    <row r="21" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="87"/>
+    <row r="21" spans="1:12" ht="82.8">
+      <c r="A21" s="92"/>
       <c r="B21" s="40" t="s">
         <v>193</v>
       </c>
@@ -7559,8 +7671,8 @@
       <c r="K21" s="36"/>
       <c r="L21" s="36"/>
     </row>
-    <row r="22" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="87"/>
+    <row r="22" spans="1:12" ht="82.8">
+      <c r="A22" s="92"/>
       <c r="B22" s="40" t="s">
         <v>194</v>
       </c>
@@ -7587,8 +7699,8 @@
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
     </row>
-    <row r="23" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="87"/>
+    <row r="23" spans="1:12" ht="82.8">
+      <c r="A23" s="92"/>
       <c r="B23" s="40" t="s">
         <v>195</v>
       </c>
@@ -7615,8 +7727,8 @@
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
     </row>
-    <row r="24" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="87"/>
+    <row r="24" spans="1:12" ht="82.8">
+      <c r="A24" s="92"/>
       <c r="B24" s="40" t="s">
         <v>196</v>
       </c>
@@ -7643,8 +7755,8 @@
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
     </row>
-    <row r="25" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="87"/>
+    <row r="25" spans="1:12" ht="82.8">
+      <c r="A25" s="92"/>
       <c r="B25" s="40" t="s">
         <v>197</v>
       </c>
@@ -7671,8 +7783,8 @@
       <c r="K25" s="36"/>
       <c r="L25" s="36"/>
     </row>
-    <row r="26" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="87"/>
+    <row r="26" spans="1:12" ht="92.25" customHeight="1">
+      <c r="A26" s="92"/>
       <c r="B26" s="40" t="s">
         <v>198</v>
       </c>
@@ -7699,8 +7811,8 @@
       <c r="K26" s="36"/>
       <c r="L26" s="36"/>
     </row>
-    <row r="27" spans="1:12" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="88"/>
+    <row r="27" spans="1:12" ht="126" customHeight="1">
+      <c r="A27" s="93"/>
       <c r="B27" s="40" t="s">
         <v>199</v>
       </c>
@@ -7727,8 +7839,8 @@
       <c r="K27" s="36"/>
       <c r="L27" s="36"/>
     </row>
-    <row r="28" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="83" t="s">
+    <row r="28" spans="1:12" ht="107.25" customHeight="1">
+      <c r="A28" s="88" t="s">
         <v>204</v>
       </c>
       <c r="B28" s="40" t="s">
@@ -7757,8 +7869,8 @@
       <c r="K28" s="57"/>
       <c r="L28" s="54"/>
     </row>
-    <row r="29" spans="1:12" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="84"/>
+    <row r="29" spans="1:12" ht="147.75" customHeight="1">
+      <c r="A29" s="89"/>
       <c r="B29" s="40" t="s">
         <v>201</v>
       </c>
@@ -7785,8 +7897,8 @@
       <c r="K29" s="57"/>
       <c r="L29" s="54"/>
     </row>
-    <row r="30" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="85"/>
+    <row r="30" spans="1:12" ht="82.8">
+      <c r="A30" s="90"/>
       <c r="B30" s="40" t="s">
         <v>184</v>
       </c>
@@ -7813,7 +7925,7 @@
       <c r="K30" s="57"/>
       <c r="L30" s="54"/>
     </row>
-    <row r="31" spans="1:12" ht="130.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="128.4">
       <c r="A31" s="44" t="s">
         <v>49</v>
       </c>
@@ -7856,30 +7968,30 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADD30B2-DD71-45BD-B5D3-ECBDD8B20B47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="28.42578125" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="28.44140625" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="46.8">
       <c r="A1" s="67" t="s">
         <v>21</v>
       </c>
@@ -7917,8 +8029,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="89" t="s">
+    <row r="2" spans="1:12" ht="210" customHeight="1">
+      <c r="A2" s="94" t="s">
         <v>209</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -7947,8 +8059,8 @@
       <c r="K2" s="57"/>
       <c r="L2" s="54"/>
     </row>
-    <row r="3" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="90"/>
+    <row r="3" spans="1:12" ht="210" customHeight="1">
+      <c r="A3" s="95"/>
       <c r="B3" s="40" t="s">
         <v>215</v>
       </c>
@@ -7975,8 +8087,8 @@
       <c r="K3" s="57"/>
       <c r="L3" s="54"/>
     </row>
-    <row r="4" spans="1:12" ht="184.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="91" t="s">
+    <row r="4" spans="1:12" ht="184.5" customHeight="1">
+      <c r="A4" s="96" t="s">
         <v>212</v>
       </c>
       <c r="B4" s="40" t="s">
@@ -8005,8 +8117,8 @@
       <c r="K4" s="57"/>
       <c r="L4" s="54"/>
     </row>
-    <row r="5" spans="1:12" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="92"/>
+    <row r="5" spans="1:12" ht="143.25" customHeight="1">
+      <c r="A5" s="97"/>
       <c r="B5" s="40" t="s">
         <v>220</v>
       </c>
@@ -8029,7 +8141,13 @@
       <c r="I5" s="65" t="s">
         <v>219</v>
       </c>
-      <c r="J5" s="41"/>
+      <c r="J5" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36" t="s">
+        <v>313</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8042,27 +8160,27 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0796CBB2-7C1E-4A72-8F15-4D297E074D7C}">
-  <dimension ref="A1:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="46.8">
       <c r="A1" s="47" t="s">
         <v>21</v>
       </c>
@@ -8087,10 +8205,10 @@
       <c r="H1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="93" t="s">
+      <c r="I1" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="93" t="s">
+      <c r="J1" s="70" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="47" t="s">
@@ -8100,8 +8218,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="94" t="s">
+    <row r="2" spans="1:13" ht="179.4">
+      <c r="A2" s="71" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -8119,606 +8237,665 @@
       <c r="F2" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="95" t="s">
-        <v>226</v>
+      <c r="G2" s="72" t="s">
+        <v>309</v>
       </c>
       <c r="H2" s="51" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J2" s="41"/>
       <c r="K2" s="57"/>
       <c r="L2" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="M2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="55.2">
+      <c r="A3" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="96" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="40" t="s">
+      <c r="C3" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="D3" s="41" t="s">
         <v>230</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>231</v>
       </c>
       <c r="E3" s="50" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="G3" s="72" t="s">
         <v>232</v>
-      </c>
-      <c r="G3" s="95" t="s">
-        <v>233</v>
       </c>
       <c r="H3" s="51" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J3" s="41"/>
       <c r="K3" s="57"/>
       <c r="L3" s="52" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="199.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="97"/>
+        <v>227</v>
+      </c>
+      <c r="M3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="69">
+      <c r="A4" s="99"/>
       <c r="B4" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="D4" s="41" t="s">
         <v>236</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>237</v>
       </c>
       <c r="E4" s="50" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="G4" s="95" t="s">
-        <v>238</v>
+        <v>231</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>237</v>
       </c>
       <c r="H4" s="51" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J4" s="41"/>
       <c r="K4" s="57"/>
       <c r="L4" s="52" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="97"/>
+        <v>227</v>
+      </c>
+      <c r="M4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="151.80000000000001">
+      <c r="A5" s="99"/>
       <c r="B5" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="D5" s="41" t="s">
         <v>241</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>242</v>
       </c>
       <c r="E5" s="50" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="G5" s="95" t="s">
-        <v>243</v>
+        <v>231</v>
+      </c>
+      <c r="G5" s="72" t="s">
+        <v>242</v>
       </c>
       <c r="H5" s="51" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="J5" s="36"/>
+        <v>243</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>311</v>
+      </c>
       <c r="K5" s="36"/>
       <c r="L5" s="52" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="199.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="97"/>
+        <v>227</v>
+      </c>
+      <c r="M5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="69">
+      <c r="A6" s="99"/>
       <c r="B6" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="D6" s="41" t="s">
         <v>246</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>247</v>
       </c>
       <c r="E6" s="50" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="G6" s="95" t="s">
-        <v>248</v>
+        <v>231</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>247</v>
       </c>
       <c r="H6" s="51" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
       <c r="L6" s="52" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="399" x14ac:dyDescent="0.2">
-      <c r="A7" s="98"/>
+        <v>227</v>
+      </c>
+      <c r="M6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="151.80000000000001">
+      <c r="A7" s="73"/>
       <c r="B7" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="D7" s="41" t="s">
         <v>250</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>251</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="G7" s="95" t="s">
-        <v>252</v>
+        <v>231</v>
+      </c>
+      <c r="G7" s="72" t="s">
+        <v>251</v>
       </c>
       <c r="H7" s="51" t="s">
         <v>24</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J7" s="36"/>
-      <c r="K7" s="99" t="s">
+      <c r="K7" s="74" t="s">
+        <v>252</v>
+      </c>
+      <c r="L7" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="M7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="69">
+      <c r="A8" s="73"/>
+      <c r="B8" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="L7" s="52" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="98"/>
-      <c r="B8" s="40" t="s">
+      <c r="C8" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="D8" s="41" t="s">
         <v>255</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>256</v>
       </c>
       <c r="E8" s="50" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="G8" s="95" t="s">
-        <v>257</v>
+        <v>231</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>256</v>
       </c>
       <c r="H8" s="51" t="s">
         <v>24</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
       <c r="L8" s="52" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="399" x14ac:dyDescent="0.2">
-      <c r="A9" s="98"/>
+        <v>227</v>
+      </c>
+      <c r="M8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="151.80000000000001">
+      <c r="A9" s="73"/>
       <c r="B9" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="D9" s="41" t="s">
         <v>259</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>260</v>
       </c>
       <c r="E9" s="50" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="G9" s="95" t="s">
-        <v>261</v>
+        <v>231</v>
+      </c>
+      <c r="G9" s="72" t="s">
+        <v>260</v>
       </c>
       <c r="H9" s="51" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="52" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="98"/>
+        <v>227</v>
+      </c>
+      <c r="M9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="69">
+      <c r="A10" s="73"/>
       <c r="B10" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="D10" s="41" t="s">
         <v>263</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>264</v>
       </c>
       <c r="E10" s="50" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="G10" s="95" t="s">
-        <v>265</v>
+        <v>231</v>
+      </c>
+      <c r="G10" s="72" t="s">
+        <v>264</v>
       </c>
       <c r="H10" s="51" t="s">
         <v>24</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
       <c r="L10" s="52" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="98"/>
+        <v>227</v>
+      </c>
+      <c r="M10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="96.6">
+      <c r="A11" s="73"/>
       <c r="B11" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="D11" s="41" t="s">
         <v>267</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>268</v>
       </c>
       <c r="E11" s="50" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="G11" s="72" t="s">
         <v>269</v>
-      </c>
-      <c r="G11" s="95" t="s">
-        <v>270</v>
       </c>
       <c r="H11" s="51" t="s">
         <v>24</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="52" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="285" x14ac:dyDescent="0.2">
-      <c r="A12" s="98"/>
+        <v>227</v>
+      </c>
+      <c r="M11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="110.4">
+      <c r="A12" s="73"/>
       <c r="B12" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="D12" s="41" t="s">
         <v>272</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>273</v>
       </c>
       <c r="E12" s="50" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="G12" s="72" t="s">
         <v>274</v>
-      </c>
-      <c r="G12" s="95" t="s">
-        <v>275</v>
       </c>
       <c r="H12" s="51" t="s">
         <v>24</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="52" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="285" x14ac:dyDescent="0.2">
-      <c r="A13" s="97" t="s">
+        <v>227</v>
+      </c>
+      <c r="M12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="110.4">
+      <c r="A13" s="99" t="s">
         <v>150</v>
       </c>
       <c r="B13" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="D13" s="41" t="s">
         <v>278</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>279</v>
       </c>
       <c r="E13" s="50" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>274</v>
-      </c>
-      <c r="G13" s="95" t="s">
-        <v>280</v>
+        <v>273</v>
+      </c>
+      <c r="G13" s="72" t="s">
+        <v>279</v>
       </c>
       <c r="H13" s="51" t="s">
         <v>24</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J13" s="41"/>
       <c r="K13" s="57"/>
       <c r="L13" s="52" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="285" x14ac:dyDescent="0.2">
-      <c r="A14" s="97"/>
+        <v>227</v>
+      </c>
+      <c r="M13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="110.4">
+      <c r="A14" s="99"/>
       <c r="B14" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="D14" s="41" t="s">
         <v>282</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>283</v>
       </c>
       <c r="E14" s="50" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="G14" s="72" t="s">
         <v>284</v>
-      </c>
-      <c r="G14" s="95" t="s">
-        <v>285</v>
       </c>
       <c r="H14" s="51" t="s">
         <v>24</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J14" s="41"/>
       <c r="K14" s="57"/>
       <c r="L14" s="52" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="97" t="s">
+        <v>227</v>
+      </c>
+      <c r="M14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="69">
+      <c r="A15" s="99" t="s">
         <v>95</v>
       </c>
       <c r="B15" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="C15" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="D15" s="41" t="s">
         <v>287</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>288</v>
       </c>
       <c r="E15" s="50" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="G15" s="95" t="s">
-        <v>289</v>
+        <v>231</v>
+      </c>
+      <c r="G15" s="72" t="s">
+        <v>288</v>
       </c>
       <c r="H15" s="51" t="s">
         <v>24</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J15" s="41"/>
       <c r="K15" s="57"/>
       <c r="L15" s="52" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="97"/>
+        <v>227</v>
+      </c>
+      <c r="M15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="110.4">
+      <c r="A16" s="99"/>
       <c r="B16" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="C16" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="D16" s="41" t="s">
         <v>291</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>292</v>
       </c>
       <c r="E16" s="51" t="s">
         <v>32</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="G16" s="95" t="s">
-        <v>293</v>
+        <v>231</v>
+      </c>
+      <c r="G16" s="72" t="s">
+        <v>292</v>
       </c>
       <c r="H16" s="51" t="s">
         <v>24</v>
       </c>
       <c r="I16" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J16" s="50"/>
       <c r="K16" s="36"/>
       <c r="L16" s="52" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="285" x14ac:dyDescent="0.2">
-      <c r="A17" s="98" t="s">
+        <v>227</v>
+      </c>
+      <c r="M16" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="128.4">
+      <c r="A17" s="73" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="C17" s="58" t="s">
         <v>294</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="D17" s="41" t="s">
         <v>295</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>296</v>
       </c>
       <c r="E17" s="50" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="G17" s="95" t="s">
-        <v>297</v>
+        <v>231</v>
+      </c>
+      <c r="G17" s="72" t="s">
+        <v>296</v>
       </c>
       <c r="H17" s="51" t="s">
         <v>24</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J17" s="50"/>
       <c r="K17" s="57"/>
       <c r="L17" s="52" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="98"/>
+        <v>227</v>
+      </c>
+      <c r="M17" s="100" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="82.8">
+      <c r="A18" s="73"/>
       <c r="B18" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="C18" s="58" t="s">
         <v>298</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="D18" s="41" t="s">
         <v>299</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>300</v>
       </c>
       <c r="E18" s="50" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="G18" s="95" t="s">
-        <v>301</v>
+        <v>231</v>
+      </c>
+      <c r="G18" s="72" t="s">
+        <v>300</v>
       </c>
       <c r="H18" s="51" t="s">
         <v>24</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J18" s="50"/>
       <c r="K18" s="57"/>
       <c r="L18" s="52" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="256.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="98"/>
+        <v>227</v>
+      </c>
+      <c r="M18" s="100" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="96.6">
+      <c r="A19" s="73"/>
       <c r="B19" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="C19" s="58" t="s">
         <v>302</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="D19" s="41" t="s">
         <v>303</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>304</v>
       </c>
       <c r="E19" s="50" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="G19" s="95" t="s">
-        <v>305</v>
+        <v>231</v>
+      </c>
+      <c r="G19" s="72" t="s">
+        <v>304</v>
       </c>
       <c r="H19" s="51" t="s">
         <v>24</v>
       </c>
       <c r="I19" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J19" s="50"/>
       <c r="K19" s="57"/>
       <c r="L19" s="52" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="313.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="98"/>
+        <v>227</v>
+      </c>
+      <c r="M19" s="100" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="145.19999999999999">
+      <c r="A20" s="73"/>
       <c r="B20" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="D20" s="41" t="s">
         <v>306</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>303</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>307</v>
       </c>
       <c r="E20" s="50" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="G20" s="95" t="s">
-        <v>308</v>
+        <v>231</v>
+      </c>
+      <c r="G20" s="72" t="s">
+        <v>307</v>
       </c>
       <c r="H20" s="51" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="K20" s="99" t="s">
-        <v>309</v>
+        <v>243</v>
+      </c>
+      <c r="K20" s="74" t="s">
+        <v>308</v>
       </c>
       <c r="L20" s="52" t="s">
-        <v>228</v>
+        <v>227</v>
+      </c>
+      <c r="M20" s="101" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -8744,25 +8921,25 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L20" xr:uid="{679EFAA3-F781-4560-8BDF-8A372CBF9CD5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L20">
       <formula1>"..., PASS,FAIL,HOLD / BLOCKED, REMOVED"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K7" r:id="rId1" xr:uid="{967A8F45-CEBD-4ABD-A228-46543BC69A26}"/>
-    <hyperlink ref="K20" r:id="rId2" xr:uid="{F68AB436-D423-40E7-80F0-4FB74AB1172A}"/>
+    <hyperlink ref="K7" r:id="rId1"/>
+    <hyperlink ref="K20" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8EDAB9-89BF-4632-A593-0B0AFF6C29B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5- Testing/Test Cases.xlsx
+++ b/5- Testing/Test Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="299">
   <si>
     <t>Module</t>
   </si>
@@ -973,9 +973,6 @@
 -User-01</t>
   </si>
   <si>
-    <t>REQ-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Validate that user can Register then redirected to Home page </t>
   </si>
   <si>
@@ -986,14 +983,8 @@
     <t>1. user registered successfully and redirected to home page</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>TC-Sign Up
 -User-02</t>
-  </si>
-  <si>
-    <t>REQ-1.1</t>
   </si>
   <si>
     <t>Validate that if user clicks log in button, the user redirected to log in page</t>
@@ -1012,9 +1003,6 @@
   <si>
     <t>TC-Sign Up
 -User-03</t>
-  </si>
-  <si>
-    <t>3.1.5 - T001</t>
   </si>
   <si>
     <t xml:space="preserve">Vailidate that first name field can't be blank </t>
@@ -1031,9 +1019,6 @@
   <si>
     <t>TC-Sign Up
 -User-04</t>
-  </si>
-  <si>
-    <t>3.1.5 - T002</t>
   </si>
   <si>
     <t xml:space="preserve">Validate that no special characters are not allowed in first name field </t>
@@ -1053,9 +1038,6 @@
 -User-05</t>
   </si>
   <si>
-    <t>3.1.5 - T003</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vailidate that last name field can't be blank </t>
   </si>
   <si>
@@ -1067,9 +1049,6 @@
   <si>
     <t>TC-Sign Up
 -User-06</t>
-  </si>
-  <si>
-    <t>3.1.5 - T004</t>
   </si>
   <si>
     <t xml:space="preserve">Validate that no special characters are not allowed in last name field </t>
@@ -1089,9 +1068,6 @@
 -User-07</t>
   </si>
   <si>
-    <t>3.1.5 - T005</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vailidate that Address field can't be blank </t>
   </si>
   <si>
@@ -1103,9 +1079,6 @@
   <si>
     <t>TC-Sign Up
 -User-08</t>
-  </si>
-  <si>
-    <t>3.1.5 - T006</t>
   </si>
   <si>
     <t xml:space="preserve">Validate that no special characters are not allowed in Address field </t>
@@ -1122,9 +1095,6 @@
 -User-09</t>
   </si>
   <si>
-    <t>3.1.5 - T007</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vailidate that password field can't be blank </t>
   </si>
   <si>
@@ -1136,9 +1106,6 @@
   <si>
     <t>TC-Sign Up
 -User-10</t>
-  </si>
-  <si>
-    <t>3.1.5 - T008</t>
   </si>
   <si>
     <t>Validate that password must be at least 8 characters</t>
@@ -1160,9 +1127,6 @@
 -User-11</t>
   </si>
   <si>
-    <t>3.1.5 - T009</t>
-  </si>
-  <si>
     <t>Validate that numbers are allowed in password field</t>
   </si>
   <si>
@@ -1185,9 +1149,6 @@
 -User-12</t>
   </si>
   <si>
-    <t>3.1.5 - T010</t>
-  </si>
-  <si>
     <t>Validate that special characters are allowed in password field</t>
   </si>
   <si>
@@ -1203,9 +1164,6 @@
 -User-13</t>
   </si>
   <si>
-    <t>3.1.5 - T009 - T010</t>
-  </si>
-  <si>
     <t>Validate that password field accept combination of letters numbers and special characters and can be longer than 8 characters</t>
   </si>
   <si>
@@ -1224,9 +1182,6 @@
 -User-14</t>
   </si>
   <si>
-    <t>3.1.5 - T011</t>
-  </si>
-  <si>
     <t>Validate that phone number field can't be blank</t>
   </si>
   <si>
@@ -1238,9 +1193,6 @@
   <si>
     <t>TC-Sign Up
 -User-15</t>
-  </si>
-  <si>
-    <t>3.1.5 - T012</t>
   </si>
   <si>
     <t>Validate that phone number field can't contain special characters</t>
@@ -1257,9 +1209,6 @@
 -User-16</t>
   </si>
   <si>
-    <t>3.1.5 - T013</t>
-  </si>
-  <si>
     <t>Validate that phone number field can't contain characters</t>
   </si>
   <si>
@@ -1274,9 +1223,6 @@
 -User-17</t>
   </si>
   <si>
-    <t>3.1.5 - T014</t>
-  </si>
-  <si>
     <t>Validate that email field can't be blank</t>
   </si>
   <si>
@@ -1288,9 +1234,6 @@
   <si>
     <t>TC-Sign Up
 -User-18</t>
-  </si>
-  <si>
-    <t>3.1.5-T015</t>
   </si>
   <si>
     <t>Validate That email field format must be " abc@gmail.com</t>
@@ -1348,12 +1291,20 @@
   <si>
     <t>enterd missing or invalid data</t>
   </si>
+  <si>
+    <t xml:space="preserve">User is successfully registered and redirected to the home page.
+User is successfully registered and redirected to the home page.
+</t>
+  </si>
+  <si>
+    <t>User is redirected to the login page after clicking the login button.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1524,6 +1475,19 @@
       <sz val="36"/>
       <color theme="2"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1879,7 +1843,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2092,14 +2056,17 @@
     <xf numFmtId="0" fontId="21" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -2170,11 +2137,11 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5729,7 +5696,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="207" customHeight="1">
-      <c r="A2" s="75"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="43" t="s">
         <v>28</v>
       </c>
@@ -5760,11 +5727,11 @@
       <c r="K2" s="41"/>
       <c r="L2" s="53"/>
       <c r="M2" s="54" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="175.5" customHeight="1">
-      <c r="A3" s="76"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="43" t="s">
         <v>27</v>
       </c>
@@ -5795,12 +5762,12 @@
       <c r="K3" s="56"/>
       <c r="L3" s="53"/>
       <c r="M3" s="54" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="124.2">
-      <c r="A4" s="76"/>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="77"/>
+      <c r="B4" s="80" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="40" t="s">
@@ -5832,8 +5799,8 @@
       <c r="M4" s="54"/>
     </row>
     <row r="5" spans="1:13" ht="124.2">
-      <c r="A5" s="76"/>
-      <c r="B5" s="80"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="40" t="s">
         <v>37</v>
       </c>
@@ -5863,8 +5830,8 @@
       <c r="M5" s="54"/>
     </row>
     <row r="6" spans="1:13" ht="124.2">
-      <c r="A6" s="76"/>
-      <c r="B6" s="80"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="40" t="s">
         <v>122</v>
       </c>
@@ -5890,16 +5857,16 @@
         <v>114</v>
       </c>
       <c r="K6" s="50" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="L6" s="57"/>
       <c r="M6" s="54" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="124.2">
-      <c r="A7" s="76"/>
-      <c r="B7" s="80"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="40" t="s">
         <v>123</v>
       </c>
@@ -5927,12 +5894,12 @@
       <c r="K7" s="50"/>
       <c r="L7" s="57"/>
       <c r="M7" s="54" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="124.2">
-      <c r="A8" s="76"/>
-      <c r="B8" s="80"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="40" t="s">
         <v>124</v>
       </c>
@@ -5960,12 +5927,12 @@
       <c r="K8" s="50"/>
       <c r="L8" s="57"/>
       <c r="M8" s="54" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="162" customHeight="1">
-      <c r="A9" s="76"/>
-      <c r="B9" s="80"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="40" t="s">
         <v>125</v>
       </c>
@@ -5993,12 +5960,12 @@
       <c r="K9" s="50"/>
       <c r="L9" s="57"/>
       <c r="M9" s="54" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="183" customHeight="1">
-      <c r="A10" s="76"/>
-      <c r="B10" s="81" t="s">
+      <c r="A10" s="77"/>
+      <c r="B10" s="82" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="40" t="s">
@@ -6026,12 +5993,12 @@
       <c r="K10" s="36"/>
       <c r="L10" s="36"/>
       <c r="M10" s="36" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="183" customHeight="1">
-      <c r="A11" s="76"/>
-      <c r="B11" s="82"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="40" t="s">
         <v>129</v>
       </c>
@@ -6057,12 +6024,12 @@
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
       <c r="M11" s="36" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="183" customHeight="1">
-      <c r="A12" s="76"/>
-      <c r="B12" s="82"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="40" t="s">
         <v>130</v>
       </c>
@@ -6088,12 +6055,12 @@
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
       <c r="M12" s="36" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="157.5" customHeight="1">
-      <c r="A13" s="76"/>
-      <c r="B13" s="83"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="40" t="s">
         <v>131</v>
       </c>
@@ -6119,11 +6086,11 @@
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
       <c r="M13" s="36" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="128.4">
-      <c r="A14" s="76"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="44" t="s">
         <v>49</v>
       </c>
@@ -6154,11 +6121,11 @@
       <c r="K14" s="50"/>
       <c r="L14" s="57"/>
       <c r="M14" s="54" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="83.4">
-      <c r="A15" s="77"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="46" t="s">
         <v>58</v>
       </c>
@@ -6187,72 +6154,72 @@
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
       <c r="M15" s="36" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="76"/>
+      <c r="A16" s="77"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="76"/>
+      <c r="A17" s="77"/>
     </row>
     <row r="18" spans="1:5" ht="13.8">
-      <c r="A18" s="76"/>
+      <c r="A18" s="77"/>
       <c r="E18" s="60"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="76"/>
+      <c r="A19" s="77"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="76"/>
+      <c r="A20" s="77"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="76"/>
+      <c r="A21" s="77"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="76"/>
+      <c r="A22" s="77"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="76"/>
+      <c r="A23" s="77"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="76"/>
+      <c r="A24" s="77"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="76"/>
+      <c r="A25" s="77"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="76"/>
+      <c r="A26" s="77"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="76"/>
+      <c r="A27" s="77"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="76"/>
+      <c r="A28" s="77"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="76"/>
+      <c r="A29" s="77"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="76"/>
+      <c r="A30" s="77"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="76"/>
+      <c r="A31" s="77"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="76"/>
+      <c r="A32" s="77"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="76"/>
+      <c r="A33" s="77"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="76"/>
+      <c r="A34" s="77"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="76"/>
+      <c r="A35" s="77"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="78"/>
+      <c r="A36" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6330,7 +6297,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="207.75" customHeight="1">
-      <c r="A2" s="75"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="23" t="s">
         <v>28</v>
       </c>
@@ -6361,11 +6328,11 @@
       <c r="K2" s="26"/>
       <c r="L2" s="21"/>
       <c r="M2" s="22" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="220.5" customHeight="1">
-      <c r="A3" s="76"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="31" t="s">
         <v>58</v>
       </c>
@@ -6392,92 +6359,92 @@
       <c r="K3" s="36"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="409.5" customHeight="1">
-      <c r="A4" s="76"/>
+      <c r="A4" s="77"/>
     </row>
     <row r="5" spans="1:13" ht="409.5" customHeight="1">
-      <c r="A5" s="76"/>
+      <c r="A5" s="77"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="76"/>
+      <c r="A6" s="77"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="76"/>
+      <c r="A7" s="77"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="76"/>
+      <c r="A8" s="77"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="76"/>
+      <c r="A9" s="77"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="76"/>
+      <c r="A10" s="77"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="76"/>
+      <c r="A11" s="77"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="76"/>
+      <c r="A12" s="77"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="76"/>
+      <c r="A13" s="77"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="76"/>
+      <c r="A14" s="77"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="76"/>
+      <c r="A15" s="77"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="76"/>
+      <c r="A16" s="77"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="76"/>
+      <c r="A17" s="77"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="76"/>
+      <c r="A18" s="77"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="76"/>
+      <c r="A19" s="77"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="76"/>
+      <c r="A20" s="77"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="76"/>
+      <c r="A21" s="77"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="76"/>
+      <c r="A22" s="77"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="76"/>
+      <c r="A23" s="77"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="76"/>
+      <c r="A24" s="77"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="76"/>
+      <c r="A25" s="77"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="76"/>
+      <c r="A26" s="77"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="76"/>
+      <c r="A27" s="77"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="76"/>
+      <c r="A28" s="77"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="76"/>
+      <c r="A29" s="77"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="76"/>
+      <c r="A30" s="77"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="78"/>
+      <c r="A31" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6552,7 +6519,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="174.75" customHeight="1">
-      <c r="A2" s="75"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="23" t="s">
         <v>28</v>
       </c>
@@ -6583,95 +6550,95 @@
       <c r="K2" s="26"/>
       <c r="L2" s="21"/>
       <c r="M2" s="22" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="76"/>
+      <c r="A3" s="77"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="76"/>
+      <c r="A4" s="77"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="76"/>
+      <c r="A5" s="77"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="76"/>
+      <c r="A6" s="77"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="76"/>
+      <c r="A7" s="77"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="76"/>
+      <c r="A8" s="77"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="76"/>
+      <c r="A9" s="77"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="76"/>
+      <c r="A10" s="77"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="76"/>
+      <c r="A11" s="77"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="76"/>
+      <c r="A12" s="77"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="76"/>
+      <c r="A13" s="77"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="76"/>
+      <c r="A14" s="77"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="76"/>
+      <c r="A15" s="77"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="76"/>
+      <c r="A16" s="77"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="76"/>
+      <c r="A17" s="77"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="76"/>
+      <c r="A18" s="77"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="76"/>
+      <c r="A19" s="77"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="76"/>
+      <c r="A20" s="77"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="76"/>
+      <c r="A21" s="77"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="76"/>
+      <c r="A22" s="77"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="76"/>
+      <c r="A23" s="77"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="76"/>
+      <c r="A24" s="77"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="76"/>
+      <c r="A25" s="77"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="76"/>
+      <c r="A26" s="77"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="76"/>
+      <c r="A27" s="77"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="76"/>
+      <c r="A28" s="77"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="76"/>
+      <c r="A29" s="77"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="76"/>
+      <c r="A30" s="77"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="78"/>
+      <c r="A31" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6743,7 +6710,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="179.25" customHeight="1">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -6773,11 +6740,11 @@
       <c r="J2" s="41"/>
       <c r="K2" s="57"/>
       <c r="L2" s="54" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="148.5" customHeight="1">
-      <c r="A3" s="80"/>
+      <c r="A3" s="81"/>
       <c r="B3" s="40" t="s">
         <v>79</v>
       </c>
@@ -6805,11 +6772,11 @@
       <c r="J3" s="41"/>
       <c r="K3" s="57"/>
       <c r="L3" s="54" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="110.4">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>83</v>
       </c>
       <c r="B4" s="40" t="s">
@@ -6839,11 +6806,11 @@
       <c r="J4" s="41"/>
       <c r="K4" s="57"/>
       <c r="L4" s="54" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="110.4">
-      <c r="A5" s="80"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="40" t="s">
         <v>88</v>
       </c>
@@ -6871,11 +6838,11 @@
       <c r="J5" s="50"/>
       <c r="K5" s="36"/>
       <c r="L5" s="36" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="110.4">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>90</v>
       </c>
       <c r="B6" s="40" t="s">
@@ -6905,11 +6872,11 @@
       <c r="J6" s="41"/>
       <c r="K6" s="57"/>
       <c r="L6" s="54" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="110.4">
-      <c r="A7" s="80"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="40" t="s">
         <v>93</v>
       </c>
@@ -6937,11 +6904,11 @@
       <c r="J7" s="41"/>
       <c r="K7" s="57"/>
       <c r="L7" s="54" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="110.4">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="80" t="s">
         <v>95</v>
       </c>
       <c r="B8" s="40" t="s">
@@ -6971,11 +6938,11 @@
       <c r="J8" s="41"/>
       <c r="K8" s="57"/>
       <c r="L8" s="54" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="110.4">
-      <c r="A9" s="80"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="40" t="s">
         <v>98</v>
       </c>
@@ -7003,7 +6970,7 @@
       <c r="J9" s="50"/>
       <c r="K9" s="36"/>
       <c r="L9" s="36" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -7108,11 +7075,11 @@
       <c r="J2" s="41"/>
       <c r="K2" s="57"/>
       <c r="L2" s="54" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="239.25" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="85" t="s">
         <v>138</v>
       </c>
       <c r="B3" s="40" t="s">
@@ -7138,15 +7105,15 @@
         <v>140</v>
       </c>
       <c r="J3" s="41" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="K3" s="57"/>
       <c r="L3" s="54" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="239.25" customHeight="1">
-      <c r="A4" s="85"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="40" t="s">
         <v>172</v>
       </c>
@@ -7172,11 +7139,11 @@
       <c r="J4" s="41"/>
       <c r="K4" s="57"/>
       <c r="L4" s="36" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="239.25" customHeight="1">
-      <c r="A5" s="85"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="40" t="s">
         <v>174</v>
       </c>
@@ -7202,11 +7169,11 @@
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
       <c r="L5" s="36" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="221.25" customHeight="1">
-      <c r="A6" s="85"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="40" t="s">
         <v>175</v>
       </c>
@@ -7232,7 +7199,7 @@
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="221.25" customHeight="1">
@@ -7262,7 +7229,7 @@
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
       <c r="L7" s="36" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="221.25" customHeight="1">
@@ -7292,7 +7259,7 @@
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
       <c r="L8" s="36" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="221.25" customHeight="1">
@@ -7322,7 +7289,7 @@
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="36" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="221.25" customHeight="1">
@@ -7352,7 +7319,7 @@
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
       <c r="L10" s="36" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="221.25" customHeight="1">
@@ -7412,7 +7379,7 @@
       <c r="L12" s="36"/>
     </row>
     <row r="13" spans="1:12" ht="233.25" customHeight="1">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="87" t="s">
         <v>150</v>
       </c>
       <c r="B13" s="40" t="s">
@@ -7442,7 +7409,7 @@
       <c r="L13" s="54"/>
     </row>
     <row r="14" spans="1:12" ht="207.75" customHeight="1">
-      <c r="A14" s="87"/>
+      <c r="A14" s="88"/>
       <c r="B14" s="40" t="s">
         <v>183</v>
       </c>
@@ -7497,7 +7464,7 @@
       <c r="K15" s="57"/>
       <c r="L15" s="54"/>
     </row>
-    <row r="16" spans="1:12" ht="128.4">
+    <row r="16" spans="1:12" ht="129.6">
       <c r="A16" s="44" t="s">
         <v>49</v>
       </c>
@@ -7558,7 +7525,7 @@
       <c r="L17" s="54"/>
     </row>
     <row r="18" spans="1:12" ht="71.25" customHeight="1">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="92" t="s">
         <v>138</v>
       </c>
       <c r="B18" s="40" t="s">
@@ -7588,7 +7555,7 @@
       <c r="L18" s="54"/>
     </row>
     <row r="19" spans="1:12" ht="82.8">
-      <c r="A19" s="92"/>
+      <c r="A19" s="93"/>
       <c r="B19" s="40" t="s">
         <v>191</v>
       </c>
@@ -7616,7 +7583,7 @@
       <c r="L19" s="36"/>
     </row>
     <row r="20" spans="1:12" ht="69">
-      <c r="A20" s="92"/>
+      <c r="A20" s="93"/>
       <c r="B20" s="40" t="s">
         <v>192</v>
       </c>
@@ -7644,7 +7611,7 @@
       <c r="L20" s="36"/>
     </row>
     <row r="21" spans="1:12" ht="82.8">
-      <c r="A21" s="92"/>
+      <c r="A21" s="93"/>
       <c r="B21" s="40" t="s">
         <v>193</v>
       </c>
@@ -7672,7 +7639,7 @@
       <c r="L21" s="36"/>
     </row>
     <row r="22" spans="1:12" ht="82.8">
-      <c r="A22" s="92"/>
+      <c r="A22" s="93"/>
       <c r="B22" s="40" t="s">
         <v>194</v>
       </c>
@@ -7700,7 +7667,7 @@
       <c r="L22" s="36"/>
     </row>
     <row r="23" spans="1:12" ht="82.8">
-      <c r="A23" s="92"/>
+      <c r="A23" s="93"/>
       <c r="B23" s="40" t="s">
         <v>195</v>
       </c>
@@ -7728,7 +7695,7 @@
       <c r="L23" s="36"/>
     </row>
     <row r="24" spans="1:12" ht="82.8">
-      <c r="A24" s="92"/>
+      <c r="A24" s="93"/>
       <c r="B24" s="40" t="s">
         <v>196</v>
       </c>
@@ -7756,7 +7723,7 @@
       <c r="L24" s="36"/>
     </row>
     <row r="25" spans="1:12" ht="82.8">
-      <c r="A25" s="92"/>
+      <c r="A25" s="93"/>
       <c r="B25" s="40" t="s">
         <v>197</v>
       </c>
@@ -7784,7 +7751,7 @@
       <c r="L25" s="36"/>
     </row>
     <row r="26" spans="1:12" ht="92.25" customHeight="1">
-      <c r="A26" s="92"/>
+      <c r="A26" s="93"/>
       <c r="B26" s="40" t="s">
         <v>198</v>
       </c>
@@ -7812,7 +7779,7 @@
       <c r="L26" s="36"/>
     </row>
     <row r="27" spans="1:12" ht="126" customHeight="1">
-      <c r="A27" s="93"/>
+      <c r="A27" s="94"/>
       <c r="B27" s="40" t="s">
         <v>199</v>
       </c>
@@ -7840,7 +7807,7 @@
       <c r="L27" s="36"/>
     </row>
     <row r="28" spans="1:12" ht="107.25" customHeight="1">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>204</v>
       </c>
       <c r="B28" s="40" t="s">
@@ -7870,7 +7837,7 @@
       <c r="L28" s="54"/>
     </row>
     <row r="29" spans="1:12" ht="147.75" customHeight="1">
-      <c r="A29" s="89"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="40" t="s">
         <v>201</v>
       </c>
@@ -7898,7 +7865,7 @@
       <c r="L29" s="54"/>
     </row>
     <row r="30" spans="1:12" ht="82.8">
-      <c r="A30" s="90"/>
+      <c r="A30" s="91"/>
       <c r="B30" s="40" t="s">
         <v>184</v>
       </c>
@@ -7925,7 +7892,7 @@
       <c r="K30" s="57"/>
       <c r="L30" s="54"/>
     </row>
-    <row r="31" spans="1:12" ht="128.4">
+    <row r="31" spans="1:12" ht="129.6">
       <c r="A31" s="44" t="s">
         <v>49</v>
       </c>
@@ -8030,7 +7997,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="210" customHeight="1">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="95" t="s">
         <v>209</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -8060,7 +8027,7 @@
       <c r="L2" s="54"/>
     </row>
     <row r="3" spans="1:12" ht="210" customHeight="1">
-      <c r="A3" s="95"/>
+      <c r="A3" s="96"/>
       <c r="B3" s="40" t="s">
         <v>215</v>
       </c>
@@ -8088,7 +8055,7 @@
       <c r="L3" s="54"/>
     </row>
     <row r="4" spans="1:12" ht="184.5" customHeight="1">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="97" t="s">
         <v>212</v>
       </c>
       <c r="B4" s="40" t="s">
@@ -8118,7 +8085,7 @@
       <c r="L4" s="54"/>
     </row>
     <row r="5" spans="1:12" ht="143.25" customHeight="1">
-      <c r="A5" s="97"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="40" t="s">
         <v>220</v>
       </c>
@@ -8142,11 +8109,11 @@
         <v>219</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="K5" s="36"/>
       <c r="L5" s="36" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -8161,741 +8128,664 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="23.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="39.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="46.8">
+    <row r="1" spans="1:12" ht="15.6">
       <c r="A1" s="47" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>25</v>
+      <c r="C1" s="47" t="s">
+        <v>12</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="47" t="s">
         <v>16</v>
       </c>
+      <c r="H1" s="70" t="s">
+        <v>17</v>
+      </c>
       <c r="I1" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="70" t="s">
         <v>18</v>
       </c>
+      <c r="J1" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="K1" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="47" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="179.4">
+      <c r="L1" s="30"/>
+    </row>
+    <row r="2" spans="1:12" ht="124.2">
       <c r="A2" s="71" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="F2" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="I2" s="101" t="s">
+        <v>297</v>
+      </c>
+      <c r="J2" s="57"/>
+      <c r="K2" s="30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="60">
+      <c r="A3" s="99" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="G2" s="72" t="s">
-        <v>309</v>
-      </c>
-      <c r="H2" s="51" t="s">
+      <c r="E3" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="G3" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="M2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="55.2">
-      <c r="A3" s="98" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="40" t="s">
+      <c r="H3" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="I3" s="102" t="s">
+        <v>298</v>
+      </c>
+      <c r="J3" s="57"/>
+      <c r="K3" s="30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="55.2">
+      <c r="A4" s="100"/>
+      <c r="B4" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="E3" s="50" t="s">
+      <c r="F4" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="J4" s="57"/>
+      <c r="K4" s="30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="110.4">
+      <c r="A5" s="100"/>
+      <c r="B5" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="G3" s="72" t="s">
-        <v>232</v>
-      </c>
-      <c r="H3" s="51" t="s">
+      <c r="E5" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G5" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="M3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="69">
-      <c r="A4" s="99"/>
-      <c r="B4" s="40" t="s">
+      <c r="H5" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="J5" s="38"/>
+      <c r="K5" s="30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="55.2">
+      <c r="A6" s="100"/>
+      <c r="B6" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>236</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="G4" s="72" t="s">
-        <v>237</v>
-      </c>
-      <c r="H4" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="M4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="151.80000000000001">
-      <c r="A5" s="99"/>
-      <c r="B5" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="G5" s="72" t="s">
-        <v>242</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="K5" s="36"/>
-      <c r="L5" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="M5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="69">
-      <c r="A6" s="99"/>
-      <c r="B6" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="G6" s="72" t="s">
-        <v>247</v>
-      </c>
-      <c r="H6" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="M6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="151.80000000000001">
+      <c r="I6" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="J6" s="38"/>
+      <c r="K6" s="30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="110.4">
       <c r="A7" s="73"/>
       <c r="B7" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="E7" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="50" t="s">
         <v>19</v>
       </c>
+      <c r="E7" s="41" t="s">
+        <v>228</v>
+      </c>
       <c r="F7" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="G7" s="72" t="s">
-        <v>251</v>
-      </c>
-      <c r="H7" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="74" t="s">
-        <v>252</v>
-      </c>
-      <c r="L7" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="M7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="69">
+      <c r="H7" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="J7" s="72" t="s">
+        <v>245</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="55.2">
       <c r="A8" s="73"/>
       <c r="B8" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="E8" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="50" t="s">
         <v>19</v>
       </c>
+      <c r="E8" s="41" t="s">
+        <v>228</v>
+      </c>
       <c r="F8" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="G8" s="72" t="s">
-        <v>256</v>
-      </c>
-      <c r="H8" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="G8" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="M8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="151.80000000000001">
+      <c r="H8" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="I8" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="J8" s="38"/>
+      <c r="K8" s="30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="110.4">
       <c r="A9" s="73"/>
       <c r="B9" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="E9" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" s="50" t="s">
         <v>19</v>
       </c>
+      <c r="E9" s="41" t="s">
+        <v>228</v>
+      </c>
       <c r="F9" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="G9" s="72" t="s">
-        <v>260</v>
-      </c>
-      <c r="H9" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="M9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="69">
+      <c r="H9" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="I9" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="55.2">
       <c r="A10" s="73"/>
       <c r="B10" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="E10" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="50" t="s">
         <v>19</v>
       </c>
+      <c r="E10" s="41" t="s">
+        <v>228</v>
+      </c>
       <c r="F10" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="G10" s="72" t="s">
-        <v>264</v>
-      </c>
-      <c r="H10" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="G10" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="M10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="96.6">
+      <c r="H10" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="J10" s="38"/>
+      <c r="K10" s="30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="82.8">
       <c r="A11" s="73"/>
       <c r="B11" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>266</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="E11" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" s="50" t="s">
         <v>19</v>
       </c>
+      <c r="E11" s="41" t="s">
+        <v>257</v>
+      </c>
       <c r="F11" s="41" t="s">
-        <v>268</v>
-      </c>
-      <c r="G11" s="72" t="s">
-        <v>269</v>
-      </c>
-      <c r="H11" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="G11" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="M11" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="110.4">
+      <c r="H11" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="J11" s="38"/>
+      <c r="K11" s="30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="96.6">
       <c r="A12" s="73"/>
       <c r="B12" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="I12" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="J12" s="38"/>
+      <c r="K12" s="30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="96.6">
+      <c r="A13" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="J13" s="57"/>
+      <c r="K13" s="30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="110.4">
+      <c r="A14" s="100"/>
+      <c r="B14" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="F14" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="G14" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="J14" s="57"/>
+      <c r="K14" s="30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="55.2">
+      <c r="A15" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="C15" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="D15" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="E15" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="F15" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="G12" s="72" t="s">
+      <c r="G15" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="J15" s="57"/>
+      <c r="K15" s="30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="69">
+      <c r="A16" s="100"/>
+      <c r="B16" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="H12" s="51" t="s">
+      <c r="C16" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="G16" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="M12" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="110.4">
-      <c r="A13" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>278</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="G13" s="72" t="s">
-        <v>279</v>
-      </c>
-      <c r="H13" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="J13" s="41"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="M13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="110.4">
-      <c r="A14" s="99"/>
-      <c r="B14" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>281</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="G14" s="72" t="s">
-        <v>284</v>
-      </c>
-      <c r="H14" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="J14" s="41"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="M14" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="69">
-      <c r="A15" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>285</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>286</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="G15" s="72" t="s">
-        <v>288</v>
-      </c>
-      <c r="H15" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="39" t="s">
+      <c r="H16" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="J15" s="41"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="M15" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="110.4">
-      <c r="A16" s="99"/>
-      <c r="B16" s="40" t="s">
-        <v>289</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>290</v>
-      </c>
-      <c r="D16" s="41" t="s">
+      <c r="I16" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="J16" s="38"/>
+      <c r="K16" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="E16" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="G16" s="72" t="s">
-        <v>292</v>
-      </c>
-      <c r="H16" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="J16" s="50"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="M16" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="128.4">
+    </row>
+    <row r="17" spans="1:11" ht="128.4">
       <c r="A17" s="73" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>293</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>294</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>295</v>
-      </c>
-      <c r="E17" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="D17" s="50" t="s">
         <v>19</v>
       </c>
+      <c r="E17" s="41" t="s">
+        <v>228</v>
+      </c>
       <c r="F17" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="G17" s="72" t="s">
-        <v>296</v>
-      </c>
-      <c r="H17" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="G17" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="J17" s="50"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="M17" s="100" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="82.8">
+      <c r="H17" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="J17" s="57"/>
+      <c r="K17" s="74" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="55.2">
       <c r="A18" s="73"/>
       <c r="B18" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>298</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="E18" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="D18" s="50" t="s">
         <v>19</v>
       </c>
+      <c r="E18" s="41" t="s">
+        <v>228</v>
+      </c>
       <c r="F18" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="G18" s="72" t="s">
-        <v>300</v>
-      </c>
-      <c r="H18" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="G18" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="J18" s="50"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="M18" s="100" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="96.6">
+      <c r="H18" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="J18" s="57"/>
+      <c r="K18" s="74" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="69">
       <c r="A19" s="73"/>
       <c r="B19" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>302</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>303</v>
-      </c>
-      <c r="E19" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="D19" s="50" t="s">
         <v>19</v>
       </c>
+      <c r="E19" s="41" t="s">
+        <v>228</v>
+      </c>
       <c r="F19" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="G19" s="72" t="s">
-        <v>304</v>
-      </c>
-      <c r="H19" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="G19" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="M19" s="100" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="145.19999999999999">
+      <c r="H19" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="J19" s="57"/>
+      <c r="K19" s="74" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="82.8">
       <c r="A20" s="73"/>
       <c r="B20" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>302</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>306</v>
-      </c>
-      <c r="E20" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="D20" s="50" t="s">
         <v>19</v>
       </c>
+      <c r="E20" s="41" t="s">
+        <v>228</v>
+      </c>
       <c r="F20" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="G20" s="72" t="s">
-        <v>307</v>
-      </c>
-      <c r="H20" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="G20" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="K20" s="74" t="s">
-        <v>308</v>
-      </c>
-      <c r="L20" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="M20" s="101" t="s">
-        <v>310</v>
+      <c r="H20" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="I20" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="J20" s="72" t="s">
+        <v>289</v>
+      </c>
+      <c r="K20" s="75" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -8904,32 +8794,12 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
   </mergeCells>
-  <conditionalFormatting sqref="L2:L20">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L20">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"REMOVED"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"HOLD / BLOCKED"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L20">
-      <formula1>"..., PASS,FAIL,HOLD / BLOCKED, REMOVED"</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K7" r:id="rId1"/>
-    <hyperlink ref="K20" r:id="rId2"/>
+    <hyperlink ref="J7" r:id="rId1"/>
+    <hyperlink ref="J20" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -8937,7 +8807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData/>

--- a/5- Testing/Test Cases.xlsx
+++ b/5- Testing/Test Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="307">
   <si>
     <t>Module</t>
   </si>
@@ -1299,12 +1299,37 @@
   <si>
     <t>User is redirected to the login page after clicking the login button.</t>
   </si>
+  <si>
+    <t>After clicking the logout button, the user is successfully logged out and redirected to the login page.</t>
+  </si>
+  <si>
+    <t>After entering the correct email and password for a registered user, the user is successfully logged in and redirected to the home page.</t>
+  </si>
+  <si>
+    <t>When the user enters the password in the password field, it is displayed as asterisks "***" to ensure that it is masked and not visible to others.</t>
+  </si>
+  <si>
+    <t>When the user clicks on the sign-up button, they are successfully redirected to the sign-up page where they can create a new account.</t>
+  </si>
+  <si>
+    <t>When the user enters the already registered email and password and clicks on the login button, they are successfully logged in and redirected to the home page.</t>
+  </si>
+  <si>
+    <t>TC-PasswordLogin
+-Admin-13</t>
+  </si>
+  <si>
+    <t>When the Admin enters the password in the password field, it is displayed as asterisks "***" to ensure that it is masked and not visible to others.</t>
+  </si>
+  <si>
+    <t>When the admin clicks on the sign-up button, they are redirected to the sign-up page where they can create a new account.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="29">
+  <fonts count="37">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1490,8 +1515,59 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1574,6 +1650,24 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor rgb="FFFF00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1843,7 +1937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2032,9 +2126,6 @@
     <xf numFmtId="0" fontId="21" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2047,9 +2138,6 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2062,11 +2150,11 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -2137,65 +2225,60 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5696,7 +5779,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="207" customHeight="1">
-      <c r="A2" s="76"/>
+      <c r="A2" s="74"/>
       <c r="B2" s="43" t="s">
         <v>28</v>
       </c>
@@ -5731,7 +5814,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="175.5" customHeight="1">
-      <c r="A3" s="77"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="43" t="s">
         <v>27</v>
       </c>
@@ -5766,8 +5849,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="124.2">
-      <c r="A4" s="77"/>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="75"/>
+      <c r="B4" s="78" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="40" t="s">
@@ -5799,8 +5882,8 @@
       <c r="M4" s="54"/>
     </row>
     <row r="5" spans="1:13" ht="124.2">
-      <c r="A5" s="77"/>
-      <c r="B5" s="81"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="40" t="s">
         <v>37</v>
       </c>
@@ -5830,8 +5913,8 @@
       <c r="M5" s="54"/>
     </row>
     <row r="6" spans="1:13" ht="124.2">
-      <c r="A6" s="77"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="40" t="s">
         <v>122</v>
       </c>
@@ -5865,8 +5948,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="124.2">
-      <c r="A7" s="77"/>
-      <c r="B7" s="81"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="40" t="s">
         <v>123</v>
       </c>
@@ -5898,8 +5981,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="124.2">
-      <c r="A8" s="77"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="40" t="s">
         <v>124</v>
       </c>
@@ -5931,8 +6014,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="162" customHeight="1">
-      <c r="A9" s="77"/>
-      <c r="B9" s="81"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="40" t="s">
         <v>125</v>
       </c>
@@ -5964,8 +6047,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="183" customHeight="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="82" t="s">
+      <c r="A10" s="75"/>
+      <c r="B10" s="80" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="40" t="s">
@@ -5997,8 +6080,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="183" customHeight="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="83"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="40" t="s">
         <v>129</v>
       </c>
@@ -6028,8 +6111,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="183" customHeight="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="83"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="40" t="s">
         <v>130</v>
       </c>
@@ -6059,8 +6142,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="157.5" customHeight="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="84"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="40" t="s">
         <v>131</v>
       </c>
@@ -6090,7 +6173,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="128.4">
-      <c r="A14" s="77"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="44" t="s">
         <v>49</v>
       </c>
@@ -6125,7 +6208,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="83.4">
-      <c r="A15" s="78"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="46" t="s">
         <v>58</v>
       </c>
@@ -6158,68 +6241,68 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="77"/>
+      <c r="A16" s="75"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="77"/>
+      <c r="A17" s="75"/>
     </row>
     <row r="18" spans="1:5" ht="13.8">
-      <c r="A18" s="77"/>
+      <c r="A18" s="75"/>
       <c r="E18" s="60"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="77"/>
+      <c r="A19" s="75"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="77"/>
+      <c r="A20" s="75"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="77"/>
+      <c r="A21" s="75"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="77"/>
+      <c r="A22" s="75"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="77"/>
+      <c r="A23" s="75"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="77"/>
+      <c r="A24" s="75"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="77"/>
+      <c r="A25" s="75"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="77"/>
+      <c r="A26" s="75"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="77"/>
+      <c r="A27" s="75"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="77"/>
+      <c r="A28" s="75"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="77"/>
+      <c r="A29" s="75"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="77"/>
+      <c r="A30" s="75"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="77"/>
+      <c r="A31" s="75"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="77"/>
+      <c r="A32" s="75"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="77"/>
+      <c r="A33" s="75"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="77"/>
+      <c r="A34" s="75"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="77"/>
+      <c r="A35" s="75"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="79"/>
+      <c r="A36" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6297,7 +6380,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="207.75" customHeight="1">
-      <c r="A2" s="76"/>
+      <c r="A2" s="74"/>
       <c r="B2" s="23" t="s">
         <v>28</v>
       </c>
@@ -6332,7 +6415,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="220.5" customHeight="1">
-      <c r="A3" s="77"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="31" t="s">
         <v>58</v>
       </c>
@@ -6363,88 +6446,88 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="409.5" customHeight="1">
-      <c r="A4" s="77"/>
+      <c r="A4" s="75"/>
     </row>
     <row r="5" spans="1:13" ht="409.5" customHeight="1">
-      <c r="A5" s="77"/>
+      <c r="A5" s="75"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="77"/>
+      <c r="A6" s="75"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="77"/>
+      <c r="A7" s="75"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="77"/>
+      <c r="A8" s="75"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="77"/>
+      <c r="A9" s="75"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="77"/>
+      <c r="A10" s="75"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="77"/>
+      <c r="A11" s="75"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="77"/>
+      <c r="A12" s="75"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="77"/>
+      <c r="A13" s="75"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="77"/>
+      <c r="A14" s="75"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="77"/>
+      <c r="A15" s="75"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="77"/>
+      <c r="A16" s="75"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="77"/>
+      <c r="A17" s="75"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="77"/>
+      <c r="A18" s="75"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="77"/>
+      <c r="A19" s="75"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="77"/>
+      <c r="A20" s="75"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="77"/>
+      <c r="A21" s="75"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="77"/>
+      <c r="A22" s="75"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="77"/>
+      <c r="A23" s="75"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="77"/>
+      <c r="A24" s="75"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="77"/>
+      <c r="A25" s="75"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="77"/>
+      <c r="A26" s="75"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="77"/>
+      <c r="A27" s="75"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="77"/>
+      <c r="A28" s="75"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="77"/>
+      <c r="A29" s="75"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="77"/>
+      <c r="A30" s="75"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="79"/>
+      <c r="A31" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6519,7 +6602,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="174.75" customHeight="1">
-      <c r="A2" s="76"/>
+      <c r="A2" s="74"/>
       <c r="B2" s="23" t="s">
         <v>28</v>
       </c>
@@ -6554,91 +6637,91 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="77"/>
+      <c r="A3" s="75"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="77"/>
+      <c r="A4" s="75"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="77"/>
+      <c r="A5" s="75"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="77"/>
+      <c r="A6" s="75"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="77"/>
+      <c r="A7" s="75"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="77"/>
+      <c r="A8" s="75"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="77"/>
+      <c r="A9" s="75"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="77"/>
+      <c r="A10" s="75"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="77"/>
+      <c r="A11" s="75"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="77"/>
+      <c r="A12" s="75"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="77"/>
+      <c r="A13" s="75"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="77"/>
+      <c r="A14" s="75"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="77"/>
+      <c r="A15" s="75"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="77"/>
+      <c r="A16" s="75"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="77"/>
+      <c r="A17" s="75"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="77"/>
+      <c r="A18" s="75"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="77"/>
+      <c r="A19" s="75"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="77"/>
+      <c r="A20" s="75"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="77"/>
+      <c r="A21" s="75"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="77"/>
+      <c r="A22" s="75"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="77"/>
+      <c r="A23" s="75"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="77"/>
+      <c r="A24" s="75"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="77"/>
+      <c r="A25" s="75"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="77"/>
+      <c r="A26" s="75"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="77"/>
+      <c r="A27" s="75"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="77"/>
+      <c r="A28" s="75"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="77"/>
+      <c r="A29" s="75"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="77"/>
+      <c r="A30" s="75"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="79"/>
+      <c r="A31" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6710,7 +6793,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="179.25" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="78" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -6744,7 +6827,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="148.5" customHeight="1">
-      <c r="A3" s="81"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="40" t="s">
         <v>79</v>
       </c>
@@ -6776,7 +6859,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="110.4">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="78" t="s">
         <v>83</v>
       </c>
       <c r="B4" s="40" t="s">
@@ -6810,7 +6893,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="110.4">
-      <c r="A5" s="81"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="40" t="s">
         <v>88</v>
       </c>
@@ -6842,7 +6925,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="110.4">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="78" t="s">
         <v>90</v>
       </c>
       <c r="B6" s="40" t="s">
@@ -6876,7 +6959,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="110.4">
-      <c r="A7" s="81"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="40" t="s">
         <v>93</v>
       </c>
@@ -6908,7 +6991,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="110.4">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="78" t="s">
         <v>95</v>
       </c>
       <c r="B8" s="40" t="s">
@@ -6942,7 +7025,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="110.4">
-      <c r="A9" s="81"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="40" t="s">
         <v>98</v>
       </c>
@@ -6986,941 +7069,1006 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="34.44140625" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" customWidth="1"/>
-    <col min="9" max="9" width="27.44140625" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="27.44140625" customWidth="1"/>
+    <col min="9" max="9" width="26.44140625" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.2">
+    <row r="1" spans="1:11" ht="15.6">
       <c r="A1" s="42" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>25</v>
+      <c r="C1" s="47" t="s">
+        <v>12</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I1" s="47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" s="47" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K1" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="47" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="204.75" customHeight="1">
+    <row r="2" spans="1:11" ht="204.75" customHeight="1">
       <c r="A2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="40">
-        <v>0</v>
-      </c>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="E2" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="F2" s="106" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="G2" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="H2" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="54" t="s">
+      <c r="I2" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="J2" s="106"/>
+      <c r="K2" s="107" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="239.25" customHeight="1">
-      <c r="A3" s="85" t="s">
+    <row r="3" spans="1:11" ht="239.25" customHeight="1">
+      <c r="A3" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="111" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41" t="s">
+      <c r="C3" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="D3" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="E3" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="F3" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="G3" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="H3" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="I3" s="106" t="s">
         <v>293</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="54" t="s">
+      <c r="J3" s="106"/>
+      <c r="K3" s="107" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="239.25" customHeight="1">
-      <c r="A4" s="86"/>
-      <c r="B4" s="40" t="s">
+    <row r="4" spans="1:11" ht="239.25" customHeight="1">
+      <c r="A4" s="84"/>
+      <c r="B4" s="111" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41" t="s">
+      <c r="C4" s="106" t="s">
         <v>148</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="D4" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="E4" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="F4" s="106" t="s">
         <v>156</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="G4" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="H4" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="36" t="s">
+      <c r="I4" s="106" t="s">
+        <v>293</v>
+      </c>
+      <c r="J4" s="106"/>
+      <c r="K4" s="108" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="239.25" customHeight="1">
-      <c r="A5" s="86"/>
-      <c r="B5" s="40" t="s">
+    <row r="5" spans="1:11" ht="239.25" customHeight="1">
+      <c r="A5" s="84"/>
+      <c r="B5" s="111" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41" t="s">
+      <c r="C5" s="106" t="s">
         <v>151</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="D5" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="E5" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="F5" s="106" t="s">
         <v>157</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="G5" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="H5" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36" t="s">
+      <c r="I5" s="106" t="s">
+        <v>293</v>
+      </c>
+      <c r="J5" s="55"/>
+      <c r="K5" s="108" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="221.25" customHeight="1">
-      <c r="A6" s="86"/>
-      <c r="B6" s="40" t="s">
+    <row r="6" spans="1:11" ht="221.25" customHeight="1">
+      <c r="A6" s="84"/>
+      <c r="B6" s="111" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41" t="s">
+      <c r="C6" s="106" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="D6" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="E6" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="F6" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="G6" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="H6" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36" t="s">
+      <c r="I6" s="106" t="s">
+        <v>293</v>
+      </c>
+      <c r="J6" s="55"/>
+      <c r="K6" s="108" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="221.25" customHeight="1">
+    <row r="7" spans="1:11" ht="221.25" customHeight="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41" t="s">
+      <c r="C7" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="D7" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="E7" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="F7" s="106" t="s">
         <v>158</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="G7" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="H7" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36" t="s">
+      <c r="I7" s="106" t="s">
+        <v>293</v>
+      </c>
+      <c r="J7" s="55"/>
+      <c r="K7" s="108" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="221.25" customHeight="1">
+    <row r="8" spans="1:11" ht="221.25" customHeight="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="111" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41" t="s">
+      <c r="C8" s="106" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="D8" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="E8" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="F8" s="106" t="s">
         <v>159</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="G8" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="H8" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36" t="s">
+      <c r="I8" s="106" t="s">
+        <v>293</v>
+      </c>
+      <c r="J8" s="55"/>
+      <c r="K8" s="108" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="221.25" customHeight="1">
+    <row r="9" spans="1:11" ht="221.25" customHeight="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="111" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41" t="s">
+      <c r="C9" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="D9" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="E9" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="F9" s="106" t="s">
         <v>160</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="G9" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="H9" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36" t="s">
+      <c r="I9" s="106" t="s">
+        <v>293</v>
+      </c>
+      <c r="J9" s="55"/>
+      <c r="K9" s="108" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="221.25" customHeight="1">
+    <row r="10" spans="1:11" ht="221.25" customHeight="1">
       <c r="A10" s="45"/>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="111" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41" t="s">
+      <c r="C10" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="D10" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="E10" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="F10" s="106" t="s">
         <v>161</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="G10" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="H10" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36" t="s">
+      <c r="I10" s="106" t="s">
+        <v>293</v>
+      </c>
+      <c r="J10" s="55"/>
+      <c r="K10" s="108" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="221.25" customHeight="1">
+    <row r="11" spans="1:11" ht="221.25" customHeight="1">
       <c r="A11" s="45"/>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="111" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41" t="s">
+      <c r="C11" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="D11" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="E11" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="F11" s="106" t="s">
         <v>153</v>
       </c>
-      <c r="H11" s="51" t="s">
+      <c r="G11" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="H11" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-    </row>
-    <row r="12" spans="1:12" ht="221.25" customHeight="1">
+      <c r="I11" s="106" t="s">
+        <v>293</v>
+      </c>
+      <c r="J11" s="55"/>
+      <c r="K11" s="108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="221.25" customHeight="1">
       <c r="A12" s="45"/>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="111" t="s">
         <v>181</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41" t="s">
+      <c r="C12" s="106" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="D12" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="E12" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="F12" s="106" t="s">
         <v>162</v>
       </c>
-      <c r="H12" s="51" t="s">
+      <c r="G12" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="H12" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-    </row>
-    <row r="13" spans="1:12" ht="233.25" customHeight="1">
-      <c r="A13" s="87" t="s">
+      <c r="I12" s="106" t="s">
+        <v>293</v>
+      </c>
+      <c r="J12" s="55"/>
+      <c r="K12" s="108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="233.25" customHeight="1">
+      <c r="A13" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="111" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41" t="s">
+      <c r="C13" s="106" t="s">
         <v>163</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="D13" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="E13" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="F13" s="106" t="s">
         <v>164</v>
       </c>
-      <c r="H13" s="51" t="s">
+      <c r="G13" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="H13" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="J13" s="41"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="54"/>
-    </row>
-    <row r="14" spans="1:12" ht="207.75" customHeight="1">
-      <c r="A14" s="88"/>
-      <c r="B14" s="40" t="s">
+      <c r="I13" s="106" t="s">
+        <v>293</v>
+      </c>
+      <c r="J13" s="106"/>
+      <c r="K13" s="108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="207.75" customHeight="1">
+      <c r="A14" s="86"/>
+      <c r="B14" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="65" t="s">
+      <c r="C14" s="112" t="s">
         <v>165</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="D14" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="E14" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="F14" s="106" t="s">
         <v>166</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="G14" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="H14" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="J14" s="41"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="54"/>
-    </row>
-    <row r="15" spans="1:12" ht="207.75" customHeight="1">
+      <c r="I14" s="106" t="s">
+        <v>293</v>
+      </c>
+      <c r="J14" s="106"/>
+      <c r="K14" s="108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="207.75" customHeight="1">
       <c r="A15" s="45"/>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="65" t="s">
+      <c r="C15" s="112" t="s">
         <v>168</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="D15" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="E15" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="F15" s="106" t="s">
         <v>166</v>
       </c>
-      <c r="H15" s="51" t="s">
+      <c r="G15" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="H15" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="J15" s="41"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="54"/>
-    </row>
-    <row r="16" spans="1:12" ht="129.6">
+      <c r="I15" s="110" t="s">
+        <v>301</v>
+      </c>
+      <c r="J15" s="106"/>
+      <c r="K15" s="108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="129.6">
       <c r="A16" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="111" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="64" t="s">
+      <c r="C16" s="113" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="D16" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="E16" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="F16" s="106" t="s">
         <v>169</v>
       </c>
-      <c r="H16" s="51" t="s">
+      <c r="G16" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="64" t="s">
+      <c r="H16" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="J16" s="50"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="54"/>
-    </row>
-    <row r="17" spans="1:12" ht="108" customHeight="1">
-      <c r="A17" s="66" t="s">
+      <c r="I16" s="114" t="s">
+        <v>302</v>
+      </c>
+      <c r="J16" s="106"/>
+      <c r="K16" s="108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="108" customHeight="1">
+      <c r="A17" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41" t="s">
+      <c r="C17" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="D17" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="E17" s="106" t="s">
         <v>186</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="F17" s="106" t="s">
         <v>154</v>
       </c>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="H17" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="J17" s="41"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="54"/>
-    </row>
-    <row r="18" spans="1:12" ht="71.25" customHeight="1">
-      <c r="A18" s="92" t="s">
+      <c r="I17" s="114" t="s">
+        <v>303</v>
+      </c>
+      <c r="J17" s="106"/>
+      <c r="K17" s="108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="71.25" customHeight="1">
+      <c r="A18" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="111" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41" t="s">
+      <c r="C18" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="D18" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="E18" s="106" t="s">
         <v>186</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="F18" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="H18" s="51" t="s">
+      <c r="G18" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="39" t="s">
+      <c r="H18" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="J18" s="41"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="54"/>
-    </row>
-    <row r="19" spans="1:12" ht="82.8">
-      <c r="A19" s="93"/>
-      <c r="B19" s="40" t="s">
+      <c r="I18" s="106" t="s">
+        <v>293</v>
+      </c>
+      <c r="J18" s="106"/>
+      <c r="K18" s="108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="90">
+      <c r="A19" s="91"/>
+      <c r="B19" s="111" t="s">
         <v>191</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41" t="s">
+      <c r="C19" s="106" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="D19" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="E19" s="106" t="s">
         <v>186</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="F19" s="106" t="s">
         <v>156</v>
       </c>
-      <c r="H19" s="51" t="s">
+      <c r="G19" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="H19" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="J19" s="41"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="36"/>
-    </row>
-    <row r="20" spans="1:12" ht="69">
-      <c r="A20" s="93"/>
-      <c r="B20" s="40" t="s">
+      <c r="I19" s="106" t="s">
+        <v>293</v>
+      </c>
+      <c r="J19" s="106"/>
+      <c r="K19" s="108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="90">
+      <c r="A20" s="91"/>
+      <c r="B20" s="111" t="s">
         <v>192</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41" t="s">
+      <c r="C20" s="106" t="s">
         <v>151</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="D20" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="E20" s="106" t="s">
         <v>186</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="F20" s="106" t="s">
         <v>157</v>
       </c>
-      <c r="H20" s="51" t="s">
+      <c r="G20" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="39" t="s">
+      <c r="H20" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-    </row>
-    <row r="21" spans="1:12" ht="82.8">
-      <c r="A21" s="93"/>
-      <c r="B21" s="40" t="s">
+      <c r="I20" s="106" t="s">
+        <v>293</v>
+      </c>
+      <c r="J20" s="55"/>
+      <c r="K20" s="108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="90">
+      <c r="A21" s="91"/>
+      <c r="B21" s="111" t="s">
         <v>193</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41" t="s">
+      <c r="C21" s="106" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="D21" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="E21" s="106" t="s">
         <v>186</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="F21" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="H21" s="51" t="s">
+      <c r="G21" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="39" t="s">
+      <c r="H21" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-    </row>
-    <row r="22" spans="1:12" ht="82.8">
-      <c r="A22" s="93"/>
-      <c r="B22" s="40" t="s">
+      <c r="I21" s="106" t="s">
+        <v>293</v>
+      </c>
+      <c r="J21" s="55"/>
+      <c r="K21" s="108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="90">
+      <c r="A22" s="91"/>
+      <c r="B22" s="111" t="s">
         <v>194</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41" t="s">
+      <c r="C22" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="D22" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="41" t="s">
+      <c r="E22" s="106" t="s">
         <v>186</v>
       </c>
-      <c r="G22" s="41" t="s">
+      <c r="F22" s="106" t="s">
         <v>158</v>
       </c>
-      <c r="H22" s="51" t="s">
+      <c r="G22" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="H22" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-    </row>
-    <row r="23" spans="1:12" ht="82.8">
-      <c r="A23" s="93"/>
-      <c r="B23" s="40" t="s">
+      <c r="I22" s="106" t="s">
+        <v>293</v>
+      </c>
+      <c r="J22" s="55"/>
+      <c r="K22" s="108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="90">
+      <c r="A23" s="91"/>
+      <c r="B23" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41" t="s">
+      <c r="C23" s="106" t="s">
         <v>144</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="D23" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="41" t="s">
+      <c r="E23" s="106" t="s">
         <v>186</v>
       </c>
-      <c r="G23" s="41" t="s">
+      <c r="F23" s="106" t="s">
         <v>159</v>
       </c>
-      <c r="H23" s="51" t="s">
+      <c r="G23" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="39" t="s">
+      <c r="H23" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-    </row>
-    <row r="24" spans="1:12" ht="82.8">
-      <c r="A24" s="93"/>
-      <c r="B24" s="40" t="s">
+      <c r="I23" s="106" t="s">
+        <v>293</v>
+      </c>
+      <c r="J23" s="55"/>
+      <c r="K23" s="108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="90">
+      <c r="A24" s="91"/>
+      <c r="B24" s="111" t="s">
         <v>196</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41" t="s">
+      <c r="C24" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="D24" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="41" t="s">
+      <c r="E24" s="106" t="s">
         <v>186</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="F24" s="106" t="s">
         <v>160</v>
       </c>
-      <c r="H24" s="51" t="s">
+      <c r="G24" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="39" t="s">
+      <c r="H24" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-    </row>
-    <row r="25" spans="1:12" ht="82.8">
-      <c r="A25" s="93"/>
-      <c r="B25" s="40" t="s">
+      <c r="I24" s="106" t="s">
+        <v>293</v>
+      </c>
+      <c r="J24" s="55"/>
+      <c r="K24" s="108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="90">
+      <c r="A25" s="91"/>
+      <c r="B25" s="111" t="s">
         <v>197</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="41" t="s">
+      <c r="C25" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="D25" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="E25" s="106" t="s">
         <v>186</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="F25" s="106" t="s">
         <v>161</v>
       </c>
-      <c r="H25" s="51" t="s">
+      <c r="G25" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="39" t="s">
+      <c r="H25" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-    </row>
-    <row r="26" spans="1:12" ht="92.25" customHeight="1">
-      <c r="A26" s="93"/>
-      <c r="B26" s="40" t="s">
+      <c r="I25" s="106" t="s">
+        <v>293</v>
+      </c>
+      <c r="J25" s="55"/>
+      <c r="K25" s="108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="92.25" customHeight="1">
+      <c r="A26" s="91"/>
+      <c r="B26" s="111" t="s">
         <v>198</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41" t="s">
+      <c r="C26" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="D26" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="E26" s="106" t="s">
         <v>186</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="F26" s="106" t="s">
         <v>153</v>
       </c>
-      <c r="H26" s="51" t="s">
+      <c r="G26" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I26" s="39" t="s">
+      <c r="H26" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-    </row>
-    <row r="27" spans="1:12" ht="126" customHeight="1">
-      <c r="A27" s="94"/>
-      <c r="B27" s="40" t="s">
+      <c r="I26" s="106" t="s">
+        <v>293</v>
+      </c>
+      <c r="J26" s="55"/>
+      <c r="K26" s="108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="126" customHeight="1">
+      <c r="A27" s="92"/>
+      <c r="B27" s="111" t="s">
         <v>199</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="41" t="s">
+      <c r="C27" s="106" t="s">
         <v>147</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="D27" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="E27" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="F27" s="106" t="s">
         <v>162</v>
       </c>
-      <c r="H27" s="51" t="s">
+      <c r="G27" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="39" t="s">
+      <c r="H27" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-    </row>
-    <row r="28" spans="1:12" ht="107.25" customHeight="1">
-      <c r="A28" s="89" t="s">
+      <c r="I27" s="106" t="s">
+        <v>293</v>
+      </c>
+      <c r="J27" s="55"/>
+      <c r="K27" s="108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="107.25" customHeight="1">
+      <c r="A28" s="87" t="s">
         <v>204</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="111" t="s">
         <v>200</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41" t="s">
+      <c r="C28" s="106" t="s">
         <v>163</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="D28" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="41" t="s">
+      <c r="E28" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="41" t="s">
+      <c r="F28" s="106" t="s">
         <v>164</v>
       </c>
-      <c r="H28" s="51" t="s">
+      <c r="G28" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="39" t="s">
+      <c r="H28" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="J28" s="41"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="54"/>
-    </row>
-    <row r="29" spans="1:12" ht="147.75" customHeight="1">
-      <c r="A29" s="90"/>
-      <c r="B29" s="40" t="s">
+      <c r="I28" s="106" t="s">
+        <v>293</v>
+      </c>
+      <c r="J28" s="106"/>
+      <c r="K28" s="108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="147.75" customHeight="1">
+      <c r="A29" s="88"/>
+      <c r="B29" s="111" t="s">
         <v>201</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="65" t="s">
+      <c r="C29" s="112" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="41" t="s">
+      <c r="D29" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="41" t="s">
+      <c r="E29" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="41" t="s">
+      <c r="F29" s="106" t="s">
         <v>166</v>
       </c>
-      <c r="H29" s="51" t="s">
+      <c r="G29" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="39" t="s">
+      <c r="H29" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="J29" s="41"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="54"/>
-    </row>
-    <row r="30" spans="1:12" ht="82.8">
-      <c r="A30" s="91"/>
-      <c r="B30" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="65" t="s">
+      <c r="I29" s="106" t="s">
+        <v>293</v>
+      </c>
+      <c r="J29" s="106"/>
+      <c r="K29" s="108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="90">
+      <c r="A30" s="89"/>
+      <c r="B30" s="111" t="s">
+        <v>304</v>
+      </c>
+      <c r="C30" s="112" t="s">
         <v>168</v>
       </c>
-      <c r="E30" s="41" t="s">
+      <c r="D30" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="41" t="s">
+      <c r="E30" s="106" t="s">
         <v>186</v>
       </c>
-      <c r="G30" s="41" t="s">
+      <c r="F30" s="106" t="s">
         <v>166</v>
       </c>
-      <c r="H30" s="51" t="s">
+      <c r="G30" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="39" t="s">
+      <c r="H30" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="J30" s="41"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="54"/>
-    </row>
-    <row r="31" spans="1:12" ht="129.6">
+      <c r="I30" s="110" t="s">
+        <v>305</v>
+      </c>
+      <c r="J30" s="106"/>
+      <c r="K30" s="108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="129.6">
       <c r="A31" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="111" t="s">
         <v>202</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="65" t="s">
+      <c r="C31" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="E31" s="51" t="s">
+      <c r="D31" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="41" t="s">
+      <c r="E31" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="41" t="s">
+      <c r="F31" s="106" t="s">
         <v>169</v>
       </c>
-      <c r="H31" s="51" t="s">
+      <c r="G31" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I31" s="65" t="s">
+      <c r="H31" s="112" t="s">
         <v>188</v>
       </c>
-      <c r="J31" s="50"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="54"/>
+      <c r="I31" s="114" t="s">
+        <v>306</v>
+      </c>
+      <c r="J31" s="106"/>
+      <c r="K31" s="108" t="s">
+        <v>291</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7936,183 +8084,183 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="26.5546875" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
-    <col min="9" max="9" width="28.44140625" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="28.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="46.8">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:11" ht="15.6">
+      <c r="A1" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="68" t="s">
+      <c r="C1" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="D1" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="E1" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="F1" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="G1" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="H1" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="I1" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="J1" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="K1" s="67" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="210" customHeight="1">
-      <c r="A2" s="95" t="s">
+    <row r="2" spans="1:11" ht="210" customHeight="1">
+      <c r="A2" s="93" t="s">
         <v>209</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="56" t="s">
         <v>19</v>
       </c>
+      <c r="E2" s="41" t="s">
+        <v>59</v>
+      </c>
       <c r="F2" s="41" t="s">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="H2" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="H2" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="54"/>
-    </row>
-    <row r="3" spans="1:12" ht="210" customHeight="1">
-      <c r="A3" s="96"/>
+      <c r="I2" s="99" t="s">
+        <v>299</v>
+      </c>
+      <c r="J2" s="53"/>
+      <c r="K2" s="103" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="210" customHeight="1">
+      <c r="A3" s="94"/>
       <c r="B3" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41" t="s">
+      <c r="C3" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="D3" s="56" t="s">
         <v>19</v>
       </c>
+      <c r="E3" s="41" t="s">
+        <v>59</v>
+      </c>
       <c r="F3" s="41" t="s">
-        <v>59</v>
+        <v>216</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="H3" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="H3" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="54"/>
-    </row>
-    <row r="4" spans="1:12" ht="184.5" customHeight="1">
-      <c r="A4" s="97" t="s">
+      <c r="I3" s="99" t="s">
+        <v>299</v>
+      </c>
+      <c r="J3" s="53"/>
+      <c r="K3" s="103"/>
+    </row>
+    <row r="4" spans="1:11" ht="184.5" customHeight="1">
+      <c r="A4" s="95" t="s">
         <v>212</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41" t="s">
+      <c r="C4" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="D4" s="56" t="s">
         <v>19</v>
       </c>
+      <c r="E4" s="41" t="s">
+        <v>33</v>
+      </c>
       <c r="F4" s="41" t="s">
-        <v>33</v>
+        <v>214</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="H4" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="H4" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="54"/>
-    </row>
-    <row r="5" spans="1:12" ht="143.25" customHeight="1">
-      <c r="A5" s="98"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="104" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="143.25" customHeight="1">
+      <c r="A5" s="96"/>
       <c r="B5" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41" t="s">
+      <c r="C5" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="D5" s="56" t="s">
         <v>19</v>
       </c>
+      <c r="E5" s="41" t="s">
+        <v>59</v>
+      </c>
       <c r="F5" s="41" t="s">
-        <v>59</v>
+        <v>216</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="H5" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="H5" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="I5" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36" t="s">
+      <c r="J5" s="52"/>
+      <c r="K5" s="105" t="s">
         <v>294</v>
       </c>
     </row>
@@ -8130,8 +8278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -8171,10 +8319,10 @@
       <c r="G1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="68" t="s">
         <v>18</v>
       </c>
       <c r="J1" s="47" t="s">
@@ -8186,7 +8334,7 @@
       <c r="L1" s="30"/>
     </row>
     <row r="2" spans="1:12" ht="124.2">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="69" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -8210,16 +8358,16 @@
       <c r="H2" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="I2" s="101" t="s">
+      <c r="I2" s="72" t="s">
         <v>297</v>
       </c>
       <c r="J2" s="57"/>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="100" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="60">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="97" t="s">
         <v>138</v>
       </c>
       <c r="B3" s="40" t="s">
@@ -8243,16 +8391,16 @@
       <c r="H3" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="I3" s="102" t="s">
+      <c r="I3" s="73" t="s">
         <v>298</v>
       </c>
       <c r="J3" s="57"/>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="100" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="55.2">
-      <c r="A4" s="100"/>
+      <c r="A4" s="98"/>
       <c r="B4" s="40" t="s">
         <v>231</v>
       </c>
@@ -8278,12 +8426,12 @@
         <v>292</v>
       </c>
       <c r="J4" s="57"/>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="100" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="110.4">
-      <c r="A5" s="100"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="40" t="s">
         <v>235</v>
       </c>
@@ -8309,12 +8457,12 @@
         <v>292</v>
       </c>
       <c r="J5" s="38"/>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="100" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="55.2">
-      <c r="A6" s="100"/>
+      <c r="A6" s="98"/>
       <c r="B6" s="40" t="s">
         <v>239</v>
       </c>
@@ -8340,12 +8488,12 @@
         <v>292</v>
       </c>
       <c r="J6" s="38"/>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="100" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="110.4">
-      <c r="A7" s="73"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="40" t="s">
         <v>242</v>
       </c>
@@ -8370,15 +8518,15 @@
       <c r="I7" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="J7" s="72" t="s">
+      <c r="J7" s="70" t="s">
         <v>245</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="K7" s="100" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="55.2">
-      <c r="A8" s="73"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="40" t="s">
         <v>246</v>
       </c>
@@ -8404,12 +8552,12 @@
         <v>292</v>
       </c>
       <c r="J8" s="38"/>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="100" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="110.4">
-      <c r="A9" s="73"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="40" t="s">
         <v>249</v>
       </c>
@@ -8435,12 +8583,12 @@
         <v>292</v>
       </c>
       <c r="J9" s="38"/>
-      <c r="K9" s="30" t="s">
+      <c r="K9" s="100" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="55.2">
-      <c r="A10" s="73"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="40" t="s">
         <v>252</v>
       </c>
@@ -8466,12 +8614,12 @@
         <v>292</v>
       </c>
       <c r="J10" s="38"/>
-      <c r="K10" s="30" t="s">
+      <c r="K10" s="100" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="82.8">
-      <c r="A11" s="73"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="40" t="s">
         <v>255</v>
       </c>
@@ -8497,12 +8645,12 @@
         <v>292</v>
       </c>
       <c r="J11" s="38"/>
-      <c r="K11" s="30" t="s">
+      <c r="K11" s="100" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="96.6">
-      <c r="A12" s="73"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="40" t="s">
         <v>259</v>
       </c>
@@ -8528,12 +8676,12 @@
         <v>292</v>
       </c>
       <c r="J12" s="38"/>
-      <c r="K12" s="30" t="s">
+      <c r="K12" s="100" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="96.6">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="98" t="s">
         <v>150</v>
       </c>
       <c r="B13" s="40" t="s">
@@ -8561,12 +8709,12 @@
         <v>292</v>
       </c>
       <c r="J13" s="57"/>
-      <c r="K13" s="30" t="s">
+      <c r="K13" s="100" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="110.4">
-      <c r="A14" s="100"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="40" t="s">
         <v>267</v>
       </c>
@@ -8592,12 +8740,12 @@
         <v>292</v>
       </c>
       <c r="J14" s="57"/>
-      <c r="K14" s="30" t="s">
+      <c r="K14" s="100" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="55.2">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="98" t="s">
         <v>95</v>
       </c>
       <c r="B15" s="40" t="s">
@@ -8625,12 +8773,12 @@
         <v>292</v>
       </c>
       <c r="J15" s="57"/>
-      <c r="K15" s="30" t="s">
+      <c r="K15" s="100" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="69">
-      <c r="A16" s="100"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="40" t="s">
         <v>274</v>
       </c>
@@ -8656,12 +8804,12 @@
         <v>292</v>
       </c>
       <c r="J16" s="38"/>
-      <c r="K16" s="30" t="s">
+      <c r="K16" s="100" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="128.4">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="71" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="40" t="s">
@@ -8689,12 +8837,12 @@
         <v>292</v>
       </c>
       <c r="J17" s="57"/>
-      <c r="K17" s="74" t="s">
+      <c r="K17" s="101" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="55.2">
-      <c r="A18" s="73"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="40" t="s">
         <v>280</v>
       </c>
@@ -8720,12 +8868,12 @@
         <v>292</v>
       </c>
       <c r="J18" s="57"/>
-      <c r="K18" s="74" t="s">
+      <c r="K18" s="101" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="69">
-      <c r="A19" s="73"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="40" t="s">
         <v>283</v>
       </c>
@@ -8751,12 +8899,12 @@
         <v>292</v>
       </c>
       <c r="J19" s="57"/>
-      <c r="K19" s="74" t="s">
+      <c r="K19" s="101" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="82.8">
-      <c r="A20" s="73"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="40" t="s">
         <v>286</v>
       </c>
@@ -8781,10 +8929,10 @@
       <c r="I20" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="J20" s="72" t="s">
+      <c r="J20" s="70" t="s">
         <v>289</v>
       </c>
-      <c r="K20" s="75" t="s">
+      <c r="K20" s="102" t="s">
         <v>291</v>
       </c>
     </row>

--- a/5- Testing/Test Cases.xlsx
+++ b/5- Testing/Test Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="2" r:id="rId1"/>
@@ -40,10 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="307">
-  <si>
-    <t>Module</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="313">
   <si>
     <t>Assigned To</t>
   </si>
@@ -117,26 +114,13 @@
     <t>Salma</t>
   </si>
   <si>
-    <t>Related  
-Requriments (SRS)</t>
-  </si>
-  <si>
-    <t>REQ-6</t>
-  </si>
-  <si>
     <t>Description field</t>
   </si>
   <si>
     <t>General</t>
   </si>
   <si>
-    <t>T031, T032</t>
-  </si>
-  <si>
     <t>Price Field</t>
-  </si>
-  <si>
-    <t>T030, T032</t>
   </si>
   <si>
     <t>technical</t>
@@ -144,9 +128,6 @@
   <si>
     <t>1- browser is available 
 2- Login as admin successfully</t>
-  </si>
-  <si>
-    <t>T028</t>
   </si>
   <si>
     <t>TC-AddCar-
@@ -257,9 +238,6 @@
     <t>TC-DelCar-00</t>
   </si>
   <si>
-    <t>REQ-7</t>
-  </si>
-  <si>
     <t>Verify that an admin can delete a car successfully</t>
   </si>
   <si>
@@ -299,17 +277,6 @@
     <t>verify that the car has been deleted from the user's home page.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Open the login page.
-2. Fill in :salma@gmail.com" in email field.
-3. Fill in " *********" in the password field 
-4.Click on the "Login" button.
-5. Check that the car is deleted from the home page.
-</t>
-  </si>
-  <si>
-    <t>REQ-4</t>
-  </si>
-  <si>
     <t>TC-HomePage-00</t>
   </si>
   <si>
@@ -321,9 +288,6 @@
   </si>
   <si>
     <t>All unreserved cars in the database are displayed on the Home Page with their details and reserve button below each one.</t>
-  </si>
-  <si>
-    <t>REQ-5</t>
   </si>
   <si>
     <t>Verify if the user can search for cars by  brand name.</t>
@@ -350,9 +314,6 @@
   <si>
     <t>TC-SearchBrand
 -User-01</t>
-  </si>
-  <si>
-    <t>REQ-5.1</t>
   </si>
   <si>
     <t>1. Click on the search bar.
@@ -1289,9 +1250,6 @@
     <t>the admin accessed the homepage</t>
   </si>
   <si>
-    <t>enterd missing or invalid data</t>
-  </si>
-  <si>
     <t xml:space="preserve">User is successfully registered and redirected to the home page.
 User is successfully registered and redirected to the home page.
 </t>
@@ -1323,13 +1281,72 @@
   </si>
   <si>
     <t>When the admin clicks on the sign-up button, they are redirected to the sign-up page where they can create a new account.</t>
+  </si>
+  <si>
+    <t>The user is able to enter a brand name in the search field and initiate a search. The search results display the cars matching the specified brand name.</t>
+  </si>
+  <si>
+    <t>When the user enters a brand name in the search field for which no cars are available, a pop-up message is displayed indicating that there are no cars found for the entered brand name.</t>
+  </si>
+  <si>
+    <t>The user is able to search for cars by entering a price range. The system correctly filters and displays the cars that fall within the specified price range.</t>
+  </si>
+  <si>
+    <t>When the user enters a price range for which there are no cars available, a pop-up message is displayed on the screen informing the user that there are no cars available within the specified price range.</t>
+  </si>
+  <si>
+    <t>When the admin enters a brand name for which there are no cars available, a pop-up message is displayed on the screen informing the admin that there are no cars available for the specified brand name.</t>
+  </si>
+  <si>
+    <t>The admin is able to search for cars by entering a brand name. The search functionality retrieves and displays the cars matching the entered brand name.</t>
+  </si>
+  <si>
+    <t>The admin is able to search for cars by entering a price. The search functionality retrieves and displays the cars within the specified price range.</t>
+  </si>
+  <si>
+    <t>When the admin enters a price for which there are no cars available, a pop-up message is displayed indicating that there are no cars found within the specified price range.</t>
+  </si>
+  <si>
+    <t>The Home Page successfully shows all unreserved cars stored in the database. Each car is presented with its details, and a reserve button is available for users to make reservations.</t>
+  </si>
+  <si>
+    <t>The admin was able to delete a car from the system successfully. The car was removed from the database, and it is no longer displayed on the website.</t>
+  </si>
+  <si>
+    <t>The car was successfully deleted from the user's home page, and it is no longer visible in the list of available cars for reservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the login page.
+2. Fill in :salma@gmail.com" in email field.
+3. Fill in valid password in the password field 
+4.Click on the "Login" button.
+5. Check that the car is deleted from the home page.
+</t>
+  </si>
+  <si>
+    <t>The admin was able to add a car successfully, and the car is now visible in the list of available cars for users to reserve.</t>
+  </si>
+  <si>
+    <t>Error message displayed for blank description field.</t>
+  </si>
+  <si>
+    <t>The car is added to the user's home page.</t>
+  </si>
+  <si>
+    <t>The admin cancels adding the car.</t>
+  </si>
+  <si>
+    <t>The system accepts PDFs file only (as it's the same extension as iamges)</t>
+  </si>
+  <si>
+    <t>Features</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="37">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1385,12 +1402,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1418,13 +1429,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1567,7 +1571,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1620,12 +1624,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1728,21 +1726,6 @@
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1932,12 +1915,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1996,282 +1992,276 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2494,8 +2484,8 @@
   </sheetPr>
   <dimension ref="A1:AE996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -2510,38 +2500,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="33.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="111" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -2566,7 +2556,9 @@
     </row>
     <row r="2" spans="1:31" ht="26.25" customHeight="1">
       <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
+      <c r="B2" s="112" t="s">
+        <v>23</v>
+      </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
@@ -2736,7 +2728,7 @@
     <row r="15" spans="1:31" ht="26.25" customHeight="1">
       <c r="A15" s="13"/>
       <c r="E15" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="15">
         <f t="shared" ref="F15:J15" si="0">SUM(F2:F14)</f>
@@ -5715,594 +5707,578 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="D1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" customWidth="1"/>
-    <col min="5" max="5" width="32.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="28.88671875" customWidth="1"/>
-    <col min="8" max="8" width="44.88671875" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="34.33203125" customWidth="1"/>
-    <col min="11" max="11" width="24.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" customWidth="1"/>
+    <col min="7" max="7" width="44.88671875" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:12" ht="15.6">
+      <c r="A1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="48" t="s">
+      <c r="L1" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="207" customHeight="1">
+      <c r="A2" s="77"/>
+      <c r="B2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="47" t="s">
+      <c r="C2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="207" customHeight="1">
-      <c r="A2" s="74"/>
-      <c r="B2" s="43" t="s">
+      <c r="F2" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="G2" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="I2" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="71" t="s">
+        <v>307</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="104" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="175.5" customHeight="1">
+      <c r="A3" s="78"/>
+      <c r="B3" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="K3" s="43"/>
+      <c r="L3" s="104" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="124.2">
+      <c r="A4" s="78"/>
+      <c r="B4" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="C4" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="41" t="s">
+      <c r="J4" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="K4" s="46"/>
+      <c r="L4" s="104" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="124.2">
+      <c r="A5" s="78"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="K5" s="46"/>
+      <c r="L5" s="104" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="124.2">
+      <c r="A6" s="78"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="K6" s="46"/>
+      <c r="L6" s="104" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="124.2">
+      <c r="A7" s="78"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="104" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="124.2">
+      <c r="A8" s="78"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="K8" s="46"/>
+      <c r="L8" s="104" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="162" customHeight="1">
+      <c r="A9" s="78"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="K9" s="46"/>
+      <c r="L9" s="104" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="183" customHeight="1">
+      <c r="A10" s="78"/>
+      <c r="B10" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="K10" s="27"/>
+      <c r="L10" s="105" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="183" customHeight="1">
+      <c r="A11" s="78"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="K11" s="27"/>
+      <c r="L11" s="105" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="183" customHeight="1">
+      <c r="A12" s="78"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="K12" s="27"/>
+      <c r="L12" s="105" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="157.5" customHeight="1">
+      <c r="A13" s="78"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="71" t="s">
+        <v>311</v>
+      </c>
+      <c r="K13" s="27"/>
+      <c r="L13" s="110" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="128.4">
+      <c r="A14" s="78"/>
+      <c r="B14" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="71" t="s">
+        <v>310</v>
+      </c>
+      <c r="K14" s="46"/>
+      <c r="L14" s="104" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="83.4">
+      <c r="A15" s="79"/>
+      <c r="B15" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="175.5" customHeight="1">
-      <c r="A3" s="75"/>
-      <c r="B3" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="56"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="54" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="124.2">
-      <c r="A4" s="75"/>
-      <c r="B4" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="50"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="54"/>
-    </row>
-    <row r="5" spans="1:13" ht="124.2">
-      <c r="A5" s="75"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="50"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="54"/>
-    </row>
-    <row r="6" spans="1:13" ht="124.2">
-      <c r="A6" s="75"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="K6" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="L6" s="57"/>
-      <c r="M6" s="54" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="124.2">
-      <c r="A7" s="75"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="I7" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" s="50"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="54" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="124.2">
-      <c r="A8" s="75"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="41" t="s">
+      <c r="C15" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="I8" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="K8" s="50"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="54" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="162" customHeight="1">
-      <c r="A9" s="75"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="I9" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="K9" s="50"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="54" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="183" customHeight="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="40">
-        <v>0</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="I10" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="183" customHeight="1">
-      <c r="A11" s="75"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="40">
-        <v>0</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="I11" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="183" customHeight="1">
-      <c r="A12" s="75"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="40">
-        <v>0</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="157.5" customHeight="1">
-      <c r="A13" s="75"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="40">
-        <v>0</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="I13" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="128.4">
-      <c r="A14" s="75"/>
-      <c r="B14" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="58">
-        <v>6.1</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="59" t="s">
+      <c r="D15" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="50"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="54" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="83.4">
-      <c r="A15" s="76"/>
-      <c r="B15" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="75"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="75"/>
-    </row>
-    <row r="18" spans="1:5" ht="13.8">
-      <c r="A18" s="75"/>
-      <c r="E18" s="60"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="75"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="75"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="75"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="75"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="75"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="75"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="75"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="75"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="75"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="75"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="75"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="75"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="75"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="75"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="71" t="s">
+        <v>309</v>
+      </c>
+      <c r="K15" s="27"/>
+      <c r="L15" s="105" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="78"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="78"/>
+    </row>
+    <row r="18" spans="1:4" ht="13.8">
+      <c r="A18" s="78"/>
+      <c r="D18" s="48"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="78"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="78"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="78"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="78"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="78"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="78"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="78"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="78"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="78"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="78"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="78"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="78"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="78"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="78"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="75"/>
+      <c r="A33" s="78"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="75"/>
+      <c r="A34" s="78"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="75"/>
+      <c r="A35" s="78"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="77"/>
+      <c r="A36" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6317,217 +6293,215 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView zoomScale="68" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="42.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" customWidth="1"/>
-    <col min="8" max="8" width="30.109375" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1"/>
-    <col min="10" max="10" width="27.33203125" customWidth="1"/>
-    <col min="11" max="11" width="25" customWidth="1"/>
-    <col min="12" max="12" width="22.44140625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="42.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" customWidth="1"/>
+    <col min="7" max="7" width="30.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="22.44140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="46.8">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:12" ht="15.6">
+      <c r="A1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="L1" s="49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="207.75" customHeight="1">
+      <c r="A2" s="77"/>
+      <c r="B2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="24" t="s">
+      <c r="C2" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="207.75" customHeight="1">
-      <c r="A2" s="74"/>
-      <c r="B2" s="23" t="s">
+      <c r="F2" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="G2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="71" t="s">
+        <v>304</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="65" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="220.5" customHeight="1">
+      <c r="A3" s="78"/>
+      <c r="B3" s="108" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="220.5" customHeight="1">
-      <c r="A3" s="75"/>
-      <c r="B3" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="409.5" customHeight="1">
-      <c r="A4" s="75"/>
-    </row>
-    <row r="5" spans="1:13" ht="409.5" customHeight="1">
-      <c r="A5" s="75"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="75"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="75"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="75"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="75"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="75"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="75"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="75"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="75"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="75"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="75"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="75"/>
+      <c r="G3" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="71" t="s">
+        <v>305</v>
+      </c>
+      <c r="K3" s="42"/>
+      <c r="L3" s="109" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="409.5" customHeight="1">
+      <c r="A4" s="78"/>
+    </row>
+    <row r="5" spans="1:12" ht="409.5" customHeight="1">
+      <c r="A5" s="78"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="78"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="78"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="78"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="78"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="78"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="78"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="78"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="78"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="78"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="78"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="78"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="75"/>
+      <c r="A17" s="78"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="75"/>
+      <c r="A18" s="78"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="75"/>
+      <c r="A19" s="78"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="75"/>
+      <c r="A20" s="78"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="75"/>
+      <c r="A21" s="78"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="75"/>
+      <c r="A22" s="78"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="75"/>
+      <c r="A23" s="78"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="75"/>
+      <c r="A24" s="78"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="75"/>
+      <c r="A25" s="78"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="75"/>
+      <c r="A26" s="78"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="75"/>
+      <c r="A27" s="78"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="75"/>
+      <c r="A28" s="78"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="75"/>
+      <c r="A29" s="78"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="75"/>
+      <c r="A30" s="78"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="77"/>
+      <c r="A31" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6539,189 +6513,184 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" customWidth="1"/>
-    <col min="8" max="8" width="24.88671875" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" customWidth="1"/>
-    <col min="11" max="11" width="21.44140625" customWidth="1"/>
-    <col min="12" max="12" width="0.109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" customWidth="1"/>
+    <col min="11" max="11" width="0.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="46.8">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:12" ht="15.6">
+      <c r="A1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="L1" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="213" customHeight="1">
+      <c r="A2" s="77"/>
+      <c r="B2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="24" t="s">
+      <c r="C2" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="174.75" customHeight="1">
-      <c r="A2" s="74"/>
-      <c r="B2" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="75"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="75"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="75"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="75"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="75"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="75"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="75"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="75"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="75"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="75"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="75"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="75"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="75"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="75"/>
+      <c r="F2" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="71" t="s">
+        <v>303</v>
+      </c>
+      <c r="K2" s="21"/>
+      <c r="L2" s="107" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="78"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="78"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="78"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="78"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="78"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="78"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="78"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="78"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="78"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="78"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="78"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="78"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="78"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="78"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="75"/>
+      <c r="A17" s="78"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="75"/>
+      <c r="A18" s="78"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="75"/>
+      <c r="A19" s="78"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="75"/>
+      <c r="A20" s="78"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="75"/>
+      <c r="A21" s="78"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="75"/>
+      <c r="A22" s="78"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="75"/>
+      <c r="A23" s="78"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="75"/>
+      <c r="A24" s="78"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="75"/>
+      <c r="A25" s="78"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="75"/>
+      <c r="A26" s="78"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="75"/>
+      <c r="A27" s="78"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="75"/>
+      <c r="A28" s="78"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="75"/>
+      <c r="A29" s="78"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="75"/>
+      <c r="A30" s="78"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="77"/>
+      <c r="A31" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6733,327 +6702,315 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="17.88671875" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="25.88671875" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="29.5546875" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="46.8">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:11" ht="15.6">
+      <c r="A1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="61" t="s">
+      <c r="K1" s="49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="179.25" customHeight="1">
+      <c r="A2" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="61" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="179.25" customHeight="1">
-      <c r="A2" s="78" t="s">
+      <c r="E2" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="J2" s="102"/>
+      <c r="K2" s="104" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="148.5" customHeight="1">
+      <c r="A3" s="82"/>
+      <c r="B3" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="J3" s="102"/>
+      <c r="K3" s="104" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="195">
+      <c r="A4" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="71" t="s">
+        <v>297</v>
+      </c>
+      <c r="J4" s="102"/>
+      <c r="K4" s="104" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="255">
+      <c r="A5" s="82"/>
+      <c r="B5" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="C5" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="39" t="s">
+      <c r="D5" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="54" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="148.5" customHeight="1">
-      <c r="A3" s="79"/>
-      <c r="B3" s="40" t="s">
+      <c r="G5" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="71" t="s">
+        <v>298</v>
+      </c>
+      <c r="J5" s="103"/>
+      <c r="K5" s="105" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="180">
+      <c r="A6" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="B6" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="C6" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="71" t="s">
+        <v>300</v>
+      </c>
+      <c r="J6" s="102"/>
+      <c r="K6" s="104" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="135">
+      <c r="A7" s="82"/>
+      <c r="B7" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="J7" s="102"/>
+      <c r="K7" s="104" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="135">
+      <c r="A8" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="54" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="110.4">
-      <c r="A4" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="39" t="s">
+      <c r="I8" s="71" t="s">
+        <v>301</v>
+      </c>
+      <c r="J8" s="102"/>
+      <c r="K8" s="104" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="135">
+      <c r="A9" s="82"/>
+      <c r="B9" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="54" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="110.4">
-      <c r="A5" s="79"/>
-      <c r="B5" s="40" t="s">
+      <c r="C9" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="50"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="110.4">
-      <c r="A6" s="78" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="39" t="s">
+      <c r="D9" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="54" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="110.4">
-      <c r="A7" s="79"/>
-      <c r="B7" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="54" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="110.4">
-      <c r="A8" s="78" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" s="41"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="54" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="110.4">
-      <c r="A9" s="79"/>
-      <c r="B9" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" s="50"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36" t="s">
-        <v>291</v>
+      <c r="G9" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="71" t="s">
+        <v>302</v>
+      </c>
+      <c r="J9" s="103"/>
+      <c r="K9" s="105" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -7064,6 +7021,7 @@
     <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7071,8 +7029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -7090,984 +7048,984 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="47" t="s">
+      <c r="K1" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="204.75" customHeight="1">
+      <c r="A2" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="204.75" customHeight="1">
-      <c r="A2" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="111" t="s">
+      <c r="E2" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="71" t="s">
+        <v>288</v>
+      </c>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="239.25" customHeight="1">
+      <c r="A3" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="J3" s="68"/>
+      <c r="K3" s="69" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="239.25" customHeight="1">
+      <c r="A4" s="87"/>
+      <c r="B4" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="J4" s="68"/>
+      <c r="K4" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="239.25" customHeight="1">
+      <c r="A5" s="87"/>
+      <c r="B5" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="J5" s="44"/>
+      <c r="K5" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="221.25" customHeight="1">
+      <c r="A6" s="87"/>
+      <c r="B6" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="J6" s="44"/>
+      <c r="K6" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="221.25" customHeight="1">
+      <c r="A7" s="36"/>
+      <c r="B7" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="J7" s="44"/>
+      <c r="K7" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="221.25" customHeight="1">
+      <c r="A8" s="36"/>
+      <c r="B8" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="J8" s="44"/>
+      <c r="K8" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="221.25" customHeight="1">
+      <c r="A9" s="36"/>
+      <c r="B9" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="106" t="s">
+      <c r="D9" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="J9" s="44"/>
+      <c r="K9" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="221.25" customHeight="1">
+      <c r="A10" s="36"/>
+      <c r="B10" s="73" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="106" t="s">
+      <c r="D10" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="J10" s="44"/>
+      <c r="K10" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="221.25" customHeight="1">
+      <c r="A11" s="36"/>
+      <c r="B11" s="73" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="J11" s="44"/>
+      <c r="K11" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="221.25" customHeight="1">
+      <c r="A12" s="36"/>
+      <c r="B12" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="106" t="s">
+      <c r="D12" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="J12" s="44"/>
+      <c r="K12" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="233.25" customHeight="1">
+      <c r="A13" s="88" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="J13" s="68"/>
+      <c r="K13" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="207.75" customHeight="1">
+      <c r="A14" s="89"/>
+      <c r="B14" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="74" t="s">
         <v>154</v>
       </c>
-      <c r="G2" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="55" t="s">
+      <c r="D14" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="J14" s="68"/>
+      <c r="K14" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="207.75" customHeight="1">
+      <c r="A15" s="36"/>
+      <c r="B15" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="72" t="s">
+        <v>289</v>
+      </c>
+      <c r="J15" s="68"/>
+      <c r="K15" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="129.6">
+      <c r="A16" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="76" t="s">
+        <v>290</v>
+      </c>
+      <c r="J16" s="68"/>
+      <c r="K16" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="108" customHeight="1">
+      <c r="A17" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="I17" s="76" t="s">
+        <v>291</v>
+      </c>
+      <c r="J17" s="68"/>
+      <c r="K17" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="71.25" customHeight="1">
+      <c r="A18" s="93" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="I18" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="J18" s="68"/>
+      <c r="K18" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="90">
+      <c r="A19" s="94"/>
+      <c r="B19" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="109" t="s">
-        <v>300</v>
-      </c>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="239.25" customHeight="1">
-      <c r="A3" s="83" t="s">
+      <c r="D19" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="J19" s="68"/>
+      <c r="K19" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="90">
+      <c r="A20" s="94"/>
+      <c r="B20" s="73" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I20" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="J20" s="44"/>
+      <c r="K20" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="90">
+      <c r="A21" s="94"/>
+      <c r="B21" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="111" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="106" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="106" t="s">
+      <c r="D21" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="J21" s="44"/>
+      <c r="K21" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="90">
+      <c r="A22" s="94"/>
+      <c r="B22" s="73" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="J22" s="44"/>
+      <c r="K22" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="90">
+      <c r="A23" s="94"/>
+      <c r="B23" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="F23" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I23" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="J23" s="44"/>
+      <c r="K23" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="90">
+      <c r="A24" s="94"/>
+      <c r="B24" s="73" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I24" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="J24" s="44"/>
+      <c r="K24" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="90">
+      <c r="A25" s="94"/>
+      <c r="B25" s="73" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I25" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="J25" s="44"/>
+      <c r="K25" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="92.25" customHeight="1">
+      <c r="A26" s="94"/>
+      <c r="B26" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I26" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="J26" s="44"/>
+      <c r="K26" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="126" customHeight="1">
+      <c r="A27" s="95"/>
+      <c r="B27" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="106" t="s">
+      <c r="D27" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I27" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="J27" s="44"/>
+      <c r="K27" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="107.25" customHeight="1">
+      <c r="A28" s="90" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="G28" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="J28" s="68"/>
+      <c r="K28" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="147.75" customHeight="1">
+      <c r="A29" s="91"/>
+      <c r="B29" s="73" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="G3" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="I3" s="106" t="s">
+      <c r="G29" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="J29" s="68"/>
+      <c r="K29" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="90">
+      <c r="A30" s="92"/>
+      <c r="B30" s="73" t="s">
+        <v>292</v>
+      </c>
+      <c r="C30" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="G30" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="I30" s="72" t="s">
         <v>293</v>
       </c>
-      <c r="J3" s="106"/>
-      <c r="K3" s="107" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="239.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="111" t="s">
-        <v>172</v>
-      </c>
-      <c r="C4" s="106" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="106" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="106" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="I4" s="106" t="s">
-        <v>293</v>
-      </c>
-      <c r="J4" s="106"/>
-      <c r="K4" s="108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="239.25" customHeight="1">
-      <c r="A5" s="84"/>
-      <c r="B5" s="111" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" s="106" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="106" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="106" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="I5" s="106" t="s">
-        <v>293</v>
-      </c>
-      <c r="J5" s="55"/>
-      <c r="K5" s="108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="221.25" customHeight="1">
-      <c r="A6" s="84"/>
-      <c r="B6" s="111" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="106" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="106" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="106" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="I6" s="106" t="s">
-        <v>293</v>
-      </c>
-      <c r="J6" s="55"/>
-      <c r="K6" s="108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="221.25" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="111" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" s="106" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="106" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" s="106" t="s">
+      <c r="J30" s="68"/>
+      <c r="K30" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="129.6">
+      <c r="A31" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="73" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="G7" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="I7" s="106" t="s">
-        <v>293</v>
-      </c>
-      <c r="J7" s="55"/>
-      <c r="K7" s="108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="221.25" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="111" t="s">
+      <c r="G31" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="106" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="106" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="106" t="s">
-        <v>159</v>
-      </c>
-      <c r="G8" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="I8" s="106" t="s">
-        <v>293</v>
-      </c>
-      <c r="J8" s="55"/>
-      <c r="K8" s="108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="221.25" customHeight="1">
-      <c r="A9" s="45"/>
-      <c r="B9" s="111" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" s="106" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="106" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="106" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="I9" s="106" t="s">
-        <v>293</v>
-      </c>
-      <c r="J9" s="55"/>
-      <c r="K9" s="108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="221.25" customHeight="1">
-      <c r="A10" s="45"/>
-      <c r="B10" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="C10" s="106" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="106" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="106" t="s">
-        <v>161</v>
-      </c>
-      <c r="G10" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="I10" s="106" t="s">
-        <v>293</v>
-      </c>
-      <c r="J10" s="55"/>
-      <c r="K10" s="108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="221.25" customHeight="1">
-      <c r="A11" s="45"/>
-      <c r="B11" s="111" t="s">
-        <v>180</v>
-      </c>
-      <c r="C11" s="106" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="106" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="106" t="s">
-        <v>153</v>
-      </c>
-      <c r="G11" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="I11" s="106" t="s">
-        <v>293</v>
-      </c>
-      <c r="J11" s="55"/>
-      <c r="K11" s="108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="221.25" customHeight="1">
-      <c r="A12" s="45"/>
-      <c r="B12" s="111" t="s">
-        <v>181</v>
-      </c>
-      <c r="C12" s="106" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="106" t="s">
-        <v>162</v>
-      </c>
-      <c r="G12" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="I12" s="106" t="s">
-        <v>293</v>
-      </c>
-      <c r="J12" s="55"/>
-      <c r="K12" s="108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="233.25" customHeight="1">
-      <c r="A13" s="85" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="111" t="s">
-        <v>182</v>
-      </c>
-      <c r="C13" s="106" t="s">
-        <v>163</v>
-      </c>
-      <c r="D13" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="106" t="s">
-        <v>164</v>
-      </c>
-      <c r="G13" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="I13" s="106" t="s">
-        <v>293</v>
-      </c>
-      <c r="J13" s="106"/>
-      <c r="K13" s="108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="207.75" customHeight="1">
-      <c r="A14" s="86"/>
-      <c r="B14" s="111" t="s">
-        <v>183</v>
-      </c>
-      <c r="C14" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="106" t="s">
-        <v>166</v>
-      </c>
-      <c r="G14" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="I14" s="106" t="s">
-        <v>293</v>
-      </c>
-      <c r="J14" s="106"/>
-      <c r="K14" s="108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="207.75" customHeight="1">
-      <c r="A15" s="45"/>
-      <c r="B15" s="111" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="112" t="s">
-        <v>168</v>
-      </c>
-      <c r="D15" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="106" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" s="106" t="s">
-        <v>166</v>
-      </c>
-      <c r="G15" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="I15" s="110" t="s">
-        <v>301</v>
-      </c>
-      <c r="J15" s="106"/>
-      <c r="K15" s="108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="129.6">
-      <c r="A16" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="111" t="s">
-        <v>203</v>
-      </c>
-      <c r="C16" s="113" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="106" t="s">
-        <v>169</v>
-      </c>
-      <c r="G16" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="113" t="s">
-        <v>171</v>
-      </c>
-      <c r="I16" s="114" t="s">
-        <v>302</v>
-      </c>
-      <c r="J16" s="106"/>
-      <c r="K16" s="108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="108" customHeight="1">
-      <c r="A17" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="111" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" s="106" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="106" t="s">
-        <v>186</v>
-      </c>
-      <c r="F17" s="106" t="s">
-        <v>154</v>
-      </c>
-      <c r="G17" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="I17" s="114" t="s">
-        <v>303</v>
-      </c>
-      <c r="J17" s="106"/>
-      <c r="K17" s="108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="71.25" customHeight="1">
-      <c r="A18" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="111" t="s">
-        <v>190</v>
-      </c>
-      <c r="C18" s="106" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="106" t="s">
-        <v>186</v>
-      </c>
-      <c r="F18" s="106" t="s">
-        <v>155</v>
-      </c>
-      <c r="G18" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="I18" s="106" t="s">
-        <v>293</v>
-      </c>
-      <c r="J18" s="106"/>
-      <c r="K18" s="108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="90">
-      <c r="A19" s="91"/>
-      <c r="B19" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="C19" s="106" t="s">
-        <v>148</v>
-      </c>
-      <c r="D19" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="106" t="s">
-        <v>186</v>
-      </c>
-      <c r="F19" s="106" t="s">
-        <v>156</v>
-      </c>
-      <c r="G19" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="I19" s="106" t="s">
-        <v>293</v>
-      </c>
-      <c r="J19" s="106"/>
-      <c r="K19" s="108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="90">
-      <c r="A20" s="91"/>
-      <c r="B20" s="111" t="s">
-        <v>192</v>
-      </c>
-      <c r="C20" s="106" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="106" t="s">
-        <v>186</v>
-      </c>
-      <c r="F20" s="106" t="s">
-        <v>157</v>
-      </c>
-      <c r="G20" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="I20" s="106" t="s">
-        <v>293</v>
-      </c>
-      <c r="J20" s="55"/>
-      <c r="K20" s="108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="90">
-      <c r="A21" s="91"/>
-      <c r="B21" s="111" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="106" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="106" t="s">
-        <v>186</v>
-      </c>
-      <c r="F21" s="106" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="I21" s="106" t="s">
-        <v>293</v>
-      </c>
-      <c r="J21" s="55"/>
-      <c r="K21" s="108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="90">
-      <c r="A22" s="91"/>
-      <c r="B22" s="111" t="s">
-        <v>194</v>
-      </c>
-      <c r="C22" s="106" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="106" t="s">
-        <v>186</v>
-      </c>
-      <c r="F22" s="106" t="s">
-        <v>158</v>
-      </c>
-      <c r="G22" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="I22" s="106" t="s">
-        <v>293</v>
-      </c>
-      <c r="J22" s="55"/>
-      <c r="K22" s="108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="90">
-      <c r="A23" s="91"/>
-      <c r="B23" s="111" t="s">
-        <v>195</v>
-      </c>
-      <c r="C23" s="106" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="106" t="s">
-        <v>186</v>
-      </c>
-      <c r="F23" s="106" t="s">
-        <v>159</v>
-      </c>
-      <c r="G23" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="I23" s="106" t="s">
-        <v>293</v>
-      </c>
-      <c r="J23" s="55"/>
-      <c r="K23" s="108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="90">
-      <c r="A24" s="91"/>
-      <c r="B24" s="111" t="s">
-        <v>196</v>
-      </c>
-      <c r="C24" s="106" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="106" t="s">
-        <v>186</v>
-      </c>
-      <c r="F24" s="106" t="s">
-        <v>160</v>
-      </c>
-      <c r="G24" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="I24" s="106" t="s">
-        <v>293</v>
-      </c>
-      <c r="J24" s="55"/>
-      <c r="K24" s="108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="90">
-      <c r="A25" s="91"/>
-      <c r="B25" s="111" t="s">
-        <v>197</v>
-      </c>
-      <c r="C25" s="106" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="106" t="s">
-        <v>186</v>
-      </c>
-      <c r="F25" s="106" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="I25" s="106" t="s">
-        <v>293</v>
-      </c>
-      <c r="J25" s="55"/>
-      <c r="K25" s="108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="92.25" customHeight="1">
-      <c r="A26" s="91"/>
-      <c r="B26" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="C26" s="106" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="106" t="s">
-        <v>186</v>
-      </c>
-      <c r="F26" s="106" t="s">
-        <v>153</v>
-      </c>
-      <c r="G26" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="I26" s="106" t="s">
-        <v>293</v>
-      </c>
-      <c r="J26" s="55"/>
-      <c r="K26" s="108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="126" customHeight="1">
-      <c r="A27" s="92"/>
-      <c r="B27" s="111" t="s">
-        <v>199</v>
-      </c>
-      <c r="C27" s="106" t="s">
-        <v>147</v>
-      </c>
-      <c r="D27" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="106" t="s">
-        <v>162</v>
-      </c>
-      <c r="G27" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="I27" s="106" t="s">
-        <v>293</v>
-      </c>
-      <c r="J27" s="55"/>
-      <c r="K27" s="108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="107.25" customHeight="1">
-      <c r="A28" s="87" t="s">
-        <v>204</v>
-      </c>
-      <c r="B28" s="111" t="s">
-        <v>200</v>
-      </c>
-      <c r="C28" s="106" t="s">
-        <v>163</v>
-      </c>
-      <c r="D28" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="106" t="s">
-        <v>164</v>
-      </c>
-      <c r="G28" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="I28" s="106" t="s">
-        <v>293</v>
-      </c>
-      <c r="J28" s="106"/>
-      <c r="K28" s="108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="147.75" customHeight="1">
-      <c r="A29" s="88"/>
-      <c r="B29" s="111" t="s">
-        <v>201</v>
-      </c>
-      <c r="C29" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="106" t="s">
-        <v>166</v>
-      </c>
-      <c r="G29" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="I29" s="106" t="s">
-        <v>293</v>
-      </c>
-      <c r="J29" s="106"/>
-      <c r="K29" s="108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="90">
-      <c r="A30" s="89"/>
-      <c r="B30" s="111" t="s">
-        <v>304</v>
-      </c>
-      <c r="C30" s="112" t="s">
-        <v>168</v>
-      </c>
-      <c r="D30" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="106" t="s">
-        <v>186</v>
-      </c>
-      <c r="F30" s="106" t="s">
-        <v>166</v>
-      </c>
-      <c r="G30" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="I30" s="110" t="s">
-        <v>305</v>
-      </c>
-      <c r="J30" s="106"/>
-      <c r="K30" s="108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="129.6">
-      <c r="A31" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="111" t="s">
-        <v>202</v>
-      </c>
-      <c r="C31" s="112" t="s">
-        <v>189</v>
-      </c>
-      <c r="D31" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="106" t="s">
-        <v>169</v>
-      </c>
-      <c r="G31" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="112" t="s">
-        <v>188</v>
-      </c>
-      <c r="I31" s="114" t="s">
-        <v>306</v>
-      </c>
-      <c r="J31" s="106"/>
-      <c r="K31" s="108" t="s">
-        <v>291</v>
+      <c r="I31" s="76" t="s">
+        <v>294</v>
+      </c>
+      <c r="J31" s="68"/>
+      <c r="K31" s="70" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -8106,162 +8064,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="67" t="s">
+      <c r="K1" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="210" customHeight="1">
+      <c r="A2" s="96" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="67" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="210" customHeight="1">
-      <c r="A2" s="93" t="s">
+      <c r="E2" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="J2" s="43"/>
+      <c r="K2" s="65" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="210" customHeight="1">
+      <c r="A3" s="97"/>
+      <c r="B3" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="I3" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="J3" s="43"/>
+      <c r="K3" s="65"/>
+    </row>
+    <row r="4" spans="1:11" ht="184.5" customHeight="1">
+      <c r="A4" s="98" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="I4" s="32"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="66" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="143.25" customHeight="1">
+      <c r="A5" s="99"/>
+      <c r="B5" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="C5" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="64" t="s">
+      <c r="G5" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="I2" s="99" t="s">
-        <v>299</v>
-      </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="103" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="210" customHeight="1">
-      <c r="A3" s="94"/>
-      <c r="B3" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="64" t="s">
-        <v>217</v>
-      </c>
-      <c r="I3" s="99" t="s">
-        <v>299</v>
-      </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="103"/>
-    </row>
-    <row r="4" spans="1:11" ht="184.5" customHeight="1">
-      <c r="A4" s="95" t="s">
-        <v>212</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="64" t="s">
-        <v>211</v>
-      </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="104" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="143.25" customHeight="1">
-      <c r="A5" s="96"/>
-      <c r="B5" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="64" t="s">
-        <v>219</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>295</v>
-      </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="105" t="s">
-        <v>294</v>
+      <c r="I5" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="J5" s="42"/>
+      <c r="K5" s="67" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -8278,8 +8236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -8298,642 +8256,642 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="68" t="s">
+      <c r="K1" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="26"/>
+    </row>
+    <row r="2" spans="1:12" ht="124.2">
+      <c r="A2" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="30"/>
-    </row>
-    <row r="2" spans="1:12" ht="124.2">
-      <c r="A2" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="40" t="s">
+      <c r="E2" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>285</v>
+      </c>
+      <c r="J2" s="46"/>
+      <c r="K2" s="62" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="60">
+      <c r="A3" s="100" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="J3" s="46"/>
+      <c r="K3" s="62" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="55.2">
+      <c r="A4" s="101"/>
+      <c r="B4" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="G4" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="41" t="s">
+      <c r="I4" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="J4" s="46"/>
+      <c r="K4" s="62" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="110.4">
+      <c r="A5" s="101"/>
+      <c r="B5" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="F2" s="41" t="s">
-        <v>290</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="39" t="s">
+      <c r="C5" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="I2" s="72" t="s">
-        <v>297</v>
-      </c>
-      <c r="J2" s="57"/>
-      <c r="K2" s="100" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="60">
-      <c r="A3" s="97" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="40" t="s">
+      <c r="D5" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="G5" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="D3" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="41" t="s">
+      <c r="I5" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="J5" s="29"/>
+      <c r="K5" s="62" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="55.2">
+      <c r="A6" s="101"/>
+      <c r="B6" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="C6" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="G3" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="39" t="s">
+      <c r="D6" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="I3" s="73" t="s">
-        <v>298</v>
-      </c>
-      <c r="J3" s="57"/>
-      <c r="K3" s="100" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="55.2">
-      <c r="A4" s="98"/>
-      <c r="B4" s="40" t="s">
+      <c r="G6" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="J6" s="29"/>
+      <c r="K6" s="62" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="110.4">
+      <c r="A7" s="58"/>
+      <c r="B7" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C7" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="D4" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="F4" s="41" t="s">
+      <c r="D7" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="G4" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="39" t="s">
+      <c r="G7" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="J7" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="I4" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="100" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="110.4">
-      <c r="A5" s="98"/>
-      <c r="B5" s="40" t="s">
+      <c r="K7" s="62" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="55.2">
+      <c r="A8" s="58"/>
+      <c r="B8" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C8" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="F5" s="41" t="s">
+      <c r="D8" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="G5" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="39" t="s">
+      <c r="G8" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="62" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="110.4">
+      <c r="A9" s="58"/>
+      <c r="B9" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="I5" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="100" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="55.2">
-      <c r="A6" s="98"/>
-      <c r="B6" s="40" t="s">
+      <c r="C9" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="D9" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F9" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="D6" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="F6" s="41" t="s">
+      <c r="G9" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="J9" s="29"/>
+      <c r="K9" s="62" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="55.2">
+      <c r="A10" s="58"/>
+      <c r="B10" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="G6" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="I6" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="100" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="110.4">
-      <c r="A7" s="71"/>
-      <c r="B7" s="40" t="s">
+      <c r="C10" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="D10" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="D7" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="F7" s="41" t="s">
+      <c r="G10" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="J10" s="29"/>
+      <c r="K10" s="62" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="82.8">
+      <c r="A11" s="58"/>
+      <c r="B11" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="G7" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="I7" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="J7" s="70" t="s">
+      <c r="C11" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="K7" s="100" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="55.2">
-      <c r="A8" s="71"/>
-      <c r="B8" s="40" t="s">
+      <c r="D11" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="F11" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="D8" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="F8" s="41" t="s">
+      <c r="G11" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="J11" s="29"/>
+      <c r="K11" s="62" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="96.6">
+      <c r="A12" s="58"/>
+      <c r="B12" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="G8" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="I8" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="100" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="110.4">
-      <c r="A9" s="71"/>
-      <c r="B9" s="40" t="s">
+      <c r="C12" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="D12" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="D9" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="F9" s="41" t="s">
+      <c r="F12" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="G9" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="I9" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="100" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="55.2">
-      <c r="A10" s="71"/>
-      <c r="B10" s="40" t="s">
+      <c r="G12" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="I12" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="62" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="96.6">
+      <c r="A13" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="D10" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="F10" s="41" t="s">
+      <c r="C13" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="G10" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="I10" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="100" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="82.8">
-      <c r="A11" s="71"/>
-      <c r="B11" s="40" t="s">
+      <c r="D13" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="F13" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="G13" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="J13" s="46"/>
+      <c r="K13" s="62" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="110.4">
+      <c r="A14" s="101"/>
+      <c r="B14" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="D11" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="41" t="s">
+      <c r="C14" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="D14" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="G11" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="I11" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="100" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="96.6">
-      <c r="A12" s="71"/>
-      <c r="B12" s="40" t="s">
+      <c r="F14" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="G14" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="J14" s="46"/>
+      <c r="K14" s="62" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="55.2">
+      <c r="A15" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="D12" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="41" t="s">
+      <c r="C15" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="D15" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F15" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="G12" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="39" t="s">
+      <c r="G15" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="J15" s="46"/>
+      <c r="K15" s="62" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="69">
+      <c r="A16" s="101"/>
+      <c r="B16" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="I12" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="100" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="96.6">
-      <c r="A13" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="40" t="s">
+      <c r="C16" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="D16" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F16" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="D13" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="F13" s="41" t="s">
+      <c r="G16" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="J16" s="29"/>
+      <c r="K16" s="62" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="128.4">
+      <c r="A17" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="G13" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="I13" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="J13" s="57"/>
-      <c r="K13" s="100" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="110.4">
-      <c r="A14" s="98"/>
-      <c r="B14" s="40" t="s">
+      <c r="C17" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="D17" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="D14" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="41" t="s">
+      <c r="G17" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="J17" s="46"/>
+      <c r="K17" s="63" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="55.2">
+      <c r="A18" s="58"/>
+      <c r="B18" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="C18" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="G14" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="I14" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="J14" s="57"/>
-      <c r="K14" s="100" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="55.2">
-      <c r="A15" s="98" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="40" t="s">
+      <c r="D18" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="G18" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="J18" s="46"/>
+      <c r="K18" s="63" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="69">
+      <c r="A19" s="58"/>
+      <c r="B19" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="D15" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="F15" s="41" t="s">
+      <c r="C19" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="G15" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="I15" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="J15" s="57"/>
-      <c r="K15" s="100" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="69">
-      <c r="A16" s="98"/>
-      <c r="B16" s="40" t="s">
+      <c r="D19" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F19" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="G19" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="J19" s="46"/>
+      <c r="K19" s="63" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="82.8">
+      <c r="A20" s="58"/>
+      <c r="B20" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="D16" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="F16" s="41" t="s">
+      <c r="C20" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="G16" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="I16" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="100" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="128.4">
-      <c r="A17" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="40" t="s">
+      <c r="D20" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="G20" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="J20" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="D17" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="G17" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="I17" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="J17" s="57"/>
-      <c r="K17" s="101" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="55.2">
-      <c r="A18" s="71"/>
-      <c r="B18" s="40" t="s">
+      <c r="K20" s="64" t="s">
         <v>280</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="G18" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="I18" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="J18" s="57"/>
-      <c r="K18" s="101" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="69">
-      <c r="A19" s="71"/>
-      <c r="B19" s="40" t="s">
-        <v>283</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="F19" s="41" t="s">
-        <v>285</v>
-      </c>
-      <c r="G19" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="I19" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="J19" s="57"/>
-      <c r="K19" s="101" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="82.8">
-      <c r="A20" s="71"/>
-      <c r="B20" s="40" t="s">
-        <v>286</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="F20" s="41" t="s">
-        <v>288</v>
-      </c>
-      <c r="G20" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="I20" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="J20" s="70" t="s">
-        <v>289</v>
-      </c>
-      <c r="K20" s="102" t="s">
-        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/5- Testing/Test Cases.xlsx
+++ b/5- Testing/Test Cases.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="347">
   <si>
     <t>Assigned To</t>
   </si>
@@ -1340,6 +1340,114 @@
   </si>
   <si>
     <t>Features</t>
+  </si>
+  <si>
+    <t>TC_User_Reserve_001</t>
+  </si>
+  <si>
+    <t>TC_User_Reserve_002</t>
+  </si>
+  <si>
+    <t>Verify that a user can successfully reserve a car by clicking the "Reserve" button on the home page.</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>The user is on the home page and there are available cars.</t>
+  </si>
+  <si>
+    <t>1-User navigates to the home page.
+2-User selects a car.
+3-User clicks on the "Reserve" button below the selected car.
+4-User confirms the reservation by clicking the "Proceed with $1000 deposit" button.</t>
+  </si>
+  <si>
+    <t>A pop-up message appears with the text "Are you sure you want to proceed with a $1000 deposit?"</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>A pop-up message appeared with the text "Are you sure you want to proceed with a $1000 deposit?"</t>
+  </si>
+  <si>
+    <t>Verify that a user can cancel the reservation process and receive a confirmation message.</t>
+  </si>
+  <si>
+    <t>The user is on the reservation confirmation pop-up message.</t>
+  </si>
+  <si>
+    <t>User navigates to the home page.
+User selects a car.
+User clicks on the "Reserve" button below the selected car.
+User cancels the reservation by clicking the "Cancel" button.</t>
+  </si>
+  <si>
+    <t>A message appears "The reservation was cancelled successfully".</t>
+  </si>
+  <si>
+    <t>The user cancelled the reservation successfully</t>
+  </si>
+  <si>
+    <t>Add Car</t>
+  </si>
+  <si>
+    <t>Delete Car</t>
+  </si>
+  <si>
+    <t>View Car</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Reseve</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Regs</t>
+  </si>
+  <si>
+    <t>30 mins</t>
+  </si>
+  <si>
+    <t>5 mins</t>
+  </si>
+  <si>
+    <t>15 mins</t>
+  </si>
+  <si>
+    <t>10 mins</t>
+  </si>
+  <si>
+    <t>35 mins</t>
+  </si>
+  <si>
+    <t>2 mins</t>
+  </si>
+  <si>
+    <t>120 mins</t>
+  </si>
+  <si>
+    <t>90 mins</t>
+  </si>
+  <si>
+    <t>60 mins</t>
+  </si>
+  <si>
+    <t>Percenatge of passed test cases</t>
+  </si>
+  <si>
+    <t>Percenatge of failed test cases</t>
   </si>
 </sst>
 </file>
@@ -1571,7 +1679,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1666,6 +1774,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF6AA84F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF6AA84F"/>
       </patternFill>
     </fill>
   </fills>
@@ -1933,7 +2053,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1960,15 +2080,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1976,9 +2087,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2160,6 +2268,39 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -2230,38 +2371,26 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2482,10 +2611,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE996"/>
+  <dimension ref="A1:AE991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -2500,7 +2629,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="33.75" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="82" t="s">
         <v>312</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2555,3150 +2684,3277 @@
       <c r="AE1" s="8"/>
     </row>
     <row r="2" spans="1:31" ht="26.25" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="112" t="s">
+      <c r="A2" s="83" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="C2" s="83" t="s">
+        <v>336</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" s="110" t="s">
+        <v>334</v>
+      </c>
+      <c r="F2" s="9">
+        <v>14</v>
+      </c>
+      <c r="G2" s="9">
+        <v>14</v>
+      </c>
+      <c r="H2" s="9">
+        <v>13</v>
+      </c>
+      <c r="I2" s="9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" spans="1:31" ht="26.25" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="A3" s="83" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>337</v>
+      </c>
+      <c r="E3" s="110" t="s">
+        <v>334</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+      <c r="H3" s="9">
+        <v>2</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:31" ht="26.25" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="A4" s="83" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>341</v>
+      </c>
+      <c r="E4" s="110" t="s">
+        <v>334</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:31" ht="26.25" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="A5" s="83" t="s">
+        <v>330</v>
+      </c>
+      <c r="B5" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>338</v>
+      </c>
+      <c r="E5" s="110" t="s">
+        <v>334</v>
+      </c>
+      <c r="F5" s="9">
+        <v>8</v>
+      </c>
+      <c r="G5" s="9">
+        <v>8</v>
+      </c>
+      <c r="H5" s="9">
+        <v>8</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:31" ht="26.25" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="A6" s="83" t="s">
+        <v>331</v>
+      </c>
+      <c r="B6" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>342</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>343</v>
+      </c>
+      <c r="E6" s="110" t="s">
+        <v>334</v>
+      </c>
+      <c r="F6" s="9">
+        <v>30</v>
+      </c>
+      <c r="G6" s="9">
+        <v>30</v>
+      </c>
+      <c r="H6" s="9">
+        <v>30</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:31" ht="26.25" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="A7" s="83" t="s">
+        <v>332</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>339</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>339</v>
+      </c>
+      <c r="E7" s="110" t="s">
+        <v>334</v>
+      </c>
+      <c r="F7" s="9">
+        <v>4</v>
+      </c>
+      <c r="G7" s="9">
+        <v>4</v>
+      </c>
+      <c r="H7" s="9">
+        <v>3</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:31" ht="26.25" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="A8" s="83" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>344</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>344</v>
+      </c>
+      <c r="E8" s="110" t="s">
+        <v>334</v>
+      </c>
+      <c r="F8" s="9">
+        <v>19</v>
+      </c>
+      <c r="G8" s="9">
+        <v>19</v>
+      </c>
+      <c r="H8" s="9">
+        <v>19</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:31" ht="26.25" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="A9" s="83" t="s">
+        <v>333</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>337</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>341</v>
+      </c>
+      <c r="E9" s="110" t="s">
+        <v>334</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="9">
+        <v>2</v>
+      </c>
+      <c r="H9" s="9">
+        <v>2</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:31" ht="26.25" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" spans="1:31" ht="26.25" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" spans="1:31" ht="26.25" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="1:31" ht="26.25" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:31" ht="26.25" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:31" ht="26.25" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="E15" s="14" t="s">
+      <c r="A10" s="10"/>
+      <c r="E10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="15">
-        <f t="shared" ref="F15:J15" si="0">SUM(F2:F14)</f>
+      <c r="F10" s="111">
+        <f>SUM(F2:F9)</f>
+        <v>80</v>
+      </c>
+      <c r="G10" s="12">
+        <f>SUM(G2:G9)</f>
+        <v>80</v>
+      </c>
+      <c r="H10" s="12">
+        <f>SUM(H2:H9)</f>
+        <v>78</v>
+      </c>
+      <c r="I10" s="12">
+        <f>SUM(I2:I9)</f>
+        <v>2</v>
+      </c>
+      <c r="J10" s="13">
+        <f>SUM(J2:J9)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="16">
-        <f t="shared" si="0"/>
+      <c r="K10" s="14">
+        <f t="shared" ref="K10" si="0">(G10/F10)*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="61.2" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="E11" s="112" t="s">
+        <v>346</v>
+      </c>
+      <c r="F11" s="115">
+        <f>(H10/G10)*100</f>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="74.400000000000006" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="E12" s="113" t="s">
+        <v>345</v>
+      </c>
+      <c r="F12" s="69">
+        <f>(I10/G10)*100</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="82.2" customHeight="1">
+      <c r="E13" s="114" t="s">
+        <v>345</v>
+      </c>
+      <c r="F13" s="69">
+        <f>(J10/G10)*100</f>
         <v>0</v>
       </c>
-      <c r="H15" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="18" t="e">
-        <f t="shared" ref="K15" si="1">(G15/F15)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="26.25" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:6" ht="13.2">
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:6" ht="13.2">
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="1:6" ht="13.2">
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="1:6" ht="13.2">
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:6" ht="13.2">
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="1:6" ht="13.2">
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="1:6" ht="13.2">
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="1:6" ht="13.2">
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="1:6" ht="13.2">
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" spans="1:6" ht="13.2">
-      <c r="F27" s="19"/>
-    </row>
-    <row r="28" spans="1:6" ht="13.2">
-      <c r="F28" s="19"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.2">
-      <c r="F29" s="19"/>
-    </row>
-    <row r="30" spans="1:6" ht="13.2">
-      <c r="F30" s="19"/>
-    </row>
-    <row r="31" spans="1:6" ht="13.2">
-      <c r="F31" s="19"/>
-    </row>
-    <row r="32" spans="1:6" ht="13.2">
-      <c r="F32" s="19"/>
+    </row>
+    <row r="14" spans="1:31" ht="13.2">
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:31" ht="13.2">
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:31" ht="13.2">
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="6:6" ht="13.2">
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="6:6" ht="13.2">
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="6:6" ht="13.2">
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="6:6" ht="13.2">
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="6:6" ht="13.2">
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="6:6" ht="13.2">
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="6:6" ht="13.2">
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="6:6" ht="13.2">
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="6:6" ht="13.2">
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="6:6" ht="13.2">
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="6:6" ht="13.2">
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="6:6" ht="13.2">
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="6:6" ht="13.2">
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="6:6" ht="13.2">
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="6:6" ht="13.2">
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="6:6" ht="13.2">
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="6:6" ht="13.2">
-      <c r="F33" s="19"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="6:6" ht="13.2">
-      <c r="F34" s="19"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="6:6" ht="13.2">
-      <c r="F35" s="19"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="6:6" ht="13.2">
-      <c r="F36" s="19"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="6:6" ht="13.2">
-      <c r="F37" s="19"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" spans="6:6" ht="13.2">
-      <c r="F38" s="19"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="6:6" ht="13.2">
-      <c r="F39" s="19"/>
+      <c r="F39" s="15"/>
     </row>
     <row r="40" spans="6:6" ht="13.2">
-      <c r="F40" s="19"/>
+      <c r="F40" s="15"/>
     </row>
     <row r="41" spans="6:6" ht="13.2">
-      <c r="F41" s="19"/>
+      <c r="F41" s="15"/>
     </row>
     <row r="42" spans="6:6" ht="13.2">
-      <c r="F42" s="19"/>
+      <c r="F42" s="15"/>
     </row>
     <row r="43" spans="6:6" ht="13.2">
-      <c r="F43" s="19"/>
+      <c r="F43" s="15"/>
     </row>
     <row r="44" spans="6:6" ht="13.2">
-      <c r="F44" s="19"/>
+      <c r="F44" s="15"/>
     </row>
     <row r="45" spans="6:6" ht="13.2">
-      <c r="F45" s="19"/>
+      <c r="F45" s="15"/>
     </row>
     <row r="46" spans="6:6" ht="13.2">
-      <c r="F46" s="19"/>
+      <c r="F46" s="15"/>
     </row>
     <row r="47" spans="6:6" ht="13.2">
-      <c r="F47" s="19"/>
+      <c r="F47" s="15"/>
     </row>
     <row r="48" spans="6:6" ht="13.2">
-      <c r="F48" s="19"/>
+      <c r="F48" s="15"/>
     </row>
     <row r="49" spans="6:6" ht="13.2">
-      <c r="F49" s="19"/>
+      <c r="F49" s="15"/>
     </row>
     <row r="50" spans="6:6" ht="13.2">
-      <c r="F50" s="19"/>
+      <c r="F50" s="15"/>
     </row>
     <row r="51" spans="6:6" ht="13.2">
-      <c r="F51" s="19"/>
+      <c r="F51" s="15"/>
     </row>
     <row r="52" spans="6:6" ht="13.2">
-      <c r="F52" s="19"/>
+      <c r="F52" s="15"/>
     </row>
     <row r="53" spans="6:6" ht="13.2">
-      <c r="F53" s="19"/>
+      <c r="F53" s="15"/>
     </row>
     <row r="54" spans="6:6" ht="13.2">
-      <c r="F54" s="19"/>
+      <c r="F54" s="15"/>
     </row>
     <row r="55" spans="6:6" ht="13.2">
-      <c r="F55" s="19"/>
+      <c r="F55" s="15"/>
     </row>
     <row r="56" spans="6:6" ht="13.2">
-      <c r="F56" s="19"/>
+      <c r="F56" s="15"/>
     </row>
     <row r="57" spans="6:6" ht="13.2">
-      <c r="F57" s="19"/>
+      <c r="F57" s="15"/>
     </row>
     <row r="58" spans="6:6" ht="13.2">
-      <c r="F58" s="19"/>
+      <c r="F58" s="15"/>
     </row>
     <row r="59" spans="6:6" ht="13.2">
-      <c r="F59" s="19"/>
+      <c r="F59" s="15"/>
     </row>
     <row r="60" spans="6:6" ht="13.2">
-      <c r="F60" s="19"/>
+      <c r="F60" s="15"/>
     </row>
     <row r="61" spans="6:6" ht="13.2">
-      <c r="F61" s="19"/>
+      <c r="F61" s="15"/>
     </row>
     <row r="62" spans="6:6" ht="13.2">
-      <c r="F62" s="19"/>
+      <c r="F62" s="15"/>
     </row>
     <row r="63" spans="6:6" ht="13.2">
-      <c r="F63" s="19"/>
+      <c r="F63" s="15"/>
     </row>
     <row r="64" spans="6:6" ht="13.2">
-      <c r="F64" s="19"/>
+      <c r="F64" s="15"/>
     </row>
     <row r="65" spans="6:6" ht="13.2">
-      <c r="F65" s="19"/>
+      <c r="F65" s="15"/>
     </row>
     <row r="66" spans="6:6" ht="13.2">
-      <c r="F66" s="19"/>
+      <c r="F66" s="15"/>
     </row>
     <row r="67" spans="6:6" ht="13.2">
-      <c r="F67" s="19"/>
+      <c r="F67" s="15"/>
     </row>
     <row r="68" spans="6:6" ht="13.2">
-      <c r="F68" s="19"/>
+      <c r="F68" s="15"/>
     </row>
     <row r="69" spans="6:6" ht="13.2">
-      <c r="F69" s="19"/>
+      <c r="F69" s="15"/>
     </row>
     <row r="70" spans="6:6" ht="13.2">
-      <c r="F70" s="19"/>
+      <c r="F70" s="15"/>
     </row>
     <row r="71" spans="6:6" ht="13.2">
-      <c r="F71" s="19"/>
+      <c r="F71" s="15"/>
     </row>
     <row r="72" spans="6:6" ht="13.2">
-      <c r="F72" s="19"/>
+      <c r="F72" s="15"/>
     </row>
     <row r="73" spans="6:6" ht="13.2">
-      <c r="F73" s="19"/>
+      <c r="F73" s="15"/>
     </row>
     <row r="74" spans="6:6" ht="13.2">
-      <c r="F74" s="19"/>
+      <c r="F74" s="15"/>
     </row>
     <row r="75" spans="6:6" ht="13.2">
-      <c r="F75" s="19"/>
+      <c r="F75" s="15"/>
     </row>
     <row r="76" spans="6:6" ht="13.2">
-      <c r="F76" s="19"/>
+      <c r="F76" s="15"/>
     </row>
     <row r="77" spans="6:6" ht="13.2">
-      <c r="F77" s="19"/>
+      <c r="F77" s="15"/>
     </row>
     <row r="78" spans="6:6" ht="13.2">
-      <c r="F78" s="19"/>
+      <c r="F78" s="15"/>
     </row>
     <row r="79" spans="6:6" ht="13.2">
-      <c r="F79" s="19"/>
+      <c r="F79" s="15"/>
     </row>
     <row r="80" spans="6:6" ht="13.2">
-      <c r="F80" s="19"/>
+      <c r="F80" s="15"/>
     </row>
     <row r="81" spans="6:6" ht="13.2">
-      <c r="F81" s="19"/>
+      <c r="F81" s="15"/>
     </row>
     <row r="82" spans="6:6" ht="13.2">
-      <c r="F82" s="19"/>
+      <c r="F82" s="15"/>
     </row>
     <row r="83" spans="6:6" ht="13.2">
-      <c r="F83" s="19"/>
+      <c r="F83" s="15"/>
     </row>
     <row r="84" spans="6:6" ht="13.2">
-      <c r="F84" s="19"/>
+      <c r="F84" s="15"/>
     </row>
     <row r="85" spans="6:6" ht="13.2">
-      <c r="F85" s="19"/>
+      <c r="F85" s="15"/>
     </row>
     <row r="86" spans="6:6" ht="13.2">
-      <c r="F86" s="19"/>
+      <c r="F86" s="15"/>
     </row>
     <row r="87" spans="6:6" ht="13.2">
-      <c r="F87" s="19"/>
+      <c r="F87" s="15"/>
     </row>
     <row r="88" spans="6:6" ht="13.2">
-      <c r="F88" s="19"/>
+      <c r="F88" s="15"/>
     </row>
     <row r="89" spans="6:6" ht="13.2">
-      <c r="F89" s="19"/>
+      <c r="F89" s="15"/>
     </row>
     <row r="90" spans="6:6" ht="13.2">
-      <c r="F90" s="19"/>
+      <c r="F90" s="15"/>
     </row>
     <row r="91" spans="6:6" ht="13.2">
-      <c r="F91" s="19"/>
+      <c r="F91" s="15"/>
     </row>
     <row r="92" spans="6:6" ht="13.2">
-      <c r="F92" s="19"/>
+      <c r="F92" s="15"/>
     </row>
     <row r="93" spans="6:6" ht="13.2">
-      <c r="F93" s="19"/>
+      <c r="F93" s="15"/>
     </row>
     <row r="94" spans="6:6" ht="13.2">
-      <c r="F94" s="19"/>
+      <c r="F94" s="15"/>
     </row>
     <row r="95" spans="6:6" ht="13.2">
-      <c r="F95" s="19"/>
+      <c r="F95" s="15"/>
     </row>
     <row r="96" spans="6:6" ht="13.2">
-      <c r="F96" s="19"/>
+      <c r="F96" s="15"/>
     </row>
     <row r="97" spans="6:6" ht="13.2">
-      <c r="F97" s="19"/>
+      <c r="F97" s="15"/>
     </row>
     <row r="98" spans="6:6" ht="13.2">
-      <c r="F98" s="19"/>
+      <c r="F98" s="15"/>
     </row>
     <row r="99" spans="6:6" ht="13.2">
-      <c r="F99" s="19"/>
+      <c r="F99" s="15"/>
     </row>
     <row r="100" spans="6:6" ht="13.2">
-      <c r="F100" s="19"/>
+      <c r="F100" s="15"/>
     </row>
     <row r="101" spans="6:6" ht="13.2">
-      <c r="F101" s="19"/>
+      <c r="F101" s="15"/>
     </row>
     <row r="102" spans="6:6" ht="13.2">
-      <c r="F102" s="19"/>
+      <c r="F102" s="15"/>
     </row>
     <row r="103" spans="6:6" ht="13.2">
-      <c r="F103" s="19"/>
+      <c r="F103" s="15"/>
     </row>
     <row r="104" spans="6:6" ht="13.2">
-      <c r="F104" s="19"/>
+      <c r="F104" s="15"/>
     </row>
     <row r="105" spans="6:6" ht="13.2">
-      <c r="F105" s="19"/>
+      <c r="F105" s="15"/>
     </row>
     <row r="106" spans="6:6" ht="13.2">
-      <c r="F106" s="19"/>
+      <c r="F106" s="15"/>
     </row>
     <row r="107" spans="6:6" ht="13.2">
-      <c r="F107" s="19"/>
+      <c r="F107" s="15"/>
     </row>
     <row r="108" spans="6:6" ht="13.2">
-      <c r="F108" s="19"/>
+      <c r="F108" s="15"/>
     </row>
     <row r="109" spans="6:6" ht="13.2">
-      <c r="F109" s="19"/>
+      <c r="F109" s="15"/>
     </row>
     <row r="110" spans="6:6" ht="13.2">
-      <c r="F110" s="19"/>
+      <c r="F110" s="15"/>
     </row>
     <row r="111" spans="6:6" ht="13.2">
-      <c r="F111" s="19"/>
+      <c r="F111" s="15"/>
     </row>
     <row r="112" spans="6:6" ht="13.2">
-      <c r="F112" s="19"/>
+      <c r="F112" s="15"/>
     </row>
     <row r="113" spans="6:6" ht="13.2">
-      <c r="F113" s="19"/>
+      <c r="F113" s="15"/>
     </row>
     <row r="114" spans="6:6" ht="13.2">
-      <c r="F114" s="19"/>
+      <c r="F114" s="15"/>
     </row>
     <row r="115" spans="6:6" ht="13.2">
-      <c r="F115" s="19"/>
+      <c r="F115" s="15"/>
     </row>
     <row r="116" spans="6:6" ht="13.2">
-      <c r="F116" s="19"/>
+      <c r="F116" s="15"/>
     </row>
     <row r="117" spans="6:6" ht="13.2">
-      <c r="F117" s="19"/>
+      <c r="F117" s="15"/>
     </row>
     <row r="118" spans="6:6" ht="13.2">
-      <c r="F118" s="19"/>
+      <c r="F118" s="15"/>
     </row>
     <row r="119" spans="6:6" ht="13.2">
-      <c r="F119" s="19"/>
+      <c r="F119" s="15"/>
     </row>
     <row r="120" spans="6:6" ht="13.2">
-      <c r="F120" s="19"/>
+      <c r="F120" s="15"/>
     </row>
     <row r="121" spans="6:6" ht="13.2">
-      <c r="F121" s="19"/>
+      <c r="F121" s="15"/>
     </row>
     <row r="122" spans="6:6" ht="13.2">
-      <c r="F122" s="19"/>
+      <c r="F122" s="15"/>
     </row>
     <row r="123" spans="6:6" ht="13.2">
-      <c r="F123" s="19"/>
+      <c r="F123" s="15"/>
     </row>
     <row r="124" spans="6:6" ht="13.2">
-      <c r="F124" s="19"/>
+      <c r="F124" s="15"/>
     </row>
     <row r="125" spans="6:6" ht="13.2">
-      <c r="F125" s="19"/>
+      <c r="F125" s="15"/>
     </row>
     <row r="126" spans="6:6" ht="13.2">
-      <c r="F126" s="19"/>
+      <c r="F126" s="15"/>
     </row>
     <row r="127" spans="6:6" ht="13.2">
-      <c r="F127" s="19"/>
+      <c r="F127" s="15"/>
     </row>
     <row r="128" spans="6:6" ht="13.2">
-      <c r="F128" s="19"/>
+      <c r="F128" s="15"/>
     </row>
     <row r="129" spans="6:6" ht="13.2">
-      <c r="F129" s="19"/>
+      <c r="F129" s="15"/>
     </row>
     <row r="130" spans="6:6" ht="13.2">
-      <c r="F130" s="19"/>
+      <c r="F130" s="15"/>
     </row>
     <row r="131" spans="6:6" ht="13.2">
-      <c r="F131" s="19"/>
+      <c r="F131" s="15"/>
     </row>
     <row r="132" spans="6:6" ht="13.2">
-      <c r="F132" s="19"/>
+      <c r="F132" s="15"/>
     </row>
     <row r="133" spans="6:6" ht="13.2">
-      <c r="F133" s="19"/>
+      <c r="F133" s="15"/>
     </row>
     <row r="134" spans="6:6" ht="13.2">
-      <c r="F134" s="19"/>
+      <c r="F134" s="15"/>
     </row>
     <row r="135" spans="6:6" ht="13.2">
-      <c r="F135" s="19"/>
+      <c r="F135" s="15"/>
     </row>
     <row r="136" spans="6:6" ht="13.2">
-      <c r="F136" s="19"/>
+      <c r="F136" s="15"/>
     </row>
     <row r="137" spans="6:6" ht="13.2">
-      <c r="F137" s="19"/>
+      <c r="F137" s="15"/>
     </row>
     <row r="138" spans="6:6" ht="13.2">
-      <c r="F138" s="19"/>
+      <c r="F138" s="15"/>
     </row>
     <row r="139" spans="6:6" ht="13.2">
-      <c r="F139" s="19"/>
+      <c r="F139" s="15"/>
     </row>
     <row r="140" spans="6:6" ht="13.2">
-      <c r="F140" s="19"/>
+      <c r="F140" s="15"/>
     </row>
     <row r="141" spans="6:6" ht="13.2">
-      <c r="F141" s="19"/>
+      <c r="F141" s="15"/>
     </row>
     <row r="142" spans="6:6" ht="13.2">
-      <c r="F142" s="19"/>
+      <c r="F142" s="15"/>
     </row>
     <row r="143" spans="6:6" ht="13.2">
-      <c r="F143" s="19"/>
+      <c r="F143" s="15"/>
     </row>
     <row r="144" spans="6:6" ht="13.2">
-      <c r="F144" s="19"/>
+      <c r="F144" s="15"/>
     </row>
     <row r="145" spans="6:6" ht="13.2">
-      <c r="F145" s="19"/>
+      <c r="F145" s="15"/>
     </row>
     <row r="146" spans="6:6" ht="13.2">
-      <c r="F146" s="19"/>
+      <c r="F146" s="15"/>
     </row>
     <row r="147" spans="6:6" ht="13.2">
-      <c r="F147" s="19"/>
+      <c r="F147" s="15"/>
     </row>
     <row r="148" spans="6:6" ht="13.2">
-      <c r="F148" s="19"/>
+      <c r="F148" s="15"/>
     </row>
     <row r="149" spans="6:6" ht="13.2">
-      <c r="F149" s="19"/>
+      <c r="F149" s="15"/>
     </row>
     <row r="150" spans="6:6" ht="13.2">
-      <c r="F150" s="19"/>
+      <c r="F150" s="15"/>
     </row>
     <row r="151" spans="6:6" ht="13.2">
-      <c r="F151" s="19"/>
+      <c r="F151" s="15"/>
     </row>
     <row r="152" spans="6:6" ht="13.2">
-      <c r="F152" s="19"/>
+      <c r="F152" s="15"/>
     </row>
     <row r="153" spans="6:6" ht="13.2">
-      <c r="F153" s="19"/>
+      <c r="F153" s="15"/>
     </row>
     <row r="154" spans="6:6" ht="13.2">
-      <c r="F154" s="19"/>
+      <c r="F154" s="15"/>
     </row>
     <row r="155" spans="6:6" ht="13.2">
-      <c r="F155" s="19"/>
+      <c r="F155" s="15"/>
     </row>
     <row r="156" spans="6:6" ht="13.2">
-      <c r="F156" s="19"/>
+      <c r="F156" s="15"/>
     </row>
     <row r="157" spans="6:6" ht="13.2">
-      <c r="F157" s="19"/>
+      <c r="F157" s="15"/>
     </row>
     <row r="158" spans="6:6" ht="13.2">
-      <c r="F158" s="19"/>
+      <c r="F158" s="15"/>
     </row>
     <row r="159" spans="6:6" ht="13.2">
-      <c r="F159" s="19"/>
+      <c r="F159" s="15"/>
     </row>
     <row r="160" spans="6:6" ht="13.2">
-      <c r="F160" s="19"/>
+      <c r="F160" s="15"/>
     </row>
     <row r="161" spans="6:6" ht="13.2">
-      <c r="F161" s="19"/>
+      <c r="F161" s="15"/>
     </row>
     <row r="162" spans="6:6" ht="13.2">
-      <c r="F162" s="19"/>
+      <c r="F162" s="15"/>
     </row>
     <row r="163" spans="6:6" ht="13.2">
-      <c r="F163" s="19"/>
+      <c r="F163" s="15"/>
     </row>
     <row r="164" spans="6:6" ht="13.2">
-      <c r="F164" s="19"/>
+      <c r="F164" s="15"/>
     </row>
     <row r="165" spans="6:6" ht="13.2">
-      <c r="F165" s="19"/>
+      <c r="F165" s="15"/>
     </row>
     <row r="166" spans="6:6" ht="13.2">
-      <c r="F166" s="19"/>
+      <c r="F166" s="15"/>
     </row>
     <row r="167" spans="6:6" ht="13.2">
-      <c r="F167" s="19"/>
+      <c r="F167" s="15"/>
     </row>
     <row r="168" spans="6:6" ht="13.2">
-      <c r="F168" s="19"/>
+      <c r="F168" s="15"/>
     </row>
     <row r="169" spans="6:6" ht="13.2">
-      <c r="F169" s="19"/>
+      <c r="F169" s="15"/>
     </row>
     <row r="170" spans="6:6" ht="13.2">
-      <c r="F170" s="19"/>
+      <c r="F170" s="15"/>
     </row>
     <row r="171" spans="6:6" ht="13.2">
-      <c r="F171" s="19"/>
+      <c r="F171" s="15"/>
     </row>
     <row r="172" spans="6:6" ht="13.2">
-      <c r="F172" s="19"/>
+      <c r="F172" s="15"/>
     </row>
     <row r="173" spans="6:6" ht="13.2">
-      <c r="F173" s="19"/>
+      <c r="F173" s="15"/>
     </row>
     <row r="174" spans="6:6" ht="13.2">
-      <c r="F174" s="19"/>
+      <c r="F174" s="15"/>
     </row>
     <row r="175" spans="6:6" ht="13.2">
-      <c r="F175" s="19"/>
+      <c r="F175" s="15"/>
     </row>
     <row r="176" spans="6:6" ht="13.2">
-      <c r="F176" s="19"/>
+      <c r="F176" s="15"/>
     </row>
     <row r="177" spans="6:6" ht="13.2">
-      <c r="F177" s="19"/>
+      <c r="F177" s="15"/>
     </row>
     <row r="178" spans="6:6" ht="13.2">
-      <c r="F178" s="19"/>
+      <c r="F178" s="15"/>
     </row>
     <row r="179" spans="6:6" ht="13.2">
-      <c r="F179" s="19"/>
+      <c r="F179" s="15"/>
     </row>
     <row r="180" spans="6:6" ht="13.2">
-      <c r="F180" s="19"/>
+      <c r="F180" s="15"/>
     </row>
     <row r="181" spans="6:6" ht="13.2">
-      <c r="F181" s="19"/>
+      <c r="F181" s="15"/>
     </row>
     <row r="182" spans="6:6" ht="13.2">
-      <c r="F182" s="19"/>
+      <c r="F182" s="15"/>
     </row>
     <row r="183" spans="6:6" ht="13.2">
-      <c r="F183" s="19"/>
+      <c r="F183" s="15"/>
     </row>
     <row r="184" spans="6:6" ht="13.2">
-      <c r="F184" s="19"/>
+      <c r="F184" s="15"/>
     </row>
     <row r="185" spans="6:6" ht="13.2">
-      <c r="F185" s="19"/>
+      <c r="F185" s="15"/>
     </row>
     <row r="186" spans="6:6" ht="13.2">
-      <c r="F186" s="19"/>
+      <c r="F186" s="15"/>
     </row>
     <row r="187" spans="6:6" ht="13.2">
-      <c r="F187" s="19"/>
+      <c r="F187" s="15"/>
     </row>
     <row r="188" spans="6:6" ht="13.2">
-      <c r="F188" s="19"/>
+      <c r="F188" s="15"/>
     </row>
     <row r="189" spans="6:6" ht="13.2">
-      <c r="F189" s="19"/>
+      <c r="F189" s="15"/>
     </row>
     <row r="190" spans="6:6" ht="13.2">
-      <c r="F190" s="19"/>
+      <c r="F190" s="15"/>
     </row>
     <row r="191" spans="6:6" ht="13.2">
-      <c r="F191" s="19"/>
+      <c r="F191" s="15"/>
     </row>
     <row r="192" spans="6:6" ht="13.2">
-      <c r="F192" s="19"/>
+      <c r="F192" s="15"/>
     </row>
     <row r="193" spans="6:6" ht="13.2">
-      <c r="F193" s="19"/>
+      <c r="F193" s="15"/>
     </row>
     <row r="194" spans="6:6" ht="13.2">
-      <c r="F194" s="19"/>
+      <c r="F194" s="15"/>
     </row>
     <row r="195" spans="6:6" ht="13.2">
-      <c r="F195" s="19"/>
+      <c r="F195" s="15"/>
     </row>
     <row r="196" spans="6:6" ht="13.2">
-      <c r="F196" s="19"/>
+      <c r="F196" s="15"/>
     </row>
     <row r="197" spans="6:6" ht="13.2">
-      <c r="F197" s="19"/>
+      <c r="F197" s="15"/>
     </row>
     <row r="198" spans="6:6" ht="13.2">
-      <c r="F198" s="19"/>
+      <c r="F198" s="15"/>
     </row>
     <row r="199" spans="6:6" ht="13.2">
-      <c r="F199" s="19"/>
+      <c r="F199" s="15"/>
     </row>
     <row r="200" spans="6:6" ht="13.2">
-      <c r="F200" s="19"/>
+      <c r="F200" s="15"/>
     </row>
     <row r="201" spans="6:6" ht="13.2">
-      <c r="F201" s="19"/>
+      <c r="F201" s="15"/>
     </row>
     <row r="202" spans="6:6" ht="13.2">
-      <c r="F202" s="19"/>
+      <c r="F202" s="15"/>
     </row>
     <row r="203" spans="6:6" ht="13.2">
-      <c r="F203" s="19"/>
+      <c r="F203" s="15"/>
     </row>
     <row r="204" spans="6:6" ht="13.2">
-      <c r="F204" s="19"/>
+      <c r="F204" s="15"/>
     </row>
     <row r="205" spans="6:6" ht="13.2">
-      <c r="F205" s="19"/>
+      <c r="F205" s="15"/>
     </row>
     <row r="206" spans="6:6" ht="13.2">
-      <c r="F206" s="19"/>
+      <c r="F206" s="15"/>
     </row>
     <row r="207" spans="6:6" ht="13.2">
-      <c r="F207" s="19"/>
+      <c r="F207" s="15"/>
     </row>
     <row r="208" spans="6:6" ht="13.2">
-      <c r="F208" s="19"/>
+      <c r="F208" s="15"/>
     </row>
     <row r="209" spans="6:6" ht="13.2">
-      <c r="F209" s="19"/>
+      <c r="F209" s="15"/>
     </row>
     <row r="210" spans="6:6" ht="13.2">
-      <c r="F210" s="19"/>
+      <c r="F210" s="15"/>
     </row>
     <row r="211" spans="6:6" ht="13.2">
-      <c r="F211" s="19"/>
+      <c r="F211" s="15"/>
     </row>
     <row r="212" spans="6:6" ht="13.2">
-      <c r="F212" s="19"/>
+      <c r="F212" s="15"/>
     </row>
     <row r="213" spans="6:6" ht="13.2">
-      <c r="F213" s="19"/>
+      <c r="F213" s="15"/>
     </row>
     <row r="214" spans="6:6" ht="13.2">
-      <c r="F214" s="19"/>
+      <c r="F214" s="15"/>
     </row>
     <row r="215" spans="6:6" ht="13.2">
-      <c r="F215" s="19"/>
+      <c r="F215" s="15"/>
     </row>
     <row r="216" spans="6:6" ht="13.2">
-      <c r="F216" s="19"/>
+      <c r="F216" s="15"/>
     </row>
     <row r="217" spans="6:6" ht="13.2">
-      <c r="F217" s="19"/>
+      <c r="F217" s="15"/>
     </row>
     <row r="218" spans="6:6" ht="13.2">
-      <c r="F218" s="19"/>
+      <c r="F218" s="15"/>
     </row>
     <row r="219" spans="6:6" ht="13.2">
-      <c r="F219" s="19"/>
+      <c r="F219" s="15"/>
     </row>
     <row r="220" spans="6:6" ht="13.2">
-      <c r="F220" s="19"/>
+      <c r="F220" s="15"/>
     </row>
     <row r="221" spans="6:6" ht="13.2">
-      <c r="F221" s="19"/>
+      <c r="F221" s="15"/>
     </row>
     <row r="222" spans="6:6" ht="13.2">
-      <c r="F222" s="19"/>
+      <c r="F222" s="15"/>
     </row>
     <row r="223" spans="6:6" ht="13.2">
-      <c r="F223" s="19"/>
+      <c r="F223" s="15"/>
     </row>
     <row r="224" spans="6:6" ht="13.2">
-      <c r="F224" s="19"/>
+      <c r="F224" s="15"/>
     </row>
     <row r="225" spans="6:6" ht="13.2">
-      <c r="F225" s="19"/>
+      <c r="F225" s="15"/>
     </row>
     <row r="226" spans="6:6" ht="13.2">
-      <c r="F226" s="19"/>
+      <c r="F226" s="15"/>
     </row>
     <row r="227" spans="6:6" ht="13.2">
-      <c r="F227" s="19"/>
+      <c r="F227" s="15"/>
     </row>
     <row r="228" spans="6:6" ht="13.2">
-      <c r="F228" s="19"/>
+      <c r="F228" s="15"/>
     </row>
     <row r="229" spans="6:6" ht="13.2">
-      <c r="F229" s="19"/>
+      <c r="F229" s="15"/>
     </row>
     <row r="230" spans="6:6" ht="13.2">
-      <c r="F230" s="19"/>
+      <c r="F230" s="15"/>
     </row>
     <row r="231" spans="6:6" ht="13.2">
-      <c r="F231" s="19"/>
+      <c r="F231" s="15"/>
     </row>
     <row r="232" spans="6:6" ht="13.2">
-      <c r="F232" s="19"/>
+      <c r="F232" s="15"/>
     </row>
     <row r="233" spans="6:6" ht="13.2">
-      <c r="F233" s="19"/>
+      <c r="F233" s="15"/>
     </row>
     <row r="234" spans="6:6" ht="13.2">
-      <c r="F234" s="19"/>
+      <c r="F234" s="15"/>
     </row>
     <row r="235" spans="6:6" ht="13.2">
-      <c r="F235" s="19"/>
+      <c r="F235" s="15"/>
     </row>
     <row r="236" spans="6:6" ht="13.2">
-      <c r="F236" s="19"/>
+      <c r="F236" s="15"/>
     </row>
     <row r="237" spans="6:6" ht="13.2">
-      <c r="F237" s="19"/>
+      <c r="F237" s="15"/>
     </row>
     <row r="238" spans="6:6" ht="13.2">
-      <c r="F238" s="19"/>
+      <c r="F238" s="15"/>
     </row>
     <row r="239" spans="6:6" ht="13.2">
-      <c r="F239" s="19"/>
+      <c r="F239" s="15"/>
     </row>
     <row r="240" spans="6:6" ht="13.2">
-      <c r="F240" s="19"/>
+      <c r="F240" s="15"/>
     </row>
     <row r="241" spans="6:6" ht="13.2">
-      <c r="F241" s="19"/>
+      <c r="F241" s="15"/>
     </row>
     <row r="242" spans="6:6" ht="13.2">
-      <c r="F242" s="19"/>
+      <c r="F242" s="15"/>
     </row>
     <row r="243" spans="6:6" ht="13.2">
-      <c r="F243" s="19"/>
+      <c r="F243" s="15"/>
     </row>
     <row r="244" spans="6:6" ht="13.2">
-      <c r="F244" s="19"/>
+      <c r="F244" s="15"/>
     </row>
     <row r="245" spans="6:6" ht="13.2">
-      <c r="F245" s="19"/>
+      <c r="F245" s="15"/>
     </row>
     <row r="246" spans="6:6" ht="13.2">
-      <c r="F246" s="19"/>
+      <c r="F246" s="15"/>
     </row>
     <row r="247" spans="6:6" ht="13.2">
-      <c r="F247" s="19"/>
+      <c r="F247" s="15"/>
     </row>
     <row r="248" spans="6:6" ht="13.2">
-      <c r="F248" s="19"/>
+      <c r="F248" s="15"/>
     </row>
     <row r="249" spans="6:6" ht="13.2">
-      <c r="F249" s="19"/>
+      <c r="F249" s="15"/>
     </row>
     <row r="250" spans="6:6" ht="13.2">
-      <c r="F250" s="19"/>
+      <c r="F250" s="15"/>
     </row>
     <row r="251" spans="6:6" ht="13.2">
-      <c r="F251" s="19"/>
+      <c r="F251" s="15"/>
     </row>
     <row r="252" spans="6:6" ht="13.2">
-      <c r="F252" s="19"/>
+      <c r="F252" s="15"/>
     </row>
     <row r="253" spans="6:6" ht="13.2">
-      <c r="F253" s="19"/>
+      <c r="F253" s="15"/>
     </row>
     <row r="254" spans="6:6" ht="13.2">
-      <c r="F254" s="19"/>
+      <c r="F254" s="15"/>
     </row>
     <row r="255" spans="6:6" ht="13.2">
-      <c r="F255" s="19"/>
+      <c r="F255" s="15"/>
     </row>
     <row r="256" spans="6:6" ht="13.2">
-      <c r="F256" s="19"/>
+      <c r="F256" s="15"/>
     </row>
     <row r="257" spans="6:6" ht="13.2">
-      <c r="F257" s="19"/>
+      <c r="F257" s="15"/>
     </row>
     <row r="258" spans="6:6" ht="13.2">
-      <c r="F258" s="19"/>
+      <c r="F258" s="15"/>
     </row>
     <row r="259" spans="6:6" ht="13.2">
-      <c r="F259" s="19"/>
+      <c r="F259" s="15"/>
     </row>
     <row r="260" spans="6:6" ht="13.2">
-      <c r="F260" s="19"/>
+      <c r="F260" s="15"/>
     </row>
     <row r="261" spans="6:6" ht="13.2">
-      <c r="F261" s="19"/>
+      <c r="F261" s="15"/>
     </row>
     <row r="262" spans="6:6" ht="13.2">
-      <c r="F262" s="19"/>
+      <c r="F262" s="15"/>
     </row>
     <row r="263" spans="6:6" ht="13.2">
-      <c r="F263" s="19"/>
+      <c r="F263" s="15"/>
     </row>
     <row r="264" spans="6:6" ht="13.2">
-      <c r="F264" s="19"/>
+      <c r="F264" s="15"/>
     </row>
     <row r="265" spans="6:6" ht="13.2">
-      <c r="F265" s="19"/>
+      <c r="F265" s="15"/>
     </row>
     <row r="266" spans="6:6" ht="13.2">
-      <c r="F266" s="19"/>
+      <c r="F266" s="15"/>
     </row>
     <row r="267" spans="6:6" ht="13.2">
-      <c r="F267" s="19"/>
+      <c r="F267" s="15"/>
     </row>
     <row r="268" spans="6:6" ht="13.2">
-      <c r="F268" s="19"/>
+      <c r="F268" s="15"/>
     </row>
     <row r="269" spans="6:6" ht="13.2">
-      <c r="F269" s="19"/>
+      <c r="F269" s="15"/>
     </row>
     <row r="270" spans="6:6" ht="13.2">
-      <c r="F270" s="19"/>
+      <c r="F270" s="15"/>
     </row>
     <row r="271" spans="6:6" ht="13.2">
-      <c r="F271" s="19"/>
+      <c r="F271" s="15"/>
     </row>
     <row r="272" spans="6:6" ht="13.2">
-      <c r="F272" s="19"/>
+      <c r="F272" s="15"/>
     </row>
     <row r="273" spans="6:6" ht="13.2">
-      <c r="F273" s="19"/>
+      <c r="F273" s="15"/>
     </row>
     <row r="274" spans="6:6" ht="13.2">
-      <c r="F274" s="19"/>
+      <c r="F274" s="15"/>
     </row>
     <row r="275" spans="6:6" ht="13.2">
-      <c r="F275" s="19"/>
+      <c r="F275" s="15"/>
     </row>
     <row r="276" spans="6:6" ht="13.2">
-      <c r="F276" s="19"/>
+      <c r="F276" s="15"/>
     </row>
     <row r="277" spans="6:6" ht="13.2">
-      <c r="F277" s="19"/>
+      <c r="F277" s="15"/>
     </row>
     <row r="278" spans="6:6" ht="13.2">
-      <c r="F278" s="19"/>
+      <c r="F278" s="15"/>
     </row>
     <row r="279" spans="6:6" ht="13.2">
-      <c r="F279" s="19"/>
+      <c r="F279" s="15"/>
     </row>
     <row r="280" spans="6:6" ht="13.2">
-      <c r="F280" s="19"/>
+      <c r="F280" s="15"/>
     </row>
     <row r="281" spans="6:6" ht="13.2">
-      <c r="F281" s="19"/>
+      <c r="F281" s="15"/>
     </row>
     <row r="282" spans="6:6" ht="13.2">
-      <c r="F282" s="19"/>
+      <c r="F282" s="15"/>
     </row>
     <row r="283" spans="6:6" ht="13.2">
-      <c r="F283" s="19"/>
+      <c r="F283" s="15"/>
     </row>
     <row r="284" spans="6:6" ht="13.2">
-      <c r="F284" s="19"/>
+      <c r="F284" s="15"/>
     </row>
     <row r="285" spans="6:6" ht="13.2">
-      <c r="F285" s="19"/>
+      <c r="F285" s="15"/>
     </row>
     <row r="286" spans="6:6" ht="13.2">
-      <c r="F286" s="19"/>
+      <c r="F286" s="15"/>
     </row>
     <row r="287" spans="6:6" ht="13.2">
-      <c r="F287" s="19"/>
+      <c r="F287" s="15"/>
     </row>
     <row r="288" spans="6:6" ht="13.2">
-      <c r="F288" s="19"/>
+      <c r="F288" s="15"/>
     </row>
     <row r="289" spans="6:6" ht="13.2">
-      <c r="F289" s="19"/>
+      <c r="F289" s="15"/>
     </row>
     <row r="290" spans="6:6" ht="13.2">
-      <c r="F290" s="19"/>
+      <c r="F290" s="15"/>
     </row>
     <row r="291" spans="6:6" ht="13.2">
-      <c r="F291" s="19"/>
+      <c r="F291" s="15"/>
     </row>
     <row r="292" spans="6:6" ht="13.2">
-      <c r="F292" s="19"/>
+      <c r="F292" s="15"/>
     </row>
     <row r="293" spans="6:6" ht="13.2">
-      <c r="F293" s="19"/>
+      <c r="F293" s="15"/>
     </row>
     <row r="294" spans="6:6" ht="13.2">
-      <c r="F294" s="19"/>
+      <c r="F294" s="15"/>
     </row>
     <row r="295" spans="6:6" ht="13.2">
-      <c r="F295" s="19"/>
+      <c r="F295" s="15"/>
     </row>
     <row r="296" spans="6:6" ht="13.2">
-      <c r="F296" s="19"/>
+      <c r="F296" s="15"/>
     </row>
     <row r="297" spans="6:6" ht="13.2">
-      <c r="F297" s="19"/>
+      <c r="F297" s="15"/>
     </row>
     <row r="298" spans="6:6" ht="13.2">
-      <c r="F298" s="19"/>
+      <c r="F298" s="15"/>
     </row>
     <row r="299" spans="6:6" ht="13.2">
-      <c r="F299" s="19"/>
+      <c r="F299" s="15"/>
     </row>
     <row r="300" spans="6:6" ht="13.2">
-      <c r="F300" s="19"/>
+      <c r="F300" s="15"/>
     </row>
     <row r="301" spans="6:6" ht="13.2">
-      <c r="F301" s="19"/>
+      <c r="F301" s="15"/>
     </row>
     <row r="302" spans="6:6" ht="13.2">
-      <c r="F302" s="19"/>
+      <c r="F302" s="15"/>
     </row>
     <row r="303" spans="6:6" ht="13.2">
-      <c r="F303" s="19"/>
+      <c r="F303" s="15"/>
     </row>
     <row r="304" spans="6:6" ht="13.2">
-      <c r="F304" s="19"/>
+      <c r="F304" s="15"/>
     </row>
     <row r="305" spans="6:6" ht="13.2">
-      <c r="F305" s="19"/>
+      <c r="F305" s="15"/>
     </row>
     <row r="306" spans="6:6" ht="13.2">
-      <c r="F306" s="19"/>
+      <c r="F306" s="15"/>
     </row>
     <row r="307" spans="6:6" ht="13.2">
-      <c r="F307" s="19"/>
+      <c r="F307" s="15"/>
     </row>
     <row r="308" spans="6:6" ht="13.2">
-      <c r="F308" s="19"/>
+      <c r="F308" s="15"/>
     </row>
     <row r="309" spans="6:6" ht="13.2">
-      <c r="F309" s="19"/>
+      <c r="F309" s="15"/>
     </row>
     <row r="310" spans="6:6" ht="13.2">
-      <c r="F310" s="19"/>
+      <c r="F310" s="15"/>
     </row>
     <row r="311" spans="6:6" ht="13.2">
-      <c r="F311" s="19"/>
+      <c r="F311" s="15"/>
     </row>
     <row r="312" spans="6:6" ht="13.2">
-      <c r="F312" s="19"/>
+      <c r="F312" s="15"/>
     </row>
     <row r="313" spans="6:6" ht="13.2">
-      <c r="F313" s="19"/>
+      <c r="F313" s="15"/>
     </row>
     <row r="314" spans="6:6" ht="13.2">
-      <c r="F314" s="19"/>
+      <c r="F314" s="15"/>
     </row>
     <row r="315" spans="6:6" ht="13.2">
-      <c r="F315" s="19"/>
+      <c r="F315" s="15"/>
     </row>
     <row r="316" spans="6:6" ht="13.2">
-      <c r="F316" s="19"/>
+      <c r="F316" s="15"/>
     </row>
     <row r="317" spans="6:6" ht="13.2">
-      <c r="F317" s="19"/>
+      <c r="F317" s="15"/>
     </row>
     <row r="318" spans="6:6" ht="13.2">
-      <c r="F318" s="19"/>
+      <c r="F318" s="15"/>
     </row>
     <row r="319" spans="6:6" ht="13.2">
-      <c r="F319" s="19"/>
+      <c r="F319" s="15"/>
     </row>
     <row r="320" spans="6:6" ht="13.2">
-      <c r="F320" s="19"/>
+      <c r="F320" s="15"/>
     </row>
     <row r="321" spans="6:6" ht="13.2">
-      <c r="F321" s="19"/>
+      <c r="F321" s="15"/>
     </row>
     <row r="322" spans="6:6" ht="13.2">
-      <c r="F322" s="19"/>
+      <c r="F322" s="15"/>
     </row>
     <row r="323" spans="6:6" ht="13.2">
-      <c r="F323" s="19"/>
+      <c r="F323" s="15"/>
     </row>
     <row r="324" spans="6:6" ht="13.2">
-      <c r="F324" s="19"/>
+      <c r="F324" s="15"/>
     </row>
     <row r="325" spans="6:6" ht="13.2">
-      <c r="F325" s="19"/>
+      <c r="F325" s="15"/>
     </row>
     <row r="326" spans="6:6" ht="13.2">
-      <c r="F326" s="19"/>
+      <c r="F326" s="15"/>
     </row>
     <row r="327" spans="6:6" ht="13.2">
-      <c r="F327" s="19"/>
+      <c r="F327" s="15"/>
     </row>
     <row r="328" spans="6:6" ht="13.2">
-      <c r="F328" s="19"/>
+      <c r="F328" s="15"/>
     </row>
     <row r="329" spans="6:6" ht="13.2">
-      <c r="F329" s="19"/>
+      <c r="F329" s="15"/>
     </row>
     <row r="330" spans="6:6" ht="13.2">
-      <c r="F330" s="19"/>
+      <c r="F330" s="15"/>
     </row>
     <row r="331" spans="6:6" ht="13.2">
-      <c r="F331" s="19"/>
+      <c r="F331" s="15"/>
     </row>
     <row r="332" spans="6:6" ht="13.2">
-      <c r="F332" s="19"/>
+      <c r="F332" s="15"/>
     </row>
     <row r="333" spans="6:6" ht="13.2">
-      <c r="F333" s="19"/>
+      <c r="F333" s="15"/>
     </row>
     <row r="334" spans="6:6" ht="13.2">
-      <c r="F334" s="19"/>
+      <c r="F334" s="15"/>
     </row>
     <row r="335" spans="6:6" ht="13.2">
-      <c r="F335" s="19"/>
+      <c r="F335" s="15"/>
     </row>
     <row r="336" spans="6:6" ht="13.2">
-      <c r="F336" s="19"/>
+      <c r="F336" s="15"/>
     </row>
     <row r="337" spans="6:6" ht="13.2">
-      <c r="F337" s="19"/>
+      <c r="F337" s="15"/>
     </row>
     <row r="338" spans="6:6" ht="13.2">
-      <c r="F338" s="19"/>
+      <c r="F338" s="15"/>
     </row>
     <row r="339" spans="6:6" ht="13.2">
-      <c r="F339" s="19"/>
+      <c r="F339" s="15"/>
     </row>
     <row r="340" spans="6:6" ht="13.2">
-      <c r="F340" s="19"/>
+      <c r="F340" s="15"/>
     </row>
     <row r="341" spans="6:6" ht="13.2">
-      <c r="F341" s="19"/>
+      <c r="F341" s="15"/>
     </row>
     <row r="342" spans="6:6" ht="13.2">
-      <c r="F342" s="19"/>
+      <c r="F342" s="15"/>
     </row>
     <row r="343" spans="6:6" ht="13.2">
-      <c r="F343" s="19"/>
+      <c r="F343" s="15"/>
     </row>
     <row r="344" spans="6:6" ht="13.2">
-      <c r="F344" s="19"/>
+      <c r="F344" s="15"/>
     </row>
     <row r="345" spans="6:6" ht="13.2">
-      <c r="F345" s="19"/>
+      <c r="F345" s="15"/>
     </row>
     <row r="346" spans="6:6" ht="13.2">
-      <c r="F346" s="19"/>
+      <c r="F346" s="15"/>
     </row>
     <row r="347" spans="6:6" ht="13.2">
-      <c r="F347" s="19"/>
+      <c r="F347" s="15"/>
     </row>
     <row r="348" spans="6:6" ht="13.2">
-      <c r="F348" s="19"/>
+      <c r="F348" s="15"/>
     </row>
     <row r="349" spans="6:6" ht="13.2">
-      <c r="F349" s="19"/>
+      <c r="F349" s="15"/>
     </row>
     <row r="350" spans="6:6" ht="13.2">
-      <c r="F350" s="19"/>
+      <c r="F350" s="15"/>
     </row>
     <row r="351" spans="6:6" ht="13.2">
-      <c r="F351" s="19"/>
+      <c r="F351" s="15"/>
     </row>
     <row r="352" spans="6:6" ht="13.2">
-      <c r="F352" s="19"/>
+      <c r="F352" s="15"/>
     </row>
     <row r="353" spans="6:6" ht="13.2">
-      <c r="F353" s="19"/>
+      <c r="F353" s="15"/>
     </row>
     <row r="354" spans="6:6" ht="13.2">
-      <c r="F354" s="19"/>
+      <c r="F354" s="15"/>
     </row>
     <row r="355" spans="6:6" ht="13.2">
-      <c r="F355" s="19"/>
+      <c r="F355" s="15"/>
     </row>
     <row r="356" spans="6:6" ht="13.2">
-      <c r="F356" s="19"/>
+      <c r="F356" s="15"/>
     </row>
     <row r="357" spans="6:6" ht="13.2">
-      <c r="F357" s="19"/>
+      <c r="F357" s="15"/>
     </row>
     <row r="358" spans="6:6" ht="13.2">
-      <c r="F358" s="19"/>
+      <c r="F358" s="15"/>
     </row>
     <row r="359" spans="6:6" ht="13.2">
-      <c r="F359" s="19"/>
+      <c r="F359" s="15"/>
     </row>
     <row r="360" spans="6:6" ht="13.2">
-      <c r="F360" s="19"/>
+      <c r="F360" s="15"/>
     </row>
     <row r="361" spans="6:6" ht="13.2">
-      <c r="F361" s="19"/>
+      <c r="F361" s="15"/>
     </row>
     <row r="362" spans="6:6" ht="13.2">
-      <c r="F362" s="19"/>
+      <c r="F362" s="15"/>
     </row>
     <row r="363" spans="6:6" ht="13.2">
-      <c r="F363" s="19"/>
+      <c r="F363" s="15"/>
     </row>
     <row r="364" spans="6:6" ht="13.2">
-      <c r="F364" s="19"/>
+      <c r="F364" s="15"/>
     </row>
     <row r="365" spans="6:6" ht="13.2">
-      <c r="F365" s="19"/>
+      <c r="F365" s="15"/>
     </row>
     <row r="366" spans="6:6" ht="13.2">
-      <c r="F366" s="19"/>
+      <c r="F366" s="15"/>
     </row>
     <row r="367" spans="6:6" ht="13.2">
-      <c r="F367" s="19"/>
+      <c r="F367" s="15"/>
     </row>
     <row r="368" spans="6:6" ht="13.2">
-      <c r="F368" s="19"/>
+      <c r="F368" s="15"/>
     </row>
     <row r="369" spans="6:6" ht="13.2">
-      <c r="F369" s="19"/>
+      <c r="F369" s="15"/>
     </row>
     <row r="370" spans="6:6" ht="13.2">
-      <c r="F370" s="19"/>
+      <c r="F370" s="15"/>
     </row>
     <row r="371" spans="6:6" ht="13.2">
-      <c r="F371" s="19"/>
+      <c r="F371" s="15"/>
     </row>
     <row r="372" spans="6:6" ht="13.2">
-      <c r="F372" s="19"/>
+      <c r="F372" s="15"/>
     </row>
     <row r="373" spans="6:6" ht="13.2">
-      <c r="F373" s="19"/>
+      <c r="F373" s="15"/>
     </row>
     <row r="374" spans="6:6" ht="13.2">
-      <c r="F374" s="19"/>
+      <c r="F374" s="15"/>
     </row>
     <row r="375" spans="6:6" ht="13.2">
-      <c r="F375" s="19"/>
+      <c r="F375" s="15"/>
     </row>
     <row r="376" spans="6:6" ht="13.2">
-      <c r="F376" s="19"/>
+      <c r="F376" s="15"/>
     </row>
     <row r="377" spans="6:6" ht="13.2">
-      <c r="F377" s="19"/>
+      <c r="F377" s="15"/>
     </row>
     <row r="378" spans="6:6" ht="13.2">
-      <c r="F378" s="19"/>
+      <c r="F378" s="15"/>
     </row>
     <row r="379" spans="6:6" ht="13.2">
-      <c r="F379" s="19"/>
+      <c r="F379" s="15"/>
     </row>
     <row r="380" spans="6:6" ht="13.2">
-      <c r="F380" s="19"/>
+      <c r="F380" s="15"/>
     </row>
     <row r="381" spans="6:6" ht="13.2">
-      <c r="F381" s="19"/>
+      <c r="F381" s="15"/>
     </row>
     <row r="382" spans="6:6" ht="13.2">
-      <c r="F382" s="19"/>
+      <c r="F382" s="15"/>
     </row>
     <row r="383" spans="6:6" ht="13.2">
-      <c r="F383" s="19"/>
+      <c r="F383" s="15"/>
     </row>
     <row r="384" spans="6:6" ht="13.2">
-      <c r="F384" s="19"/>
+      <c r="F384" s="15"/>
     </row>
     <row r="385" spans="6:6" ht="13.2">
-      <c r="F385" s="19"/>
+      <c r="F385" s="15"/>
     </row>
     <row r="386" spans="6:6" ht="13.2">
-      <c r="F386" s="19"/>
+      <c r="F386" s="15"/>
     </row>
     <row r="387" spans="6:6" ht="13.2">
-      <c r="F387" s="19"/>
+      <c r="F387" s="15"/>
     </row>
     <row r="388" spans="6:6" ht="13.2">
-      <c r="F388" s="19"/>
+      <c r="F388" s="15"/>
     </row>
     <row r="389" spans="6:6" ht="13.2">
-      <c r="F389" s="19"/>
+      <c r="F389" s="15"/>
     </row>
     <row r="390" spans="6:6" ht="13.2">
-      <c r="F390" s="19"/>
+      <c r="F390" s="15"/>
     </row>
     <row r="391" spans="6:6" ht="13.2">
-      <c r="F391" s="19"/>
+      <c r="F391" s="15"/>
     </row>
     <row r="392" spans="6:6" ht="13.2">
-      <c r="F392" s="19"/>
+      <c r="F392" s="15"/>
     </row>
     <row r="393" spans="6:6" ht="13.2">
-      <c r="F393" s="19"/>
+      <c r="F393" s="15"/>
     </row>
     <row r="394" spans="6:6" ht="13.2">
-      <c r="F394" s="19"/>
+      <c r="F394" s="15"/>
     </row>
     <row r="395" spans="6:6" ht="13.2">
-      <c r="F395" s="19"/>
+      <c r="F395" s="15"/>
     </row>
     <row r="396" spans="6:6" ht="13.2">
-      <c r="F396" s="19"/>
+      <c r="F396" s="15"/>
     </row>
     <row r="397" spans="6:6" ht="13.2">
-      <c r="F397" s="19"/>
+      <c r="F397" s="15"/>
     </row>
     <row r="398" spans="6:6" ht="13.2">
-      <c r="F398" s="19"/>
+      <c r="F398" s="15"/>
     </row>
     <row r="399" spans="6:6" ht="13.2">
-      <c r="F399" s="19"/>
+      <c r="F399" s="15"/>
     </row>
     <row r="400" spans="6:6" ht="13.2">
-      <c r="F400" s="19"/>
+      <c r="F400" s="15"/>
     </row>
     <row r="401" spans="6:6" ht="13.2">
-      <c r="F401" s="19"/>
+      <c r="F401" s="15"/>
     </row>
     <row r="402" spans="6:6" ht="13.2">
-      <c r="F402" s="19"/>
+      <c r="F402" s="15"/>
     </row>
     <row r="403" spans="6:6" ht="13.2">
-      <c r="F403" s="19"/>
+      <c r="F403" s="15"/>
     </row>
     <row r="404" spans="6:6" ht="13.2">
-      <c r="F404" s="19"/>
+      <c r="F404" s="15"/>
     </row>
     <row r="405" spans="6:6" ht="13.2">
-      <c r="F405" s="19"/>
+      <c r="F405" s="15"/>
     </row>
     <row r="406" spans="6:6" ht="13.2">
-      <c r="F406" s="19"/>
+      <c r="F406" s="15"/>
     </row>
     <row r="407" spans="6:6" ht="13.2">
-      <c r="F407" s="19"/>
+      <c r="F407" s="15"/>
     </row>
     <row r="408" spans="6:6" ht="13.2">
-      <c r="F408" s="19"/>
+      <c r="F408" s="15"/>
     </row>
     <row r="409" spans="6:6" ht="13.2">
-      <c r="F409" s="19"/>
+      <c r="F409" s="15"/>
     </row>
     <row r="410" spans="6:6" ht="13.2">
-      <c r="F410" s="19"/>
+      <c r="F410" s="15"/>
     </row>
     <row r="411" spans="6:6" ht="13.2">
-      <c r="F411" s="19"/>
+      <c r="F411" s="15"/>
     </row>
     <row r="412" spans="6:6" ht="13.2">
-      <c r="F412" s="19"/>
+      <c r="F412" s="15"/>
     </row>
     <row r="413" spans="6:6" ht="13.2">
-      <c r="F413" s="19"/>
+      <c r="F413" s="15"/>
     </row>
     <row r="414" spans="6:6" ht="13.2">
-      <c r="F414" s="19"/>
+      <c r="F414" s="15"/>
     </row>
     <row r="415" spans="6:6" ht="13.2">
-      <c r="F415" s="19"/>
+      <c r="F415" s="15"/>
     </row>
     <row r="416" spans="6:6" ht="13.2">
-      <c r="F416" s="19"/>
+      <c r="F416" s="15"/>
     </row>
     <row r="417" spans="6:6" ht="13.2">
-      <c r="F417" s="19"/>
+      <c r="F417" s="15"/>
     </row>
     <row r="418" spans="6:6" ht="13.2">
-      <c r="F418" s="19"/>
+      <c r="F418" s="15"/>
     </row>
     <row r="419" spans="6:6" ht="13.2">
-      <c r="F419" s="19"/>
+      <c r="F419" s="15"/>
     </row>
     <row r="420" spans="6:6" ht="13.2">
-      <c r="F420" s="19"/>
+      <c r="F420" s="15"/>
     </row>
     <row r="421" spans="6:6" ht="13.2">
-      <c r="F421" s="19"/>
+      <c r="F421" s="15"/>
     </row>
     <row r="422" spans="6:6" ht="13.2">
-      <c r="F422" s="19"/>
+      <c r="F422" s="15"/>
     </row>
     <row r="423" spans="6:6" ht="13.2">
-      <c r="F423" s="19"/>
+      <c r="F423" s="15"/>
     </row>
     <row r="424" spans="6:6" ht="13.2">
-      <c r="F424" s="19"/>
+      <c r="F424" s="15"/>
     </row>
     <row r="425" spans="6:6" ht="13.2">
-      <c r="F425" s="19"/>
+      <c r="F425" s="15"/>
     </row>
     <row r="426" spans="6:6" ht="13.2">
-      <c r="F426" s="19"/>
+      <c r="F426" s="15"/>
     </row>
     <row r="427" spans="6:6" ht="13.2">
-      <c r="F427" s="19"/>
+      <c r="F427" s="15"/>
     </row>
     <row r="428" spans="6:6" ht="13.2">
-      <c r="F428" s="19"/>
+      <c r="F428" s="15"/>
     </row>
     <row r="429" spans="6:6" ht="13.2">
-      <c r="F429" s="19"/>
+      <c r="F429" s="15"/>
     </row>
     <row r="430" spans="6:6" ht="13.2">
-      <c r="F430" s="19"/>
+      <c r="F430" s="15"/>
     </row>
     <row r="431" spans="6:6" ht="13.2">
-      <c r="F431" s="19"/>
+      <c r="F431" s="15"/>
     </row>
     <row r="432" spans="6:6" ht="13.2">
-      <c r="F432" s="19"/>
+      <c r="F432" s="15"/>
     </row>
     <row r="433" spans="6:6" ht="13.2">
-      <c r="F433" s="19"/>
+      <c r="F433" s="15"/>
     </row>
     <row r="434" spans="6:6" ht="13.2">
-      <c r="F434" s="19"/>
+      <c r="F434" s="15"/>
     </row>
     <row r="435" spans="6:6" ht="13.2">
-      <c r="F435" s="19"/>
+      <c r="F435" s="15"/>
     </row>
     <row r="436" spans="6:6" ht="13.2">
-      <c r="F436" s="19"/>
+      <c r="F436" s="15"/>
     </row>
     <row r="437" spans="6:6" ht="13.2">
-      <c r="F437" s="19"/>
+      <c r="F437" s="15"/>
     </row>
     <row r="438" spans="6:6" ht="13.2">
-      <c r="F438" s="19"/>
+      <c r="F438" s="15"/>
     </row>
     <row r="439" spans="6:6" ht="13.2">
-      <c r="F439" s="19"/>
+      <c r="F439" s="15"/>
     </row>
     <row r="440" spans="6:6" ht="13.2">
-      <c r="F440" s="19"/>
+      <c r="F440" s="15"/>
     </row>
     <row r="441" spans="6:6" ht="13.2">
-      <c r="F441" s="19"/>
+      <c r="F441" s="15"/>
     </row>
     <row r="442" spans="6:6" ht="13.2">
-      <c r="F442" s="19"/>
+      <c r="F442" s="15"/>
     </row>
     <row r="443" spans="6:6" ht="13.2">
-      <c r="F443" s="19"/>
+      <c r="F443" s="15"/>
     </row>
     <row r="444" spans="6:6" ht="13.2">
-      <c r="F444" s="19"/>
+      <c r="F444" s="15"/>
     </row>
     <row r="445" spans="6:6" ht="13.2">
-      <c r="F445" s="19"/>
+      <c r="F445" s="15"/>
     </row>
     <row r="446" spans="6:6" ht="13.2">
-      <c r="F446" s="19"/>
+      <c r="F446" s="15"/>
     </row>
     <row r="447" spans="6:6" ht="13.2">
-      <c r="F447" s="19"/>
+      <c r="F447" s="15"/>
     </row>
     <row r="448" spans="6:6" ht="13.2">
-      <c r="F448" s="19"/>
+      <c r="F448" s="15"/>
     </row>
     <row r="449" spans="6:6" ht="13.2">
-      <c r="F449" s="19"/>
+      <c r="F449" s="15"/>
     </row>
     <row r="450" spans="6:6" ht="13.2">
-      <c r="F450" s="19"/>
+      <c r="F450" s="15"/>
     </row>
     <row r="451" spans="6:6" ht="13.2">
-      <c r="F451" s="19"/>
+      <c r="F451" s="15"/>
     </row>
     <row r="452" spans="6:6" ht="13.2">
-      <c r="F452" s="19"/>
+      <c r="F452" s="15"/>
     </row>
     <row r="453" spans="6:6" ht="13.2">
-      <c r="F453" s="19"/>
+      <c r="F453" s="15"/>
     </row>
     <row r="454" spans="6:6" ht="13.2">
-      <c r="F454" s="19"/>
+      <c r="F454" s="15"/>
     </row>
     <row r="455" spans="6:6" ht="13.2">
-      <c r="F455" s="19"/>
+      <c r="F455" s="15"/>
     </row>
     <row r="456" spans="6:6" ht="13.2">
-      <c r="F456" s="19"/>
+      <c r="F456" s="15"/>
     </row>
     <row r="457" spans="6:6" ht="13.2">
-      <c r="F457" s="19"/>
+      <c r="F457" s="15"/>
     </row>
     <row r="458" spans="6:6" ht="13.2">
-      <c r="F458" s="19"/>
+      <c r="F458" s="15"/>
     </row>
     <row r="459" spans="6:6" ht="13.2">
-      <c r="F459" s="19"/>
+      <c r="F459" s="15"/>
     </row>
     <row r="460" spans="6:6" ht="13.2">
-      <c r="F460" s="19"/>
+      <c r="F460" s="15"/>
     </row>
     <row r="461" spans="6:6" ht="13.2">
-      <c r="F461" s="19"/>
+      <c r="F461" s="15"/>
     </row>
     <row r="462" spans="6:6" ht="13.2">
-      <c r="F462" s="19"/>
+      <c r="F462" s="15"/>
     </row>
     <row r="463" spans="6:6" ht="13.2">
-      <c r="F463" s="19"/>
+      <c r="F463" s="15"/>
     </row>
     <row r="464" spans="6:6" ht="13.2">
-      <c r="F464" s="19"/>
+      <c r="F464" s="15"/>
     </row>
     <row r="465" spans="6:6" ht="13.2">
-      <c r="F465" s="19"/>
+      <c r="F465" s="15"/>
     </row>
     <row r="466" spans="6:6" ht="13.2">
-      <c r="F466" s="19"/>
+      <c r="F466" s="15"/>
     </row>
     <row r="467" spans="6:6" ht="13.2">
-      <c r="F467" s="19"/>
+      <c r="F467" s="15"/>
     </row>
     <row r="468" spans="6:6" ht="13.2">
-      <c r="F468" s="19"/>
+      <c r="F468" s="15"/>
     </row>
     <row r="469" spans="6:6" ht="13.2">
-      <c r="F469" s="19"/>
+      <c r="F469" s="15"/>
     </row>
     <row r="470" spans="6:6" ht="13.2">
-      <c r="F470" s="19"/>
+      <c r="F470" s="15"/>
     </row>
     <row r="471" spans="6:6" ht="13.2">
-      <c r="F471" s="19"/>
+      <c r="F471" s="15"/>
     </row>
     <row r="472" spans="6:6" ht="13.2">
-      <c r="F472" s="19"/>
+      <c r="F472" s="15"/>
     </row>
     <row r="473" spans="6:6" ht="13.2">
-      <c r="F473" s="19"/>
+      <c r="F473" s="15"/>
     </row>
     <row r="474" spans="6:6" ht="13.2">
-      <c r="F474" s="19"/>
+      <c r="F474" s="15"/>
     </row>
     <row r="475" spans="6:6" ht="13.2">
-      <c r="F475" s="19"/>
+      <c r="F475" s="15"/>
     </row>
     <row r="476" spans="6:6" ht="13.2">
-      <c r="F476" s="19"/>
+      <c r="F476" s="15"/>
     </row>
     <row r="477" spans="6:6" ht="13.2">
-      <c r="F477" s="19"/>
+      <c r="F477" s="15"/>
     </row>
     <row r="478" spans="6:6" ht="13.2">
-      <c r="F478" s="19"/>
+      <c r="F478" s="15"/>
     </row>
     <row r="479" spans="6:6" ht="13.2">
-      <c r="F479" s="19"/>
+      <c r="F479" s="15"/>
     </row>
     <row r="480" spans="6:6" ht="13.2">
-      <c r="F480" s="19"/>
+      <c r="F480" s="15"/>
     </row>
     <row r="481" spans="6:6" ht="13.2">
-      <c r="F481" s="19"/>
+      <c r="F481" s="15"/>
     </row>
     <row r="482" spans="6:6" ht="13.2">
-      <c r="F482" s="19"/>
+      <c r="F482" s="15"/>
     </row>
     <row r="483" spans="6:6" ht="13.2">
-      <c r="F483" s="19"/>
+      <c r="F483" s="15"/>
     </row>
     <row r="484" spans="6:6" ht="13.2">
-      <c r="F484" s="19"/>
+      <c r="F484" s="15"/>
     </row>
     <row r="485" spans="6:6" ht="13.2">
-      <c r="F485" s="19"/>
+      <c r="F485" s="15"/>
     </row>
     <row r="486" spans="6:6" ht="13.2">
-      <c r="F486" s="19"/>
+      <c r="F486" s="15"/>
     </row>
     <row r="487" spans="6:6" ht="13.2">
-      <c r="F487" s="19"/>
+      <c r="F487" s="15"/>
     </row>
     <row r="488" spans="6:6" ht="13.2">
-      <c r="F488" s="19"/>
+      <c r="F488" s="15"/>
     </row>
     <row r="489" spans="6:6" ht="13.2">
-      <c r="F489" s="19"/>
+      <c r="F489" s="15"/>
     </row>
     <row r="490" spans="6:6" ht="13.2">
-      <c r="F490" s="19"/>
+      <c r="F490" s="15"/>
     </row>
     <row r="491" spans="6:6" ht="13.2">
-      <c r="F491" s="19"/>
+      <c r="F491" s="15"/>
     </row>
     <row r="492" spans="6:6" ht="13.2">
-      <c r="F492" s="19"/>
+      <c r="F492" s="15"/>
     </row>
     <row r="493" spans="6:6" ht="13.2">
-      <c r="F493" s="19"/>
+      <c r="F493" s="15"/>
     </row>
     <row r="494" spans="6:6" ht="13.2">
-      <c r="F494" s="19"/>
+      <c r="F494" s="15"/>
     </row>
     <row r="495" spans="6:6" ht="13.2">
-      <c r="F495" s="19"/>
+      <c r="F495" s="15"/>
     </row>
     <row r="496" spans="6:6" ht="13.2">
-      <c r="F496" s="19"/>
+      <c r="F496" s="15"/>
     </row>
     <row r="497" spans="6:6" ht="13.2">
-      <c r="F497" s="19"/>
+      <c r="F497" s="15"/>
     </row>
     <row r="498" spans="6:6" ht="13.2">
-      <c r="F498" s="19"/>
+      <c r="F498" s="15"/>
     </row>
     <row r="499" spans="6:6" ht="13.2">
-      <c r="F499" s="19"/>
+      <c r="F499" s="15"/>
     </row>
     <row r="500" spans="6:6" ht="13.2">
-      <c r="F500" s="19"/>
+      <c r="F500" s="15"/>
     </row>
     <row r="501" spans="6:6" ht="13.2">
-      <c r="F501" s="19"/>
+      <c r="F501" s="15"/>
     </row>
     <row r="502" spans="6:6" ht="13.2">
-      <c r="F502" s="19"/>
+      <c r="F502" s="15"/>
     </row>
     <row r="503" spans="6:6" ht="13.2">
-      <c r="F503" s="19"/>
+      <c r="F503" s="15"/>
     </row>
     <row r="504" spans="6:6" ht="13.2">
-      <c r="F504" s="19"/>
+      <c r="F504" s="15"/>
     </row>
     <row r="505" spans="6:6" ht="13.2">
-      <c r="F505" s="19"/>
+      <c r="F505" s="15"/>
     </row>
     <row r="506" spans="6:6" ht="13.2">
-      <c r="F506" s="19"/>
+      <c r="F506" s="15"/>
     </row>
     <row r="507" spans="6:6" ht="13.2">
-      <c r="F507" s="19"/>
+      <c r="F507" s="15"/>
     </row>
     <row r="508" spans="6:6" ht="13.2">
-      <c r="F508" s="19"/>
+      <c r="F508" s="15"/>
     </row>
     <row r="509" spans="6:6" ht="13.2">
-      <c r="F509" s="19"/>
+      <c r="F509" s="15"/>
     </row>
     <row r="510" spans="6:6" ht="13.2">
-      <c r="F510" s="19"/>
+      <c r="F510" s="15"/>
     </row>
     <row r="511" spans="6:6" ht="13.2">
-      <c r="F511" s="19"/>
+      <c r="F511" s="15"/>
     </row>
     <row r="512" spans="6:6" ht="13.2">
-      <c r="F512" s="19"/>
+      <c r="F512" s="15"/>
     </row>
     <row r="513" spans="6:6" ht="13.2">
-      <c r="F513" s="19"/>
+      <c r="F513" s="15"/>
     </row>
     <row r="514" spans="6:6" ht="13.2">
-      <c r="F514" s="19"/>
+      <c r="F514" s="15"/>
     </row>
     <row r="515" spans="6:6" ht="13.2">
-      <c r="F515" s="19"/>
+      <c r="F515" s="15"/>
     </row>
     <row r="516" spans="6:6" ht="13.2">
-      <c r="F516" s="19"/>
+      <c r="F516" s="15"/>
     </row>
     <row r="517" spans="6:6" ht="13.2">
-      <c r="F517" s="19"/>
+      <c r="F517" s="15"/>
     </row>
     <row r="518" spans="6:6" ht="13.2">
-      <c r="F518" s="19"/>
+      <c r="F518" s="15"/>
     </row>
     <row r="519" spans="6:6" ht="13.2">
-      <c r="F519" s="19"/>
+      <c r="F519" s="15"/>
     </row>
     <row r="520" spans="6:6" ht="13.2">
-      <c r="F520" s="19"/>
+      <c r="F520" s="15"/>
     </row>
     <row r="521" spans="6:6" ht="13.2">
-      <c r="F521" s="19"/>
+      <c r="F521" s="15"/>
     </row>
     <row r="522" spans="6:6" ht="13.2">
-      <c r="F522" s="19"/>
+      <c r="F522" s="15"/>
     </row>
     <row r="523" spans="6:6" ht="13.2">
-      <c r="F523" s="19"/>
+      <c r="F523" s="15"/>
     </row>
     <row r="524" spans="6:6" ht="13.2">
-      <c r="F524" s="19"/>
+      <c r="F524" s="15"/>
     </row>
     <row r="525" spans="6:6" ht="13.2">
-      <c r="F525" s="19"/>
+      <c r="F525" s="15"/>
     </row>
     <row r="526" spans="6:6" ht="13.2">
-      <c r="F526" s="19"/>
+      <c r="F526" s="15"/>
     </row>
     <row r="527" spans="6:6" ht="13.2">
-      <c r="F527" s="19"/>
+      <c r="F527" s="15"/>
     </row>
     <row r="528" spans="6:6" ht="13.2">
-      <c r="F528" s="19"/>
+      <c r="F528" s="15"/>
     </row>
     <row r="529" spans="6:6" ht="13.2">
-      <c r="F529" s="19"/>
+      <c r="F529" s="15"/>
     </row>
     <row r="530" spans="6:6" ht="13.2">
-      <c r="F530" s="19"/>
+      <c r="F530" s="15"/>
     </row>
     <row r="531" spans="6:6" ht="13.2">
-      <c r="F531" s="19"/>
+      <c r="F531" s="15"/>
     </row>
     <row r="532" spans="6:6" ht="13.2">
-      <c r="F532" s="19"/>
+      <c r="F532" s="15"/>
     </row>
     <row r="533" spans="6:6" ht="13.2">
-      <c r="F533" s="19"/>
+      <c r="F533" s="15"/>
     </row>
     <row r="534" spans="6:6" ht="13.2">
-      <c r="F534" s="19"/>
+      <c r="F534" s="15"/>
     </row>
     <row r="535" spans="6:6" ht="13.2">
-      <c r="F535" s="19"/>
+      <c r="F535" s="15"/>
     </row>
     <row r="536" spans="6:6" ht="13.2">
-      <c r="F536" s="19"/>
+      <c r="F536" s="15"/>
     </row>
     <row r="537" spans="6:6" ht="13.2">
-      <c r="F537" s="19"/>
+      <c r="F537" s="15"/>
     </row>
     <row r="538" spans="6:6" ht="13.2">
-      <c r="F538" s="19"/>
+      <c r="F538" s="15"/>
     </row>
     <row r="539" spans="6:6" ht="13.2">
-      <c r="F539" s="19"/>
+      <c r="F539" s="15"/>
     </row>
     <row r="540" spans="6:6" ht="13.2">
-      <c r="F540" s="19"/>
+      <c r="F540" s="15"/>
     </row>
     <row r="541" spans="6:6" ht="13.2">
-      <c r="F541" s="19"/>
+      <c r="F541" s="15"/>
     </row>
     <row r="542" spans="6:6" ht="13.2">
-      <c r="F542" s="19"/>
+      <c r="F542" s="15"/>
     </row>
     <row r="543" spans="6:6" ht="13.2">
-      <c r="F543" s="19"/>
+      <c r="F543" s="15"/>
     </row>
     <row r="544" spans="6:6" ht="13.2">
-      <c r="F544" s="19"/>
+      <c r="F544" s="15"/>
     </row>
     <row r="545" spans="6:6" ht="13.2">
-      <c r="F545" s="19"/>
+      <c r="F545" s="15"/>
     </row>
     <row r="546" spans="6:6" ht="13.2">
-      <c r="F546" s="19"/>
+      <c r="F546" s="15"/>
     </row>
     <row r="547" spans="6:6" ht="13.2">
-      <c r="F547" s="19"/>
+      <c r="F547" s="15"/>
     </row>
     <row r="548" spans="6:6" ht="13.2">
-      <c r="F548" s="19"/>
+      <c r="F548" s="15"/>
     </row>
     <row r="549" spans="6:6" ht="13.2">
-      <c r="F549" s="19"/>
+      <c r="F549" s="15"/>
     </row>
     <row r="550" spans="6:6" ht="13.2">
-      <c r="F550" s="19"/>
+      <c r="F550" s="15"/>
     </row>
     <row r="551" spans="6:6" ht="13.2">
-      <c r="F551" s="19"/>
+      <c r="F551" s="15"/>
     </row>
     <row r="552" spans="6:6" ht="13.2">
-      <c r="F552" s="19"/>
+      <c r="F552" s="15"/>
     </row>
     <row r="553" spans="6:6" ht="13.2">
-      <c r="F553" s="19"/>
+      <c r="F553" s="15"/>
     </row>
     <row r="554" spans="6:6" ht="13.2">
-      <c r="F554" s="19"/>
+      <c r="F554" s="15"/>
     </row>
     <row r="555" spans="6:6" ht="13.2">
-      <c r="F555" s="19"/>
+      <c r="F555" s="15"/>
     </row>
     <row r="556" spans="6:6" ht="13.2">
-      <c r="F556" s="19"/>
+      <c r="F556" s="15"/>
     </row>
     <row r="557" spans="6:6" ht="13.2">
-      <c r="F557" s="19"/>
+      <c r="F557" s="15"/>
     </row>
     <row r="558" spans="6:6" ht="13.2">
-      <c r="F558" s="19"/>
+      <c r="F558" s="15"/>
     </row>
     <row r="559" spans="6:6" ht="13.2">
-      <c r="F559" s="19"/>
+      <c r="F559" s="15"/>
     </row>
     <row r="560" spans="6:6" ht="13.2">
-      <c r="F560" s="19"/>
+      <c r="F560" s="15"/>
     </row>
     <row r="561" spans="6:6" ht="13.2">
-      <c r="F561" s="19"/>
+      <c r="F561" s="15"/>
     </row>
     <row r="562" spans="6:6" ht="13.2">
-      <c r="F562" s="19"/>
+      <c r="F562" s="15"/>
     </row>
     <row r="563" spans="6:6" ht="13.2">
-      <c r="F563" s="19"/>
+      <c r="F563" s="15"/>
     </row>
     <row r="564" spans="6:6" ht="13.2">
-      <c r="F564" s="19"/>
+      <c r="F564" s="15"/>
     </row>
     <row r="565" spans="6:6" ht="13.2">
-      <c r="F565" s="19"/>
+      <c r="F565" s="15"/>
     </row>
     <row r="566" spans="6:6" ht="13.2">
-      <c r="F566" s="19"/>
+      <c r="F566" s="15"/>
     </row>
     <row r="567" spans="6:6" ht="13.2">
-      <c r="F567" s="19"/>
+      <c r="F567" s="15"/>
     </row>
     <row r="568" spans="6:6" ht="13.2">
-      <c r="F568" s="19"/>
+      <c r="F568" s="15"/>
     </row>
     <row r="569" spans="6:6" ht="13.2">
-      <c r="F569" s="19"/>
+      <c r="F569" s="15"/>
     </row>
     <row r="570" spans="6:6" ht="13.2">
-      <c r="F570" s="19"/>
+      <c r="F570" s="15"/>
     </row>
     <row r="571" spans="6:6" ht="13.2">
-      <c r="F571" s="19"/>
+      <c r="F571" s="15"/>
     </row>
     <row r="572" spans="6:6" ht="13.2">
-      <c r="F572" s="19"/>
+      <c r="F572" s="15"/>
     </row>
     <row r="573" spans="6:6" ht="13.2">
-      <c r="F573" s="19"/>
+      <c r="F573" s="15"/>
     </row>
     <row r="574" spans="6:6" ht="13.2">
-      <c r="F574" s="19"/>
+      <c r="F574" s="15"/>
     </row>
     <row r="575" spans="6:6" ht="13.2">
-      <c r="F575" s="19"/>
+      <c r="F575" s="15"/>
     </row>
     <row r="576" spans="6:6" ht="13.2">
-      <c r="F576" s="19"/>
+      <c r="F576" s="15"/>
     </row>
     <row r="577" spans="6:6" ht="13.2">
-      <c r="F577" s="19"/>
+      <c r="F577" s="15"/>
     </row>
     <row r="578" spans="6:6" ht="13.2">
-      <c r="F578" s="19"/>
+      <c r="F578" s="15"/>
     </row>
     <row r="579" spans="6:6" ht="13.2">
-      <c r="F579" s="19"/>
+      <c r="F579" s="15"/>
     </row>
     <row r="580" spans="6:6" ht="13.2">
-      <c r="F580" s="19"/>
+      <c r="F580" s="15"/>
     </row>
     <row r="581" spans="6:6" ht="13.2">
-      <c r="F581" s="19"/>
+      <c r="F581" s="15"/>
     </row>
     <row r="582" spans="6:6" ht="13.2">
-      <c r="F582" s="19"/>
+      <c r="F582" s="15"/>
     </row>
     <row r="583" spans="6:6" ht="13.2">
-      <c r="F583" s="19"/>
+      <c r="F583" s="15"/>
     </row>
     <row r="584" spans="6:6" ht="13.2">
-      <c r="F584" s="19"/>
+      <c r="F584" s="15"/>
     </row>
     <row r="585" spans="6:6" ht="13.2">
-      <c r="F585" s="19"/>
+      <c r="F585" s="15"/>
     </row>
     <row r="586" spans="6:6" ht="13.2">
-      <c r="F586" s="19"/>
+      <c r="F586" s="15"/>
     </row>
     <row r="587" spans="6:6" ht="13.2">
-      <c r="F587" s="19"/>
+      <c r="F587" s="15"/>
     </row>
     <row r="588" spans="6:6" ht="13.2">
-      <c r="F588" s="19"/>
+      <c r="F588" s="15"/>
     </row>
     <row r="589" spans="6:6" ht="13.2">
-      <c r="F589" s="19"/>
+      <c r="F589" s="15"/>
     </row>
     <row r="590" spans="6:6" ht="13.2">
-      <c r="F590" s="19"/>
+      <c r="F590" s="15"/>
     </row>
     <row r="591" spans="6:6" ht="13.2">
-      <c r="F591" s="19"/>
+      <c r="F591" s="15"/>
     </row>
     <row r="592" spans="6:6" ht="13.2">
-      <c r="F592" s="19"/>
+      <c r="F592" s="15"/>
     </row>
     <row r="593" spans="6:6" ht="13.2">
-      <c r="F593" s="19"/>
+      <c r="F593" s="15"/>
     </row>
     <row r="594" spans="6:6" ht="13.2">
-      <c r="F594" s="19"/>
+      <c r="F594" s="15"/>
     </row>
     <row r="595" spans="6:6" ht="13.2">
-      <c r="F595" s="19"/>
+      <c r="F595" s="15"/>
     </row>
     <row r="596" spans="6:6" ht="13.2">
-      <c r="F596" s="19"/>
+      <c r="F596" s="15"/>
     </row>
     <row r="597" spans="6:6" ht="13.2">
-      <c r="F597" s="19"/>
+      <c r="F597" s="15"/>
     </row>
     <row r="598" spans="6:6" ht="13.2">
-      <c r="F598" s="19"/>
+      <c r="F598" s="15"/>
     </row>
     <row r="599" spans="6:6" ht="13.2">
-      <c r="F599" s="19"/>
+      <c r="F599" s="15"/>
     </row>
     <row r="600" spans="6:6" ht="13.2">
-      <c r="F600" s="19"/>
+      <c r="F600" s="15"/>
     </row>
     <row r="601" spans="6:6" ht="13.2">
-      <c r="F601" s="19"/>
+      <c r="F601" s="15"/>
     </row>
     <row r="602" spans="6:6" ht="13.2">
-      <c r="F602" s="19"/>
+      <c r="F602" s="15"/>
     </row>
     <row r="603" spans="6:6" ht="13.2">
-      <c r="F603" s="19"/>
+      <c r="F603" s="15"/>
     </row>
     <row r="604" spans="6:6" ht="13.2">
-      <c r="F604" s="19"/>
+      <c r="F604" s="15"/>
     </row>
     <row r="605" spans="6:6" ht="13.2">
-      <c r="F605" s="19"/>
+      <c r="F605" s="15"/>
     </row>
     <row r="606" spans="6:6" ht="13.2">
-      <c r="F606" s="19"/>
+      <c r="F606" s="15"/>
     </row>
     <row r="607" spans="6:6" ht="13.2">
-      <c r="F607" s="19"/>
+      <c r="F607" s="15"/>
     </row>
     <row r="608" spans="6:6" ht="13.2">
-      <c r="F608" s="19"/>
+      <c r="F608" s="15"/>
     </row>
     <row r="609" spans="6:6" ht="13.2">
-      <c r="F609" s="19"/>
+      <c r="F609" s="15"/>
     </row>
     <row r="610" spans="6:6" ht="13.2">
-      <c r="F610" s="19"/>
+      <c r="F610" s="15"/>
     </row>
     <row r="611" spans="6:6" ht="13.2">
-      <c r="F611" s="19"/>
+      <c r="F611" s="15"/>
     </row>
     <row r="612" spans="6:6" ht="13.2">
-      <c r="F612" s="19"/>
+      <c r="F612" s="15"/>
     </row>
     <row r="613" spans="6:6" ht="13.2">
-      <c r="F613" s="19"/>
+      <c r="F613" s="15"/>
     </row>
     <row r="614" spans="6:6" ht="13.2">
-      <c r="F614" s="19"/>
+      <c r="F614" s="15"/>
     </row>
     <row r="615" spans="6:6" ht="13.2">
-      <c r="F615" s="19"/>
+      <c r="F615" s="15"/>
     </row>
     <row r="616" spans="6:6" ht="13.2">
-      <c r="F616" s="19"/>
+      <c r="F616" s="15"/>
     </row>
     <row r="617" spans="6:6" ht="13.2">
-      <c r="F617" s="19"/>
+      <c r="F617" s="15"/>
     </row>
     <row r="618" spans="6:6" ht="13.2">
-      <c r="F618" s="19"/>
+      <c r="F618" s="15"/>
     </row>
     <row r="619" spans="6:6" ht="13.2">
-      <c r="F619" s="19"/>
+      <c r="F619" s="15"/>
     </row>
     <row r="620" spans="6:6" ht="13.2">
-      <c r="F620" s="19"/>
+      <c r="F620" s="15"/>
     </row>
     <row r="621" spans="6:6" ht="13.2">
-      <c r="F621" s="19"/>
+      <c r="F621" s="15"/>
     </row>
     <row r="622" spans="6:6" ht="13.2">
-      <c r="F622" s="19"/>
+      <c r="F622" s="15"/>
     </row>
     <row r="623" spans="6:6" ht="13.2">
-      <c r="F623" s="19"/>
+      <c r="F623" s="15"/>
     </row>
     <row r="624" spans="6:6" ht="13.2">
-      <c r="F624" s="19"/>
+      <c r="F624" s="15"/>
     </row>
     <row r="625" spans="6:6" ht="13.2">
-      <c r="F625" s="19"/>
+      <c r="F625" s="15"/>
     </row>
     <row r="626" spans="6:6" ht="13.2">
-      <c r="F626" s="19"/>
+      <c r="F626" s="15"/>
     </row>
     <row r="627" spans="6:6" ht="13.2">
-      <c r="F627" s="19"/>
+      <c r="F627" s="15"/>
     </row>
     <row r="628" spans="6:6" ht="13.2">
-      <c r="F628" s="19"/>
+      <c r="F628" s="15"/>
     </row>
     <row r="629" spans="6:6" ht="13.2">
-      <c r="F629" s="19"/>
+      <c r="F629" s="15"/>
     </row>
     <row r="630" spans="6:6" ht="13.2">
-      <c r="F630" s="19"/>
+      <c r="F630" s="15"/>
     </row>
     <row r="631" spans="6:6" ht="13.2">
-      <c r="F631" s="19"/>
+      <c r="F631" s="15"/>
     </row>
     <row r="632" spans="6:6" ht="13.2">
-      <c r="F632" s="19"/>
+      <c r="F632" s="15"/>
     </row>
     <row r="633" spans="6:6" ht="13.2">
-      <c r="F633" s="19"/>
+      <c r="F633" s="15"/>
     </row>
     <row r="634" spans="6:6" ht="13.2">
-      <c r="F634" s="19"/>
+      <c r="F634" s="15"/>
     </row>
     <row r="635" spans="6:6" ht="13.2">
-      <c r="F635" s="19"/>
+      <c r="F635" s="15"/>
     </row>
     <row r="636" spans="6:6" ht="13.2">
-      <c r="F636" s="19"/>
+      <c r="F636" s="15"/>
     </row>
     <row r="637" spans="6:6" ht="13.2">
-      <c r="F637" s="19"/>
+      <c r="F637" s="15"/>
     </row>
     <row r="638" spans="6:6" ht="13.2">
-      <c r="F638" s="19"/>
+      <c r="F638" s="15"/>
     </row>
     <row r="639" spans="6:6" ht="13.2">
-      <c r="F639" s="19"/>
+      <c r="F639" s="15"/>
     </row>
     <row r="640" spans="6:6" ht="13.2">
-      <c r="F640" s="19"/>
+      <c r="F640" s="15"/>
     </row>
     <row r="641" spans="6:6" ht="13.2">
-      <c r="F641" s="19"/>
+      <c r="F641" s="15"/>
     </row>
     <row r="642" spans="6:6" ht="13.2">
-      <c r="F642" s="19"/>
+      <c r="F642" s="15"/>
     </row>
     <row r="643" spans="6:6" ht="13.2">
-      <c r="F643" s="19"/>
+      <c r="F643" s="15"/>
     </row>
     <row r="644" spans="6:6" ht="13.2">
-      <c r="F644" s="19"/>
+      <c r="F644" s="15"/>
     </row>
     <row r="645" spans="6:6" ht="13.2">
-      <c r="F645" s="19"/>
+      <c r="F645" s="15"/>
     </row>
     <row r="646" spans="6:6" ht="13.2">
-      <c r="F646" s="19"/>
+      <c r="F646" s="15"/>
     </row>
     <row r="647" spans="6:6" ht="13.2">
-      <c r="F647" s="19"/>
+      <c r="F647" s="15"/>
     </row>
     <row r="648" spans="6:6" ht="13.2">
-      <c r="F648" s="19"/>
+      <c r="F648" s="15"/>
     </row>
     <row r="649" spans="6:6" ht="13.2">
-      <c r="F649" s="19"/>
+      <c r="F649" s="15"/>
     </row>
     <row r="650" spans="6:6" ht="13.2">
-      <c r="F650" s="19"/>
+      <c r="F650" s="15"/>
     </row>
     <row r="651" spans="6:6" ht="13.2">
-      <c r="F651" s="19"/>
+      <c r="F651" s="15"/>
     </row>
     <row r="652" spans="6:6" ht="13.2">
-      <c r="F652" s="19"/>
+      <c r="F652" s="15"/>
     </row>
     <row r="653" spans="6:6" ht="13.2">
-      <c r="F653" s="19"/>
+      <c r="F653" s="15"/>
     </row>
     <row r="654" spans="6:6" ht="13.2">
-      <c r="F654" s="19"/>
+      <c r="F654" s="15"/>
     </row>
     <row r="655" spans="6:6" ht="13.2">
-      <c r="F655" s="19"/>
+      <c r="F655" s="15"/>
     </row>
     <row r="656" spans="6:6" ht="13.2">
-      <c r="F656" s="19"/>
+      <c r="F656" s="15"/>
     </row>
     <row r="657" spans="6:6" ht="13.2">
-      <c r="F657" s="19"/>
+      <c r="F657" s="15"/>
     </row>
     <row r="658" spans="6:6" ht="13.2">
-      <c r="F658" s="19"/>
+      <c r="F658" s="15"/>
     </row>
     <row r="659" spans="6:6" ht="13.2">
-      <c r="F659" s="19"/>
+      <c r="F659" s="15"/>
     </row>
     <row r="660" spans="6:6" ht="13.2">
-      <c r="F660" s="19"/>
+      <c r="F660" s="15"/>
     </row>
     <row r="661" spans="6:6" ht="13.2">
-      <c r="F661" s="19"/>
+      <c r="F661" s="15"/>
     </row>
     <row r="662" spans="6:6" ht="13.2">
-      <c r="F662" s="19"/>
+      <c r="F662" s="15"/>
     </row>
     <row r="663" spans="6:6" ht="13.2">
-      <c r="F663" s="19"/>
+      <c r="F663" s="15"/>
     </row>
     <row r="664" spans="6:6" ht="13.2">
-      <c r="F664" s="19"/>
+      <c r="F664" s="15"/>
     </row>
     <row r="665" spans="6:6" ht="13.2">
-      <c r="F665" s="19"/>
+      <c r="F665" s="15"/>
     </row>
     <row r="666" spans="6:6" ht="13.2">
-      <c r="F666" s="19"/>
+      <c r="F666" s="15"/>
     </row>
     <row r="667" spans="6:6" ht="13.2">
-      <c r="F667" s="19"/>
+      <c r="F667" s="15"/>
     </row>
     <row r="668" spans="6:6" ht="13.2">
-      <c r="F668" s="19"/>
+      <c r="F668" s="15"/>
     </row>
     <row r="669" spans="6:6" ht="13.2">
-      <c r="F669" s="19"/>
+      <c r="F669" s="15"/>
     </row>
     <row r="670" spans="6:6" ht="13.2">
-      <c r="F670" s="19"/>
+      <c r="F670" s="15"/>
     </row>
     <row r="671" spans="6:6" ht="13.2">
-      <c r="F671" s="19"/>
+      <c r="F671" s="15"/>
     </row>
     <row r="672" spans="6:6" ht="13.2">
-      <c r="F672" s="19"/>
+      <c r="F672" s="15"/>
     </row>
     <row r="673" spans="6:6" ht="13.2">
-      <c r="F673" s="19"/>
+      <c r="F673" s="15"/>
     </row>
     <row r="674" spans="6:6" ht="13.2">
-      <c r="F674" s="19"/>
+      <c r="F674" s="15"/>
     </row>
     <row r="675" spans="6:6" ht="13.2">
-      <c r="F675" s="19"/>
+      <c r="F675" s="15"/>
     </row>
     <row r="676" spans="6:6" ht="13.2">
-      <c r="F676" s="19"/>
+      <c r="F676" s="15"/>
     </row>
     <row r="677" spans="6:6" ht="13.2">
-      <c r="F677" s="19"/>
+      <c r="F677" s="15"/>
     </row>
     <row r="678" spans="6:6" ht="13.2">
-      <c r="F678" s="19"/>
+      <c r="F678" s="15"/>
     </row>
     <row r="679" spans="6:6" ht="13.2">
-      <c r="F679" s="19"/>
+      <c r="F679" s="15"/>
     </row>
     <row r="680" spans="6:6" ht="13.2">
-      <c r="F680" s="19"/>
+      <c r="F680" s="15"/>
     </row>
     <row r="681" spans="6:6" ht="13.2">
-      <c r="F681" s="19"/>
+      <c r="F681" s="15"/>
     </row>
     <row r="682" spans="6:6" ht="13.2">
-      <c r="F682" s="19"/>
+      <c r="F682" s="15"/>
     </row>
     <row r="683" spans="6:6" ht="13.2">
-      <c r="F683" s="19"/>
+      <c r="F683" s="15"/>
     </row>
     <row r="684" spans="6:6" ht="13.2">
-      <c r="F684" s="19"/>
+      <c r="F684" s="15"/>
     </row>
     <row r="685" spans="6:6" ht="13.2">
-      <c r="F685" s="19"/>
+      <c r="F685" s="15"/>
     </row>
     <row r="686" spans="6:6" ht="13.2">
-      <c r="F686" s="19"/>
+      <c r="F686" s="15"/>
     </row>
     <row r="687" spans="6:6" ht="13.2">
-      <c r="F687" s="19"/>
+      <c r="F687" s="15"/>
     </row>
     <row r="688" spans="6:6" ht="13.2">
-      <c r="F688" s="19"/>
+      <c r="F688" s="15"/>
     </row>
     <row r="689" spans="6:6" ht="13.2">
-      <c r="F689" s="19"/>
+      <c r="F689" s="15"/>
     </row>
     <row r="690" spans="6:6" ht="13.2">
-      <c r="F690" s="19"/>
+      <c r="F690" s="15"/>
     </row>
     <row r="691" spans="6:6" ht="13.2">
-      <c r="F691" s="19"/>
+      <c r="F691" s="15"/>
     </row>
     <row r="692" spans="6:6" ht="13.2">
-      <c r="F692" s="19"/>
+      <c r="F692" s="15"/>
     </row>
     <row r="693" spans="6:6" ht="13.2">
-      <c r="F693" s="19"/>
+      <c r="F693" s="15"/>
     </row>
     <row r="694" spans="6:6" ht="13.2">
-      <c r="F694" s="19"/>
+      <c r="F694" s="15"/>
     </row>
     <row r="695" spans="6:6" ht="13.2">
-      <c r="F695" s="19"/>
+      <c r="F695" s="15"/>
     </row>
     <row r="696" spans="6:6" ht="13.2">
-      <c r="F696" s="19"/>
+      <c r="F696" s="15"/>
     </row>
     <row r="697" spans="6:6" ht="13.2">
-      <c r="F697" s="19"/>
+      <c r="F697" s="15"/>
     </row>
     <row r="698" spans="6:6" ht="13.2">
-      <c r="F698" s="19"/>
+      <c r="F698" s="15"/>
     </row>
     <row r="699" spans="6:6" ht="13.2">
-      <c r="F699" s="19"/>
+      <c r="F699" s="15"/>
     </row>
     <row r="700" spans="6:6" ht="13.2">
-      <c r="F700" s="19"/>
+      <c r="F700" s="15"/>
     </row>
     <row r="701" spans="6:6" ht="13.2">
-      <c r="F701" s="19"/>
+      <c r="F701" s="15"/>
     </row>
     <row r="702" spans="6:6" ht="13.2">
-      <c r="F702" s="19"/>
+      <c r="F702" s="15"/>
     </row>
     <row r="703" spans="6:6" ht="13.2">
-      <c r="F703" s="19"/>
+      <c r="F703" s="15"/>
     </row>
     <row r="704" spans="6:6" ht="13.2">
-      <c r="F704" s="19"/>
+      <c r="F704" s="15"/>
     </row>
     <row r="705" spans="6:6" ht="13.2">
-      <c r="F705" s="19"/>
+      <c r="F705" s="15"/>
     </row>
     <row r="706" spans="6:6" ht="13.2">
-      <c r="F706" s="19"/>
+      <c r="F706" s="15"/>
     </row>
     <row r="707" spans="6:6" ht="13.2">
-      <c r="F707" s="19"/>
+      <c r="F707" s="15"/>
     </row>
     <row r="708" spans="6:6" ht="13.2">
-      <c r="F708" s="19"/>
+      <c r="F708" s="15"/>
     </row>
     <row r="709" spans="6:6" ht="13.2">
-      <c r="F709" s="19"/>
+      <c r="F709" s="15"/>
     </row>
     <row r="710" spans="6:6" ht="13.2">
-      <c r="F710" s="19"/>
+      <c r="F710" s="15"/>
     </row>
     <row r="711" spans="6:6" ht="13.2">
-      <c r="F711" s="19"/>
+      <c r="F711" s="15"/>
     </row>
     <row r="712" spans="6:6" ht="13.2">
-      <c r="F712" s="19"/>
+      <c r="F712" s="15"/>
     </row>
     <row r="713" spans="6:6" ht="13.2">
-      <c r="F713" s="19"/>
+      <c r="F713" s="15"/>
     </row>
     <row r="714" spans="6:6" ht="13.2">
-      <c r="F714" s="19"/>
+      <c r="F714" s="15"/>
     </row>
     <row r="715" spans="6:6" ht="13.2">
-      <c r="F715" s="19"/>
+      <c r="F715" s="15"/>
     </row>
     <row r="716" spans="6:6" ht="13.2">
-      <c r="F716" s="19"/>
+      <c r="F716" s="15"/>
     </row>
     <row r="717" spans="6:6" ht="13.2">
-      <c r="F717" s="19"/>
+      <c r="F717" s="15"/>
     </row>
     <row r="718" spans="6:6" ht="13.2">
-      <c r="F718" s="19"/>
+      <c r="F718" s="15"/>
     </row>
     <row r="719" spans="6:6" ht="13.2">
-      <c r="F719" s="19"/>
+      <c r="F719" s="15"/>
     </row>
     <row r="720" spans="6:6" ht="13.2">
-      <c r="F720" s="19"/>
+      <c r="F720" s="15"/>
     </row>
     <row r="721" spans="6:6" ht="13.2">
-      <c r="F721" s="19"/>
+      <c r="F721" s="15"/>
     </row>
     <row r="722" spans="6:6" ht="13.2">
-      <c r="F722" s="19"/>
+      <c r="F722" s="15"/>
     </row>
     <row r="723" spans="6:6" ht="13.2">
-      <c r="F723" s="19"/>
+      <c r="F723" s="15"/>
     </row>
     <row r="724" spans="6:6" ht="13.2">
-      <c r="F724" s="19"/>
+      <c r="F724" s="15"/>
     </row>
     <row r="725" spans="6:6" ht="13.2">
-      <c r="F725" s="19"/>
+      <c r="F725" s="15"/>
     </row>
     <row r="726" spans="6:6" ht="13.2">
-      <c r="F726" s="19"/>
+      <c r="F726" s="15"/>
     </row>
     <row r="727" spans="6:6" ht="13.2">
-      <c r="F727" s="19"/>
+      <c r="F727" s="15"/>
     </row>
     <row r="728" spans="6:6" ht="13.2">
-      <c r="F728" s="19"/>
+      <c r="F728" s="15"/>
     </row>
     <row r="729" spans="6:6" ht="13.2">
-      <c r="F729" s="19"/>
+      <c r="F729" s="15"/>
     </row>
     <row r="730" spans="6:6" ht="13.2">
-      <c r="F730" s="19"/>
+      <c r="F730" s="15"/>
     </row>
     <row r="731" spans="6:6" ht="13.2">
-      <c r="F731" s="19"/>
+      <c r="F731" s="15"/>
     </row>
     <row r="732" spans="6:6" ht="13.2">
-      <c r="F732" s="19"/>
+      <c r="F732" s="15"/>
     </row>
     <row r="733" spans="6:6" ht="13.2">
-      <c r="F733" s="19"/>
+      <c r="F733" s="15"/>
     </row>
     <row r="734" spans="6:6" ht="13.2">
-      <c r="F734" s="19"/>
+      <c r="F734" s="15"/>
     </row>
     <row r="735" spans="6:6" ht="13.2">
-      <c r="F735" s="19"/>
+      <c r="F735" s="15"/>
     </row>
     <row r="736" spans="6:6" ht="13.2">
-      <c r="F736" s="19"/>
+      <c r="F736" s="15"/>
     </row>
     <row r="737" spans="6:6" ht="13.2">
-      <c r="F737" s="19"/>
+      <c r="F737" s="15"/>
     </row>
     <row r="738" spans="6:6" ht="13.2">
-      <c r="F738" s="19"/>
+      <c r="F738" s="15"/>
     </row>
     <row r="739" spans="6:6" ht="13.2">
-      <c r="F739" s="19"/>
+      <c r="F739" s="15"/>
     </row>
     <row r="740" spans="6:6" ht="13.2">
-      <c r="F740" s="19"/>
+      <c r="F740" s="15"/>
     </row>
     <row r="741" spans="6:6" ht="13.2">
-      <c r="F741" s="19"/>
+      <c r="F741" s="15"/>
     </row>
     <row r="742" spans="6:6" ht="13.2">
-      <c r="F742" s="19"/>
+      <c r="F742" s="15"/>
     </row>
     <row r="743" spans="6:6" ht="13.2">
-      <c r="F743" s="19"/>
+      <c r="F743" s="15"/>
     </row>
     <row r="744" spans="6:6" ht="13.2">
-      <c r="F744" s="19"/>
+      <c r="F744" s="15"/>
     </row>
     <row r="745" spans="6:6" ht="13.2">
-      <c r="F745" s="19"/>
+      <c r="F745" s="15"/>
     </row>
     <row r="746" spans="6:6" ht="13.2">
-      <c r="F746" s="19"/>
+      <c r="F746" s="15"/>
     </row>
     <row r="747" spans="6:6" ht="13.2">
-      <c r="F747" s="19"/>
+      <c r="F747" s="15"/>
     </row>
     <row r="748" spans="6:6" ht="13.2">
-      <c r="F748" s="19"/>
+      <c r="F748" s="15"/>
     </row>
     <row r="749" spans="6:6" ht="13.2">
-      <c r="F749" s="19"/>
+      <c r="F749" s="15"/>
     </row>
     <row r="750" spans="6:6" ht="13.2">
-      <c r="F750" s="19"/>
+      <c r="F750" s="15"/>
     </row>
     <row r="751" spans="6:6" ht="13.2">
-      <c r="F751" s="19"/>
+      <c r="F751" s="15"/>
     </row>
     <row r="752" spans="6:6" ht="13.2">
-      <c r="F752" s="19"/>
+      <c r="F752" s="15"/>
     </row>
     <row r="753" spans="6:6" ht="13.2">
-      <c r="F753" s="19"/>
+      <c r="F753" s="15"/>
     </row>
     <row r="754" spans="6:6" ht="13.2">
-      <c r="F754" s="19"/>
+      <c r="F754" s="15"/>
     </row>
     <row r="755" spans="6:6" ht="13.2">
-      <c r="F755" s="19"/>
+      <c r="F755" s="15"/>
     </row>
     <row r="756" spans="6:6" ht="13.2">
-      <c r="F756" s="19"/>
+      <c r="F756" s="15"/>
     </row>
     <row r="757" spans="6:6" ht="13.2">
-      <c r="F757" s="19"/>
+      <c r="F757" s="15"/>
     </row>
     <row r="758" spans="6:6" ht="13.2">
-      <c r="F758" s="19"/>
+      <c r="F758" s="15"/>
     </row>
     <row r="759" spans="6:6" ht="13.2">
-      <c r="F759" s="19"/>
+      <c r="F759" s="15"/>
     </row>
     <row r="760" spans="6:6" ht="13.2">
-      <c r="F760" s="19"/>
+      <c r="F760" s="15"/>
     </row>
     <row r="761" spans="6:6" ht="13.2">
-      <c r="F761" s="19"/>
+      <c r="F761" s="15"/>
     </row>
     <row r="762" spans="6:6" ht="13.2">
-      <c r="F762" s="19"/>
+      <c r="F762" s="15"/>
     </row>
     <row r="763" spans="6:6" ht="13.2">
-      <c r="F763" s="19"/>
+      <c r="F763" s="15"/>
     </row>
     <row r="764" spans="6:6" ht="13.2">
-      <c r="F764" s="19"/>
+      <c r="F764" s="15"/>
     </row>
     <row r="765" spans="6:6" ht="13.2">
-      <c r="F765" s="19"/>
+      <c r="F765" s="15"/>
     </row>
     <row r="766" spans="6:6" ht="13.2">
-      <c r="F766" s="19"/>
+      <c r="F766" s="15"/>
     </row>
     <row r="767" spans="6:6" ht="13.2">
-      <c r="F767" s="19"/>
+      <c r="F767" s="15"/>
     </row>
     <row r="768" spans="6:6" ht="13.2">
-      <c r="F768" s="19"/>
+      <c r="F768" s="15"/>
     </row>
     <row r="769" spans="6:6" ht="13.2">
-      <c r="F769" s="19"/>
+      <c r="F769" s="15"/>
     </row>
     <row r="770" spans="6:6" ht="13.2">
-      <c r="F770" s="19"/>
+      <c r="F770" s="15"/>
     </row>
     <row r="771" spans="6:6" ht="13.2">
-      <c r="F771" s="19"/>
+      <c r="F771" s="15"/>
     </row>
     <row r="772" spans="6:6" ht="13.2">
-      <c r="F772" s="19"/>
+      <c r="F772" s="15"/>
     </row>
     <row r="773" spans="6:6" ht="13.2">
-      <c r="F773" s="19"/>
+      <c r="F773" s="15"/>
     </row>
     <row r="774" spans="6:6" ht="13.2">
-      <c r="F774" s="19"/>
+      <c r="F774" s="15"/>
     </row>
     <row r="775" spans="6:6" ht="13.2">
-      <c r="F775" s="19"/>
+      <c r="F775" s="15"/>
     </row>
     <row r="776" spans="6:6" ht="13.2">
-      <c r="F776" s="19"/>
+      <c r="F776" s="15"/>
     </row>
     <row r="777" spans="6:6" ht="13.2">
-      <c r="F777" s="19"/>
+      <c r="F777" s="15"/>
     </row>
     <row r="778" spans="6:6" ht="13.2">
-      <c r="F778" s="19"/>
+      <c r="F778" s="15"/>
     </row>
     <row r="779" spans="6:6" ht="13.2">
-      <c r="F779" s="19"/>
+      <c r="F779" s="15"/>
     </row>
     <row r="780" spans="6:6" ht="13.2">
-      <c r="F780" s="19"/>
+      <c r="F780" s="15"/>
     </row>
     <row r="781" spans="6:6" ht="13.2">
-      <c r="F781" s="19"/>
+      <c r="F781" s="15"/>
     </row>
     <row r="782" spans="6:6" ht="13.2">
-      <c r="F782" s="19"/>
+      <c r="F782" s="15"/>
     </row>
     <row r="783" spans="6:6" ht="13.2">
-      <c r="F783" s="19"/>
+      <c r="F783" s="15"/>
     </row>
     <row r="784" spans="6:6" ht="13.2">
-      <c r="F784" s="19"/>
+      <c r="F784" s="15"/>
     </row>
     <row r="785" spans="6:6" ht="13.2">
-      <c r="F785" s="19"/>
+      <c r="F785" s="15"/>
     </row>
     <row r="786" spans="6:6" ht="13.2">
-      <c r="F786" s="19"/>
+      <c r="F786" s="15"/>
     </row>
     <row r="787" spans="6:6" ht="13.2">
-      <c r="F787" s="19"/>
+      <c r="F787" s="15"/>
     </row>
     <row r="788" spans="6:6" ht="13.2">
-      <c r="F788" s="19"/>
+      <c r="F788" s="15"/>
     </row>
     <row r="789" spans="6:6" ht="13.2">
-      <c r="F789" s="19"/>
+      <c r="F789" s="15"/>
     </row>
     <row r="790" spans="6:6" ht="13.2">
-      <c r="F790" s="19"/>
+      <c r="F790" s="15"/>
     </row>
     <row r="791" spans="6:6" ht="13.2">
-      <c r="F791" s="19"/>
+      <c r="F791" s="15"/>
     </row>
     <row r="792" spans="6:6" ht="13.2">
-      <c r="F792" s="19"/>
+      <c r="F792" s="15"/>
     </row>
     <row r="793" spans="6:6" ht="13.2">
-      <c r="F793" s="19"/>
+      <c r="F793" s="15"/>
     </row>
     <row r="794" spans="6:6" ht="13.2">
-      <c r="F794" s="19"/>
+      <c r="F794" s="15"/>
     </row>
     <row r="795" spans="6:6" ht="13.2">
-      <c r="F795" s="19"/>
+      <c r="F795" s="15"/>
     </row>
     <row r="796" spans="6:6" ht="13.2">
-      <c r="F796" s="19"/>
+      <c r="F796" s="15"/>
     </row>
     <row r="797" spans="6:6" ht="13.2">
-      <c r="F797" s="19"/>
+      <c r="F797" s="15"/>
     </row>
     <row r="798" spans="6:6" ht="13.2">
-      <c r="F798" s="19"/>
+      <c r="F798" s="15"/>
     </row>
     <row r="799" spans="6:6" ht="13.2">
-      <c r="F799" s="19"/>
+      <c r="F799" s="15"/>
     </row>
     <row r="800" spans="6:6" ht="13.2">
-      <c r="F800" s="19"/>
+      <c r="F800" s="15"/>
     </row>
     <row r="801" spans="6:6" ht="13.2">
-      <c r="F801" s="19"/>
+      <c r="F801" s="15"/>
     </row>
     <row r="802" spans="6:6" ht="13.2">
-      <c r="F802" s="19"/>
+      <c r="F802" s="15"/>
     </row>
     <row r="803" spans="6:6" ht="13.2">
-      <c r="F803" s="19"/>
+      <c r="F803" s="15"/>
     </row>
     <row r="804" spans="6:6" ht="13.2">
-      <c r="F804" s="19"/>
+      <c r="F804" s="15"/>
     </row>
     <row r="805" spans="6:6" ht="13.2">
-      <c r="F805" s="19"/>
+      <c r="F805" s="15"/>
     </row>
     <row r="806" spans="6:6" ht="13.2">
-      <c r="F806" s="19"/>
+      <c r="F806" s="15"/>
     </row>
     <row r="807" spans="6:6" ht="13.2">
-      <c r="F807" s="19"/>
+      <c r="F807" s="15"/>
     </row>
     <row r="808" spans="6:6" ht="13.2">
-      <c r="F808" s="19"/>
+      <c r="F808" s="15"/>
     </row>
     <row r="809" spans="6:6" ht="13.2">
-      <c r="F809" s="19"/>
+      <c r="F809" s="15"/>
     </row>
     <row r="810" spans="6:6" ht="13.2">
-      <c r="F810" s="19"/>
+      <c r="F810" s="15"/>
     </row>
     <row r="811" spans="6:6" ht="13.2">
-      <c r="F811" s="19"/>
+      <c r="F811" s="15"/>
     </row>
     <row r="812" spans="6:6" ht="13.2">
-      <c r="F812" s="19"/>
+      <c r="F812" s="15"/>
     </row>
     <row r="813" spans="6:6" ht="13.2">
-      <c r="F813" s="19"/>
+      <c r="F813" s="15"/>
     </row>
     <row r="814" spans="6:6" ht="13.2">
-      <c r="F814" s="19"/>
+      <c r="F814" s="15"/>
     </row>
     <row r="815" spans="6:6" ht="13.2">
-      <c r="F815" s="19"/>
+      <c r="F815" s="15"/>
     </row>
     <row r="816" spans="6:6" ht="13.2">
-      <c r="F816" s="19"/>
+      <c r="F816" s="15"/>
     </row>
     <row r="817" spans="6:6" ht="13.2">
-      <c r="F817" s="19"/>
+      <c r="F817" s="15"/>
     </row>
     <row r="818" spans="6:6" ht="13.2">
-      <c r="F818" s="19"/>
+      <c r="F818" s="15"/>
     </row>
     <row r="819" spans="6:6" ht="13.2">
-      <c r="F819" s="19"/>
+      <c r="F819" s="15"/>
     </row>
     <row r="820" spans="6:6" ht="13.2">
-      <c r="F820" s="19"/>
+      <c r="F820" s="15"/>
     </row>
     <row r="821" spans="6:6" ht="13.2">
-      <c r="F821" s="19"/>
+      <c r="F821" s="15"/>
     </row>
     <row r="822" spans="6:6" ht="13.2">
-      <c r="F822" s="19"/>
+      <c r="F822" s="15"/>
     </row>
     <row r="823" spans="6:6" ht="13.2">
-      <c r="F823" s="19"/>
+      <c r="F823" s="15"/>
     </row>
     <row r="824" spans="6:6" ht="13.2">
-      <c r="F824" s="19"/>
+      <c r="F824" s="15"/>
     </row>
     <row r="825" spans="6:6" ht="13.2">
-      <c r="F825" s="19"/>
+      <c r="F825" s="15"/>
     </row>
     <row r="826" spans="6:6" ht="13.2">
-      <c r="F826" s="19"/>
+      <c r="F826" s="15"/>
     </row>
     <row r="827" spans="6:6" ht="13.2">
-      <c r="F827" s="19"/>
+      <c r="F827" s="15"/>
     </row>
     <row r="828" spans="6:6" ht="13.2">
-      <c r="F828" s="19"/>
+      <c r="F828" s="15"/>
     </row>
     <row r="829" spans="6:6" ht="13.2">
-      <c r="F829" s="19"/>
+      <c r="F829" s="15"/>
     </row>
     <row r="830" spans="6:6" ht="13.2">
-      <c r="F830" s="19"/>
+      <c r="F830" s="15"/>
     </row>
     <row r="831" spans="6:6" ht="13.2">
-      <c r="F831" s="19"/>
+      <c r="F831" s="15"/>
     </row>
     <row r="832" spans="6:6" ht="13.2">
-      <c r="F832" s="19"/>
+      <c r="F832" s="15"/>
     </row>
     <row r="833" spans="6:6" ht="13.2">
-      <c r="F833" s="19"/>
+      <c r="F833" s="15"/>
     </row>
     <row r="834" spans="6:6" ht="13.2">
-      <c r="F834" s="19"/>
+      <c r="F834" s="15"/>
     </row>
     <row r="835" spans="6:6" ht="13.2">
-      <c r="F835" s="19"/>
+      <c r="F835" s="15"/>
     </row>
     <row r="836" spans="6:6" ht="13.2">
-      <c r="F836" s="19"/>
+      <c r="F836" s="15"/>
     </row>
     <row r="837" spans="6:6" ht="13.2">
-      <c r="F837" s="19"/>
+      <c r="F837" s="15"/>
     </row>
     <row r="838" spans="6:6" ht="13.2">
-      <c r="F838" s="19"/>
+      <c r="F838" s="15"/>
     </row>
     <row r="839" spans="6:6" ht="13.2">
-      <c r="F839" s="19"/>
+      <c r="F839" s="15"/>
     </row>
     <row r="840" spans="6:6" ht="13.2">
-      <c r="F840" s="19"/>
+      <c r="F840" s="15"/>
     </row>
     <row r="841" spans="6:6" ht="13.2">
-      <c r="F841" s="19"/>
+      <c r="F841" s="15"/>
     </row>
     <row r="842" spans="6:6" ht="13.2">
-      <c r="F842" s="19"/>
+      <c r="F842" s="15"/>
     </row>
     <row r="843" spans="6:6" ht="13.2">
-      <c r="F843" s="19"/>
+      <c r="F843" s="15"/>
     </row>
     <row r="844" spans="6:6" ht="13.2">
-      <c r="F844" s="19"/>
+      <c r="F844" s="15"/>
     </row>
     <row r="845" spans="6:6" ht="13.2">
-      <c r="F845" s="19"/>
+      <c r="F845" s="15"/>
     </row>
     <row r="846" spans="6:6" ht="13.2">
-      <c r="F846" s="19"/>
+      <c r="F846" s="15"/>
     </row>
     <row r="847" spans="6:6" ht="13.2">
-      <c r="F847" s="19"/>
+      <c r="F847" s="15"/>
     </row>
     <row r="848" spans="6:6" ht="13.2">
-      <c r="F848" s="19"/>
+      <c r="F848" s="15"/>
     </row>
     <row r="849" spans="6:6" ht="13.2">
-      <c r="F849" s="19"/>
+      <c r="F849" s="15"/>
     </row>
     <row r="850" spans="6:6" ht="13.2">
-      <c r="F850" s="19"/>
+      <c r="F850" s="15"/>
     </row>
     <row r="851" spans="6:6" ht="13.2">
-      <c r="F851" s="19"/>
+      <c r="F851" s="15"/>
     </row>
     <row r="852" spans="6:6" ht="13.2">
-      <c r="F852" s="19"/>
+      <c r="F852" s="15"/>
     </row>
     <row r="853" spans="6:6" ht="13.2">
-      <c r="F853" s="19"/>
+      <c r="F853" s="15"/>
     </row>
     <row r="854" spans="6:6" ht="13.2">
-      <c r="F854" s="19"/>
+      <c r="F854" s="15"/>
     </row>
     <row r="855" spans="6:6" ht="13.2">
-      <c r="F855" s="19"/>
+      <c r="F855" s="15"/>
     </row>
     <row r="856" spans="6:6" ht="13.2">
-      <c r="F856" s="19"/>
+      <c r="F856" s="15"/>
     </row>
     <row r="857" spans="6:6" ht="13.2">
-      <c r="F857" s="19"/>
+      <c r="F857" s="15"/>
     </row>
     <row r="858" spans="6:6" ht="13.2">
-      <c r="F858" s="19"/>
+      <c r="F858" s="15"/>
     </row>
     <row r="859" spans="6:6" ht="13.2">
-      <c r="F859" s="19"/>
+      <c r="F859" s="15"/>
     </row>
     <row r="860" spans="6:6" ht="13.2">
-      <c r="F860" s="19"/>
+      <c r="F860" s="15"/>
     </row>
     <row r="861" spans="6:6" ht="13.2">
-      <c r="F861" s="19"/>
+      <c r="F861" s="15"/>
     </row>
     <row r="862" spans="6:6" ht="13.2">
-      <c r="F862" s="19"/>
+      <c r="F862" s="15"/>
     </row>
     <row r="863" spans="6:6" ht="13.2">
-      <c r="F863" s="19"/>
+      <c r="F863" s="15"/>
     </row>
     <row r="864" spans="6:6" ht="13.2">
-      <c r="F864" s="19"/>
+      <c r="F864" s="15"/>
     </row>
     <row r="865" spans="6:6" ht="13.2">
-      <c r="F865" s="19"/>
+      <c r="F865" s="15"/>
     </row>
     <row r="866" spans="6:6" ht="13.2">
-      <c r="F866" s="19"/>
+      <c r="F866" s="15"/>
     </row>
     <row r="867" spans="6:6" ht="13.2">
-      <c r="F867" s="19"/>
+      <c r="F867" s="15"/>
     </row>
     <row r="868" spans="6:6" ht="13.2">
-      <c r="F868" s="19"/>
+      <c r="F868" s="15"/>
     </row>
     <row r="869" spans="6:6" ht="13.2">
-      <c r="F869" s="19"/>
+      <c r="F869" s="15"/>
     </row>
     <row r="870" spans="6:6" ht="13.2">
-      <c r="F870" s="19"/>
+      <c r="F870" s="15"/>
     </row>
     <row r="871" spans="6:6" ht="13.2">
-      <c r="F871" s="19"/>
+      <c r="F871" s="15"/>
     </row>
     <row r="872" spans="6:6" ht="13.2">
-      <c r="F872" s="19"/>
+      <c r="F872" s="15"/>
     </row>
     <row r="873" spans="6:6" ht="13.2">
-      <c r="F873" s="19"/>
+      <c r="F873" s="15"/>
     </row>
     <row r="874" spans="6:6" ht="13.2">
-      <c r="F874" s="19"/>
+      <c r="F874" s="15"/>
     </row>
     <row r="875" spans="6:6" ht="13.2">
-      <c r="F875" s="19"/>
+      <c r="F875" s="15"/>
     </row>
     <row r="876" spans="6:6" ht="13.2">
-      <c r="F876" s="19"/>
+      <c r="F876" s="15"/>
     </row>
     <row r="877" spans="6:6" ht="13.2">
-      <c r="F877" s="19"/>
+      <c r="F877" s="15"/>
     </row>
     <row r="878" spans="6:6" ht="13.2">
-      <c r="F878" s="19"/>
+      <c r="F878" s="15"/>
     </row>
     <row r="879" spans="6:6" ht="13.2">
-      <c r="F879" s="19"/>
+      <c r="F879" s="15"/>
     </row>
     <row r="880" spans="6:6" ht="13.2">
-      <c r="F880" s="19"/>
+      <c r="F880" s="15"/>
     </row>
     <row r="881" spans="6:6" ht="13.2">
-      <c r="F881" s="19"/>
+      <c r="F881" s="15"/>
     </row>
     <row r="882" spans="6:6" ht="13.2">
-      <c r="F882" s="19"/>
+      <c r="F882" s="15"/>
     </row>
     <row r="883" spans="6:6" ht="13.2">
-      <c r="F883" s="19"/>
+      <c r="F883" s="15"/>
     </row>
     <row r="884" spans="6:6" ht="13.2">
-      <c r="F884" s="19"/>
+      <c r="F884" s="15"/>
     </row>
     <row r="885" spans="6:6" ht="13.2">
-      <c r="F885" s="19"/>
+      <c r="F885" s="15"/>
     </row>
     <row r="886" spans="6:6" ht="13.2">
-      <c r="F886" s="19"/>
+      <c r="F886" s="15"/>
     </row>
     <row r="887" spans="6:6" ht="13.2">
-      <c r="F887" s="19"/>
+      <c r="F887" s="15"/>
     </row>
     <row r="888" spans="6:6" ht="13.2">
-      <c r="F888" s="19"/>
+      <c r="F888" s="15"/>
     </row>
     <row r="889" spans="6:6" ht="13.2">
-      <c r="F889" s="19"/>
+      <c r="F889" s="15"/>
     </row>
     <row r="890" spans="6:6" ht="13.2">
-      <c r="F890" s="19"/>
+      <c r="F890" s="15"/>
     </row>
     <row r="891" spans="6:6" ht="13.2">
-      <c r="F891" s="19"/>
+      <c r="F891" s="15"/>
     </row>
     <row r="892" spans="6:6" ht="13.2">
-      <c r="F892" s="19"/>
+      <c r="F892" s="15"/>
     </row>
     <row r="893" spans="6:6" ht="13.2">
-      <c r="F893" s="19"/>
+      <c r="F893" s="15"/>
     </row>
     <row r="894" spans="6:6" ht="13.2">
-      <c r="F894" s="19"/>
+      <c r="F894" s="15"/>
     </row>
     <row r="895" spans="6:6" ht="13.2">
-      <c r="F895" s="19"/>
+      <c r="F895" s="15"/>
     </row>
     <row r="896" spans="6:6" ht="13.2">
-      <c r="F896" s="19"/>
+      <c r="F896" s="15"/>
     </row>
     <row r="897" spans="6:6" ht="13.2">
-      <c r="F897" s="19"/>
+      <c r="F897" s="15"/>
     </row>
     <row r="898" spans="6:6" ht="13.2">
-      <c r="F898" s="19"/>
+      <c r="F898" s="15"/>
     </row>
     <row r="899" spans="6:6" ht="13.2">
-      <c r="F899" s="19"/>
+      <c r="F899" s="15"/>
     </row>
     <row r="900" spans="6:6" ht="13.2">
-      <c r="F900" s="19"/>
+      <c r="F900" s="15"/>
     </row>
     <row r="901" spans="6:6" ht="13.2">
-      <c r="F901" s="19"/>
+      <c r="F901" s="15"/>
     </row>
     <row r="902" spans="6:6" ht="13.2">
-      <c r="F902" s="19"/>
+      <c r="F902" s="15"/>
     </row>
     <row r="903" spans="6:6" ht="13.2">
-      <c r="F903" s="19"/>
+      <c r="F903" s="15"/>
     </row>
     <row r="904" spans="6:6" ht="13.2">
-      <c r="F904" s="19"/>
+      <c r="F904" s="15"/>
     </row>
     <row r="905" spans="6:6" ht="13.2">
-      <c r="F905" s="19"/>
+      <c r="F905" s="15"/>
     </row>
     <row r="906" spans="6:6" ht="13.2">
-      <c r="F906" s="19"/>
+      <c r="F906" s="15"/>
     </row>
     <row r="907" spans="6:6" ht="13.2">
-      <c r="F907" s="19"/>
+      <c r="F907" s="15"/>
     </row>
     <row r="908" spans="6:6" ht="13.2">
-      <c r="F908" s="19"/>
+      <c r="F908" s="15"/>
     </row>
     <row r="909" spans="6:6" ht="13.2">
-      <c r="F909" s="19"/>
+      <c r="F909" s="15"/>
     </row>
     <row r="910" spans="6:6" ht="13.2">
-      <c r="F910" s="19"/>
+      <c r="F910" s="15"/>
     </row>
     <row r="911" spans="6:6" ht="13.2">
-      <c r="F911" s="19"/>
+      <c r="F911" s="15"/>
     </row>
     <row r="912" spans="6:6" ht="13.2">
-      <c r="F912" s="19"/>
+      <c r="F912" s="15"/>
     </row>
     <row r="913" spans="6:6" ht="13.2">
-      <c r="F913" s="19"/>
+      <c r="F913" s="15"/>
     </row>
     <row r="914" spans="6:6" ht="13.2">
-      <c r="F914" s="19"/>
+      <c r="F914" s="15"/>
     </row>
     <row r="915" spans="6:6" ht="13.2">
-      <c r="F915" s="19"/>
+      <c r="F915" s="15"/>
     </row>
     <row r="916" spans="6:6" ht="13.2">
-      <c r="F916" s="19"/>
+      <c r="F916" s="15"/>
     </row>
     <row r="917" spans="6:6" ht="13.2">
-      <c r="F917" s="19"/>
+      <c r="F917" s="15"/>
     </row>
     <row r="918" spans="6:6" ht="13.2">
-      <c r="F918" s="19"/>
+      <c r="F918" s="15"/>
     </row>
     <row r="919" spans="6:6" ht="13.2">
-      <c r="F919" s="19"/>
+      <c r="F919" s="15"/>
     </row>
     <row r="920" spans="6:6" ht="13.2">
-      <c r="F920" s="19"/>
+      <c r="F920" s="15"/>
     </row>
     <row r="921" spans="6:6" ht="13.2">
-      <c r="F921" s="19"/>
+      <c r="F921" s="15"/>
     </row>
     <row r="922" spans="6:6" ht="13.2">
-      <c r="F922" s="19"/>
+      <c r="F922" s="15"/>
     </row>
     <row r="923" spans="6:6" ht="13.2">
-      <c r="F923" s="19"/>
+      <c r="F923" s="15"/>
     </row>
     <row r="924" spans="6:6" ht="13.2">
-      <c r="F924" s="19"/>
+      <c r="F924" s="15"/>
     </row>
     <row r="925" spans="6:6" ht="13.2">
-      <c r="F925" s="19"/>
+      <c r="F925" s="15"/>
     </row>
     <row r="926" spans="6:6" ht="13.2">
-      <c r="F926" s="19"/>
+      <c r="F926" s="15"/>
     </row>
     <row r="927" spans="6:6" ht="13.2">
-      <c r="F927" s="19"/>
+      <c r="F927" s="15"/>
     </row>
     <row r="928" spans="6:6" ht="13.2">
-      <c r="F928" s="19"/>
+      <c r="F928" s="15"/>
     </row>
     <row r="929" spans="6:6" ht="13.2">
-      <c r="F929" s="19"/>
+      <c r="F929" s="15"/>
     </row>
     <row r="930" spans="6:6" ht="13.2">
-      <c r="F930" s="19"/>
+      <c r="F930" s="15"/>
     </row>
     <row r="931" spans="6:6" ht="13.2">
-      <c r="F931" s="19"/>
+      <c r="F931" s="15"/>
     </row>
     <row r="932" spans="6:6" ht="13.2">
-      <c r="F932" s="19"/>
+      <c r="F932" s="15"/>
     </row>
     <row r="933" spans="6:6" ht="13.2">
-      <c r="F933" s="19"/>
+      <c r="F933" s="15"/>
     </row>
     <row r="934" spans="6:6" ht="13.2">
-      <c r="F934" s="19"/>
+      <c r="F934" s="15"/>
     </row>
     <row r="935" spans="6:6" ht="13.2">
-      <c r="F935" s="19"/>
+      <c r="F935" s="15"/>
     </row>
     <row r="936" spans="6:6" ht="13.2">
-      <c r="F936" s="19"/>
+      <c r="F936" s="15"/>
     </row>
     <row r="937" spans="6:6" ht="13.2">
-      <c r="F937" s="19"/>
+      <c r="F937" s="15"/>
     </row>
     <row r="938" spans="6:6" ht="13.2">
-      <c r="F938" s="19"/>
+      <c r="F938" s="15"/>
     </row>
     <row r="939" spans="6:6" ht="13.2">
-      <c r="F939" s="19"/>
+      <c r="F939" s="15"/>
     </row>
     <row r="940" spans="6:6" ht="13.2">
-      <c r="F940" s="19"/>
+      <c r="F940" s="15"/>
     </row>
     <row r="941" spans="6:6" ht="13.2">
-      <c r="F941" s="19"/>
+      <c r="F941" s="15"/>
     </row>
     <row r="942" spans="6:6" ht="13.2">
-      <c r="F942" s="19"/>
+      <c r="F942" s="15"/>
     </row>
     <row r="943" spans="6:6" ht="13.2">
-      <c r="F943" s="19"/>
+      <c r="F943" s="15"/>
     </row>
     <row r="944" spans="6:6" ht="13.2">
-      <c r="F944" s="19"/>
+      <c r="F944" s="15"/>
     </row>
     <row r="945" spans="6:6" ht="13.2">
-      <c r="F945" s="19"/>
+      <c r="F945" s="15"/>
     </row>
     <row r="946" spans="6:6" ht="13.2">
-      <c r="F946" s="19"/>
+      <c r="F946" s="15"/>
     </row>
     <row r="947" spans="6:6" ht="13.2">
-      <c r="F947" s="19"/>
+      <c r="F947" s="15"/>
     </row>
     <row r="948" spans="6:6" ht="13.2">
-      <c r="F948" s="19"/>
+      <c r="F948" s="15"/>
     </row>
     <row r="949" spans="6:6" ht="13.2">
-      <c r="F949" s="19"/>
+      <c r="F949" s="15"/>
     </row>
     <row r="950" spans="6:6" ht="13.2">
-      <c r="F950" s="19"/>
+      <c r="F950" s="15"/>
     </row>
     <row r="951" spans="6:6" ht="13.2">
-      <c r="F951" s="19"/>
+      <c r="F951" s="15"/>
     </row>
     <row r="952" spans="6:6" ht="13.2">
-      <c r="F952" s="19"/>
+      <c r="F952" s="15"/>
     </row>
     <row r="953" spans="6:6" ht="13.2">
-      <c r="F953" s="19"/>
+      <c r="F953" s="15"/>
     </row>
     <row r="954" spans="6:6" ht="13.2">
-      <c r="F954" s="19"/>
+      <c r="F954" s="15"/>
     </row>
     <row r="955" spans="6:6" ht="13.2">
-      <c r="F955" s="19"/>
+      <c r="F955" s="15"/>
     </row>
     <row r="956" spans="6:6" ht="13.2">
-      <c r="F956" s="19"/>
+      <c r="F956" s="15"/>
     </row>
     <row r="957" spans="6:6" ht="13.2">
-      <c r="F957" s="19"/>
+      <c r="F957" s="15"/>
     </row>
     <row r="958" spans="6:6" ht="13.2">
-      <c r="F958" s="19"/>
+      <c r="F958" s="15"/>
     </row>
     <row r="959" spans="6:6" ht="13.2">
-      <c r="F959" s="19"/>
+      <c r="F959" s="15"/>
     </row>
     <row r="960" spans="6:6" ht="13.2">
-      <c r="F960" s="19"/>
+      <c r="F960" s="15"/>
     </row>
     <row r="961" spans="6:6" ht="13.2">
-      <c r="F961" s="19"/>
+      <c r="F961" s="15"/>
     </row>
     <row r="962" spans="6:6" ht="13.2">
-      <c r="F962" s="19"/>
+      <c r="F962" s="15"/>
     </row>
     <row r="963" spans="6:6" ht="13.2">
-      <c r="F963" s="19"/>
+      <c r="F963" s="15"/>
     </row>
     <row r="964" spans="6:6" ht="13.2">
-      <c r="F964" s="19"/>
+      <c r="F964" s="15"/>
     </row>
     <row r="965" spans="6:6" ht="13.2">
-      <c r="F965" s="19"/>
+      <c r="F965" s="15"/>
     </row>
     <row r="966" spans="6:6" ht="13.2">
-      <c r="F966" s="19"/>
+      <c r="F966" s="15"/>
     </row>
     <row r="967" spans="6:6" ht="13.2">
-      <c r="F967" s="19"/>
+      <c r="F967" s="15"/>
     </row>
     <row r="968" spans="6:6" ht="13.2">
-      <c r="F968" s="19"/>
+      <c r="F968" s="15"/>
     </row>
     <row r="969" spans="6:6" ht="13.2">
-      <c r="F969" s="19"/>
+      <c r="F969" s="15"/>
     </row>
     <row r="970" spans="6:6" ht="13.2">
-      <c r="F970" s="19"/>
+      <c r="F970" s="15"/>
     </row>
     <row r="971" spans="6:6" ht="13.2">
-      <c r="F971" s="19"/>
+      <c r="F971" s="15"/>
     </row>
     <row r="972" spans="6:6" ht="13.2">
-      <c r="F972" s="19"/>
+      <c r="F972" s="15"/>
     </row>
     <row r="973" spans="6:6" ht="13.2">
-      <c r="F973" s="19"/>
+      <c r="F973" s="15"/>
     </row>
     <row r="974" spans="6:6" ht="13.2">
-      <c r="F974" s="19"/>
+      <c r="F974" s="15"/>
     </row>
     <row r="975" spans="6:6" ht="13.2">
-      <c r="F975" s="19"/>
+      <c r="F975" s="15"/>
     </row>
     <row r="976" spans="6:6" ht="13.2">
-      <c r="F976" s="19"/>
+      <c r="F976" s="15"/>
     </row>
     <row r="977" spans="6:6" ht="13.2">
-      <c r="F977" s="19"/>
+      <c r="F977" s="15"/>
     </row>
     <row r="978" spans="6:6" ht="13.2">
-      <c r="F978" s="19"/>
+      <c r="F978" s="15"/>
     </row>
     <row r="979" spans="6:6" ht="13.2">
-      <c r="F979" s="19"/>
+      <c r="F979" s="15"/>
     </row>
     <row r="980" spans="6:6" ht="13.2">
-      <c r="F980" s="19"/>
+      <c r="F980" s="15"/>
     </row>
     <row r="981" spans="6:6" ht="13.2">
-      <c r="F981" s="19"/>
+      <c r="F981" s="15"/>
     </row>
     <row r="982" spans="6:6" ht="13.2">
-      <c r="F982" s="19"/>
+      <c r="F982" s="15"/>
     </row>
     <row r="983" spans="6:6" ht="13.2">
-      <c r="F983" s="19"/>
+      <c r="F983" s="15"/>
     </row>
     <row r="984" spans="6:6" ht="13.2">
-      <c r="F984" s="19"/>
+      <c r="F984" s="15"/>
     </row>
     <row r="985" spans="6:6" ht="13.2">
-      <c r="F985" s="19"/>
+      <c r="F985" s="15"/>
     </row>
     <row r="986" spans="6:6" ht="13.2">
-      <c r="F986" s="19"/>
+      <c r="F986" s="15"/>
     </row>
     <row r="987" spans="6:6" ht="13.2">
-      <c r="F987" s="19"/>
+      <c r="F987" s="15"/>
     </row>
     <row r="988" spans="6:6" ht="13.2">
-      <c r="F988" s="19"/>
+      <c r="F988" s="15"/>
     </row>
     <row r="989" spans="6:6" ht="13.2">
-      <c r="F989" s="19"/>
+      <c r="F989" s="15"/>
     </row>
     <row r="990" spans="6:6" ht="13.2">
-      <c r="F990" s="19"/>
+      <c r="F990" s="15"/>
     </row>
     <row r="991" spans="6:6" ht="13.2">
-      <c r="F991" s="19"/>
-    </row>
-    <row r="992" spans="6:6" ht="13.2">
-      <c r="F992" s="19"/>
-    </row>
-    <row r="993" spans="6:6" ht="13.2">
-      <c r="F993" s="19"/>
-    </row>
-    <row r="994" spans="6:6" ht="13.2">
-      <c r="F994" s="19"/>
-    </row>
-    <row r="995" spans="6:6" ht="13.2">
-      <c r="F995" s="19"/>
-    </row>
-    <row r="996" spans="6:6" ht="13.2">
-      <c r="F996" s="19"/>
+      <c r="F991" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5710,7 +5966,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22:I23"/>
+      <selection activeCell="C2" sqref="C2:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5725,560 +5981,560 @@
     <col min="9" max="9" width="34.33203125" customWidth="1"/>
     <col min="10" max="10" width="24.6640625" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" style="26" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="207" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="84"/>
+      <c r="B2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="104" t="s">
+      <c r="K2" s="39"/>
+      <c r="L2" s="75" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="175.5" customHeight="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="67" t="s">
         <v>308</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="104" t="s">
+      <c r="K3" s="39"/>
+      <c r="L3" s="75" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="124.2">
-      <c r="A4" s="78"/>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="71" t="s">
+      <c r="J4" s="67" t="s">
         <v>308</v>
       </c>
-      <c r="K4" s="46"/>
-      <c r="L4" s="104" t="s">
+      <c r="K4" s="42"/>
+      <c r="L4" s="75" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="124.2">
-      <c r="A5" s="78"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="31" t="s">
+      <c r="A5" s="85"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="67" t="s">
         <v>308</v>
       </c>
-      <c r="K5" s="46"/>
-      <c r="L5" s="104" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="75" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="124.2">
-      <c r="A6" s="78"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="31" t="s">
+      <c r="A6" s="85"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="J6" s="71" t="s">
+      <c r="J6" s="67" t="s">
         <v>308</v>
       </c>
-      <c r="K6" s="46"/>
-      <c r="L6" s="104" t="s">
+      <c r="K6" s="42"/>
+      <c r="L6" s="75" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="124.2">
-      <c r="A7" s="78"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="31" t="s">
+      <c r="A7" s="85"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="J7" s="71" t="s">
+      <c r="J7" s="67" t="s">
         <v>308</v>
       </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="104" t="s">
+      <c r="K7" s="42"/>
+      <c r="L7" s="75" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="124.2">
-      <c r="A8" s="78"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="31" t="s">
+      <c r="A8" s="85"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="J8" s="71" t="s">
+      <c r="J8" s="67" t="s">
         <v>308</v>
       </c>
-      <c r="K8" s="46"/>
-      <c r="L8" s="104" t="s">
+      <c r="K8" s="42"/>
+      <c r="L8" s="75" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="162" customHeight="1">
-      <c r="A9" s="78"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="31" t="s">
+      <c r="A9" s="85"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="J9" s="71" t="s">
+      <c r="J9" s="67" t="s">
         <v>308</v>
       </c>
-      <c r="K9" s="46"/>
-      <c r="L9" s="104" t="s">
+      <c r="K9" s="42"/>
+      <c r="L9" s="75" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="183" customHeight="1">
-      <c r="A10" s="78"/>
-      <c r="B10" s="83" t="s">
+      <c r="A10" s="85"/>
+      <c r="B10" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="32" t="s">
+      <c r="E10" s="25"/>
+      <c r="F10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="71" t="s">
+      <c r="J10" s="67" t="s">
         <v>308</v>
       </c>
-      <c r="K10" s="27"/>
-      <c r="L10" s="105" t="s">
+      <c r="K10" s="23"/>
+      <c r="L10" s="76" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="183" customHeight="1">
-      <c r="A11" s="78"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="31" t="s">
+      <c r="A11" s="85"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="32" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="I11" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="J11" s="71" t="s">
+      <c r="J11" s="67" t="s">
         <v>308</v>
       </c>
-      <c r="K11" s="27"/>
-      <c r="L11" s="105" t="s">
+      <c r="K11" s="23"/>
+      <c r="L11" s="76" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="183" customHeight="1">
-      <c r="A12" s="78"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="31" t="s">
+      <c r="A12" s="85"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="32" t="s">
+      <c r="E12" s="25"/>
+      <c r="F12" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="44" t="s">
+      <c r="I12" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="J12" s="71" t="s">
+      <c r="J12" s="67" t="s">
         <v>308</v>
       </c>
-      <c r="K12" s="27"/>
-      <c r="L12" s="105" t="s">
+      <c r="K12" s="23"/>
+      <c r="L12" s="76" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="157.5" customHeight="1">
-      <c r="A13" s="78"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="31" t="s">
+      <c r="A13" s="85"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="32" t="s">
+      <c r="E13" s="25"/>
+      <c r="F13" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="41" t="s">
+      <c r="H13" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="J13" s="71" t="s">
+      <c r="J13" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="K13" s="27"/>
-      <c r="L13" s="110" t="s">
+      <c r="K13" s="23"/>
+      <c r="L13" s="81" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="128.4">
-      <c r="A14" s="78"/>
-      <c r="B14" s="35" t="s">
+      <c r="A14" s="85"/>
+      <c r="B14" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="47" t="s">
+      <c r="I14" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="71" t="s">
+      <c r="J14" s="67" t="s">
         <v>310</v>
       </c>
-      <c r="K14" s="46"/>
-      <c r="L14" s="104" t="s">
+      <c r="K14" s="42"/>
+      <c r="L14" s="75" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="83.4">
-      <c r="A15" s="79"/>
-      <c r="B15" s="37" t="s">
+      <c r="A15" s="86"/>
+      <c r="B15" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="32" t="s">
+      <c r="E15" s="25"/>
+      <c r="F15" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="71" t="s">
+      <c r="J15" s="67" t="s">
         <v>309</v>
       </c>
-      <c r="K15" s="27"/>
-      <c r="L15" s="105" t="s">
+      <c r="K15" s="23"/>
+      <c r="L15" s="76" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="78"/>
+      <c r="A16" s="85"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="78"/>
+      <c r="A17" s="85"/>
     </row>
     <row r="18" spans="1:4" ht="13.8">
-      <c r="A18" s="78"/>
-      <c r="D18" s="48"/>
+      <c r="A18" s="85"/>
+      <c r="D18" s="44"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="78"/>
+      <c r="A19" s="85"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="78"/>
+      <c r="A20" s="85"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="78"/>
+      <c r="A21" s="85"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="78"/>
+      <c r="A22" s="85"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="78"/>
+      <c r="A23" s="85"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="78"/>
+      <c r="A24" s="85"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="78"/>
+      <c r="A25" s="85"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="78"/>
+      <c r="A26" s="85"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="78"/>
+      <c r="A27" s="85"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="78"/>
+      <c r="A28" s="85"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="78"/>
+      <c r="A29" s="85"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="78"/>
+      <c r="A30" s="85"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="78"/>
+      <c r="A31" s="85"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="78"/>
+      <c r="A32" s="85"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="78"/>
+      <c r="A33" s="85"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="78"/>
+      <c r="A34" s="85"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="78"/>
+      <c r="A35" s="85"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="80"/>
+      <c r="A36" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6314,194 +6570,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="45" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="207.75" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="84"/>
+      <c r="B2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="67" t="s">
         <v>304</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="65" t="s">
+      <c r="K2" s="39"/>
+      <c r="L2" s="61" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="220.5" customHeight="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="108" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="67" t="s">
         <v>305</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="109" t="s">
+      <c r="K3" s="38"/>
+      <c r="L3" s="80" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="409.5" customHeight="1">
-      <c r="A4" s="78"/>
+      <c r="A4" s="85"/>
     </row>
     <row r="5" spans="1:12" ht="409.5" customHeight="1">
-      <c r="A5" s="78"/>
+      <c r="A5" s="85"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="78"/>
+      <c r="A6" s="85"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="78"/>
+      <c r="A7" s="85"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="78"/>
+      <c r="A8" s="85"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="78"/>
+      <c r="A9" s="85"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="78"/>
+      <c r="A10" s="85"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="78"/>
+      <c r="A11" s="85"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="78"/>
+      <c r="A12" s="85"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="78"/>
+      <c r="A13" s="85"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="78"/>
+      <c r="A14" s="85"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="78"/>
+      <c r="A15" s="85"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="78"/>
+      <c r="A16" s="85"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="78"/>
+      <c r="A17" s="85"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="78"/>
+      <c r="A18" s="85"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="78"/>
+      <c r="A19" s="85"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="78"/>
+      <c r="A20" s="85"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="78"/>
+      <c r="A21" s="85"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="78"/>
+      <c r="A22" s="85"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="78"/>
+      <c r="A23" s="85"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="78"/>
+      <c r="A24" s="85"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="78"/>
+      <c r="A25" s="85"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="78"/>
+      <c r="A26" s="85"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="78"/>
+      <c r="A27" s="85"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="78"/>
+      <c r="A28" s="85"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="78"/>
+      <c r="A29" s="85"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="78"/>
+      <c r="A30" s="85"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="80"/>
+      <c r="A31" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6534,163 +6790,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="213" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="84"/>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="67" t="s">
         <v>303</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="107" t="s">
+      <c r="K2" s="17"/>
+      <c r="L2" s="78" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="78"/>
+      <c r="A3" s="85"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="78"/>
+      <c r="A4" s="85"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="78"/>
+      <c r="A5" s="85"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="78"/>
+      <c r="A6" s="85"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="78"/>
+      <c r="A7" s="85"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="78"/>
+      <c r="A8" s="85"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="78"/>
+      <c r="A9" s="85"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="78"/>
+      <c r="A10" s="85"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="78"/>
+      <c r="A11" s="85"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="78"/>
+      <c r="A12" s="85"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="78"/>
+      <c r="A13" s="85"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="78"/>
+      <c r="A14" s="85"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="78"/>
+      <c r="A15" s="85"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="78"/>
+      <c r="A16" s="85"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="78"/>
+      <c r="A17" s="85"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="78"/>
+      <c r="A18" s="85"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="78"/>
+      <c r="A19" s="85"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="78"/>
+      <c r="A20" s="85"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="78"/>
+      <c r="A21" s="85"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="78"/>
+      <c r="A22" s="85"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="78"/>
+      <c r="A23" s="85"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="78"/>
+      <c r="A24" s="85"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="78"/>
+      <c r="A25" s="85"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="78"/>
+      <c r="A26" s="85"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="78"/>
+      <c r="A27" s="85"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="78"/>
+      <c r="A28" s="85"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="78"/>
+      <c r="A29" s="85"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="78"/>
+      <c r="A30" s="85"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="80"/>
+      <c r="A31" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6705,7 +6961,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6723,293 +6979,293 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="45" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="179.25" customHeight="1">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="102" t="s">
+      <c r="G2" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="67" t="s">
         <v>295</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="104" t="s">
+      <c r="J2" s="73"/>
+      <c r="K2" s="75" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="148.5" customHeight="1">
-      <c r="A3" s="82"/>
-      <c r="B3" s="73" t="s">
+      <c r="A3" s="89"/>
+      <c r="B3" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="102" t="s">
+      <c r="G3" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="67" t="s">
         <v>296</v>
       </c>
-      <c r="J3" s="102"/>
-      <c r="K3" s="104" t="s">
+      <c r="J3" s="73"/>
+      <c r="K3" s="75" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="195">
-      <c r="A4" s="81" t="s">
+    <row r="4" spans="1:11" ht="135">
+      <c r="A4" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="102" t="s">
+      <c r="G4" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="71" t="s">
+      <c r="I4" s="67" t="s">
         <v>297</v>
       </c>
-      <c r="J4" s="102"/>
-      <c r="K4" s="104" t="s">
+      <c r="J4" s="73"/>
+      <c r="K4" s="75" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="255">
-      <c r="A5" s="82"/>
-      <c r="B5" s="73" t="s">
+    <row r="5" spans="1:11" ht="135">
+      <c r="A5" s="89"/>
+      <c r="B5" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="102" t="s">
+      <c r="G5" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="71" t="s">
+      <c r="I5" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="J5" s="103"/>
-      <c r="K5" s="105" t="s">
+      <c r="J5" s="74"/>
+      <c r="K5" s="76" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="180">
-      <c r="A6" s="81" t="s">
+    <row r="6" spans="1:11" ht="135">
+      <c r="A6" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="102" t="s">
+      <c r="D6" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="102" t="s">
+      <c r="G6" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="71" t="s">
+      <c r="I6" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="J6" s="102"/>
-      <c r="K6" s="104" t="s">
+      <c r="J6" s="73"/>
+      <c r="K6" s="75" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="135">
-      <c r="A7" s="82"/>
-      <c r="B7" s="73" t="s">
+      <c r="A7" s="89"/>
+      <c r="B7" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="102" t="s">
+      <c r="D7" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="102" t="s">
+      <c r="G7" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="I7" s="71" t="s">
+      <c r="I7" s="67" t="s">
         <v>299</v>
       </c>
-      <c r="J7" s="102"/>
-      <c r="K7" s="104" t="s">
+      <c r="J7" s="73"/>
+      <c r="K7" s="75" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="135">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="102" t="s">
+      <c r="D8" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="102" t="s">
+      <c r="G8" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="71" t="s">
+      <c r="I8" s="67" t="s">
         <v>301</v>
       </c>
-      <c r="J8" s="102"/>
-      <c r="K8" s="104" t="s">
+      <c r="J8" s="73"/>
+      <c r="K8" s="75" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="135">
-      <c r="A9" s="82"/>
-      <c r="B9" s="73" t="s">
+      <c r="A9" s="89"/>
+      <c r="B9" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="102" t="s">
+      <c r="D9" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="102" t="s">
+      <c r="G9" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="71" t="s">
+      <c r="I9" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="J9" s="103"/>
-      <c r="K9" s="105" t="s">
+      <c r="J9" s="74"/>
+      <c r="K9" s="76" t="s">
         <v>280</v>
       </c>
     </row>
@@ -7029,8 +7285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -7048,983 +7304,983 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="204.75" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="67" t="s">
         <v>288</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69" t="s">
+      <c r="J2" s="64"/>
+      <c r="K2" s="65" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="239.25" customHeight="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="68" t="s">
+      <c r="I3" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69" t="s">
+      <c r="J3" s="64"/>
+      <c r="K3" s="65" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="239.25" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="94"/>
+      <c r="B4" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="I4" s="68" t="s">
+      <c r="I4" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="J4" s="68"/>
-      <c r="K4" s="70" t="s">
+      <c r="J4" s="64"/>
+      <c r="K4" s="66" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="239.25" customHeight="1">
-      <c r="A5" s="87"/>
-      <c r="B5" s="73" t="s">
+      <c r="A5" s="94"/>
+      <c r="B5" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="I5" s="68" t="s">
+      <c r="I5" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="70" t="s">
+      <c r="J5" s="40"/>
+      <c r="K5" s="66" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="221.25" customHeight="1">
-      <c r="A6" s="87"/>
-      <c r="B6" s="73" t="s">
+      <c r="A6" s="94"/>
+      <c r="B6" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="68" t="s">
+      <c r="G6" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="68" t="s">
+      <c r="I6" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="J6" s="44"/>
-      <c r="K6" s="70" t="s">
+      <c r="J6" s="40"/>
+      <c r="K6" s="66" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="221.25" customHeight="1">
-      <c r="A7" s="36"/>
-      <c r="B7" s="73" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="I7" s="68" t="s">
+      <c r="I7" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="70" t="s">
+      <c r="J7" s="40"/>
+      <c r="K7" s="66" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="221.25" customHeight="1">
-      <c r="A8" s="36"/>
-      <c r="B8" s="73" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="G8" s="68" t="s">
+      <c r="G8" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="68" t="s">
+      <c r="I8" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="J8" s="44"/>
-      <c r="K8" s="70" t="s">
+      <c r="J8" s="40"/>
+      <c r="K8" s="66" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="221.25" customHeight="1">
-      <c r="A9" s="36"/>
-      <c r="B9" s="73" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="G9" s="68" t="s">
+      <c r="G9" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="68" t="s">
+      <c r="I9" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="70" t="s">
+      <c r="J9" s="40"/>
+      <c r="K9" s="66" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="221.25" customHeight="1">
-      <c r="A10" s="36"/>
-      <c r="B10" s="73" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="G10" s="68" t="s">
+      <c r="G10" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="68" t="s">
+      <c r="I10" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="70" t="s">
+      <c r="J10" s="40"/>
+      <c r="K10" s="66" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="221.25" customHeight="1">
-      <c r="A11" s="36"/>
-      <c r="B11" s="73" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="44" t="s">
+      <c r="H11" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="I11" s="68" t="s">
+      <c r="I11" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="J11" s="44"/>
-      <c r="K11" s="70" t="s">
+      <c r="J11" s="40"/>
+      <c r="K11" s="66" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="221.25" customHeight="1">
-      <c r="A12" s="36"/>
-      <c r="B12" s="73" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="I12" s="68" t="s">
+      <c r="I12" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="J12" s="44"/>
-      <c r="K12" s="70" t="s">
+      <c r="J12" s="40"/>
+      <c r="K12" s="66" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="233.25" customHeight="1">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="G13" s="68" t="s">
+      <c r="G13" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="I13" s="68" t="s">
+      <c r="I13" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="J13" s="68"/>
-      <c r="K13" s="70" t="s">
+      <c r="J13" s="64"/>
+      <c r="K13" s="66" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="207.75" customHeight="1">
-      <c r="A14" s="89"/>
-      <c r="B14" s="73" t="s">
+      <c r="A14" s="96"/>
+      <c r="B14" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="68" t="s">
+      <c r="E14" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="G14" s="68" t="s">
+      <c r="G14" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="I14" s="68" t="s">
+      <c r="I14" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="J14" s="68"/>
-      <c r="K14" s="70" t="s">
+      <c r="J14" s="64"/>
+      <c r="K14" s="66" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="207.75" customHeight="1">
-      <c r="A15" s="36"/>
-      <c r="B15" s="73" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="69" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="68" t="s">
+      <c r="E15" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F15" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="G15" s="68" t="s">
+      <c r="G15" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="72" t="s">
+      <c r="I15" s="68" t="s">
         <v>289</v>
       </c>
-      <c r="J15" s="68"/>
-      <c r="K15" s="70" t="s">
+      <c r="J15" s="64"/>
+      <c r="K15" s="66" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="129.6">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:11" ht="128.4">
+      <c r="A16" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="69" t="s">
         <v>192</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="68" t="s">
+      <c r="E16" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="G16" s="68" t="s">
+      <c r="G16" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="75" t="s">
+      <c r="H16" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="I16" s="76" t="s">
+      <c r="I16" s="72" t="s">
         <v>290</v>
       </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="70" t="s">
+      <c r="J16" s="64"/>
+      <c r="K16" s="66" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="108" customHeight="1">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="69" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="68" t="s">
+      <c r="D17" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="68" t="s">
+      <c r="E17" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="F17" s="68" t="s">
+      <c r="F17" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="G17" s="68" t="s">
+      <c r="G17" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="I17" s="76" t="s">
+      <c r="I17" s="72" t="s">
         <v>291</v>
       </c>
-      <c r="J17" s="68"/>
-      <c r="K17" s="70" t="s">
+      <c r="J17" s="64"/>
+      <c r="K17" s="66" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="71.25" customHeight="1">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="68" t="s">
+      <c r="E18" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="F18" s="68" t="s">
+      <c r="F18" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="G18" s="68" t="s">
+      <c r="G18" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="68" t="s">
+      <c r="I18" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="J18" s="68"/>
-      <c r="K18" s="70" t="s">
+      <c r="J18" s="64"/>
+      <c r="K18" s="66" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="90">
-      <c r="A19" s="94"/>
-      <c r="B19" s="73" t="s">
+      <c r="A19" s="101"/>
+      <c r="B19" s="69" t="s">
         <v>180</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="68" t="s">
+      <c r="D19" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="68" t="s">
+      <c r="E19" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="F19" s="68" t="s">
+      <c r="F19" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="G19" s="68" t="s">
+      <c r="G19" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="I19" s="68" t="s">
+      <c r="I19" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="J19" s="68"/>
-      <c r="K19" s="70" t="s">
+      <c r="J19" s="64"/>
+      <c r="K19" s="66" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="90">
-      <c r="A20" s="94"/>
-      <c r="B20" s="73" t="s">
+      <c r="A20" s="101"/>
+      <c r="B20" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="68" t="s">
+      <c r="D20" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="68" t="s">
+      <c r="E20" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="F20" s="68" t="s">
+      <c r="F20" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="G20" s="68" t="s">
+      <c r="G20" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="68" t="s">
+      <c r="I20" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="J20" s="44"/>
-      <c r="K20" s="70" t="s">
+      <c r="J20" s="40"/>
+      <c r="K20" s="66" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="90">
-      <c r="A21" s="94"/>
-      <c r="B21" s="73" t="s">
+      <c r="A21" s="101"/>
+      <c r="B21" s="69" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="68" t="s">
+      <c r="E21" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="F21" s="68" t="s">
+      <c r="F21" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="G21" s="68" t="s">
+      <c r="G21" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="I21" s="68" t="s">
+      <c r="I21" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="J21" s="44"/>
-      <c r="K21" s="70" t="s">
+      <c r="J21" s="40"/>
+      <c r="K21" s="66" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="90">
-      <c r="A22" s="94"/>
-      <c r="B22" s="73" t="s">
+      <c r="A22" s="101"/>
+      <c r="B22" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="68" t="s">
+      <c r="E22" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="F22" s="68" t="s">
+      <c r="F22" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="G22" s="68" t="s">
+      <c r="G22" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="44" t="s">
+      <c r="H22" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="I22" s="68" t="s">
+      <c r="I22" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="J22" s="44"/>
-      <c r="K22" s="70" t="s">
+      <c r="J22" s="40"/>
+      <c r="K22" s="66" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="90">
-      <c r="A23" s="94"/>
-      <c r="B23" s="73" t="s">
+      <c r="A23" s="101"/>
+      <c r="B23" s="69" t="s">
         <v>184</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="68" t="s">
+      <c r="E23" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="F23" s="68" t="s">
+      <c r="F23" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="G23" s="68" t="s">
+      <c r="G23" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="44" t="s">
+      <c r="H23" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="I23" s="68" t="s">
+      <c r="I23" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="J23" s="44"/>
-      <c r="K23" s="70" t="s">
+      <c r="J23" s="40"/>
+      <c r="K23" s="66" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="90">
-      <c r="A24" s="94"/>
-      <c r="B24" s="73" t="s">
+      <c r="A24" s="101"/>
+      <c r="B24" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="68" t="s">
+      <c r="D24" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="68" t="s">
+      <c r="E24" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="F24" s="68" t="s">
+      <c r="F24" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="G24" s="68" t="s">
+      <c r="G24" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="44" t="s">
+      <c r="H24" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="I24" s="68" t="s">
+      <c r="I24" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="J24" s="44"/>
-      <c r="K24" s="70" t="s">
+      <c r="J24" s="40"/>
+      <c r="K24" s="66" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="90">
-      <c r="A25" s="94"/>
-      <c r="B25" s="73" t="s">
+      <c r="A25" s="101"/>
+      <c r="B25" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="D25" s="68" t="s">
+      <c r="D25" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="68" t="s">
+      <c r="E25" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="F25" s="68" t="s">
+      <c r="F25" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="G25" s="68" t="s">
+      <c r="G25" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="44" t="s">
+      <c r="H25" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="I25" s="68" t="s">
+      <c r="I25" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="J25" s="44"/>
-      <c r="K25" s="70" t="s">
+      <c r="J25" s="40"/>
+      <c r="K25" s="66" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="92.25" customHeight="1">
-      <c r="A26" s="94"/>
-      <c r="B26" s="73" t="s">
+      <c r="A26" s="101"/>
+      <c r="B26" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="68" t="s">
+      <c r="E26" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="68" t="s">
+      <c r="F26" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="G26" s="68" t="s">
+      <c r="G26" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="44" t="s">
+      <c r="H26" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="I26" s="68" t="s">
+      <c r="I26" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="J26" s="44"/>
-      <c r="K26" s="70" t="s">
+      <c r="J26" s="40"/>
+      <c r="K26" s="66" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="126" customHeight="1">
-      <c r="A27" s="95"/>
-      <c r="B27" s="73" t="s">
+      <c r="A27" s="102"/>
+      <c r="B27" s="69" t="s">
         <v>188</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="68" t="s">
+      <c r="E27" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="68" t="s">
+      <c r="F27" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="G27" s="68" t="s">
+      <c r="G27" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="44" t="s">
+      <c r="H27" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="I27" s="68" t="s">
+      <c r="I27" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="J27" s="44"/>
-      <c r="K27" s="70" t="s">
+      <c r="J27" s="40"/>
+      <c r="K27" s="66" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="107.25" customHeight="1">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="68" t="s">
+      <c r="E28" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="68" t="s">
+      <c r="F28" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="G28" s="68" t="s">
+      <c r="G28" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="44" t="s">
+      <c r="H28" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="I28" s="68" t="s">
+      <c r="I28" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="J28" s="68"/>
-      <c r="K28" s="70" t="s">
+      <c r="J28" s="64"/>
+      <c r="K28" s="66" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="147.75" customHeight="1">
-      <c r="A29" s="91"/>
-      <c r="B29" s="73" t="s">
+      <c r="A29" s="98"/>
+      <c r="B29" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="C29" s="74" t="s">
+      <c r="C29" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="68" t="s">
+      <c r="E29" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="68" t="s">
+      <c r="F29" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="G29" s="68" t="s">
+      <c r="G29" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="44" t="s">
+      <c r="H29" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="I29" s="68" t="s">
+      <c r="I29" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="J29" s="68"/>
-      <c r="K29" s="70" t="s">
+      <c r="J29" s="64"/>
+      <c r="K29" s="66" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="90">
-      <c r="A30" s="92"/>
-      <c r="B30" s="73" t="s">
+      <c r="A30" s="99"/>
+      <c r="B30" s="69" t="s">
         <v>292</v>
       </c>
-      <c r="C30" s="74" t="s">
+      <c r="C30" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="68" t="s">
+      <c r="D30" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="68" t="s">
+      <c r="E30" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="F30" s="68" t="s">
+      <c r="F30" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="G30" s="68" t="s">
+      <c r="G30" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="44" t="s">
+      <c r="H30" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="I30" s="72" t="s">
+      <c r="I30" s="68" t="s">
         <v>293</v>
       </c>
-      <c r="J30" s="68"/>
-      <c r="K30" s="70" t="s">
+      <c r="J30" s="64"/>
+      <c r="K30" s="66" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="129.6">
-      <c r="A31" s="35" t="s">
+    <row r="31" spans="1:11" ht="128.4">
+      <c r="A31" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="D31" s="68" t="s">
+      <c r="D31" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="68" t="s">
+      <c r="E31" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="68" t="s">
+      <c r="F31" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="G31" s="68" t="s">
+      <c r="G31" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="74" t="s">
+      <c r="H31" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="I31" s="76" t="s">
+      <c r="I31" s="72" t="s">
         <v>294</v>
       </c>
-      <c r="J31" s="68"/>
-      <c r="K31" s="70" t="s">
+      <c r="J31" s="64"/>
+      <c r="K31" s="66" t="s">
         <v>280</v>
       </c>
     </row>
@@ -8045,7 +8301,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -8064,161 +8320,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="50" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="210" customHeight="1">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="103" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="65" t="s">
+      <c r="J2" s="39"/>
+      <c r="K2" s="61" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="210" customHeight="1">
-      <c r="A3" s="97"/>
-      <c r="B3" s="31" t="s">
+      <c r="A3" s="104"/>
+      <c r="B3" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="65"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="1:11" ht="184.5" customHeight="1">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="66" t="s">
+      <c r="I4" s="28"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="62" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="143.25" customHeight="1">
-      <c r="A5" s="99"/>
-      <c r="B5" s="31" t="s">
+      <c r="A5" s="106"/>
+      <c r="B5" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="67" t="s">
+      <c r="J5" s="38"/>
+      <c r="K5" s="63" t="s">
         <v>283</v>
       </c>
     </row>
@@ -8237,7 +8493,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -8256,641 +8512,641 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="26"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="124.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="62" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="58" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="60">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="107" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="56" t="s">
         <v>286</v>
       </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="62" t="s">
+      <c r="J3" s="42"/>
+      <c r="K3" s="58" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="55.2">
-      <c r="A4" s="101"/>
-      <c r="B4" s="31" t="s">
+      <c r="A4" s="108"/>
+      <c r="B4" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="62" t="s">
+      <c r="J4" s="42"/>
+      <c r="K4" s="58" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="110.4">
-      <c r="A5" s="101"/>
-      <c r="B5" s="31" t="s">
+      <c r="A5" s="108"/>
+      <c r="B5" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="62" t="s">
+      <c r="J5" s="25"/>
+      <c r="K5" s="58" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="55.2">
-      <c r="A6" s="101"/>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="108"/>
+      <c r="B6" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="62" t="s">
+      <c r="J6" s="25"/>
+      <c r="K6" s="58" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="110.4">
-      <c r="A7" s="58"/>
-      <c r="B7" s="31" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="K7" s="62" t="s">
+      <c r="K7" s="58" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="55.2">
-      <c r="A8" s="58"/>
-      <c r="B8" s="31" t="s">
+      <c r="A8" s="54"/>
+      <c r="B8" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="62" t="s">
+      <c r="J8" s="25"/>
+      <c r="K8" s="58" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="110.4">
-      <c r="A9" s="58"/>
-      <c r="B9" s="31" t="s">
+      <c r="A9" s="54"/>
+      <c r="B9" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="62" t="s">
+      <c r="J9" s="25"/>
+      <c r="K9" s="58" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="55.2">
-      <c r="A10" s="58"/>
-      <c r="B10" s="31" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="I10" s="42" t="s">
+      <c r="I10" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="62" t="s">
+      <c r="J10" s="25"/>
+      <c r="K10" s="58" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="82.8">
-      <c r="A11" s="58"/>
-      <c r="B11" s="31" t="s">
+      <c r="A11" s="54"/>
+      <c r="B11" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="62" t="s">
+      <c r="J11" s="25"/>
+      <c r="K11" s="58" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="96.6">
-      <c r="A12" s="58"/>
-      <c r="B12" s="31" t="s">
+      <c r="A12" s="54"/>
+      <c r="B12" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="62" t="s">
+      <c r="J12" s="25"/>
+      <c r="K12" s="58" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="96.6">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="J13" s="46"/>
-      <c r="K13" s="62" t="s">
+      <c r="J13" s="42"/>
+      <c r="K13" s="58" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="110.4">
-      <c r="A14" s="101"/>
-      <c r="B14" s="31" t="s">
+      <c r="A14" s="108"/>
+      <c r="B14" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="J14" s="46"/>
-      <c r="K14" s="62" t="s">
+      <c r="J14" s="42"/>
+      <c r="K14" s="58" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="55.2">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="J15" s="46"/>
-      <c r="K15" s="62" t="s">
+      <c r="J15" s="42"/>
+      <c r="K15" s="58" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="69">
-      <c r="A16" s="101"/>
-      <c r="B16" s="31" t="s">
+      <c r="A16" s="108"/>
+      <c r="B16" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="62" t="s">
+      <c r="J16" s="25"/>
+      <c r="K16" s="58" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="128.4">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="63" t="s">
+      <c r="J17" s="42"/>
+      <c r="K17" s="59" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="55.2">
-      <c r="A18" s="58"/>
-      <c r="B18" s="31" t="s">
+      <c r="A18" s="54"/>
+      <c r="B18" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="I18" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="J18" s="46"/>
-      <c r="K18" s="63" t="s">
+      <c r="J18" s="42"/>
+      <c r="K18" s="59" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="69">
-      <c r="A19" s="58"/>
-      <c r="B19" s="31" t="s">
+      <c r="A19" s="54"/>
+      <c r="B19" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="I19" s="42" t="s">
+      <c r="I19" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="63" t="s">
+      <c r="J19" s="42"/>
+      <c r="K19" s="59" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="82.8">
-      <c r="A20" s="58"/>
-      <c r="B20" s="31" t="s">
+      <c r="A20" s="54"/>
+      <c r="B20" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="I20" s="42" t="s">
+      <c r="I20" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="J20" s="57" t="s">
+      <c r="J20" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="K20" s="64" t="s">
+      <c r="K20" s="60" t="s">
         <v>280</v>
       </c>
     </row>
@@ -8911,12 +9167,373 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.21875" customWidth="1"/>
+    <col min="8" max="8" width="32.77734375" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="30.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.6">
+      <c r="A1" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="150">
+      <c r="A2" s="70" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>318</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>319</v>
+      </c>
+      <c r="H2" s="70" t="s">
+        <v>321</v>
+      </c>
+      <c r="I2" s="70"/>
+      <c r="J2" s="109" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="135">
+      <c r="A3" s="70" t="s">
+        <v>314</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>324</v>
+      </c>
+      <c r="F3" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="H3" s="70" t="s">
+        <v>326</v>
+      </c>
+      <c r="I3" s="70"/>
+      <c r="J3" s="109" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15">
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+    </row>
+    <row r="5" spans="1:10" ht="15">
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+    </row>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="67"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+    </row>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+    </row>
+    <row r="8" spans="1:10" ht="15">
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+    </row>
+    <row r="9" spans="1:10" ht="15">
+      <c r="A9" s="67"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+    </row>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="67"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+    </row>
+    <row r="11" spans="1:10" ht="15">
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" s="67"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+    </row>
+    <row r="13" spans="1:10" ht="15">
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+    </row>
+    <row r="14" spans="1:10" ht="15">
+      <c r="A14" s="67"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+    </row>
+    <row r="15" spans="1:10" ht="15">
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+    </row>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+    </row>
+    <row r="19" spans="1:9" ht="15">
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+    </row>
+    <row r="20" spans="1:9" ht="15">
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+    </row>
+    <row r="21" spans="1:9" ht="15">
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+    </row>
+    <row r="22" spans="1:9" ht="15">
+      <c r="A22" s="67"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+    </row>
+    <row r="23" spans="1:9" ht="15">
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+    </row>
+    <row r="24" spans="1:9" ht="15">
+      <c r="A24" s="67"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+    </row>
+    <row r="25" spans="1:9" ht="15">
+      <c r="A25" s="67"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+    </row>
+    <row r="26" spans="1:9" ht="15">
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/5- Testing/Test Cases.xlsx
+++ b/5- Testing/Test Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="348">
   <si>
     <t>Assigned To</t>
   </si>
@@ -1448,6 +1448,10 @@
   </si>
   <si>
     <t>Percenatge of failed test cases</t>
+  </si>
+  <si>
+    <t>1- browser is available 
+2- Login as Admin successfully</t>
   </si>
 </sst>
 </file>
@@ -2302,6 +2306,27 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2370,27 +2395,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2613,7 +2617,7 @@
   </sheetPr>
   <dimension ref="A1:AE991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -2696,7 +2700,7 @@
       <c r="D2" s="83" t="s">
         <v>340</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="85" t="s">
         <v>334</v>
       </c>
       <c r="F2" s="9">
@@ -2731,7 +2735,7 @@
       <c r="D3" s="83" t="s">
         <v>337</v>
       </c>
-      <c r="E3" s="110" t="s">
+      <c r="E3" s="85" t="s">
         <v>334</v>
       </c>
       <c r="F3" s="9">
@@ -2766,7 +2770,7 @@
       <c r="D4" s="83" t="s">
         <v>341</v>
       </c>
-      <c r="E4" s="110" t="s">
+      <c r="E4" s="85" t="s">
         <v>334</v>
       </c>
       <c r="F4" s="9">
@@ -2801,7 +2805,7 @@
       <c r="D5" s="83" t="s">
         <v>338</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="85" t="s">
         <v>334</v>
       </c>
       <c r="F5" s="9">
@@ -2836,7 +2840,7 @@
       <c r="D6" s="83" t="s">
         <v>343</v>
       </c>
-      <c r="E6" s="110" t="s">
+      <c r="E6" s="85" t="s">
         <v>334</v>
       </c>
       <c r="F6" s="9">
@@ -2871,7 +2875,7 @@
       <c r="D7" s="83" t="s">
         <v>339</v>
       </c>
-      <c r="E7" s="110" t="s">
+      <c r="E7" s="85" t="s">
         <v>334</v>
       </c>
       <c r="F7" s="9">
@@ -2906,7 +2910,7 @@
       <c r="D8" s="83" t="s">
         <v>344</v>
       </c>
-      <c r="E8" s="110" t="s">
+      <c r="E8" s="85" t="s">
         <v>334</v>
       </c>
       <c r="F8" s="9">
@@ -2941,7 +2945,7 @@
       <c r="D9" s="83" t="s">
         <v>341</v>
       </c>
-      <c r="E9" s="110" t="s">
+      <c r="E9" s="85" t="s">
         <v>334</v>
       </c>
       <c r="F9" s="9">
@@ -2968,7 +2972,7 @@
       <c r="E10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="111">
+      <c r="F10" s="86">
         <f>SUM(F2:F9)</f>
         <v>80</v>
       </c>
@@ -2995,17 +2999,17 @@
     </row>
     <row r="11" spans="1:31" ht="61.2" customHeight="1">
       <c r="A11" s="10"/>
-      <c r="E11" s="112" t="s">
+      <c r="E11" s="87" t="s">
         <v>346</v>
       </c>
-      <c r="F11" s="115">
+      <c r="F11" s="90">
         <f>(H10/G10)*100</f>
         <v>97.5</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="74.400000000000006" customHeight="1">
       <c r="A12" s="10"/>
-      <c r="E12" s="113" t="s">
+      <c r="E12" s="88" t="s">
         <v>345</v>
       </c>
       <c r="F12" s="69">
@@ -3014,7 +3018,7 @@
       </c>
     </row>
     <row r="13" spans="1:31" ht="82.2" customHeight="1">
-      <c r="E13" s="114" t="s">
+      <c r="E13" s="89" t="s">
         <v>345</v>
       </c>
       <c r="F13" s="69">
@@ -5965,7 +5969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="95" workbookViewId="0">
+    <sheetView topLeftCell="D13" zoomScale="95" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C15"/>
     </sheetView>
   </sheetViews>
@@ -6023,7 +6027,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="207" customHeight="1">
-      <c r="A2" s="84"/>
+      <c r="A2" s="91"/>
       <c r="B2" s="30" t="s">
         <v>25</v>
       </c>
@@ -6057,7 +6061,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="175.5" customHeight="1">
-      <c r="A3" s="85"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="30" t="s">
         <v>24</v>
       </c>
@@ -6091,8 +6095,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="124.2">
-      <c r="A4" s="85"/>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="95" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="27" t="s">
@@ -6125,8 +6129,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="124.2">
-      <c r="A5" s="85"/>
-      <c r="B5" s="89"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="27" t="s">
         <v>31</v>
       </c>
@@ -6157,8 +6161,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="124.2">
-      <c r="A6" s="85"/>
-      <c r="B6" s="89"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="27" t="s">
         <v>111</v>
       </c>
@@ -6189,8 +6193,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="124.2">
-      <c r="A7" s="85"/>
-      <c r="B7" s="89"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="27" t="s">
         <v>112</v>
       </c>
@@ -6221,8 +6225,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="124.2">
-      <c r="A8" s="85"/>
-      <c r="B8" s="89"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="27" t="s">
         <v>113</v>
       </c>
@@ -6253,8 +6257,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="162" customHeight="1">
-      <c r="A9" s="85"/>
-      <c r="B9" s="89"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="27" t="s">
         <v>114</v>
       </c>
@@ -6285,8 +6289,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="183" customHeight="1">
-      <c r="A10" s="85"/>
-      <c r="B10" s="90" t="s">
+      <c r="A10" s="92"/>
+      <c r="B10" s="97" t="s">
         <v>92</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -6317,8 +6321,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="183" customHeight="1">
-      <c r="A11" s="85"/>
-      <c r="B11" s="91"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="27" t="s">
         <v>118</v>
       </c>
@@ -6347,8 +6351,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="183" customHeight="1">
-      <c r="A12" s="85"/>
-      <c r="B12" s="91"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="27" t="s">
         <v>119</v>
       </c>
@@ -6377,8 +6381,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="157.5" customHeight="1">
-      <c r="A13" s="85"/>
-      <c r="B13" s="92"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="27" t="s">
         <v>120</v>
       </c>
@@ -6407,7 +6411,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="128.4">
-      <c r="A14" s="85"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="31" t="s">
         <v>43</v>
       </c>
@@ -6441,7 +6445,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="83.4">
-      <c r="A15" s="86"/>
+      <c r="A15" s="93"/>
       <c r="B15" s="33" t="s">
         <v>51</v>
       </c>
@@ -6473,68 +6477,68 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="85"/>
+      <c r="A16" s="92"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="85"/>
+      <c r="A17" s="92"/>
     </row>
     <row r="18" spans="1:4" ht="13.8">
-      <c r="A18" s="85"/>
+      <c r="A18" s="92"/>
       <c r="D18" s="44"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="85"/>
+      <c r="A19" s="92"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="85"/>
+      <c r="A20" s="92"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="85"/>
+      <c r="A21" s="92"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="85"/>
+      <c r="A22" s="92"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="85"/>
+      <c r="A23" s="92"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="85"/>
+      <c r="A24" s="92"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="85"/>
+      <c r="A25" s="92"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="85"/>
+      <c r="A26" s="92"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="85"/>
+      <c r="A27" s="92"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="85"/>
+      <c r="A28" s="92"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="85"/>
+      <c r="A29" s="92"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="85"/>
+      <c r="A30" s="92"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="85"/>
+      <c r="A31" s="92"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="85"/>
+      <c r="A32" s="92"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="85"/>
+      <c r="A33" s="92"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="85"/>
+      <c r="A34" s="92"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="85"/>
+      <c r="A35" s="92"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="87"/>
+      <c r="A36" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6608,7 +6612,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="207.75" customHeight="1">
-      <c r="A2" s="84"/>
+      <c r="A2" s="91"/>
       <c r="B2" s="30" t="s">
         <v>25</v>
       </c>
@@ -6642,7 +6646,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="220.5" customHeight="1">
-      <c r="A3" s="85"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="79" t="s">
         <v>51</v>
       </c>
@@ -6676,88 +6680,88 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="409.5" customHeight="1">
-      <c r="A4" s="85"/>
+      <c r="A4" s="92"/>
     </row>
     <row r="5" spans="1:12" ht="409.5" customHeight="1">
-      <c r="A5" s="85"/>
+      <c r="A5" s="92"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="85"/>
+      <c r="A6" s="92"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="85"/>
+      <c r="A7" s="92"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="85"/>
+      <c r="A8" s="92"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="85"/>
+      <c r="A9" s="92"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="85"/>
+      <c r="A10" s="92"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="85"/>
+      <c r="A11" s="92"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="85"/>
+      <c r="A12" s="92"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="85"/>
+      <c r="A13" s="92"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="85"/>
+      <c r="A14" s="92"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="85"/>
+      <c r="A15" s="92"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="85"/>
+      <c r="A16" s="92"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="85"/>
+      <c r="A17" s="92"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="85"/>
+      <c r="A18" s="92"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="85"/>
+      <c r="A19" s="92"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="85"/>
+      <c r="A20" s="92"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="85"/>
+      <c r="A21" s="92"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="85"/>
+      <c r="A22" s="92"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="85"/>
+      <c r="A23" s="92"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="85"/>
+      <c r="A24" s="92"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="85"/>
+      <c r="A25" s="92"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="85"/>
+      <c r="A26" s="92"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="85"/>
+      <c r="A27" s="92"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="85"/>
+      <c r="A28" s="92"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="85"/>
+      <c r="A29" s="92"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="85"/>
+      <c r="A30" s="92"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="87"/>
+      <c r="A31" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6828,7 +6832,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="213" customHeight="1">
-      <c r="A2" s="84"/>
+      <c r="A2" s="91"/>
       <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
@@ -6862,91 +6866,91 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="85"/>
+      <c r="A3" s="92"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="85"/>
+      <c r="A4" s="92"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="85"/>
+      <c r="A5" s="92"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="85"/>
+      <c r="A6" s="92"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="85"/>
+      <c r="A7" s="92"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="85"/>
+      <c r="A8" s="92"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="85"/>
+      <c r="A9" s="92"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="85"/>
+      <c r="A10" s="92"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="85"/>
+      <c r="A11" s="92"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="85"/>
+      <c r="A12" s="92"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="85"/>
+      <c r="A13" s="92"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="85"/>
+      <c r="A14" s="92"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="85"/>
+      <c r="A15" s="92"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="85"/>
+      <c r="A16" s="92"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="85"/>
+      <c r="A17" s="92"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="85"/>
+      <c r="A18" s="92"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="85"/>
+      <c r="A19" s="92"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="85"/>
+      <c r="A20" s="92"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="85"/>
+      <c r="A21" s="92"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="85"/>
+      <c r="A22" s="92"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="85"/>
+      <c r="A23" s="92"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="85"/>
+      <c r="A24" s="92"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="85"/>
+      <c r="A25" s="92"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="85"/>
+      <c r="A26" s="92"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="85"/>
+      <c r="A27" s="92"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="85"/>
+      <c r="A28" s="92"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="85"/>
+      <c r="A29" s="92"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="85"/>
+      <c r="A30" s="92"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="87"/>
+      <c r="A31" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7014,7 +7018,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="179.25" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="95" t="s">
         <v>67</v>
       </c>
       <c r="B2" s="69" t="s">
@@ -7047,7 +7051,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="148.5" customHeight="1">
-      <c r="A3" s="89"/>
+      <c r="A3" s="96"/>
       <c r="B3" s="69" t="s">
         <v>69</v>
       </c>
@@ -7078,7 +7082,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="135">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="95" t="s">
         <v>72</v>
       </c>
       <c r="B4" s="69" t="s">
@@ -7111,7 +7115,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="135">
-      <c r="A5" s="89"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="69" t="s">
         <v>77</v>
       </c>
@@ -7142,7 +7146,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="135">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="95" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="69" t="s">
@@ -7175,7 +7179,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="135">
-      <c r="A7" s="89"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="69" t="s">
         <v>82</v>
       </c>
@@ -7206,7 +7210,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="135">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="95" t="s">
         <v>84</v>
       </c>
       <c r="B8" s="69" t="s">
@@ -7239,7 +7243,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="135">
-      <c r="A9" s="89"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="69" t="s">
         <v>87</v>
       </c>
@@ -7372,7 +7376,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="239.25" customHeight="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="100" t="s">
         <v>127</v>
       </c>
       <c r="B3" s="69" t="s">
@@ -7405,7 +7409,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="239.25" customHeight="1">
-      <c r="A4" s="94"/>
+      <c r="A4" s="101"/>
       <c r="B4" s="69" t="s">
         <v>161</v>
       </c>
@@ -7436,7 +7440,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="239.25" customHeight="1">
-      <c r="A5" s="94"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="69" t="s">
         <v>163</v>
       </c>
@@ -7467,7 +7471,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="221.25" customHeight="1">
-      <c r="A6" s="94"/>
+      <c r="A6" s="101"/>
       <c r="B6" s="69" t="s">
         <v>164</v>
       </c>
@@ -7684,7 +7688,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="233.25" customHeight="1">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="102" t="s">
         <v>139</v>
       </c>
       <c r="B13" s="69" t="s">
@@ -7717,7 +7721,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="207.75" customHeight="1">
-      <c r="A14" s="96"/>
+      <c r="A14" s="103"/>
       <c r="B14" s="69" t="s">
         <v>172</v>
       </c>
@@ -7845,7 +7849,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="71.25" customHeight="1">
-      <c r="A18" s="100" t="s">
+      <c r="A18" s="107" t="s">
         <v>127</v>
       </c>
       <c r="B18" s="69" t="s">
@@ -7878,7 +7882,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="90">
-      <c r="A19" s="101"/>
+      <c r="A19" s="108"/>
       <c r="B19" s="69" t="s">
         <v>180</v>
       </c>
@@ -7909,7 +7913,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="90">
-      <c r="A20" s="101"/>
+      <c r="A20" s="108"/>
       <c r="B20" s="69" t="s">
         <v>181</v>
       </c>
@@ -7940,7 +7944,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="90">
-      <c r="A21" s="101"/>
+      <c r="A21" s="108"/>
       <c r="B21" s="69" t="s">
         <v>182</v>
       </c>
@@ -7971,7 +7975,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="90">
-      <c r="A22" s="101"/>
+      <c r="A22" s="108"/>
       <c r="B22" s="69" t="s">
         <v>183</v>
       </c>
@@ -8002,7 +8006,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="90">
-      <c r="A23" s="101"/>
+      <c r="A23" s="108"/>
       <c r="B23" s="69" t="s">
         <v>184</v>
       </c>
@@ -8033,7 +8037,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="90">
-      <c r="A24" s="101"/>
+      <c r="A24" s="108"/>
       <c r="B24" s="69" t="s">
         <v>185</v>
       </c>
@@ -8064,7 +8068,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="90">
-      <c r="A25" s="101"/>
+      <c r="A25" s="108"/>
       <c r="B25" s="69" t="s">
         <v>186</v>
       </c>
@@ -8095,7 +8099,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="92.25" customHeight="1">
-      <c r="A26" s="101"/>
+      <c r="A26" s="108"/>
       <c r="B26" s="69" t="s">
         <v>187</v>
       </c>
@@ -8126,7 +8130,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="126" customHeight="1">
-      <c r="A27" s="102"/>
+      <c r="A27" s="109"/>
       <c r="B27" s="69" t="s">
         <v>188</v>
       </c>
@@ -8157,7 +8161,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="107.25" customHeight="1">
-      <c r="A28" s="97" t="s">
+      <c r="A28" s="104" t="s">
         <v>193</v>
       </c>
       <c r="B28" s="69" t="s">
@@ -8190,7 +8194,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="147.75" customHeight="1">
-      <c r="A29" s="98"/>
+      <c r="A29" s="105"/>
       <c r="B29" s="69" t="s">
         <v>190</v>
       </c>
@@ -8221,7 +8225,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="90">
-      <c r="A30" s="99"/>
+      <c r="A30" s="106"/>
       <c r="B30" s="69" t="s">
         <v>292</v>
       </c>
@@ -8300,8 +8304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -8355,7 +8359,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="210" customHeight="1">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="110" t="s">
         <v>198</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -8388,7 +8392,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="210" customHeight="1">
-      <c r="A3" s="104"/>
+      <c r="A3" s="111"/>
       <c r="B3" s="27" t="s">
         <v>204</v>
       </c>
@@ -8417,7 +8421,7 @@
       <c r="K3" s="61"/>
     </row>
     <row r="4" spans="1:11" ht="184.5" customHeight="1">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="112" t="s">
         <v>201</v>
       </c>
       <c r="B4" s="27" t="s">
@@ -8448,7 +8452,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="143.25" customHeight="1">
-      <c r="A5" s="106"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="27" t="s">
         <v>209</v>
       </c>
@@ -8459,7 +8463,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>52</v>
+        <v>347</v>
       </c>
       <c r="F5" s="28" t="s">
         <v>205</v>
@@ -8581,7 +8585,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="60">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="114" t="s">
         <v>127</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -8614,7 +8618,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="55.2">
-      <c r="A4" s="108"/>
+      <c r="A4" s="115"/>
       <c r="B4" s="27" t="s">
         <v>220</v>
       </c>
@@ -8645,7 +8649,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="110.4">
-      <c r="A5" s="108"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="27" t="s">
         <v>224</v>
       </c>
@@ -8676,7 +8680,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="55.2">
-      <c r="A6" s="108"/>
+      <c r="A6" s="115"/>
       <c r="B6" s="27" t="s">
         <v>228</v>
       </c>
@@ -8895,7 +8899,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="96.6">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="115" t="s">
         <v>139</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -8928,7 +8932,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="110.4">
-      <c r="A14" s="108"/>
+      <c r="A14" s="115"/>
       <c r="B14" s="27" t="s">
         <v>256</v>
       </c>
@@ -8959,7 +8963,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="55.2">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="115" t="s">
         <v>84</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -8992,7 +8996,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="69">
-      <c r="A16" s="108"/>
+      <c r="A16" s="115"/>
       <c r="B16" s="27" t="s">
         <v>263</v>
       </c>
@@ -9245,7 +9249,7 @@
         <v>321</v>
       </c>
       <c r="I2" s="70"/>
-      <c r="J2" s="109" t="s">
+      <c r="J2" s="84" t="s">
         <v>320</v>
       </c>
     </row>
@@ -9275,7 +9279,7 @@
         <v>326</v>
       </c>
       <c r="I3" s="70"/>
-      <c r="J3" s="109" t="s">
+      <c r="J3" s="84" t="s">
         <v>280</v>
       </c>
     </row>
